--- a/Querys/DATOS.xlsx
+++ b/Querys/DATOS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Usuarios\Tiinchho\Documents\001-MiPC\002_Unsam\Bases de Datos\TP INTEGRADOR\BasesDeDatos-Backend\Querys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF91EF65-6748-4E11-9728-73DB26162353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{622DD861-B9D5-4F1A-B328-9D521FE3F0EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="1" activeTab="13" xr2:uid="{2A2E706C-3B84-4A7F-A599-36F8B972930A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="10" xr2:uid="{2A2E706C-3B84-4A7F-A599-36F8B972930A}"/>
   </bookViews>
   <sheets>
     <sheet name="VISUALIZACION_ONLINE" sheetId="1" r:id="rId1"/>
@@ -540,14 +540,7 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -572,7 +565,14 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -707,13 +707,13 @@
     <tableColumn id="1" xr3:uid="{CDAE782C-B941-4645-B2B9-5904F32A4965}" name="ID_REPLICA"/>
     <tableColumn id="2" xr3:uid="{AFB69C66-27D9-4B70-9BA7-713D6D16F25C}" name="DETALLE"/>
     <tableColumn id="3" xr3:uid="{C4738AC0-45D9-424A-B2D0-B6F862434CB3}" name="APODO"/>
-    <tableColumn id="4" xr3:uid="{AB7AC2AC-FF48-4F0B-A585-018BB6EE0625}" name="ID_POSEE_REPLICA" dataDxfId="14">
+    <tableColumn id="4" xr3:uid="{AB7AC2AC-FF48-4F0B-A585-018BB6EE0625}" name="ID_POSEE_REPLICA" dataDxfId="13">
       <calculatedColumnFormula>IF(RANDBETWEEN(0,10)=0,"Null",RANDBETWEEN(1,10))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{AA2FF028-6E6A-40E2-A02D-C4DE995295E9}" name="ID_COMENTARIO" dataDxfId="13">
+    <tableColumn id="5" xr3:uid="{AA2FF028-6E6A-40E2-A02D-C4DE995295E9}" name="ID_COMENTARIO" dataDxfId="12">
       <calculatedColumnFormula>RANDBETWEEN(1,100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{5816FFB9-825E-4D2D-AC00-0A30FB3C739C}" name="INSERT" dataDxfId="12">
+    <tableColumn id="6" xr3:uid="{5816FFB9-825E-4D2D-AC00-0A30FB3C739C}" name="INSERT" dataDxfId="11">
       <calculatedColumnFormula>"INSERT REPLICA(ID_REPLICA,DETALLE,APODO,ID_POSEE_REPLICA,ID_COMENTARIO) VALUES ("&amp;Tabla10[[#This Row],[ID_REPLICA]]&amp;",'"&amp;Tabla10[[#This Row],[DETALLE]]&amp;"','"&amp;Tabla10[[#This Row],[APODO]]&amp;"',"&amp;Tabla10[[#This Row],[ID_POSEE_REPLICA]]&amp;","&amp;Tabla10[[#This Row],[ID_COMENTARIO]]&amp;");"</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -726,11 +726,11 @@
   <autoFilter ref="A1:C51" xr:uid="{3379518B-3022-4B00-86F8-CB164BEE1C0F}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{1051F0EF-2857-47DC-B744-ACDF6A57C7F2}" name="ID_VISUALIZACION"/>
-    <tableColumn id="2" xr3:uid="{2512066E-D6DD-4014-B17D-36AF9CF621FB}" name="ID_CONTENIDO" dataDxfId="11">
+    <tableColumn id="2" xr3:uid="{2512066E-D6DD-4014-B17D-36AF9CF621FB}" name="ID_CONTENIDO" dataDxfId="10">
       <calculatedColumnFormula>RANDBETWEEN(1,26)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{6CCBC4ED-A5AC-4226-B597-C93CE090E7E3}" name="INSERT" dataDxfId="1">
-      <calculatedColumnFormula>"INSERT MIRA(ID_VISUALIZACION,ID_CONTENIDO) VALUES(" &amp;Tabla11[[#This Row],[ID_VISUALIZACION]]&amp;","&amp;Tabla11[[#This Row],[ID_CONTENIDO]]&amp;");"</calculatedColumnFormula>
+    <tableColumn id="4" xr3:uid="{6CCBC4ED-A5AC-4226-B597-C93CE090E7E3}" name="INSERT" dataDxfId="0">
+      <calculatedColumnFormula>"INSERT ES_REPRODUCIDO(ID_VISUALIZACION,ID_CONTENIDO) VALUES(" &amp;Tabla11[[#This Row],[ID_VISUALIZACION]]&amp;","&amp;Tabla11[[#This Row],[ID_CONTENIDO]]&amp;");"</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -745,8 +745,8 @@
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{8C6036F3-99CE-4C2B-8878-0F6C232EEC7D}" name="ID_CONTENIDO"/>
-    <tableColumn id="2" xr3:uid="{EBB1CF70-BDD3-428C-8377-AFCD014C3F17}" name="ID_CATEGORIA" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{8FD6EB93-88FF-4596-B90F-C8002E4299B9}" name="INSERT" dataDxfId="9">
+    <tableColumn id="2" xr3:uid="{EBB1CF70-BDD3-428C-8377-AFCD014C3F17}" name="ID_CATEGORIA" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{8FD6EB93-88FF-4596-B90F-C8002E4299B9}" name="INSERT" dataDxfId="7">
       <calculatedColumnFormula>"INSERT SE_CLASIFICA_EN(ID_CONTENIDO,ID_CATEGORIA) VALUES ("&amp;Tabla12[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla12[[#This Row],[ID_CATEGORIA]]&amp;");"</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -759,7 +759,7 @@
   <autoFilter ref="A1:H21" xr:uid="{20E9D028-7F79-4859-9A78-FBBB59EA06C4}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{DBB5330D-20E8-49FB-9BAF-0C42E6A4E696}" name="ID_RTA_ENCUESTA"/>
-    <tableColumn id="2" xr3:uid="{2D14711D-9B73-4813-8492-E7611E249483}" name="PUNTAJE_GLOBAL" dataDxfId="8">
+    <tableColumn id="2" xr3:uid="{2D14711D-9B73-4813-8492-E7611E249483}" name="PUNTAJE_GLOBAL" dataDxfId="6">
       <calculatedColumnFormula>RANDBETWEEN(5,10)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{F78F8FAC-EACB-41B8-926A-388CCEB0B961}" name="RESUMEN_POSITIVO_PLATAFORMA"/>
@@ -769,7 +769,7 @@
     <tableColumn id="7" xr3:uid="{54461AE7-D715-4A07-A545-C2629B93D4E7}" name="ID_DESCARGA">
       <calculatedColumnFormula>Tabla7[[#This Row],[ID_DESCARGA]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{1AF23F4A-9836-4D68-A3F1-27A5FABF3BE8}" name="INSERTA" dataDxfId="0">
+    <tableColumn id="9" xr3:uid="{1AF23F4A-9836-4D68-A3F1-27A5FABF3BE8}" name="INSERTA" dataDxfId="5">
       <calculatedColumnFormula>"INSERT RTA_ENCUESTA(ID_RTA_ENCUESTA,PUNTAJE_GLOBAL,RESUMEN_POSITIVO_PLATAFORMA,RESUMEN_NEGATIVO_PLATAFORMA,RESUMEN_POSITIVO_DESCARGA,RESUMEN_NEGATIVO_DESCARGA,ID_DESCARGA) VALUES("&amp;Tabla13[[#This Row],[ID_RTA_ENCUESTA]]&amp;","&amp;Tabla13[[#This Row],[PUNTAJE_GLOBAL]]&amp;",'"&amp;Tabla13[[#This Row],[RESUMEN_POSITIVO_PLATAFORMA]]&amp;"','"&amp;Tabla13[[#This Row],[RESUMEN_NEGATIVO_PLATAFORMA]]&amp;"','"&amp;Tabla13[[#This Row],[RESUMEN_POSITIVO_DESCARGA]]&amp;"','"&amp;Tabla13[[#This Row],[RESUMEN_NEGATIVO_DESCARGA]]&amp;"',"&amp;Tabla13[[#This Row],[ID_DESCARGA]]&amp;");"</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -784,9 +784,9 @@
     <sortCondition ref="A1:A32"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{77A59C35-C6DE-4B2B-A7DB-0BCA0D5BF507}" name="ID_CONTENIDO" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{1B7A71D5-BB54-4B34-83BE-BF6BD4ED0C2B}" name="ID_DESCARGA" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{04EE9468-F4AC-4585-90C1-FE80FBED2615}" name="INSERT" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{77A59C35-C6DE-4B2B-A7DB-0BCA0D5BF507}" name="ID_CONTENIDO" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{1B7A71D5-BB54-4B34-83BE-BF6BD4ED0C2B}" name="ID_DESCARGA" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{04EE9468-F4AC-4585-90C1-FE80FBED2615}" name="INSERT" dataDxfId="1">
       <calculatedColumnFormula>"INSERT ES_DESCARGADO(ID_CONTENIDO,ID_DESCARGA) VALUES("&amp;Tabla14[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla14[[#This Row],[ID_DESCARGA]]&amp;");"</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -919,16 +919,16 @@
     <tableColumn id="1" xr3:uid="{756166B6-F514-4EDE-BEF6-648D6F318F71}" name="ID_COMENTARIO"/>
     <tableColumn id="2" xr3:uid="{5312B03E-67AE-4516-AFE0-693B5508E250}" name="TITULO"/>
     <tableColumn id="3" xr3:uid="{0859D3C9-D4D3-4201-88AD-8350B066A2DC}" name="DESCRIPCION"/>
-    <tableColumn id="4" xr3:uid="{65D310BA-B9B5-4E07-9019-239BAEDBBDF2}" name="APODO" dataDxfId="2">
+    <tableColumn id="4" xr3:uid="{65D310BA-B9B5-4E07-9019-239BAEDBBDF2}" name="APODO" dataDxfId="17">
       <calculatedColumnFormula>VLOOKUP(Tabla9[[#This Row],[ID_USUARIO]],Tabla5[[ID_USUARIO ]:[APELLIDO]],3,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{D9F076A3-0409-4357-A00A-7452F3018AFE}" name="ID_CONTENIDO" dataDxfId="17">
+    <tableColumn id="5" xr3:uid="{D9F076A3-0409-4357-A00A-7452F3018AFE}" name="ID_CONTENIDO" dataDxfId="16">
       <calculatedColumnFormula>RANDBETWEEN(1,50)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{0D20A7B4-FB8E-45AB-B4E0-B1773FDBF1DB}" name="ID_USUARIO" dataDxfId="16">
+    <tableColumn id="6" xr3:uid="{0D20A7B4-FB8E-45AB-B4E0-B1773FDBF1DB}" name="ID_USUARIO" dataDxfId="15">
       <calculatedColumnFormula>RANDBETWEEN(1,10)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{E52C40C1-6B93-4C2B-8534-B4AA9C15D676}" name="INSERT" dataDxfId="15">
+    <tableColumn id="7" xr3:uid="{E52C40C1-6B93-4C2B-8534-B4AA9C15D676}" name="INSERT" dataDxfId="14">
       <calculatedColumnFormula>"INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES("&amp;A2&amp;",'"&amp;B2&amp;"','"&amp;Tabla9[[#This Row],[DESCRIPCION]]&amp;"','"&amp;Tabla9[[#This Row],[APODO]]&amp;"',"&amp;Tabla9[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla9[[#This Row],[ID_USUARIO]]&amp;");"</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1279,23 +1279,23 @@
       </c>
       <c r="C2" s="2">
         <f t="shared" ref="C2:C33" ca="1" si="0">RANDBETWEEN(DATE(2020,12,1),DATE(2022,12,31))</f>
-        <v>44295</v>
+        <v>44921</v>
       </c>
       <c r="D2" s="2">
         <f ca="1">+Tabla1[[#This Row],[FECHA_INICIO]]+1</f>
-        <v>44296</v>
+        <v>44922</v>
       </c>
       <c r="E2" s="3">
         <f t="shared" ref="E2:E33" ca="1" si="1">RAND()</f>
-        <v>0.2272017252410482</v>
+        <v>0.66435334175916816</v>
       </c>
       <c r="F2" s="3">
         <f ca="1">+Tabla1[[#This Row],[HORA_INICIO]]+0.000694444444444444</f>
-        <v>0.22789616968549264</v>
+        <v>0.6650477862036126</v>
       </c>
       <c r="G2" t="str">
         <f ca="1">"INSERT INTO VISUALIZACION_ONLINE("&amp;Tabla1[[#Headers],[ID_VISUALIZACION]]&amp;","&amp;Tabla1[[#Headers],[SISTEMA_OPERATIVO_USADO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_FIN]]&amp;","&amp;Tabla1[[#Headers],[HORA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[HORA_FIN]]&amp;") VALUES("&amp;Tabla1[[#This Row],[ID_VISUALIZACION]]&amp;",'"&amp;Tabla1[[#This Row],[SISTEMA_OPERATIVO_USADO]]&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_INICIO]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_FIN]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_INICIO]],"HH:MM:SS")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_FIN]],"HH:MM:SS")&amp;"');"</f>
-        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(1,'WINDOWS','2021-04-09','2021-04-10','05:27:10','05:28:10');</v>
+        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(1,'WINDOWS','2022-12-26','2022-12-27','15:56:40','15:57:40');</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -1307,23 +1307,23 @@
       </c>
       <c r="C3" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44514</v>
+        <v>44178</v>
       </c>
       <c r="D3" s="2">
         <f ca="1">+Tabla1[[#This Row],[FECHA_INICIO]]+1</f>
-        <v>44515</v>
+        <v>44179</v>
       </c>
       <c r="E3" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.96134841493377876</v>
+        <v>0.72347220525040368</v>
       </c>
       <c r="F3" s="3">
         <f ca="1">+Tabla1[[#This Row],[HORA_INICIO]]+0.000694444444444444</f>
-        <v>0.9620428593782232</v>
+        <v>0.72416664969484812</v>
       </c>
       <c r="G3" t="str">
         <f ca="1">"INSERT INTO VISUALIZACION_ONLINE("&amp;Tabla1[[#Headers],[ID_VISUALIZACION]]&amp;","&amp;Tabla1[[#Headers],[SISTEMA_OPERATIVO_USADO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_FIN]]&amp;","&amp;Tabla1[[#Headers],[HORA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[HORA_FIN]]&amp;") VALUES("&amp;Tabla1[[#This Row],[ID_VISUALIZACION]]&amp;",'"&amp;Tabla1[[#This Row],[SISTEMA_OPERATIVO_USADO]]&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_INICIO]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_FIN]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_INICIO]],"HH:MM:SS")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_FIN]],"HH:MM:SS")&amp;"');"</f>
-        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(2,'LINUX','2021-11-14','2021-11-15','23:04:21','23:05:21');</v>
+        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(2,'LINUX','2020-12-13','2020-12-14','17:21:48','17:22:48');</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -1335,23 +1335,23 @@
       </c>
       <c r="C4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44682</v>
+        <v>44263</v>
       </c>
       <c r="D4" s="2">
         <f ca="1">+Tabla1[[#This Row],[FECHA_INICIO]]+1</f>
-        <v>44683</v>
+        <v>44264</v>
       </c>
       <c r="E4" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.62878854330008849</v>
+        <v>0.80721799672722894</v>
       </c>
       <c r="F4" s="3">
         <f ca="1">+Tabla1[[#This Row],[HORA_INICIO]]+0.000694444444444444</f>
-        <v>0.62948298774453293</v>
+        <v>0.80791244117167338</v>
       </c>
       <c r="G4" t="str">
         <f ca="1">"INSERT INTO VISUALIZACION_ONLINE("&amp;Tabla1[[#Headers],[ID_VISUALIZACION]]&amp;","&amp;Tabla1[[#Headers],[SISTEMA_OPERATIVO_USADO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_FIN]]&amp;","&amp;Tabla1[[#Headers],[HORA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[HORA_FIN]]&amp;") VALUES("&amp;Tabla1[[#This Row],[ID_VISUALIZACION]]&amp;",'"&amp;Tabla1[[#This Row],[SISTEMA_OPERATIVO_USADO]]&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_INICIO]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_FIN]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_INICIO]],"HH:MM:SS")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_FIN]],"HH:MM:SS")&amp;"');"</f>
-        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(3,'WINDOWS','2022-05-01','2022-05-02','15:05:27','15:06:27');</v>
+        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(3,'WINDOWS','2021-03-08','2021-03-09','19:22:24','19:23:24');</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -1363,23 +1363,23 @@
       </c>
       <c r="C5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44583</v>
+        <v>44685</v>
       </c>
       <c r="D5" s="2">
         <f ca="1">+Tabla1[[#This Row],[FECHA_INICIO]]+1</f>
-        <v>44584</v>
+        <v>44686</v>
       </c>
       <c r="E5" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.10395547343587941</v>
+        <v>0.56907177187178604</v>
       </c>
       <c r="F5" s="3">
         <f ca="1">+Tabla1[[#This Row],[HORA_INICIO]]+0.000694444444444444</f>
-        <v>0.10464991788032385</v>
+        <v>0.56976621631623048</v>
       </c>
       <c r="G5" t="str">
         <f ca="1">"INSERT INTO VISUALIZACION_ONLINE("&amp;Tabla1[[#Headers],[ID_VISUALIZACION]]&amp;","&amp;Tabla1[[#Headers],[SISTEMA_OPERATIVO_USADO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_FIN]]&amp;","&amp;Tabla1[[#Headers],[HORA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[HORA_FIN]]&amp;") VALUES("&amp;Tabla1[[#This Row],[ID_VISUALIZACION]]&amp;",'"&amp;Tabla1[[#This Row],[SISTEMA_OPERATIVO_USADO]]&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_INICIO]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_FIN]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_INICIO]],"HH:MM:SS")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_FIN]],"HH:MM:SS")&amp;"');"</f>
-        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(4,'WINDOWS','2022-01-22','2022-01-23','02:29:42','02:30:42');</v>
+        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(4,'WINDOWS','2022-05-04','2022-05-05','13:39:28','13:40:28');</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -1391,23 +1391,23 @@
       </c>
       <c r="C6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44663</v>
+        <v>44866</v>
       </c>
       <c r="D6" s="2">
         <f ca="1">+Tabla1[[#This Row],[FECHA_INICIO]]+1</f>
-        <v>44664</v>
+        <v>44867</v>
       </c>
       <c r="E6" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.70351750143435987</v>
+        <v>0.43116681797470635</v>
       </c>
       <c r="F6" s="3">
         <f ca="1">+Tabla1[[#This Row],[HORA_INICIO]]+0.000694444444444444</f>
-        <v>0.70421194587880431</v>
+        <v>0.43186126241915079</v>
       </c>
       <c r="G6" t="str">
         <f ca="1">"INSERT INTO VISUALIZACION_ONLINE("&amp;Tabla1[[#Headers],[ID_VISUALIZACION]]&amp;","&amp;Tabla1[[#Headers],[SISTEMA_OPERATIVO_USADO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_FIN]]&amp;","&amp;Tabla1[[#Headers],[HORA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[HORA_FIN]]&amp;") VALUES("&amp;Tabla1[[#This Row],[ID_VISUALIZACION]]&amp;",'"&amp;Tabla1[[#This Row],[SISTEMA_OPERATIVO_USADO]]&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_INICIO]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_FIN]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_INICIO]],"HH:MM:SS")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_FIN]],"HH:MM:SS")&amp;"');"</f>
-        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(5,'WINDOWS','2022-04-12','2022-04-13','16:53:04','16:54:04');</v>
+        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(5,'WINDOWS','2022-11-01','2022-11-02','10:20:53','10:21:53');</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -1419,23 +1419,23 @@
       </c>
       <c r="C7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44860</v>
+        <v>44410</v>
       </c>
       <c r="D7" s="2">
         <f ca="1">+Tabla1[[#This Row],[FECHA_INICIO]]+1</f>
-        <v>44861</v>
+        <v>44411</v>
       </c>
       <c r="E7" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.27847658173754408</v>
+        <v>8.9082310148868138E-2</v>
       </c>
       <c r="F7" s="3">
         <f ca="1">+Tabla1[[#This Row],[HORA_INICIO]]+0.000694444444444444</f>
-        <v>0.27917102618198852</v>
+        <v>8.977675459331258E-2</v>
       </c>
       <c r="G7" t="str">
         <f ca="1">"INSERT INTO VISUALIZACION_ONLINE("&amp;Tabla1[[#Headers],[ID_VISUALIZACION]]&amp;","&amp;Tabla1[[#Headers],[SISTEMA_OPERATIVO_USADO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_FIN]]&amp;","&amp;Tabla1[[#Headers],[HORA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[HORA_FIN]]&amp;") VALUES("&amp;Tabla1[[#This Row],[ID_VISUALIZACION]]&amp;",'"&amp;Tabla1[[#This Row],[SISTEMA_OPERATIVO_USADO]]&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_INICIO]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_FIN]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_INICIO]],"HH:MM:SS")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_FIN]],"HH:MM:SS")&amp;"');"</f>
-        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(6,'LINUX','2022-10-26','2022-10-27','06:41:00','06:42:00');</v>
+        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(6,'LINUX','2021-08-02','2021-08-03','02:08:17','02:09:17');</v>
       </c>
       <c r="M7" s="3"/>
     </row>
@@ -1448,23 +1448,23 @@
       </c>
       <c r="C8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44668</v>
+        <v>44553</v>
       </c>
       <c r="D8" s="2">
         <f ca="1">+Tabla1[[#This Row],[FECHA_INICIO]]+1</f>
-        <v>44669</v>
+        <v>44554</v>
       </c>
       <c r="E8" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.70751928777369677</v>
+        <v>0.78293061082997151</v>
       </c>
       <c r="F8" s="3">
         <f ca="1">+Tabla1[[#This Row],[HORA_INICIO]]+0.000694444444444444</f>
-        <v>0.70821373221814121</v>
+        <v>0.78362505527441595</v>
       </c>
       <c r="G8" t="str">
         <f ca="1">"INSERT INTO VISUALIZACION_ONLINE("&amp;Tabla1[[#Headers],[ID_VISUALIZACION]]&amp;","&amp;Tabla1[[#Headers],[SISTEMA_OPERATIVO_USADO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_FIN]]&amp;","&amp;Tabla1[[#Headers],[HORA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[HORA_FIN]]&amp;") VALUES("&amp;Tabla1[[#This Row],[ID_VISUALIZACION]]&amp;",'"&amp;Tabla1[[#This Row],[SISTEMA_OPERATIVO_USADO]]&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_INICIO]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_FIN]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_INICIO]],"HH:MM:SS")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_FIN]],"HH:MM:SS")&amp;"');"</f>
-        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(7,'WINDOWS','2022-04-17','2022-04-18','16:58:50','16:59:50');</v>
+        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(7,'WINDOWS','2021-12-23','2021-12-24','18:47:25','18:48:25');</v>
       </c>
       <c r="M8" s="3"/>
     </row>
@@ -1477,23 +1477,23 @@
       </c>
       <c r="C9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44827</v>
+        <v>44677</v>
       </c>
       <c r="D9" s="2">
         <f ca="1">+Tabla1[[#This Row],[FECHA_INICIO]]+1</f>
-        <v>44828</v>
+        <v>44678</v>
       </c>
       <c r="E9" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.34502275824963291</v>
+        <v>0.40587776439665413</v>
       </c>
       <c r="F9" s="3">
         <f ca="1">+Tabla1[[#This Row],[HORA_INICIO]]+0.000694444444444444</f>
-        <v>0.34571720269407735</v>
+        <v>0.40657220884109857</v>
       </c>
       <c r="G9" t="str">
         <f ca="1">"INSERT INTO VISUALIZACION_ONLINE("&amp;Tabla1[[#Headers],[ID_VISUALIZACION]]&amp;","&amp;Tabla1[[#Headers],[SISTEMA_OPERATIVO_USADO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_FIN]]&amp;","&amp;Tabla1[[#Headers],[HORA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[HORA_FIN]]&amp;") VALUES("&amp;Tabla1[[#This Row],[ID_VISUALIZACION]]&amp;",'"&amp;Tabla1[[#This Row],[SISTEMA_OPERATIVO_USADO]]&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_INICIO]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_FIN]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_INICIO]],"HH:MM:SS")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_FIN]],"HH:MM:SS")&amp;"');"</f>
-        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(8,'LINUX','2022-09-23','2022-09-24','08:16:50','08:17:50');</v>
+        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(8,'LINUX','2022-04-26','2022-04-27','09:44:28','09:45:28');</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -1505,23 +1505,23 @@
       </c>
       <c r="C10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44674</v>
+        <v>44835</v>
       </c>
       <c r="D10" s="2">
         <f ca="1">+Tabla1[[#This Row],[FECHA_INICIO]]+1</f>
-        <v>44675</v>
+        <v>44836</v>
       </c>
       <c r="E10" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.18353955484813578</v>
+        <v>0.92826986051915394</v>
       </c>
       <c r="F10" s="3">
         <f ca="1">+Tabla1[[#This Row],[HORA_INICIO]]+0.000694444444444444</f>
-        <v>0.18423399929258022</v>
+        <v>0.92896430496359839</v>
       </c>
       <c r="G10" t="str">
         <f ca="1">"INSERT INTO VISUALIZACION_ONLINE("&amp;Tabla1[[#Headers],[ID_VISUALIZACION]]&amp;","&amp;Tabla1[[#Headers],[SISTEMA_OPERATIVO_USADO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_FIN]]&amp;","&amp;Tabla1[[#Headers],[HORA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[HORA_FIN]]&amp;") VALUES("&amp;Tabla1[[#This Row],[ID_VISUALIZACION]]&amp;",'"&amp;Tabla1[[#This Row],[SISTEMA_OPERATIVO_USADO]]&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_INICIO]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_FIN]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_INICIO]],"HH:MM:SS")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_FIN]],"HH:MM:SS")&amp;"');"</f>
-        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(9,'WINDOWS','2022-04-23','2022-04-24','04:24:18','04:25:18');</v>
+        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(9,'WINDOWS','2022-10-01','2022-10-02','22:16:43','22:17:43');</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -1533,23 +1533,23 @@
       </c>
       <c r="C11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44807</v>
+        <v>44208</v>
       </c>
       <c r="D11" s="2">
         <f ca="1">+Tabla1[[#This Row],[FECHA_INICIO]]+1</f>
-        <v>44808</v>
+        <v>44209</v>
       </c>
       <c r="E11" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.78635879493362915</v>
+        <v>0.49362973088012418</v>
       </c>
       <c r="F11" s="3">
         <f ca="1">+Tabla1[[#This Row],[HORA_INICIO]]+0.000694444444444444</f>
-        <v>0.78705323937807359</v>
+        <v>0.49432417532456863</v>
       </c>
       <c r="G11" t="str">
         <f ca="1">"INSERT INTO VISUALIZACION_ONLINE("&amp;Tabla1[[#Headers],[ID_VISUALIZACION]]&amp;","&amp;Tabla1[[#Headers],[SISTEMA_OPERATIVO_USADO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_FIN]]&amp;","&amp;Tabla1[[#Headers],[HORA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[HORA_FIN]]&amp;") VALUES("&amp;Tabla1[[#This Row],[ID_VISUALIZACION]]&amp;",'"&amp;Tabla1[[#This Row],[SISTEMA_OPERATIVO_USADO]]&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_INICIO]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_FIN]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_INICIO]],"HH:MM:SS")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_FIN]],"HH:MM:SS")&amp;"');"</f>
-        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(10,'WINDOWS','2022-09-03','2022-09-04','18:52:21','18:53:21');</v>
+        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(10,'WINDOWS','2021-01-12','2021-01-13','11:50:50','11:51:50');</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -1561,23 +1561,23 @@
       </c>
       <c r="C12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44312</v>
+        <v>44781</v>
       </c>
       <c r="D12" s="2">
         <f ca="1">+Tabla1[[#This Row],[FECHA_INICIO]]+1</f>
-        <v>44313</v>
+        <v>44782</v>
       </c>
       <c r="E12" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.31660316252861864</v>
+        <v>0.64872755481163513</v>
       </c>
       <c r="F12" s="3">
         <f ca="1">+Tabla1[[#This Row],[HORA_INICIO]]+0.000694444444444444</f>
-        <v>0.31729760697306308</v>
+        <v>0.64942199925607957</v>
       </c>
       <c r="G12" t="str">
         <f ca="1">"INSERT INTO VISUALIZACION_ONLINE("&amp;Tabla1[[#Headers],[ID_VISUALIZACION]]&amp;","&amp;Tabla1[[#Headers],[SISTEMA_OPERATIVO_USADO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_FIN]]&amp;","&amp;Tabla1[[#Headers],[HORA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[HORA_FIN]]&amp;") VALUES("&amp;Tabla1[[#This Row],[ID_VISUALIZACION]]&amp;",'"&amp;Tabla1[[#This Row],[SISTEMA_OPERATIVO_USADO]]&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_INICIO]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_FIN]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_INICIO]],"HH:MM:SS")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_FIN]],"HH:MM:SS")&amp;"');"</f>
-        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(11,'WINDOWS','2021-04-26','2021-04-27','07:35:55','07:36:55');</v>
+        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(11,'WINDOWS','2022-08-08','2022-08-09','15:34:10','15:35:10');</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -1589,23 +1589,23 @@
       </c>
       <c r="C13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44918</v>
+        <v>44904</v>
       </c>
       <c r="D13" s="2">
         <f ca="1">+Tabla1[[#This Row],[FECHA_INICIO]]+1</f>
-        <v>44919</v>
+        <v>44905</v>
       </c>
       <c r="E13" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.45058164868009631</v>
+        <v>0.6226649010051245</v>
       </c>
       <c r="F13" s="3">
         <f ca="1">+Tabla1[[#This Row],[HORA_INICIO]]+0.000694444444444444</f>
-        <v>0.45127609312454076</v>
+        <v>0.62335934544956895</v>
       </c>
       <c r="G13" t="str">
         <f ca="1">"INSERT INTO VISUALIZACION_ONLINE("&amp;Tabla1[[#Headers],[ID_VISUALIZACION]]&amp;","&amp;Tabla1[[#Headers],[SISTEMA_OPERATIVO_USADO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_FIN]]&amp;","&amp;Tabla1[[#Headers],[HORA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[HORA_FIN]]&amp;") VALUES("&amp;Tabla1[[#This Row],[ID_VISUALIZACION]]&amp;",'"&amp;Tabla1[[#This Row],[SISTEMA_OPERATIVO_USADO]]&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_INICIO]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_FIN]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_INICIO]],"HH:MM:SS")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_FIN]],"HH:MM:SS")&amp;"');"</f>
-        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(12,'LINUX','2022-12-23','2022-12-24','10:48:50','10:49:50');</v>
+        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(12,'LINUX','2022-12-09','2022-12-10','14:56:38','14:57:38');</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -1617,23 +1617,23 @@
       </c>
       <c r="C14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44489</v>
+        <v>44787</v>
       </c>
       <c r="D14" s="2">
         <f ca="1">+Tabla1[[#This Row],[FECHA_INICIO]]+1</f>
-        <v>44490</v>
+        <v>44788</v>
       </c>
       <c r="E14" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.39640455841903877</v>
+        <v>0.7764466342065377</v>
       </c>
       <c r="F14" s="3">
         <f ca="1">+Tabla1[[#This Row],[HORA_INICIO]]+0.000694444444444444</f>
-        <v>0.39709900286348321</v>
+        <v>0.77714107865098214</v>
       </c>
       <c r="G14" t="str">
         <f ca="1">"INSERT INTO VISUALIZACION_ONLINE("&amp;Tabla1[[#Headers],[ID_VISUALIZACION]]&amp;","&amp;Tabla1[[#Headers],[SISTEMA_OPERATIVO_USADO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_FIN]]&amp;","&amp;Tabla1[[#Headers],[HORA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[HORA_FIN]]&amp;") VALUES("&amp;Tabla1[[#This Row],[ID_VISUALIZACION]]&amp;",'"&amp;Tabla1[[#This Row],[SISTEMA_OPERATIVO_USADO]]&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_INICIO]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_FIN]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_INICIO]],"HH:MM:SS")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_FIN]],"HH:MM:SS")&amp;"');"</f>
-        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(13,'WINDOWS','2021-10-20','2021-10-21','09:30:49','09:31:49');</v>
+        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(13,'WINDOWS','2022-08-14','2022-08-15','18:38:05','18:39:05');</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -1645,23 +1645,23 @@
       </c>
       <c r="C15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44242</v>
+        <v>44641</v>
       </c>
       <c r="D15" s="2">
         <f ca="1">+Tabla1[[#This Row],[FECHA_INICIO]]+1</f>
-        <v>44243</v>
+        <v>44642</v>
       </c>
       <c r="E15" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.40539364081273643</v>
+        <v>0.1885940875499359</v>
       </c>
       <c r="F15" s="3">
         <f ca="1">+Tabla1[[#This Row],[HORA_INICIO]]+0.000694444444444444</f>
-        <v>0.40608808525718088</v>
+        <v>0.18928853199438034</v>
       </c>
       <c r="G15" t="str">
         <f ca="1">"INSERT INTO VISUALIZACION_ONLINE("&amp;Tabla1[[#Headers],[ID_VISUALIZACION]]&amp;","&amp;Tabla1[[#Headers],[SISTEMA_OPERATIVO_USADO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_FIN]]&amp;","&amp;Tabla1[[#Headers],[HORA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[HORA_FIN]]&amp;") VALUES("&amp;Tabla1[[#This Row],[ID_VISUALIZACION]]&amp;",'"&amp;Tabla1[[#This Row],[SISTEMA_OPERATIVO_USADO]]&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_INICIO]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_FIN]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_INICIO]],"HH:MM:SS")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_FIN]],"HH:MM:SS")&amp;"');"</f>
-        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(14,'LINUX','2021-02-15','2021-02-16','09:43:46','09:44:46');</v>
+        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(14,'LINUX','2022-03-21','2022-03-22','04:31:35','04:32:35');</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -1673,23 +1673,23 @@
       </c>
       <c r="C16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44554</v>
+        <v>44899</v>
       </c>
       <c r="D16" s="2">
         <f ca="1">+Tabla1[[#This Row],[FECHA_INICIO]]+1</f>
-        <v>44555</v>
+        <v>44900</v>
       </c>
       <c r="E16" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.41196960324157439</v>
+        <v>0.47653044565102609</v>
       </c>
       <c r="F16" s="3">
         <f ca="1">+Tabla1[[#This Row],[HORA_INICIO]]+0.000694444444444444</f>
-        <v>0.41266404768601883</v>
+        <v>0.47722489009547053</v>
       </c>
       <c r="G16" t="str">
         <f ca="1">"INSERT INTO VISUALIZACION_ONLINE("&amp;Tabla1[[#Headers],[ID_VISUALIZACION]]&amp;","&amp;Tabla1[[#Headers],[SISTEMA_OPERATIVO_USADO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_FIN]]&amp;","&amp;Tabla1[[#Headers],[HORA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[HORA_FIN]]&amp;") VALUES("&amp;Tabla1[[#This Row],[ID_VISUALIZACION]]&amp;",'"&amp;Tabla1[[#This Row],[SISTEMA_OPERATIVO_USADO]]&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_INICIO]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_FIN]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_INICIO]],"HH:MM:SS")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_FIN]],"HH:MM:SS")&amp;"');"</f>
-        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(15,'WINDOWS','2021-12-24','2021-12-25','09:53:14','09:54:14');</v>
+        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(15,'WINDOWS','2022-12-04','2022-12-05','11:26:12','11:27:12');</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1701,23 +1701,23 @@
       </c>
       <c r="C17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44251</v>
+        <v>44263</v>
       </c>
       <c r="D17" s="2">
         <f ca="1">+Tabla1[[#This Row],[FECHA_INICIO]]+1</f>
-        <v>44252</v>
+        <v>44264</v>
       </c>
       <c r="E17" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.57452019487359229</v>
+        <v>0.89803086048211811</v>
       </c>
       <c r="F17" s="3">
         <f ca="1">+Tabla1[[#This Row],[HORA_INICIO]]+0.000694444444444444</f>
-        <v>0.57521463931803674</v>
+        <v>0.89872530492656255</v>
       </c>
       <c r="G17" t="str">
         <f ca="1">"INSERT INTO VISUALIZACION_ONLINE("&amp;Tabla1[[#Headers],[ID_VISUALIZACION]]&amp;","&amp;Tabla1[[#Headers],[SISTEMA_OPERATIVO_USADO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_FIN]]&amp;","&amp;Tabla1[[#Headers],[HORA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[HORA_FIN]]&amp;") VALUES("&amp;Tabla1[[#This Row],[ID_VISUALIZACION]]&amp;",'"&amp;Tabla1[[#This Row],[SISTEMA_OPERATIVO_USADO]]&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_INICIO]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_FIN]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_INICIO]],"HH:MM:SS")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_FIN]],"HH:MM:SS")&amp;"');"</f>
-        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(16,'WINDOWS','2021-02-24','2021-02-25','13:47:19','13:48:19');</v>
+        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(16,'WINDOWS','2021-03-08','2021-03-09','21:33:10','21:34:10');</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1729,23 +1729,23 @@
       </c>
       <c r="C18" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44779</v>
+        <v>44908</v>
       </c>
       <c r="D18" s="2">
         <f ca="1">+Tabla1[[#This Row],[FECHA_INICIO]]+1</f>
-        <v>44780</v>
+        <v>44909</v>
       </c>
       <c r="E18" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.36321019213701256</v>
+        <v>0.99227225009687536</v>
       </c>
       <c r="F18" s="3">
         <f ca="1">+Tabla1[[#This Row],[HORA_INICIO]]+0.000694444444444444</f>
-        <v>0.363904636581457</v>
+        <v>0.99296669454131981</v>
       </c>
       <c r="G18" t="str">
         <f ca="1">"INSERT INTO VISUALIZACION_ONLINE("&amp;Tabla1[[#Headers],[ID_VISUALIZACION]]&amp;","&amp;Tabla1[[#Headers],[SISTEMA_OPERATIVO_USADO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_FIN]]&amp;","&amp;Tabla1[[#Headers],[HORA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[HORA_FIN]]&amp;") VALUES("&amp;Tabla1[[#This Row],[ID_VISUALIZACION]]&amp;",'"&amp;Tabla1[[#This Row],[SISTEMA_OPERATIVO_USADO]]&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_INICIO]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_FIN]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_INICIO]],"HH:MM:SS")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_FIN]],"HH:MM:SS")&amp;"');"</f>
-        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(17,'WINDOWS','2022-08-06','2022-08-07','08:43:01','08:44:01');</v>
+        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(17,'WINDOWS','2022-12-13','2022-12-14','23:48:52','23:49:52');</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1757,23 +1757,23 @@
       </c>
       <c r="C19" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44774</v>
+        <v>44913</v>
       </c>
       <c r="D19" s="2">
         <f ca="1">+Tabla1[[#This Row],[FECHA_INICIO]]+1</f>
-        <v>44775</v>
+        <v>44914</v>
       </c>
       <c r="E19" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.63284651862755914</v>
+        <v>0.16529644774096097</v>
       </c>
       <c r="F19" s="3">
         <f ca="1">+Tabla1[[#This Row],[HORA_INICIO]]+0.000694444444444444</f>
-        <v>0.63354096307200358</v>
+        <v>0.16599089218540541</v>
       </c>
       <c r="G19" t="str">
         <f ca="1">"INSERT INTO VISUALIZACION_ONLINE("&amp;Tabla1[[#Headers],[ID_VISUALIZACION]]&amp;","&amp;Tabla1[[#Headers],[SISTEMA_OPERATIVO_USADO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_FIN]]&amp;","&amp;Tabla1[[#Headers],[HORA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[HORA_FIN]]&amp;") VALUES("&amp;Tabla1[[#This Row],[ID_VISUALIZACION]]&amp;",'"&amp;Tabla1[[#This Row],[SISTEMA_OPERATIVO_USADO]]&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_INICIO]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_FIN]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_INICIO]],"HH:MM:SS")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_FIN]],"HH:MM:SS")&amp;"');"</f>
-        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(18,'LINUX','2022-08-01','2022-08-02','15:11:18','15:12:18');</v>
+        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(18,'LINUX','2022-12-18','2022-12-19','03:58:02','03:59:02');</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1785,23 +1785,23 @@
       </c>
       <c r="C20" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44368</v>
+        <v>44848</v>
       </c>
       <c r="D20" s="2">
         <f ca="1">+Tabla1[[#This Row],[FECHA_INICIO]]+1</f>
-        <v>44369</v>
+        <v>44849</v>
       </c>
       <c r="E20" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.18959115324255038</v>
+        <v>0.91376564923488179</v>
       </c>
       <c r="F20" s="3">
         <f ca="1">+Tabla1[[#This Row],[HORA_INICIO]]+0.000694444444444444</f>
-        <v>0.19028559768699482</v>
+        <v>0.91446009367932624</v>
       </c>
       <c r="G20" t="str">
         <f ca="1">"INSERT INTO VISUALIZACION_ONLINE("&amp;Tabla1[[#Headers],[ID_VISUALIZACION]]&amp;","&amp;Tabla1[[#Headers],[SISTEMA_OPERATIVO_USADO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_FIN]]&amp;","&amp;Tabla1[[#Headers],[HORA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[HORA_FIN]]&amp;") VALUES("&amp;Tabla1[[#This Row],[ID_VISUALIZACION]]&amp;",'"&amp;Tabla1[[#This Row],[SISTEMA_OPERATIVO_USADO]]&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_INICIO]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_FIN]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_INICIO]],"HH:MM:SS")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_FIN]],"HH:MM:SS")&amp;"');"</f>
-        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(19,'WINDOWS','2021-06-21','2021-06-22','04:33:01','04:34:01');</v>
+        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(19,'WINDOWS','2022-10-14','2022-10-15','21:55:49','21:56:49');</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1813,23 +1813,23 @@
       </c>
       <c r="C21" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44219</v>
+        <v>44340</v>
       </c>
       <c r="D21" s="2">
         <f ca="1">+Tabla1[[#This Row],[FECHA_INICIO]]+1</f>
-        <v>44220</v>
+        <v>44341</v>
       </c>
       <c r="E21" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>7.7107492228038255E-2</v>
+        <v>0.13164771299612177</v>
       </c>
       <c r="F21" s="3">
         <f ca="1">+Tabla1[[#This Row],[HORA_INICIO]]+0.000694444444444444</f>
-        <v>7.7801936672482697E-2</v>
+        <v>0.13234215744056621</v>
       </c>
       <c r="G21" t="str">
         <f ca="1">"INSERT INTO VISUALIZACION_ONLINE("&amp;Tabla1[[#Headers],[ID_VISUALIZACION]]&amp;","&amp;Tabla1[[#Headers],[SISTEMA_OPERATIVO_USADO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_FIN]]&amp;","&amp;Tabla1[[#Headers],[HORA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[HORA_FIN]]&amp;") VALUES("&amp;Tabla1[[#This Row],[ID_VISUALIZACION]]&amp;",'"&amp;Tabla1[[#This Row],[SISTEMA_OPERATIVO_USADO]]&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_INICIO]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_FIN]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_INICIO]],"HH:MM:SS")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_FIN]],"HH:MM:SS")&amp;"');"</f>
-        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(20,'LINUX','2021-01-23','2021-01-24','01:51:02','01:52:02');</v>
+        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(20,'LINUX','2021-05-24','2021-05-25','03:09:34','03:10:34');</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1841,23 +1841,23 @@
       </c>
       <c r="C22" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44241</v>
+        <v>44257</v>
       </c>
       <c r="D22" s="2">
         <f ca="1">+Tabla1[[#This Row],[FECHA_INICIO]]+1</f>
-        <v>44242</v>
+        <v>44258</v>
       </c>
       <c r="E22" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.56490761035055326</v>
+        <v>0.28946498534940146</v>
       </c>
       <c r="F22" s="3">
         <f ca="1">+Tabla1[[#This Row],[HORA_INICIO]]+0.000694444444444444</f>
-        <v>0.5656020547949977</v>
+        <v>0.2901594297938459</v>
       </c>
       <c r="G22" t="str">
         <f ca="1">"INSERT INTO VISUALIZACION_ONLINE("&amp;Tabla1[[#Headers],[ID_VISUALIZACION]]&amp;","&amp;Tabla1[[#Headers],[SISTEMA_OPERATIVO_USADO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_FIN]]&amp;","&amp;Tabla1[[#Headers],[HORA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[HORA_FIN]]&amp;") VALUES("&amp;Tabla1[[#This Row],[ID_VISUALIZACION]]&amp;",'"&amp;Tabla1[[#This Row],[SISTEMA_OPERATIVO_USADO]]&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_INICIO]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_FIN]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_INICIO]],"HH:MM:SS")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_FIN]],"HH:MM:SS")&amp;"');"</f>
-        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(21,'WINDOWS','2021-02-14','2021-02-15','13:33:28','13:34:28');</v>
+        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(21,'WINDOWS','2021-03-02','2021-03-03','06:56:50','06:57:50');</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1869,23 +1869,23 @@
       </c>
       <c r="C23" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44477</v>
+        <v>44812</v>
       </c>
       <c r="D23" s="2">
         <f ca="1">+Tabla1[[#This Row],[FECHA_INICIO]]+1</f>
-        <v>44478</v>
+        <v>44813</v>
       </c>
       <c r="E23" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.79728165236006987</v>
+        <v>0.27425206717537332</v>
       </c>
       <c r="F23" s="3">
         <f ca="1">+Tabla1[[#This Row],[HORA_INICIO]]+0.000694444444444444</f>
-        <v>0.79797609680451431</v>
+        <v>0.27494651161981776</v>
       </c>
       <c r="G23" t="str">
         <f ca="1">"INSERT INTO VISUALIZACION_ONLINE("&amp;Tabla1[[#Headers],[ID_VISUALIZACION]]&amp;","&amp;Tabla1[[#Headers],[SISTEMA_OPERATIVO_USADO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_FIN]]&amp;","&amp;Tabla1[[#Headers],[HORA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[HORA_FIN]]&amp;") VALUES("&amp;Tabla1[[#This Row],[ID_VISUALIZACION]]&amp;",'"&amp;Tabla1[[#This Row],[SISTEMA_OPERATIVO_USADO]]&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_INICIO]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_FIN]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_INICIO]],"HH:MM:SS")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_FIN]],"HH:MM:SS")&amp;"');"</f>
-        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(22,'WINDOWS','2021-10-08','2021-10-09','19:08:05','19:09:05');</v>
+        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(22,'WINDOWS','2022-09-08','2022-09-09','06:34:55','06:35:55');</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1897,23 +1897,23 @@
       </c>
       <c r="C24" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44797</v>
+        <v>44892</v>
       </c>
       <c r="D24" s="2">
         <f ca="1">+Tabla1[[#This Row],[FECHA_INICIO]]+1</f>
-        <v>44798</v>
+        <v>44893</v>
       </c>
       <c r="E24" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.5865501447690139</v>
+        <v>0.69544019298978266</v>
       </c>
       <c r="F24" s="3">
         <f ca="1">+Tabla1[[#This Row],[HORA_INICIO]]+0.000694444444444444</f>
-        <v>0.58724458921345835</v>
+        <v>0.6961346374342271</v>
       </c>
       <c r="G24" t="str">
         <f ca="1">"INSERT INTO VISUALIZACION_ONLINE("&amp;Tabla1[[#Headers],[ID_VISUALIZACION]]&amp;","&amp;Tabla1[[#Headers],[SISTEMA_OPERATIVO_USADO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_FIN]]&amp;","&amp;Tabla1[[#Headers],[HORA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[HORA_FIN]]&amp;") VALUES("&amp;Tabla1[[#This Row],[ID_VISUALIZACION]]&amp;",'"&amp;Tabla1[[#This Row],[SISTEMA_OPERATIVO_USADO]]&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_INICIO]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_FIN]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_INICIO]],"HH:MM:SS")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_FIN]],"HH:MM:SS")&amp;"');"</f>
-        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(23,'WINDOWS','2022-08-24','2022-08-25','14:04:38','14:05:38');</v>
+        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(23,'WINDOWS','2022-11-27','2022-11-28','16:41:26','16:42:26');</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1925,23 +1925,23 @@
       </c>
       <c r="C25" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44811</v>
+        <v>44374</v>
       </c>
       <c r="D25" s="2">
         <f ca="1">+Tabla1[[#This Row],[FECHA_INICIO]]+1</f>
-        <v>44812</v>
+        <v>44375</v>
       </c>
       <c r="E25" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.88234810879660119</v>
+        <v>0.76610827119653724</v>
       </c>
       <c r="F25" s="3">
         <f ca="1">+Tabla1[[#This Row],[HORA_INICIO]]+0.000694444444444444</f>
-        <v>0.88304255324104564</v>
+        <v>0.76680271564098168</v>
       </c>
       <c r="G25" t="str">
         <f ca="1">"INSERT INTO VISUALIZACION_ONLINE("&amp;Tabla1[[#Headers],[ID_VISUALIZACION]]&amp;","&amp;Tabla1[[#Headers],[SISTEMA_OPERATIVO_USADO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_FIN]]&amp;","&amp;Tabla1[[#Headers],[HORA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[HORA_FIN]]&amp;") VALUES("&amp;Tabla1[[#This Row],[ID_VISUALIZACION]]&amp;",'"&amp;Tabla1[[#This Row],[SISTEMA_OPERATIVO_USADO]]&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_INICIO]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_FIN]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_INICIO]],"HH:MM:SS")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_FIN]],"HH:MM:SS")&amp;"');"</f>
-        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(24,'LINUX','2022-09-07','2022-09-08','21:10:35','21:11:35');</v>
+        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(24,'LINUX','2021-06-27','2021-06-28','18:23:12','18:24:12');</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1953,23 +1953,23 @@
       </c>
       <c r="C26" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44917</v>
+        <v>44854</v>
       </c>
       <c r="D26" s="2">
         <f ca="1">+Tabla1[[#This Row],[FECHA_INICIO]]+1</f>
-        <v>44918</v>
+        <v>44855</v>
       </c>
       <c r="E26" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.68572098253556024</v>
+        <v>0.96592655677587358</v>
       </c>
       <c r="F26" s="3">
         <f ca="1">+Tabla1[[#This Row],[HORA_INICIO]]+0.000694444444444444</f>
-        <v>0.68641542698000468</v>
+        <v>0.96662100122031802</v>
       </c>
       <c r="G26" t="str">
         <f ca="1">"INSERT INTO VISUALIZACION_ONLINE("&amp;Tabla1[[#Headers],[ID_VISUALIZACION]]&amp;","&amp;Tabla1[[#Headers],[SISTEMA_OPERATIVO_USADO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_FIN]]&amp;","&amp;Tabla1[[#Headers],[HORA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[HORA_FIN]]&amp;") VALUES("&amp;Tabla1[[#This Row],[ID_VISUALIZACION]]&amp;",'"&amp;Tabla1[[#This Row],[SISTEMA_OPERATIVO_USADO]]&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_INICIO]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_FIN]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_INICIO]],"HH:MM:SS")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_FIN]],"HH:MM:SS")&amp;"');"</f>
-        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(25,'WINDOWS','2022-12-22','2022-12-23','16:27:26','16:28:26');</v>
+        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(25,'WINDOWS','2022-10-20','2022-10-21','23:10:56','23:11:56');</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1981,23 +1981,23 @@
       </c>
       <c r="C27" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44789</v>
+        <v>44829</v>
       </c>
       <c r="D27" s="2">
         <f ca="1">+Tabla1[[#This Row],[FECHA_INICIO]]+1</f>
-        <v>44790</v>
+        <v>44830</v>
       </c>
       <c r="E27" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.91761065349208282</v>
+        <v>0.10369445613168315</v>
       </c>
       <c r="F27" s="3">
         <f ca="1">+Tabla1[[#This Row],[HORA_INICIO]]+0.000694444444444444</f>
-        <v>0.91830509793652726</v>
+        <v>0.1043889005761276</v>
       </c>
       <c r="G27" t="str">
         <f ca="1">"INSERT INTO VISUALIZACION_ONLINE("&amp;Tabla1[[#Headers],[ID_VISUALIZACION]]&amp;","&amp;Tabla1[[#Headers],[SISTEMA_OPERATIVO_USADO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_FIN]]&amp;","&amp;Tabla1[[#Headers],[HORA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[HORA_FIN]]&amp;") VALUES("&amp;Tabla1[[#This Row],[ID_VISUALIZACION]]&amp;",'"&amp;Tabla1[[#This Row],[SISTEMA_OPERATIVO_USADO]]&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_INICIO]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_FIN]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_INICIO]],"HH:MM:SS")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_FIN]],"HH:MM:SS")&amp;"');"</f>
-        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(26,'LINUX','2022-08-16','2022-08-17','22:01:22','22:02:22');</v>
+        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(26,'LINUX','2022-09-25','2022-09-26','02:29:19','02:30:19');</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -2009,23 +2009,23 @@
       </c>
       <c r="C28" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44698</v>
+        <v>44235</v>
       </c>
       <c r="D28" s="2">
         <f ca="1">+Tabla1[[#This Row],[FECHA_INICIO]]+1</f>
-        <v>44699</v>
+        <v>44236</v>
       </c>
       <c r="E28" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.31770040021827772</v>
+        <v>0.74302023157280417</v>
       </c>
       <c r="F28" s="3">
         <f ca="1">+Tabla1[[#This Row],[HORA_INICIO]]+0.000694444444444444</f>
-        <v>0.31839484466272217</v>
+        <v>0.74371467601724861</v>
       </c>
       <c r="G28" t="str">
         <f ca="1">"INSERT INTO VISUALIZACION_ONLINE("&amp;Tabla1[[#Headers],[ID_VISUALIZACION]]&amp;","&amp;Tabla1[[#Headers],[SISTEMA_OPERATIVO_USADO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_FIN]]&amp;","&amp;Tabla1[[#Headers],[HORA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[HORA_FIN]]&amp;") VALUES("&amp;Tabla1[[#This Row],[ID_VISUALIZACION]]&amp;",'"&amp;Tabla1[[#This Row],[SISTEMA_OPERATIVO_USADO]]&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_INICIO]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_FIN]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_INICIO]],"HH:MM:SS")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_FIN]],"HH:MM:SS")&amp;"');"</f>
-        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(27,'WINDOWS','2022-05-17','2022-05-18','07:37:29','07:38:29');</v>
+        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(27,'WINDOWS','2021-02-08','2021-02-09','17:49:57','17:50:57');</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -2037,23 +2037,23 @@
       </c>
       <c r="C29" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44649</v>
+        <v>44778</v>
       </c>
       <c r="D29" s="2">
         <f ca="1">+Tabla1[[#This Row],[FECHA_INICIO]]+1</f>
-        <v>44650</v>
+        <v>44779</v>
       </c>
       <c r="E29" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.92061524704627506</v>
+        <v>0.6037110640692116</v>
       </c>
       <c r="F29" s="3">
         <f ca="1">+Tabla1[[#This Row],[HORA_INICIO]]+0.000694444444444444</f>
-        <v>0.92130969149071951</v>
+        <v>0.60440550851365604</v>
       </c>
       <c r="G29" t="str">
         <f ca="1">"INSERT INTO VISUALIZACION_ONLINE("&amp;Tabla1[[#Headers],[ID_VISUALIZACION]]&amp;","&amp;Tabla1[[#Headers],[SISTEMA_OPERATIVO_USADO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_FIN]]&amp;","&amp;Tabla1[[#Headers],[HORA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[HORA_FIN]]&amp;") VALUES("&amp;Tabla1[[#This Row],[ID_VISUALIZACION]]&amp;",'"&amp;Tabla1[[#This Row],[SISTEMA_OPERATIVO_USADO]]&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_INICIO]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_FIN]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_INICIO]],"HH:MM:SS")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_FIN]],"HH:MM:SS")&amp;"');"</f>
-        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(28,'WINDOWS','2022-03-29','2022-03-30','22:05:41','22:06:41');</v>
+        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(28,'WINDOWS','2022-08-05','2022-08-06','14:29:21','14:30:21');</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -2065,23 +2065,23 @@
       </c>
       <c r="C30" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44847</v>
+        <v>44553</v>
       </c>
       <c r="D30" s="2">
         <f ca="1">+Tabla1[[#This Row],[FECHA_INICIO]]+1</f>
-        <v>44848</v>
+        <v>44554</v>
       </c>
       <c r="E30" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.93777869514018386</v>
+        <v>0.21568881539401441</v>
       </c>
       <c r="F30" s="3">
         <f ca="1">+Tabla1[[#This Row],[HORA_INICIO]]+0.000694444444444444</f>
-        <v>0.9384731395846283</v>
+        <v>0.21638325983845885</v>
       </c>
       <c r="G30" t="str">
         <f ca="1">"INSERT INTO VISUALIZACION_ONLINE("&amp;Tabla1[[#Headers],[ID_VISUALIZACION]]&amp;","&amp;Tabla1[[#Headers],[SISTEMA_OPERATIVO_USADO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_FIN]]&amp;","&amp;Tabla1[[#Headers],[HORA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[HORA_FIN]]&amp;") VALUES("&amp;Tabla1[[#This Row],[ID_VISUALIZACION]]&amp;",'"&amp;Tabla1[[#This Row],[SISTEMA_OPERATIVO_USADO]]&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_INICIO]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_FIN]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_INICIO]],"HH:MM:SS")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_FIN]],"HH:MM:SS")&amp;"');"</f>
-        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(29,'WINDOWS','2022-10-13','2022-10-14','22:30:24','22:31:24');</v>
+        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(29,'WINDOWS','2021-12-23','2021-12-24','05:10:36','05:11:36');</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -2093,23 +2093,23 @@
       </c>
       <c r="C31" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44601</v>
+        <v>44708</v>
       </c>
       <c r="D31" s="2">
         <f ca="1">+Tabla1[[#This Row],[FECHA_INICIO]]+1</f>
-        <v>44602</v>
+        <v>44709</v>
       </c>
       <c r="E31" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>4.1218477217508487E-2</v>
+        <v>0.7499033682787688</v>
       </c>
       <c r="F31" s="3">
         <f ca="1">+Tabla1[[#This Row],[HORA_INICIO]]+0.000694444444444444</f>
-        <v>4.1912921661952929E-2</v>
+        <v>0.75059781272321324</v>
       </c>
       <c r="G31" t="str">
         <f ca="1">"INSERT INTO VISUALIZACION_ONLINE("&amp;Tabla1[[#Headers],[ID_VISUALIZACION]]&amp;","&amp;Tabla1[[#Headers],[SISTEMA_OPERATIVO_USADO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_FIN]]&amp;","&amp;Tabla1[[#Headers],[HORA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[HORA_FIN]]&amp;") VALUES("&amp;Tabla1[[#This Row],[ID_VISUALIZACION]]&amp;",'"&amp;Tabla1[[#This Row],[SISTEMA_OPERATIVO_USADO]]&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_INICIO]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_FIN]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_INICIO]],"HH:MM:SS")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_FIN]],"HH:MM:SS")&amp;"');"</f>
-        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(30,'LINUX','2022-02-09','2022-02-10','00:59:21','01:00:21');</v>
+        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(30,'LINUX','2022-05-27','2022-05-28','17:59:52','18:00:52');</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -2121,23 +2121,23 @@
       </c>
       <c r="C32" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44563</v>
+        <v>44828</v>
       </c>
       <c r="D32" s="2">
         <f ca="1">+Tabla1[[#This Row],[FECHA_INICIO]]+1</f>
-        <v>44564</v>
+        <v>44829</v>
       </c>
       <c r="E32" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.96754562552019074</v>
+        <v>0.19013120250794369</v>
       </c>
       <c r="F32" s="3">
         <f ca="1">+Tabla1[[#This Row],[HORA_INICIO]]+0.000694444444444444</f>
-        <v>0.96824006996463519</v>
+        <v>0.19082564695238813</v>
       </c>
       <c r="G32" t="str">
         <f ca="1">"INSERT INTO VISUALIZACION_ONLINE("&amp;Tabla1[[#Headers],[ID_VISUALIZACION]]&amp;","&amp;Tabla1[[#Headers],[SISTEMA_OPERATIVO_USADO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_FIN]]&amp;","&amp;Tabla1[[#Headers],[HORA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[HORA_FIN]]&amp;") VALUES("&amp;Tabla1[[#This Row],[ID_VISUALIZACION]]&amp;",'"&amp;Tabla1[[#This Row],[SISTEMA_OPERATIVO_USADO]]&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_INICIO]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_FIN]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_INICIO]],"HH:MM:SS")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_FIN]],"HH:MM:SS")&amp;"');"</f>
-        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(31,'WINDOWS','2022-01-02','2022-01-03','23:13:16','23:14:16');</v>
+        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(31,'WINDOWS','2022-09-24','2022-09-25','04:33:47','04:34:47');</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -2149,23 +2149,23 @@
       </c>
       <c r="C33" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44222</v>
+        <v>44189</v>
       </c>
       <c r="D33" s="2">
         <f ca="1">+Tabla1[[#This Row],[FECHA_INICIO]]+1</f>
-        <v>44223</v>
+        <v>44190</v>
       </c>
       <c r="E33" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.80158619294416977</v>
+        <v>4.2066019464351845E-2</v>
       </c>
       <c r="F33" s="3">
         <f ca="1">+Tabla1[[#This Row],[HORA_INICIO]]+0.000694444444444444</f>
-        <v>0.80228063738861422</v>
+        <v>4.2760463908796287E-2</v>
       </c>
       <c r="G33" t="str">
         <f ca="1">"INSERT INTO VISUALIZACION_ONLINE("&amp;Tabla1[[#Headers],[ID_VISUALIZACION]]&amp;","&amp;Tabla1[[#Headers],[SISTEMA_OPERATIVO_USADO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_FIN]]&amp;","&amp;Tabla1[[#Headers],[HORA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[HORA_FIN]]&amp;") VALUES("&amp;Tabla1[[#This Row],[ID_VISUALIZACION]]&amp;",'"&amp;Tabla1[[#This Row],[SISTEMA_OPERATIVO_USADO]]&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_INICIO]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_FIN]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_INICIO]],"HH:MM:SS")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_FIN]],"HH:MM:SS")&amp;"');"</f>
-        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(32,'LINUX','2021-01-26','2021-01-27','19:14:17','19:15:17');</v>
+        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(32,'LINUX','2020-12-24','2020-12-25','01:00:35','01:01:35');</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -2177,23 +2177,23 @@
       </c>
       <c r="C34" s="2">
         <f t="shared" ref="C34:C65" ca="1" si="2">RANDBETWEEN(DATE(2020,12,1),DATE(2022,12,31))</f>
-        <v>44451</v>
+        <v>44430</v>
       </c>
       <c r="D34" s="2">
         <f ca="1">+Tabla1[[#This Row],[FECHA_INICIO]]+1</f>
-        <v>44452</v>
+        <v>44431</v>
       </c>
       <c r="E34" s="3">
         <f t="shared" ref="E34:E65" ca="1" si="3">RAND()</f>
-        <v>0.42198828810203015</v>
+        <v>0.24913973819058988</v>
       </c>
       <c r="F34" s="3">
         <f ca="1">+Tabla1[[#This Row],[HORA_INICIO]]+0.000694444444444444</f>
-        <v>0.42268273254647459</v>
+        <v>0.24983418263503432</v>
       </c>
       <c r="G34" t="str">
         <f ca="1">"INSERT INTO VISUALIZACION_ONLINE("&amp;Tabla1[[#Headers],[ID_VISUALIZACION]]&amp;","&amp;Tabla1[[#Headers],[SISTEMA_OPERATIVO_USADO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_FIN]]&amp;","&amp;Tabla1[[#Headers],[HORA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[HORA_FIN]]&amp;") VALUES("&amp;Tabla1[[#This Row],[ID_VISUALIZACION]]&amp;",'"&amp;Tabla1[[#This Row],[SISTEMA_OPERATIVO_USADO]]&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_INICIO]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_FIN]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_INICIO]],"HH:MM:SS")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_FIN]],"HH:MM:SS")&amp;"');"</f>
-        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(33,'WINDOWS','2021-09-12','2021-09-13','10:07:40','10:08:40');</v>
+        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(33,'WINDOWS','2021-08-22','2021-08-23','05:58:46','05:59:46');</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -2205,23 +2205,23 @@
       </c>
       <c r="C35" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>44770</v>
+        <v>44306</v>
       </c>
       <c r="D35" s="2">
         <f ca="1">+Tabla1[[#This Row],[FECHA_INICIO]]+1</f>
-        <v>44771</v>
+        <v>44307</v>
       </c>
       <c r="E35" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0.5899966579755126</v>
+        <v>0.47478014242891231</v>
       </c>
       <c r="F35" s="3">
         <f ca="1">+Tabla1[[#This Row],[HORA_INICIO]]+0.000694444444444444</f>
-        <v>0.59069110241995704</v>
+        <v>0.47547458687335675</v>
       </c>
       <c r="G35" t="str">
         <f ca="1">"INSERT INTO VISUALIZACION_ONLINE("&amp;Tabla1[[#Headers],[ID_VISUALIZACION]]&amp;","&amp;Tabla1[[#Headers],[SISTEMA_OPERATIVO_USADO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_FIN]]&amp;","&amp;Tabla1[[#Headers],[HORA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[HORA_FIN]]&amp;") VALUES("&amp;Tabla1[[#This Row],[ID_VISUALIZACION]]&amp;",'"&amp;Tabla1[[#This Row],[SISTEMA_OPERATIVO_USADO]]&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_INICIO]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_FIN]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_INICIO]],"HH:MM:SS")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_FIN]],"HH:MM:SS")&amp;"');"</f>
-        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(34,'WINDOWS','2022-07-28','2022-07-29','14:09:36','14:10:36');</v>
+        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(34,'WINDOWS','2021-04-20','2021-04-21','11:23:41','11:24:41');</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -2233,23 +2233,23 @@
       </c>
       <c r="C36" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>44245</v>
+        <v>44868</v>
       </c>
       <c r="D36" s="2">
         <f ca="1">+Tabla1[[#This Row],[FECHA_INICIO]]+1</f>
-        <v>44246</v>
+        <v>44869</v>
       </c>
       <c r="E36" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0.25590700788183363</v>
+        <v>8.2643112787813777E-2</v>
       </c>
       <c r="F36" s="3">
         <f ca="1">+Tabla1[[#This Row],[HORA_INICIO]]+0.000694444444444444</f>
-        <v>0.25660145232627807</v>
+        <v>8.3337557232258219E-2</v>
       </c>
       <c r="G36" t="str">
         <f ca="1">"INSERT INTO VISUALIZACION_ONLINE("&amp;Tabla1[[#Headers],[ID_VISUALIZACION]]&amp;","&amp;Tabla1[[#Headers],[SISTEMA_OPERATIVO_USADO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_FIN]]&amp;","&amp;Tabla1[[#Headers],[HORA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[HORA_FIN]]&amp;") VALUES("&amp;Tabla1[[#This Row],[ID_VISUALIZACION]]&amp;",'"&amp;Tabla1[[#This Row],[SISTEMA_OPERATIVO_USADO]]&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_INICIO]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_FIN]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_INICIO]],"HH:MM:SS")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_FIN]],"HH:MM:SS")&amp;"');"</f>
-        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(35,'WINDOWS','2021-02-18','2021-02-19','06:08:30','06:09:30');</v>
+        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(35,'WINDOWS','2022-11-03','2022-11-04','01:59:00','02:00:00');</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -2261,23 +2261,23 @@
       </c>
       <c r="C37" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>44254</v>
+        <v>44415</v>
       </c>
       <c r="D37" s="2">
         <f ca="1">+Tabla1[[#This Row],[FECHA_INICIO]]+1</f>
-        <v>44255</v>
+        <v>44416</v>
       </c>
       <c r="E37" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0.26715770680466144</v>
+        <v>0.27690977105690628</v>
       </c>
       <c r="F37" s="3">
         <f ca="1">+Tabla1[[#This Row],[HORA_INICIO]]+0.000694444444444444</f>
-        <v>0.26785215124910589</v>
+        <v>0.27760421550135073</v>
       </c>
       <c r="G37" t="str">
         <f ca="1">"INSERT INTO VISUALIZACION_ONLINE("&amp;Tabla1[[#Headers],[ID_VISUALIZACION]]&amp;","&amp;Tabla1[[#Headers],[SISTEMA_OPERATIVO_USADO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_FIN]]&amp;","&amp;Tabla1[[#Headers],[HORA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[HORA_FIN]]&amp;") VALUES("&amp;Tabla1[[#This Row],[ID_VISUALIZACION]]&amp;",'"&amp;Tabla1[[#This Row],[SISTEMA_OPERATIVO_USADO]]&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_INICIO]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_FIN]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_INICIO]],"HH:MM:SS")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_FIN]],"HH:MM:SS")&amp;"');"</f>
-        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(36,'LINUX','2021-02-27','2021-02-28','06:24:42','06:25:42');</v>
+        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(36,'LINUX','2021-08-07','2021-08-08','06:38:45','06:39:45');</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -2289,23 +2289,23 @@
       </c>
       <c r="C38" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>44513</v>
+        <v>44370</v>
       </c>
       <c r="D38" s="2">
         <f ca="1">+Tabla1[[#This Row],[FECHA_INICIO]]+1</f>
-        <v>44514</v>
+        <v>44371</v>
       </c>
       <c r="E38" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0.18490512064656639</v>
+        <v>8.9612696747467524E-2</v>
       </c>
       <c r="F38" s="3">
         <f ca="1">+Tabla1[[#This Row],[HORA_INICIO]]+0.000694444444444444</f>
-        <v>0.18559956509101083</v>
+        <v>9.0307141191911966E-2</v>
       </c>
       <c r="G38" t="str">
         <f ca="1">"INSERT INTO VISUALIZACION_ONLINE("&amp;Tabla1[[#Headers],[ID_VISUALIZACION]]&amp;","&amp;Tabla1[[#Headers],[SISTEMA_OPERATIVO_USADO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_FIN]]&amp;","&amp;Tabla1[[#Headers],[HORA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[HORA_FIN]]&amp;") VALUES("&amp;Tabla1[[#This Row],[ID_VISUALIZACION]]&amp;",'"&amp;Tabla1[[#This Row],[SISTEMA_OPERATIVO_USADO]]&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_INICIO]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_FIN]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_INICIO]],"HH:MM:SS")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_FIN]],"HH:MM:SS")&amp;"');"</f>
-        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(37,'WINDOWS','2021-11-13','2021-11-14','04:26:16','04:27:16');</v>
+        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(37,'WINDOWS','2021-06-23','2021-06-24','02:09:03','02:10:03');</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -2317,23 +2317,23 @@
       </c>
       <c r="C39" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>44765</v>
+        <v>44240</v>
       </c>
       <c r="D39" s="2">
         <f ca="1">+Tabla1[[#This Row],[FECHA_INICIO]]+1</f>
-        <v>44766</v>
+        <v>44241</v>
       </c>
       <c r="E39" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0.28005790746926751</v>
+        <v>0.91524903303010507</v>
       </c>
       <c r="F39" s="3">
         <f ca="1">+Tabla1[[#This Row],[HORA_INICIO]]+0.000694444444444444</f>
-        <v>0.28075235191371195</v>
+        <v>0.91594347747454952</v>
       </c>
       <c r="G39" t="str">
         <f ca="1">"INSERT INTO VISUALIZACION_ONLINE("&amp;Tabla1[[#Headers],[ID_VISUALIZACION]]&amp;","&amp;Tabla1[[#Headers],[SISTEMA_OPERATIVO_USADO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_FIN]]&amp;","&amp;Tabla1[[#Headers],[HORA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[HORA_FIN]]&amp;") VALUES("&amp;Tabla1[[#This Row],[ID_VISUALIZACION]]&amp;",'"&amp;Tabla1[[#This Row],[SISTEMA_OPERATIVO_USADO]]&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_INICIO]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_FIN]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_INICIO]],"HH:MM:SS")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_FIN]],"HH:MM:SS")&amp;"');"</f>
-        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(38,'LINUX','2022-07-23','2022-07-24','06:43:17','06:44:17');</v>
+        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(38,'LINUX','2021-02-13','2021-02-14','21:57:58','21:58:58');</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -2345,23 +2345,23 @@
       </c>
       <c r="C40" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>44573</v>
+        <v>44515</v>
       </c>
       <c r="D40" s="2">
         <f ca="1">+Tabla1[[#This Row],[FECHA_INICIO]]+1</f>
-        <v>44574</v>
+        <v>44516</v>
       </c>
       <c r="E40" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0.85939350404351977</v>
+        <v>0.82978475964741361</v>
       </c>
       <c r="F40" s="3">
         <f ca="1">+Tabla1[[#This Row],[HORA_INICIO]]+0.000694444444444444</f>
-        <v>0.86008794848796422</v>
+        <v>0.83047920409185805</v>
       </c>
       <c r="G40" t="str">
         <f ca="1">"INSERT INTO VISUALIZACION_ONLINE("&amp;Tabla1[[#Headers],[ID_VISUALIZACION]]&amp;","&amp;Tabla1[[#Headers],[SISTEMA_OPERATIVO_USADO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_FIN]]&amp;","&amp;Tabla1[[#Headers],[HORA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[HORA_FIN]]&amp;") VALUES("&amp;Tabla1[[#This Row],[ID_VISUALIZACION]]&amp;",'"&amp;Tabla1[[#This Row],[SISTEMA_OPERATIVO_USADO]]&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_INICIO]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_FIN]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_INICIO]],"HH:MM:SS")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_FIN]],"HH:MM:SS")&amp;"');"</f>
-        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(39,'WINDOWS','2022-01-12','2022-01-13','20:37:32','20:38:32');</v>
+        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(39,'WINDOWS','2021-11-15','2021-11-16','19:54:53','19:55:53');</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -2373,23 +2373,23 @@
       </c>
       <c r="C41" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>44694</v>
+        <v>44600</v>
       </c>
       <c r="D41" s="2">
         <f ca="1">+Tabla1[[#This Row],[FECHA_INICIO]]+1</f>
-        <v>44695</v>
+        <v>44601</v>
       </c>
       <c r="E41" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0.84281589407411839</v>
+        <v>0.52912697715977541</v>
       </c>
       <c r="F41" s="3">
         <f ca="1">+Tabla1[[#This Row],[HORA_INICIO]]+0.000694444444444444</f>
-        <v>0.84351033851856283</v>
+        <v>0.52982142160421986</v>
       </c>
       <c r="G41" t="str">
         <f ca="1">"INSERT INTO VISUALIZACION_ONLINE("&amp;Tabla1[[#Headers],[ID_VISUALIZACION]]&amp;","&amp;Tabla1[[#Headers],[SISTEMA_OPERATIVO_USADO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_FIN]]&amp;","&amp;Tabla1[[#Headers],[HORA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[HORA_FIN]]&amp;") VALUES("&amp;Tabla1[[#This Row],[ID_VISUALIZACION]]&amp;",'"&amp;Tabla1[[#This Row],[SISTEMA_OPERATIVO_USADO]]&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_INICIO]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_FIN]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_INICIO]],"HH:MM:SS")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_FIN]],"HH:MM:SS")&amp;"');"</f>
-        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(40,'WINDOWS','2022-05-13','2022-05-14','20:13:39','20:14:39');</v>
+        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(40,'WINDOWS','2022-02-08','2022-02-09','12:41:57','12:42:57');</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -2401,23 +2401,23 @@
       </c>
       <c r="C42" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>44661</v>
+        <v>44912</v>
       </c>
       <c r="D42" s="2">
         <f ca="1">+Tabla1[[#This Row],[FECHA_INICIO]]+1</f>
-        <v>44662</v>
+        <v>44913</v>
       </c>
       <c r="E42" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0.32268937241346884</v>
+        <v>0.34159599847810795</v>
       </c>
       <c r="F42" s="3">
         <f ca="1">+Tabla1[[#This Row],[HORA_INICIO]]+0.000694444444444444</f>
-        <v>0.32338381685791329</v>
+        <v>0.3422904429225524</v>
       </c>
       <c r="G42" t="str">
         <f ca="1">"INSERT INTO VISUALIZACION_ONLINE("&amp;Tabla1[[#Headers],[ID_VISUALIZACION]]&amp;","&amp;Tabla1[[#Headers],[SISTEMA_OPERATIVO_USADO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_FIN]]&amp;","&amp;Tabla1[[#Headers],[HORA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[HORA_FIN]]&amp;") VALUES("&amp;Tabla1[[#This Row],[ID_VISUALIZACION]]&amp;",'"&amp;Tabla1[[#This Row],[SISTEMA_OPERATIVO_USADO]]&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_INICIO]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_FIN]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_INICIO]],"HH:MM:SS")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_FIN]],"HH:MM:SS")&amp;"');"</f>
-        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(41,'WINDOWS','2022-04-10','2022-04-11','07:44:40','07:45:40');</v>
+        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(41,'WINDOWS','2022-12-17','2022-12-18','08:11:54','08:12:54');</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -2429,23 +2429,23 @@
       </c>
       <c r="C43" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>44643</v>
+        <v>44534</v>
       </c>
       <c r="D43" s="2">
         <f ca="1">+Tabla1[[#This Row],[FECHA_INICIO]]+1</f>
-        <v>44644</v>
+        <v>44535</v>
       </c>
       <c r="E43" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0.24475792064085844</v>
+        <v>0.39988553371248314</v>
       </c>
       <c r="F43" s="3">
         <f ca="1">+Tabla1[[#This Row],[HORA_INICIO]]+0.000694444444444444</f>
-        <v>0.24545236508530288</v>
+        <v>0.40057997815692759</v>
       </c>
       <c r="G43" t="str">
         <f ca="1">"INSERT INTO VISUALIZACION_ONLINE("&amp;Tabla1[[#Headers],[ID_VISUALIZACION]]&amp;","&amp;Tabla1[[#Headers],[SISTEMA_OPERATIVO_USADO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_FIN]]&amp;","&amp;Tabla1[[#Headers],[HORA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[HORA_FIN]]&amp;") VALUES("&amp;Tabla1[[#This Row],[ID_VISUALIZACION]]&amp;",'"&amp;Tabla1[[#This Row],[SISTEMA_OPERATIVO_USADO]]&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_INICIO]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_FIN]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_INICIO]],"HH:MM:SS")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_FIN]],"HH:MM:SS")&amp;"');"</f>
-        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(42,'LINUX','2022-03-23','2022-03-24','05:52:27','05:53:27');</v>
+        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(42,'LINUX','2021-12-04','2021-12-05','09:35:50','09:36:50');</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -2457,23 +2457,23 @@
       </c>
       <c r="C44" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>44235</v>
+        <v>44678</v>
       </c>
       <c r="D44" s="2">
         <f ca="1">+Tabla1[[#This Row],[FECHA_INICIO]]+1</f>
-        <v>44236</v>
+        <v>44679</v>
       </c>
       <c r="E44" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0.84745838713943944</v>
+        <v>0.83277593139794881</v>
       </c>
       <c r="F44" s="3">
         <f ca="1">+Tabla1[[#This Row],[HORA_INICIO]]+0.000694444444444444</f>
-        <v>0.84815283158388388</v>
+        <v>0.83347037584239325</v>
       </c>
       <c r="G44" t="str">
         <f ca="1">"INSERT INTO VISUALIZACION_ONLINE("&amp;Tabla1[[#Headers],[ID_VISUALIZACION]]&amp;","&amp;Tabla1[[#Headers],[SISTEMA_OPERATIVO_USADO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_FIN]]&amp;","&amp;Tabla1[[#Headers],[HORA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[HORA_FIN]]&amp;") VALUES("&amp;Tabla1[[#This Row],[ID_VISUALIZACION]]&amp;",'"&amp;Tabla1[[#This Row],[SISTEMA_OPERATIVO_USADO]]&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_INICIO]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_FIN]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_INICIO]],"HH:MM:SS")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_FIN]],"HH:MM:SS")&amp;"');"</f>
-        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(43,'WINDOWS','2021-02-08','2021-02-09','20:20:20','20:21:20');</v>
+        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(43,'WINDOWS','2022-04-27','2022-04-28','19:59:12','20:00:12');</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -2485,23 +2485,23 @@
       </c>
       <c r="C45" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>44636</v>
+        <v>44896</v>
       </c>
       <c r="D45" s="2">
         <f ca="1">+Tabla1[[#This Row],[FECHA_INICIO]]+1</f>
-        <v>44637</v>
+        <v>44897</v>
       </c>
       <c r="E45" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0.21163586194950512</v>
+        <v>0.62645146434346877</v>
       </c>
       <c r="F45" s="3">
         <f ca="1">+Tabla1[[#This Row],[HORA_INICIO]]+0.000694444444444444</f>
-        <v>0.21233030639394956</v>
+        <v>0.62714590878791321</v>
       </c>
       <c r="G45" t="str">
         <f ca="1">"INSERT INTO VISUALIZACION_ONLINE("&amp;Tabla1[[#Headers],[ID_VISUALIZACION]]&amp;","&amp;Tabla1[[#Headers],[SISTEMA_OPERATIVO_USADO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_FIN]]&amp;","&amp;Tabla1[[#Headers],[HORA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[HORA_FIN]]&amp;") VALUES("&amp;Tabla1[[#This Row],[ID_VISUALIZACION]]&amp;",'"&amp;Tabla1[[#This Row],[SISTEMA_OPERATIVO_USADO]]&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_INICIO]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_FIN]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_INICIO]],"HH:MM:SS")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_FIN]],"HH:MM:SS")&amp;"');"</f>
-        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(44,'LINUX','2022-03-16','2022-03-17','05:04:45','05:05:45');</v>
+        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(44,'LINUX','2022-12-01','2022-12-02','15:02:05','15:03:05');</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -2513,23 +2513,23 @@
       </c>
       <c r="C46" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>44684</v>
+        <v>44775</v>
       </c>
       <c r="D46" s="2">
         <f ca="1">+Tabla1[[#This Row],[FECHA_INICIO]]+1</f>
-        <v>44685</v>
+        <v>44776</v>
       </c>
       <c r="E46" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>4.3693367031072849E-2</v>
+        <v>0.21304634876045792</v>
       </c>
       <c r="F46" s="3">
         <f ca="1">+Tabla1[[#This Row],[HORA_INICIO]]+0.000694444444444444</f>
-        <v>4.4387811475517291E-2</v>
+        <v>0.21374079320490236</v>
       </c>
       <c r="G46" t="str">
         <f ca="1">"INSERT INTO VISUALIZACION_ONLINE("&amp;Tabla1[[#Headers],[ID_VISUALIZACION]]&amp;","&amp;Tabla1[[#Headers],[SISTEMA_OPERATIVO_USADO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_FIN]]&amp;","&amp;Tabla1[[#Headers],[HORA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[HORA_FIN]]&amp;") VALUES("&amp;Tabla1[[#This Row],[ID_VISUALIZACION]]&amp;",'"&amp;Tabla1[[#This Row],[SISTEMA_OPERATIVO_USADO]]&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_INICIO]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_FIN]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_INICIO]],"HH:MM:SS")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_FIN]],"HH:MM:SS")&amp;"');"</f>
-        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(45,'WINDOWS','2022-05-03','2022-05-04','01:02:55','01:03:55');</v>
+        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(45,'WINDOWS','2022-08-02','2022-08-03','05:06:47','05:07:47');</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -2541,23 +2541,23 @@
       </c>
       <c r="C47" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>44753</v>
+        <v>44914</v>
       </c>
       <c r="D47" s="2">
         <f ca="1">+Tabla1[[#This Row],[FECHA_INICIO]]+1</f>
-        <v>44754</v>
+        <v>44915</v>
       </c>
       <c r="E47" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0.42158010486896658</v>
+        <v>0.51747638219561787</v>
       </c>
       <c r="F47" s="3">
         <f ca="1">+Tabla1[[#This Row],[HORA_INICIO]]+0.000694444444444444</f>
-        <v>0.42227454931341102</v>
+        <v>0.51817082664006231</v>
       </c>
       <c r="G47" t="str">
         <f ca="1">"INSERT INTO VISUALIZACION_ONLINE("&amp;Tabla1[[#Headers],[ID_VISUALIZACION]]&amp;","&amp;Tabla1[[#Headers],[SISTEMA_OPERATIVO_USADO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_FIN]]&amp;","&amp;Tabla1[[#Headers],[HORA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[HORA_FIN]]&amp;") VALUES("&amp;Tabla1[[#This Row],[ID_VISUALIZACION]]&amp;",'"&amp;Tabla1[[#This Row],[SISTEMA_OPERATIVO_USADO]]&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_INICIO]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_FIN]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_INICIO]],"HH:MM:SS")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_FIN]],"HH:MM:SS")&amp;"');"</f>
-        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(46,'WINDOWS','2022-07-11','2022-07-12','10:07:05','10:08:05');</v>
+        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(46,'WINDOWS','2022-12-19','2022-12-20','12:25:10','12:26:10');</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -2569,23 +2569,23 @@
       </c>
       <c r="C48" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>44444</v>
+        <v>44240</v>
       </c>
       <c r="D48" s="2">
         <f ca="1">+Tabla1[[#This Row],[FECHA_INICIO]]+1</f>
-        <v>44445</v>
+        <v>44241</v>
       </c>
       <c r="E48" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0.70489738870118079</v>
+        <v>0.88128797428937589</v>
       </c>
       <c r="F48" s="3">
         <f ca="1">+Tabla1[[#This Row],[HORA_INICIO]]+0.000694444444444444</f>
-        <v>0.70559183314562524</v>
+        <v>0.88198241873382033</v>
       </c>
       <c r="G48" t="str">
         <f ca="1">"INSERT INTO VISUALIZACION_ONLINE("&amp;Tabla1[[#Headers],[ID_VISUALIZACION]]&amp;","&amp;Tabla1[[#Headers],[SISTEMA_OPERATIVO_USADO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_FIN]]&amp;","&amp;Tabla1[[#Headers],[HORA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[HORA_FIN]]&amp;") VALUES("&amp;Tabla1[[#This Row],[ID_VISUALIZACION]]&amp;",'"&amp;Tabla1[[#This Row],[SISTEMA_OPERATIVO_USADO]]&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_INICIO]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_FIN]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_INICIO]],"HH:MM:SS")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_FIN]],"HH:MM:SS")&amp;"');"</f>
-        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(47,'WINDOWS','2021-09-05','2021-09-06','16:55:03','16:56:03');</v>
+        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(47,'WINDOWS','2021-02-13','2021-02-14','21:09:03','21:10:03');</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -2597,23 +2597,23 @@
       </c>
       <c r="C49" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>44221</v>
+        <v>44823</v>
       </c>
       <c r="D49" s="2">
         <f ca="1">+Tabla1[[#This Row],[FECHA_INICIO]]+1</f>
-        <v>44222</v>
+        <v>44824</v>
       </c>
       <c r="E49" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0.32965210032695358</v>
+        <v>0.30649241262903881</v>
       </c>
       <c r="F49" s="3">
         <f ca="1">+Tabla1[[#This Row],[HORA_INICIO]]+0.000694444444444444</f>
-        <v>0.33034654477139802</v>
+        <v>0.30718685707348325</v>
       </c>
       <c r="G49" t="str">
         <f ca="1">"INSERT INTO VISUALIZACION_ONLINE("&amp;Tabla1[[#Headers],[ID_VISUALIZACION]]&amp;","&amp;Tabla1[[#Headers],[SISTEMA_OPERATIVO_USADO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_FIN]]&amp;","&amp;Tabla1[[#Headers],[HORA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[HORA_FIN]]&amp;") VALUES("&amp;Tabla1[[#This Row],[ID_VISUALIZACION]]&amp;",'"&amp;Tabla1[[#This Row],[SISTEMA_OPERATIVO_USADO]]&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_INICIO]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_FIN]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_INICIO]],"HH:MM:SS")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_FIN]],"HH:MM:SS")&amp;"');"</f>
-        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(48,'LINUX','2021-01-25','2021-01-26','07:54:42','07:55:42');</v>
+        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(48,'LINUX','2022-09-19','2022-09-20','07:21:21','07:22:21');</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -2625,23 +2625,23 @@
       </c>
       <c r="C50" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>44193</v>
+        <v>44172</v>
       </c>
       <c r="D50" s="2">
         <f ca="1">+Tabla1[[#This Row],[FECHA_INICIO]]+1</f>
-        <v>44194</v>
+        <v>44173</v>
       </c>
       <c r="E50" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0.97274893006283125</v>
+        <v>0.55324696795114792</v>
       </c>
       <c r="F50" s="3">
         <f ca="1">+Tabla1[[#This Row],[HORA_INICIO]]+0.000694444444444444</f>
-        <v>0.97344337450727569</v>
+        <v>0.55394141239559236</v>
       </c>
       <c r="G50" t="str">
         <f ca="1">"INSERT INTO VISUALIZACION_ONLINE("&amp;Tabla1[[#Headers],[ID_VISUALIZACION]]&amp;","&amp;Tabla1[[#Headers],[SISTEMA_OPERATIVO_USADO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_FIN]]&amp;","&amp;Tabla1[[#Headers],[HORA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[HORA_FIN]]&amp;") VALUES("&amp;Tabla1[[#This Row],[ID_VISUALIZACION]]&amp;",'"&amp;Tabla1[[#This Row],[SISTEMA_OPERATIVO_USADO]]&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_INICIO]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_FIN]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_INICIO]],"HH:MM:SS")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_FIN]],"HH:MM:SS")&amp;"');"</f>
-        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(49,'WINDOWS','2020-12-28','2020-12-29','23:20:46','23:21:46');</v>
+        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(49,'WINDOWS','2020-12-07','2020-12-08','13:16:41','13:17:41');</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -2653,23 +2653,23 @@
       </c>
       <c r="C51" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>44669</v>
+        <v>44807</v>
       </c>
       <c r="D51" s="2">
         <f ca="1">+Tabla1[[#This Row],[FECHA_INICIO]]+1</f>
-        <v>44670</v>
+        <v>44808</v>
       </c>
       <c r="E51" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>9.7924988797790102E-2</v>
+        <v>0.49680067814381557</v>
       </c>
       <c r="F51" s="3">
         <f ca="1">+Tabla1[[#This Row],[HORA_INICIO]]+0.000694444444444444</f>
-        <v>9.8619433242234544E-2</v>
+        <v>0.49749512258826001</v>
       </c>
       <c r="G51" t="str">
         <f ca="1">"INSERT INTO VISUALIZACION_ONLINE("&amp;Tabla1[[#Headers],[ID_VISUALIZACION]]&amp;","&amp;Tabla1[[#Headers],[SISTEMA_OPERATIVO_USADO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_FIN]]&amp;","&amp;Tabla1[[#Headers],[HORA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[HORA_FIN]]&amp;") VALUES("&amp;Tabla1[[#This Row],[ID_VISUALIZACION]]&amp;",'"&amp;Tabla1[[#This Row],[SISTEMA_OPERATIVO_USADO]]&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_INICIO]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_FIN]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_INICIO]],"HH:MM:SS")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_FIN]],"HH:MM:SS")&amp;"');"</f>
-        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(50,'LINUX','2022-04-18','2022-04-19','02:21:01','02:22:01');</v>
+        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(50,'LINUX','2022-09-03','2022-09-04','11:55:24','11:56:24');</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -2681,23 +2681,23 @@
       </c>
       <c r="C52" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>44724</v>
+        <v>44404</v>
       </c>
       <c r="D52" s="2">
         <f ca="1">+Tabla1[[#This Row],[FECHA_INICIO]]+1</f>
-        <v>44725</v>
+        <v>44405</v>
       </c>
       <c r="E52" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0.11687721926328654</v>
+        <v>0.34739341154769332</v>
       </c>
       <c r="F52" s="3">
         <f ca="1">+Tabla1[[#This Row],[HORA_INICIO]]+0.000694444444444444</f>
-        <v>0.11757166370773098</v>
+        <v>0.34808785599213776</v>
       </c>
       <c r="G52" t="str">
         <f ca="1">"INSERT INTO VISUALIZACION_ONLINE("&amp;Tabla1[[#Headers],[ID_VISUALIZACION]]&amp;","&amp;Tabla1[[#Headers],[SISTEMA_OPERATIVO_USADO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_FIN]]&amp;","&amp;Tabla1[[#Headers],[HORA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[HORA_FIN]]&amp;") VALUES("&amp;Tabla1[[#This Row],[ID_VISUALIZACION]]&amp;",'"&amp;Tabla1[[#This Row],[SISTEMA_OPERATIVO_USADO]]&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_INICIO]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_FIN]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_INICIO]],"HH:MM:SS")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_FIN]],"HH:MM:SS")&amp;"');"</f>
-        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(51,'WINDOWS','2022-06-12','2022-06-13','02:48:18','02:49:18');</v>
+        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(51,'WINDOWS','2021-07-27','2021-07-28','08:20:15','08:21:15');</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -2709,23 +2709,23 @@
       </c>
       <c r="C53" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>44556</v>
+        <v>44330</v>
       </c>
       <c r="D53" s="2">
         <f ca="1">+Tabla1[[#This Row],[FECHA_INICIO]]+1</f>
-        <v>44557</v>
+        <v>44331</v>
       </c>
       <c r="E53" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0.88420358019662593</v>
+        <v>0.59631760504274378</v>
       </c>
       <c r="F53" s="3">
         <f ca="1">+Tabla1[[#This Row],[HORA_INICIO]]+0.000694444444444444</f>
-        <v>0.88489802464107037</v>
+        <v>0.59701204948718822</v>
       </c>
       <c r="G53" t="str">
         <f ca="1">"INSERT INTO VISUALIZACION_ONLINE("&amp;Tabla1[[#Headers],[ID_VISUALIZACION]]&amp;","&amp;Tabla1[[#Headers],[SISTEMA_OPERATIVO_USADO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_FIN]]&amp;","&amp;Tabla1[[#Headers],[HORA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[HORA_FIN]]&amp;") VALUES("&amp;Tabla1[[#This Row],[ID_VISUALIZACION]]&amp;",'"&amp;Tabla1[[#This Row],[SISTEMA_OPERATIVO_USADO]]&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_INICIO]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_FIN]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_INICIO]],"HH:MM:SS")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_FIN]],"HH:MM:SS")&amp;"');"</f>
-        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(52,'WINDOWS','2021-12-26','2021-12-27','21:13:15','21:14:15');</v>
+        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(52,'WINDOWS','2021-05-14','2021-05-15','14:18:42','14:19:42');</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -2737,23 +2737,23 @@
       </c>
       <c r="C54" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>44292</v>
+        <v>44882</v>
       </c>
       <c r="D54" s="2">
         <f ca="1">+Tabla1[[#This Row],[FECHA_INICIO]]+1</f>
-        <v>44293</v>
+        <v>44883</v>
       </c>
       <c r="E54" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0.33236086265150699</v>
+        <v>0.51174454846028572</v>
       </c>
       <c r="F54" s="3">
         <f ca="1">+Tabla1[[#This Row],[HORA_INICIO]]+0.000694444444444444</f>
-        <v>0.33305530709595144</v>
+        <v>0.51243899290473016</v>
       </c>
       <c r="G54" t="str">
         <f ca="1">"INSERT INTO VISUALIZACION_ONLINE("&amp;Tabla1[[#Headers],[ID_VISUALIZACION]]&amp;","&amp;Tabla1[[#Headers],[SISTEMA_OPERATIVO_USADO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_FIN]]&amp;","&amp;Tabla1[[#Headers],[HORA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[HORA_FIN]]&amp;") VALUES("&amp;Tabla1[[#This Row],[ID_VISUALIZACION]]&amp;",'"&amp;Tabla1[[#This Row],[SISTEMA_OPERATIVO_USADO]]&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_INICIO]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_FIN]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_INICIO]],"HH:MM:SS")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_FIN]],"HH:MM:SS")&amp;"');"</f>
-        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(53,'WINDOWS','2021-04-06','2021-04-07','07:58:36','07:59:36');</v>
+        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(53,'WINDOWS','2022-11-17','2022-11-18','12:16:55','12:17:55');</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -2765,23 +2765,23 @@
       </c>
       <c r="C55" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>44443</v>
+        <v>44670</v>
       </c>
       <c r="D55" s="2">
         <f ca="1">+Tabla1[[#This Row],[FECHA_INICIO]]+1</f>
-        <v>44444</v>
+        <v>44671</v>
       </c>
       <c r="E55" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0.87549664065305233</v>
+        <v>0.4807489261175254</v>
       </c>
       <c r="F55" s="3">
         <f ca="1">+Tabla1[[#This Row],[HORA_INICIO]]+0.000694444444444444</f>
-        <v>0.87619108509749677</v>
+        <v>0.48144337056196984</v>
       </c>
       <c r="G55" t="str">
         <f ca="1">"INSERT INTO VISUALIZACION_ONLINE("&amp;Tabla1[[#Headers],[ID_VISUALIZACION]]&amp;","&amp;Tabla1[[#Headers],[SISTEMA_OPERATIVO_USADO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_FIN]]&amp;","&amp;Tabla1[[#Headers],[HORA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[HORA_FIN]]&amp;") VALUES("&amp;Tabla1[[#This Row],[ID_VISUALIZACION]]&amp;",'"&amp;Tabla1[[#This Row],[SISTEMA_OPERATIVO_USADO]]&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_INICIO]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_FIN]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_INICIO]],"HH:MM:SS")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_FIN]],"HH:MM:SS")&amp;"');"</f>
-        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(54,'LINUX','2021-09-04','2021-09-05','21:00:43','21:01:43');</v>
+        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(54,'LINUX','2022-04-19','2022-04-20','11:32:17','11:33:17');</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -2793,23 +2793,23 @@
       </c>
       <c r="C56" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>44514</v>
+        <v>44726</v>
       </c>
       <c r="D56" s="2">
         <f ca="1">+Tabla1[[#This Row],[FECHA_INICIO]]+1</f>
-        <v>44515</v>
+        <v>44727</v>
       </c>
       <c r="E56" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0.35255622419605259</v>
+        <v>0.81661668678544252</v>
       </c>
       <c r="F56" s="3">
         <f ca="1">+Tabla1[[#This Row],[HORA_INICIO]]+0.000694444444444444</f>
-        <v>0.35325066864049703</v>
+        <v>0.81731113122988697</v>
       </c>
       <c r="G56" t="str">
         <f ca="1">"INSERT INTO VISUALIZACION_ONLINE("&amp;Tabla1[[#Headers],[ID_VISUALIZACION]]&amp;","&amp;Tabla1[[#Headers],[SISTEMA_OPERATIVO_USADO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_FIN]]&amp;","&amp;Tabla1[[#Headers],[HORA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[HORA_FIN]]&amp;") VALUES("&amp;Tabla1[[#This Row],[ID_VISUALIZACION]]&amp;",'"&amp;Tabla1[[#This Row],[SISTEMA_OPERATIVO_USADO]]&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_INICIO]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_FIN]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_INICIO]],"HH:MM:SS")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_FIN]],"HH:MM:SS")&amp;"');"</f>
-        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(55,'WINDOWS','2021-11-14','2021-11-15','08:27:41','08:28:41');</v>
+        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(55,'WINDOWS','2022-06-14','2022-06-15','19:35:56','19:36:56');</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -2821,23 +2821,23 @@
       </c>
       <c r="C57" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>44387</v>
+        <v>44323</v>
       </c>
       <c r="D57" s="2">
         <f ca="1">+Tabla1[[#This Row],[FECHA_INICIO]]+1</f>
-        <v>44388</v>
+        <v>44324</v>
       </c>
       <c r="E57" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0.58492176184381273</v>
+        <v>0.701320460613991</v>
       </c>
       <c r="F57" s="3">
         <f ca="1">+Tabla1[[#This Row],[HORA_INICIO]]+0.000694444444444444</f>
-        <v>0.58561620628825717</v>
+        <v>0.70201490505843545</v>
       </c>
       <c r="G57" t="str">
         <f ca="1">"INSERT INTO VISUALIZACION_ONLINE("&amp;Tabla1[[#Headers],[ID_VISUALIZACION]]&amp;","&amp;Tabla1[[#Headers],[SISTEMA_OPERATIVO_USADO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_FIN]]&amp;","&amp;Tabla1[[#Headers],[HORA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[HORA_FIN]]&amp;") VALUES("&amp;Tabla1[[#This Row],[ID_VISUALIZACION]]&amp;",'"&amp;Tabla1[[#This Row],[SISTEMA_OPERATIVO_USADO]]&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_INICIO]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_FIN]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_INICIO]],"HH:MM:SS")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_FIN]],"HH:MM:SS")&amp;"');"</f>
-        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(56,'LINUX','2021-07-10','2021-07-11','14:02:17','14:03:17');</v>
+        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(56,'LINUX','2021-05-07','2021-05-08','16:49:54','16:50:54');</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -2849,23 +2849,23 @@
       </c>
       <c r="C58" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>44677</v>
+        <v>44681</v>
       </c>
       <c r="D58" s="2">
         <f ca="1">+Tabla1[[#This Row],[FECHA_INICIO]]+1</f>
-        <v>44678</v>
+        <v>44682</v>
       </c>
       <c r="E58" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0.74072573626877525</v>
+        <v>0.25657502551689215</v>
       </c>
       <c r="F58" s="3">
         <f ca="1">+Tabla1[[#This Row],[HORA_INICIO]]+0.000694444444444444</f>
-        <v>0.74142018071321969</v>
+        <v>0.25726946996133659</v>
       </c>
       <c r="G58" t="str">
         <f ca="1">"INSERT INTO VISUALIZACION_ONLINE("&amp;Tabla1[[#Headers],[ID_VISUALIZACION]]&amp;","&amp;Tabla1[[#Headers],[SISTEMA_OPERATIVO_USADO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_FIN]]&amp;","&amp;Tabla1[[#Headers],[HORA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[HORA_FIN]]&amp;") VALUES("&amp;Tabla1[[#This Row],[ID_VISUALIZACION]]&amp;",'"&amp;Tabla1[[#This Row],[SISTEMA_OPERATIVO_USADO]]&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_INICIO]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_FIN]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_INICIO]],"HH:MM:SS")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_FIN]],"HH:MM:SS")&amp;"');"</f>
-        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(57,'WINDOWS','2022-04-26','2022-04-27','17:46:39','17:47:39');</v>
+        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(57,'WINDOWS','2022-04-30','2022-05-01','06:09:28','06:10:28');</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -2877,23 +2877,23 @@
       </c>
       <c r="C59" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>44517</v>
+        <v>44190</v>
       </c>
       <c r="D59" s="2">
         <f ca="1">+Tabla1[[#This Row],[FECHA_INICIO]]+1</f>
-        <v>44518</v>
+        <v>44191</v>
       </c>
       <c r="E59" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0.49114029669505666</v>
+        <v>0.78629386852371519</v>
       </c>
       <c r="F59" s="3">
         <f ca="1">+Tabla1[[#This Row],[HORA_INICIO]]+0.000694444444444444</f>
-        <v>0.4918347411395011</v>
+        <v>0.78698831296815963</v>
       </c>
       <c r="G59" t="str">
         <f ca="1">"INSERT INTO VISUALIZACION_ONLINE("&amp;Tabla1[[#Headers],[ID_VISUALIZACION]]&amp;","&amp;Tabla1[[#Headers],[SISTEMA_OPERATIVO_USADO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_FIN]]&amp;","&amp;Tabla1[[#Headers],[HORA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[HORA_FIN]]&amp;") VALUES("&amp;Tabla1[[#This Row],[ID_VISUALIZACION]]&amp;",'"&amp;Tabla1[[#This Row],[SISTEMA_OPERATIVO_USADO]]&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_INICIO]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_FIN]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_INICIO]],"HH:MM:SS")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_FIN]],"HH:MM:SS")&amp;"');"</f>
-        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(58,'WINDOWS','2021-11-17','2021-11-18','11:47:15','11:48:15');</v>
+        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(58,'WINDOWS','2020-12-25','2020-12-26','18:52:16','18:53:16');</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -2905,23 +2905,23 @@
       </c>
       <c r="C60" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>44371</v>
+        <v>44500</v>
       </c>
       <c r="D60" s="2">
         <f ca="1">+Tabla1[[#This Row],[FECHA_INICIO]]+1</f>
-        <v>44372</v>
+        <v>44501</v>
       </c>
       <c r="E60" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0.46982016558812667</v>
+        <v>7.9417666407436416E-3</v>
       </c>
       <c r="F60" s="3">
         <f ca="1">+Tabla1[[#This Row],[HORA_INICIO]]+0.000694444444444444</f>
-        <v>0.47051461003257111</v>
+        <v>8.6362110851880853E-3</v>
       </c>
       <c r="G60" t="str">
         <f ca="1">"INSERT INTO VISUALIZACION_ONLINE("&amp;Tabla1[[#Headers],[ID_VISUALIZACION]]&amp;","&amp;Tabla1[[#Headers],[SISTEMA_OPERATIVO_USADO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_FIN]]&amp;","&amp;Tabla1[[#Headers],[HORA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[HORA_FIN]]&amp;") VALUES("&amp;Tabla1[[#This Row],[ID_VISUALIZACION]]&amp;",'"&amp;Tabla1[[#This Row],[SISTEMA_OPERATIVO_USADO]]&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_INICIO]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_FIN]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_INICIO]],"HH:MM:SS")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_FIN]],"HH:MM:SS")&amp;"');"</f>
-        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(59,'WINDOWS','2021-06-24','2021-06-25','11:16:32','11:17:32');</v>
+        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(59,'WINDOWS','2021-10-31','2021-11-01','00:11:26','00:12:26');</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -2933,23 +2933,23 @@
       </c>
       <c r="C61" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>44677</v>
+        <v>44662</v>
       </c>
       <c r="D61" s="2">
         <f ca="1">+Tabla1[[#This Row],[FECHA_INICIO]]+1</f>
-        <v>44678</v>
+        <v>44663</v>
       </c>
       <c r="E61" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0.64765443397372713</v>
+        <v>0.46941590347852979</v>
       </c>
       <c r="F61" s="3">
         <f ca="1">+Tabla1[[#This Row],[HORA_INICIO]]+0.000694444444444444</f>
-        <v>0.64834887841817157</v>
+        <v>0.47011034792297424</v>
       </c>
       <c r="G61" t="str">
         <f ca="1">"INSERT INTO VISUALIZACION_ONLINE("&amp;Tabla1[[#Headers],[ID_VISUALIZACION]]&amp;","&amp;Tabla1[[#Headers],[SISTEMA_OPERATIVO_USADO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_FIN]]&amp;","&amp;Tabla1[[#Headers],[HORA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[HORA_FIN]]&amp;") VALUES("&amp;Tabla1[[#This Row],[ID_VISUALIZACION]]&amp;",'"&amp;Tabla1[[#This Row],[SISTEMA_OPERATIVO_USADO]]&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_INICIO]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_FIN]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_INICIO]],"HH:MM:SS")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_FIN]],"HH:MM:SS")&amp;"');"</f>
-        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(60,'LINUX','2022-04-26','2022-04-27','15:32:37','15:33:37');</v>
+        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(60,'LINUX','2022-04-11','2022-04-12','11:15:58','11:16:58');</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -2961,23 +2961,23 @@
       </c>
       <c r="C62" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>44656</v>
+        <v>44349</v>
       </c>
       <c r="D62" s="2">
         <f ca="1">+Tabla1[[#This Row],[FECHA_INICIO]]+1</f>
-        <v>44657</v>
+        <v>44350</v>
       </c>
       <c r="E62" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0.86019383607268318</v>
+        <v>0.89291006479335799</v>
       </c>
       <c r="F62" s="3">
         <f ca="1">+Tabla1[[#This Row],[HORA_INICIO]]+0.000694444444444444</f>
-        <v>0.86088828051712762</v>
+        <v>0.89360450923780244</v>
       </c>
       <c r="G62" t="str">
         <f ca="1">"INSERT INTO VISUALIZACION_ONLINE("&amp;Tabla1[[#Headers],[ID_VISUALIZACION]]&amp;","&amp;Tabla1[[#Headers],[SISTEMA_OPERATIVO_USADO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_FIN]]&amp;","&amp;Tabla1[[#Headers],[HORA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[HORA_FIN]]&amp;") VALUES("&amp;Tabla1[[#This Row],[ID_VISUALIZACION]]&amp;",'"&amp;Tabla1[[#This Row],[SISTEMA_OPERATIVO_USADO]]&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_INICIO]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_FIN]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_INICIO]],"HH:MM:SS")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_FIN]],"HH:MM:SS")&amp;"');"</f>
-        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(61,'WINDOWS','2022-04-05','2022-04-06','20:38:41','20:39:41');</v>
+        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(61,'WINDOWS','2021-06-02','2021-06-03','21:25:47','21:26:47');</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -2989,23 +2989,23 @@
       </c>
       <c r="C63" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>44609</v>
+        <v>44575</v>
       </c>
       <c r="D63" s="2">
         <f ca="1">+Tabla1[[#This Row],[FECHA_INICIO]]+1</f>
-        <v>44610</v>
+        <v>44576</v>
       </c>
       <c r="E63" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>7.1878269691796559E-2</v>
+        <v>0.56013964058754562</v>
       </c>
       <c r="F63" s="3">
         <f ca="1">+Tabla1[[#This Row],[HORA_INICIO]]+0.000694444444444444</f>
-        <v>7.2572714136241001E-2</v>
+        <v>0.56083408503199006</v>
       </c>
       <c r="G63" t="str">
         <f ca="1">"INSERT INTO VISUALIZACION_ONLINE("&amp;Tabla1[[#Headers],[ID_VISUALIZACION]]&amp;","&amp;Tabla1[[#Headers],[SISTEMA_OPERATIVO_USADO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_FIN]]&amp;","&amp;Tabla1[[#Headers],[HORA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[HORA_FIN]]&amp;") VALUES("&amp;Tabla1[[#This Row],[ID_VISUALIZACION]]&amp;",'"&amp;Tabla1[[#This Row],[SISTEMA_OPERATIVO_USADO]]&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_INICIO]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_FIN]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_INICIO]],"HH:MM:SS")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_FIN]],"HH:MM:SS")&amp;"');"</f>
-        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(62,'LINUX','2022-02-17','2022-02-18','01:43:30','01:44:30');</v>
+        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(62,'LINUX','2022-01-14','2022-01-15','13:26:36','13:27:36');</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -3017,23 +3017,23 @@
       </c>
       <c r="C64" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>44499</v>
+        <v>44631</v>
       </c>
       <c r="D64" s="2">
         <f ca="1">+Tabla1[[#This Row],[FECHA_INICIO]]+1</f>
-        <v>44500</v>
+        <v>44632</v>
       </c>
       <c r="E64" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0.1766062862236516</v>
+        <v>0.66912925325468797</v>
       </c>
       <c r="F64" s="3">
         <f ca="1">+Tabla1[[#This Row],[HORA_INICIO]]+0.000694444444444444</f>
-        <v>0.17730073066809604</v>
+        <v>0.66982369769913241</v>
       </c>
       <c r="G64" t="str">
         <f ca="1">"INSERT INTO VISUALIZACION_ONLINE("&amp;Tabla1[[#Headers],[ID_VISUALIZACION]]&amp;","&amp;Tabla1[[#Headers],[SISTEMA_OPERATIVO_USADO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_FIN]]&amp;","&amp;Tabla1[[#Headers],[HORA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[HORA_FIN]]&amp;") VALUES("&amp;Tabla1[[#This Row],[ID_VISUALIZACION]]&amp;",'"&amp;Tabla1[[#This Row],[SISTEMA_OPERATIVO_USADO]]&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_INICIO]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_FIN]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_INICIO]],"HH:MM:SS")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_FIN]],"HH:MM:SS")&amp;"');"</f>
-        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(63,'WINDOWS','2021-10-30','2021-10-31','04:14:19','04:15:19');</v>
+        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(63,'WINDOWS','2022-03-11','2022-03-12','16:03:33','16:04:33');</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -3045,23 +3045,23 @@
       </c>
       <c r="C65" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>44275</v>
+        <v>44779</v>
       </c>
       <c r="D65" s="2">
         <f ca="1">+Tabla1[[#This Row],[FECHA_INICIO]]+1</f>
-        <v>44276</v>
+        <v>44780</v>
       </c>
       <c r="E65" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>2.3340809482889302E-2</v>
+        <v>0.12569526267728715</v>
       </c>
       <c r="F65" s="3">
         <f ca="1">+Tabla1[[#This Row],[HORA_INICIO]]+0.000694444444444444</f>
-        <v>2.4035253927333747E-2</v>
+        <v>0.12638970712173159</v>
       </c>
       <c r="G65" t="str">
         <f ca="1">"INSERT INTO VISUALIZACION_ONLINE("&amp;Tabla1[[#Headers],[ID_VISUALIZACION]]&amp;","&amp;Tabla1[[#Headers],[SISTEMA_OPERATIVO_USADO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_FIN]]&amp;","&amp;Tabla1[[#Headers],[HORA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[HORA_FIN]]&amp;") VALUES("&amp;Tabla1[[#This Row],[ID_VISUALIZACION]]&amp;",'"&amp;Tabla1[[#This Row],[SISTEMA_OPERATIVO_USADO]]&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_INICIO]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_FIN]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_INICIO]],"HH:MM:SS")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_FIN]],"HH:MM:SS")&amp;"');"</f>
-        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(64,'WINDOWS','2021-03-20','2021-03-21','00:33:37','00:34:37');</v>
+        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(64,'WINDOWS','2022-08-06','2022-08-07','03:01:00','03:02:00');</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -3073,23 +3073,23 @@
       </c>
       <c r="C66" s="2">
         <f t="shared" ref="C66:C100" ca="1" si="4">RANDBETWEEN(DATE(2020,12,1),DATE(2022,12,31))</f>
-        <v>44393</v>
+        <v>44532</v>
       </c>
       <c r="D66" s="2">
         <f ca="1">+Tabla1[[#This Row],[FECHA_INICIO]]+1</f>
-        <v>44394</v>
+        <v>44533</v>
       </c>
       <c r="E66" s="3">
         <f t="shared" ref="E66:E100" ca="1" si="5">RAND()</f>
-        <v>0.64759162786401558</v>
+        <v>0.3966671878617114</v>
       </c>
       <c r="F66" s="3">
         <f ca="1">+Tabla1[[#This Row],[HORA_INICIO]]+0.000694444444444444</f>
-        <v>0.64828607230846003</v>
+        <v>0.39736163230615584</v>
       </c>
       <c r="G66" t="str">
         <f ca="1">"INSERT INTO VISUALIZACION_ONLINE("&amp;Tabla1[[#Headers],[ID_VISUALIZACION]]&amp;","&amp;Tabla1[[#Headers],[SISTEMA_OPERATIVO_USADO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_FIN]]&amp;","&amp;Tabla1[[#Headers],[HORA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[HORA_FIN]]&amp;") VALUES("&amp;Tabla1[[#This Row],[ID_VISUALIZACION]]&amp;",'"&amp;Tabla1[[#This Row],[SISTEMA_OPERATIVO_USADO]]&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_INICIO]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_FIN]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_INICIO]],"HH:MM:SS")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_FIN]],"HH:MM:SS")&amp;"');"</f>
-        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(65,'WINDOWS','2021-07-16','2021-07-17','15:32:32','15:33:32');</v>
+        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(65,'WINDOWS','2021-12-02','2021-12-03','09:31:12','09:32:12');</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -3101,23 +3101,23 @@
       </c>
       <c r="C67" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>44916</v>
+        <v>44197</v>
       </c>
       <c r="D67" s="2">
         <f ca="1">+Tabla1[[#This Row],[FECHA_INICIO]]+1</f>
-        <v>44917</v>
+        <v>44198</v>
       </c>
       <c r="E67" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0.73605311629748571</v>
+        <v>0.34681427982419366</v>
       </c>
       <c r="F67" s="3">
         <f ca="1">+Tabla1[[#This Row],[HORA_INICIO]]+0.000694444444444444</f>
-        <v>0.73674756074193015</v>
+        <v>0.3475087242686381</v>
       </c>
       <c r="G67" t="str">
         <f ca="1">"INSERT INTO VISUALIZACION_ONLINE("&amp;Tabla1[[#Headers],[ID_VISUALIZACION]]&amp;","&amp;Tabla1[[#Headers],[SISTEMA_OPERATIVO_USADO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_FIN]]&amp;","&amp;Tabla1[[#Headers],[HORA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[HORA_FIN]]&amp;") VALUES("&amp;Tabla1[[#This Row],[ID_VISUALIZACION]]&amp;",'"&amp;Tabla1[[#This Row],[SISTEMA_OPERATIVO_USADO]]&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_INICIO]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_FIN]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_INICIO]],"HH:MM:SS")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_FIN]],"HH:MM:SS")&amp;"');"</f>
-        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(66,'LINUX','2022-12-21','2022-12-22','17:39:55','17:40:55');</v>
+        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(66,'LINUX','2021-01-01','2021-01-02','08:19:25','08:20:25');</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -3129,23 +3129,23 @@
       </c>
       <c r="C68" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>44614</v>
+        <v>44396</v>
       </c>
       <c r="D68" s="2">
         <f ca="1">+Tabla1[[#This Row],[FECHA_INICIO]]+1</f>
-        <v>44615</v>
+        <v>44397</v>
       </c>
       <c r="E68" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0.78580535764432435</v>
+        <v>0.42137710963645703</v>
       </c>
       <c r="F68" s="3">
         <f ca="1">+Tabla1[[#This Row],[HORA_INICIO]]+0.000694444444444444</f>
-        <v>0.7864998020887688</v>
+        <v>0.42207155408090147</v>
       </c>
       <c r="G68" t="str">
         <f ca="1">"INSERT INTO VISUALIZACION_ONLINE("&amp;Tabla1[[#Headers],[ID_VISUALIZACION]]&amp;","&amp;Tabla1[[#Headers],[SISTEMA_OPERATIVO_USADO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_FIN]]&amp;","&amp;Tabla1[[#Headers],[HORA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[HORA_FIN]]&amp;") VALUES("&amp;Tabla1[[#This Row],[ID_VISUALIZACION]]&amp;",'"&amp;Tabla1[[#This Row],[SISTEMA_OPERATIVO_USADO]]&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_INICIO]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_FIN]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_INICIO]],"HH:MM:SS")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_FIN]],"HH:MM:SS")&amp;"');"</f>
-        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(67,'WINDOWS','2022-02-22','2022-02-23','18:51:34','18:52:34');</v>
+        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(67,'WINDOWS','2021-07-19','2021-07-20','10:06:47','10:07:47');</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -3157,23 +3157,23 @@
       </c>
       <c r="C69" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>44866</v>
+        <v>44286</v>
       </c>
       <c r="D69" s="2">
         <f ca="1">+Tabla1[[#This Row],[FECHA_INICIO]]+1</f>
-        <v>44867</v>
+        <v>44287</v>
       </c>
       <c r="E69" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0.55412143592198204</v>
+        <v>0.93370744241694781</v>
       </c>
       <c r="F69" s="3">
         <f ca="1">+Tabla1[[#This Row],[HORA_INICIO]]+0.000694444444444444</f>
-        <v>0.55481588036642648</v>
+        <v>0.93440188686139225</v>
       </c>
       <c r="G69" t="str">
         <f ca="1">"INSERT INTO VISUALIZACION_ONLINE("&amp;Tabla1[[#Headers],[ID_VISUALIZACION]]&amp;","&amp;Tabla1[[#Headers],[SISTEMA_OPERATIVO_USADO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_FIN]]&amp;","&amp;Tabla1[[#Headers],[HORA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[HORA_FIN]]&amp;") VALUES("&amp;Tabla1[[#This Row],[ID_VISUALIZACION]]&amp;",'"&amp;Tabla1[[#This Row],[SISTEMA_OPERATIVO_USADO]]&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_INICIO]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_FIN]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_INICIO]],"HH:MM:SS")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_FIN]],"HH:MM:SS")&amp;"');"</f>
-        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(68,'LINUX','2022-11-01','2022-11-02','13:17:56','13:18:56');</v>
+        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(68,'LINUX','2021-03-31','2021-04-01','22:24:32','22:25:32');</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -3185,23 +3185,23 @@
       </c>
       <c r="C70" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>44528</v>
+        <v>44566</v>
       </c>
       <c r="D70" s="2">
         <f ca="1">+Tabla1[[#This Row],[FECHA_INICIO]]+1</f>
-        <v>44529</v>
+        <v>44567</v>
       </c>
       <c r="E70" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0.49566487742921173</v>
+        <v>0.73456092030125286</v>
       </c>
       <c r="F70" s="3">
         <f ca="1">+Tabla1[[#This Row],[HORA_INICIO]]+0.000694444444444444</f>
-        <v>0.49635932187365617</v>
+        <v>0.7352553647456973</v>
       </c>
       <c r="G70" t="str">
         <f ca="1">"INSERT INTO VISUALIZACION_ONLINE("&amp;Tabla1[[#Headers],[ID_VISUALIZACION]]&amp;","&amp;Tabla1[[#Headers],[SISTEMA_OPERATIVO_USADO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_FIN]]&amp;","&amp;Tabla1[[#Headers],[HORA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[HORA_FIN]]&amp;") VALUES("&amp;Tabla1[[#This Row],[ID_VISUALIZACION]]&amp;",'"&amp;Tabla1[[#This Row],[SISTEMA_OPERATIVO_USADO]]&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_INICIO]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_FIN]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_INICIO]],"HH:MM:SS")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_FIN]],"HH:MM:SS")&amp;"');"</f>
-        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(69,'WINDOWS','2021-11-28','2021-11-29','11:53:45','11:54:45');</v>
+        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(69,'WINDOWS','2022-01-05','2022-01-06','17:37:46','17:38:46');</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -3213,23 +3213,23 @@
       </c>
       <c r="C71" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>44434</v>
+        <v>44587</v>
       </c>
       <c r="D71" s="2">
         <f ca="1">+Tabla1[[#This Row],[FECHA_INICIO]]+1</f>
-        <v>44435</v>
+        <v>44588</v>
       </c>
       <c r="E71" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.2834149827206356E-2</v>
+        <v>0.23324613274108663</v>
       </c>
       <c r="F71" s="3">
         <f ca="1">+Tabla1[[#This Row],[HORA_INICIO]]+0.000694444444444444</f>
-        <v>5.3528594271650798E-2</v>
+        <v>0.23394057718553107</v>
       </c>
       <c r="G71" t="str">
         <f ca="1">"INSERT INTO VISUALIZACION_ONLINE("&amp;Tabla1[[#Headers],[ID_VISUALIZACION]]&amp;","&amp;Tabla1[[#Headers],[SISTEMA_OPERATIVO_USADO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_FIN]]&amp;","&amp;Tabla1[[#Headers],[HORA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[HORA_FIN]]&amp;") VALUES("&amp;Tabla1[[#This Row],[ID_VISUALIZACION]]&amp;",'"&amp;Tabla1[[#This Row],[SISTEMA_OPERATIVO_USADO]]&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_INICIO]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_FIN]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_INICIO]],"HH:MM:SS")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_FIN]],"HH:MM:SS")&amp;"');"</f>
-        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(70,'WINDOWS','2021-08-26','2021-08-27','01:16:05','01:17:05');</v>
+        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(70,'WINDOWS','2022-01-26','2022-01-27','05:35:52','05:36:52');</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -3241,23 +3241,23 @@
       </c>
       <c r="C72" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>44323</v>
+        <v>44508</v>
       </c>
       <c r="D72" s="2">
         <f ca="1">+Tabla1[[#This Row],[FECHA_INICIO]]+1</f>
-        <v>44324</v>
+        <v>44509</v>
       </c>
       <c r="E72" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0.69793617045280942</v>
+        <v>3.9794352342518824E-2</v>
       </c>
       <c r="F72" s="3">
         <f ca="1">+Tabla1[[#This Row],[HORA_INICIO]]+0.000694444444444444</f>
-        <v>0.69863061489725387</v>
+        <v>4.0488796786963266E-2</v>
       </c>
       <c r="G72" t="str">
         <f ca="1">"INSERT INTO VISUALIZACION_ONLINE("&amp;Tabla1[[#Headers],[ID_VISUALIZACION]]&amp;","&amp;Tabla1[[#Headers],[SISTEMA_OPERATIVO_USADO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_FIN]]&amp;","&amp;Tabla1[[#Headers],[HORA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[HORA_FIN]]&amp;") VALUES("&amp;Tabla1[[#This Row],[ID_VISUALIZACION]]&amp;",'"&amp;Tabla1[[#This Row],[SISTEMA_OPERATIVO_USADO]]&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_INICIO]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_FIN]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_INICIO]],"HH:MM:SS")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_FIN]],"HH:MM:SS")&amp;"');"</f>
-        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(71,'WINDOWS','2021-05-07','2021-05-08','16:45:02','16:46:02');</v>
+        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(71,'WINDOWS','2021-11-08','2021-11-09','00:57:18','00:58:18');</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -3269,23 +3269,23 @@
       </c>
       <c r="C73" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>44924</v>
+        <v>44351</v>
       </c>
       <c r="D73" s="2">
         <f ca="1">+Tabla1[[#This Row],[FECHA_INICIO]]+1</f>
-        <v>44925</v>
+        <v>44352</v>
       </c>
       <c r="E73" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0.72580481374183192</v>
+        <v>0.9397520861918377</v>
       </c>
       <c r="F73" s="3">
         <f ca="1">+Tabla1[[#This Row],[HORA_INICIO]]+0.000694444444444444</f>
-        <v>0.72649925818627636</v>
+        <v>0.94044653063628214</v>
       </c>
       <c r="G73" t="str">
         <f ca="1">"INSERT INTO VISUALIZACION_ONLINE("&amp;Tabla1[[#Headers],[ID_VISUALIZACION]]&amp;","&amp;Tabla1[[#Headers],[SISTEMA_OPERATIVO_USADO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_FIN]]&amp;","&amp;Tabla1[[#Headers],[HORA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[HORA_FIN]]&amp;") VALUES("&amp;Tabla1[[#This Row],[ID_VISUALIZACION]]&amp;",'"&amp;Tabla1[[#This Row],[SISTEMA_OPERATIVO_USADO]]&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_INICIO]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_FIN]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_INICIO]],"HH:MM:SS")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_FIN]],"HH:MM:SS")&amp;"');"</f>
-        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(72,'LINUX','2022-12-29','2022-12-30','17:25:10','17:26:10');</v>
+        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(72,'LINUX','2021-06-04','2021-06-05','22:33:15','22:34:15');</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -3297,23 +3297,23 @@
       </c>
       <c r="C74" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>44652</v>
+        <v>44317</v>
       </c>
       <c r="D74" s="2">
         <f ca="1">+Tabla1[[#This Row],[FECHA_INICIO]]+1</f>
-        <v>44653</v>
+        <v>44318</v>
       </c>
       <c r="E74" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0.6106690234731551</v>
+        <v>0.52899516629718868</v>
       </c>
       <c r="F74" s="3">
         <f ca="1">+Tabla1[[#This Row],[HORA_INICIO]]+0.000694444444444444</f>
-        <v>0.61136346791759955</v>
+        <v>0.52968961074163312</v>
       </c>
       <c r="G74" t="str">
         <f ca="1">"INSERT INTO VISUALIZACION_ONLINE("&amp;Tabla1[[#Headers],[ID_VISUALIZACION]]&amp;","&amp;Tabla1[[#Headers],[SISTEMA_OPERATIVO_USADO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_FIN]]&amp;","&amp;Tabla1[[#Headers],[HORA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[HORA_FIN]]&amp;") VALUES("&amp;Tabla1[[#This Row],[ID_VISUALIZACION]]&amp;",'"&amp;Tabla1[[#This Row],[SISTEMA_OPERATIVO_USADO]]&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_INICIO]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_FIN]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_INICIO]],"HH:MM:SS")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_FIN]],"HH:MM:SS")&amp;"');"</f>
-        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(73,'WINDOWS','2022-04-01','2022-04-02','14:39:22','14:40:22');</v>
+        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(73,'WINDOWS','2021-05-01','2021-05-02','12:41:45','12:42:45');</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -3325,23 +3325,23 @@
       </c>
       <c r="C75" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>44498</v>
+        <v>44217</v>
       </c>
       <c r="D75" s="2">
         <f ca="1">+Tabla1[[#This Row],[FECHA_INICIO]]+1</f>
-        <v>44499</v>
+        <v>44218</v>
       </c>
       <c r="E75" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0.72885784747051641</v>
+        <v>0.80593744497094211</v>
       </c>
       <c r="F75" s="3">
         <f ca="1">+Tabla1[[#This Row],[HORA_INICIO]]+0.000694444444444444</f>
-        <v>0.72955229191496085</v>
+        <v>0.80663188941538655</v>
       </c>
       <c r="G75" t="str">
         <f ca="1">"INSERT INTO VISUALIZACION_ONLINE("&amp;Tabla1[[#Headers],[ID_VISUALIZACION]]&amp;","&amp;Tabla1[[#Headers],[SISTEMA_OPERATIVO_USADO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_FIN]]&amp;","&amp;Tabla1[[#Headers],[HORA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[HORA_FIN]]&amp;") VALUES("&amp;Tabla1[[#This Row],[ID_VISUALIZACION]]&amp;",'"&amp;Tabla1[[#This Row],[SISTEMA_OPERATIVO_USADO]]&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_INICIO]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_FIN]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_INICIO]],"HH:MM:SS")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_FIN]],"HH:MM:SS")&amp;"');"</f>
-        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(74,'LINUX','2021-10-29','2021-10-30','17:29:33','17:30:33');</v>
+        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(74,'LINUX','2021-01-21','2021-01-22','19:20:33','19:21:33');</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -3353,23 +3353,23 @@
       </c>
       <c r="C76" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>44891</v>
+        <v>44874</v>
       </c>
       <c r="D76" s="2">
         <f ca="1">+Tabla1[[#This Row],[FECHA_INICIO]]+1</f>
-        <v>44892</v>
+        <v>44875</v>
       </c>
       <c r="E76" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0.1950330172099064</v>
+        <v>0.799226248489459</v>
       </c>
       <c r="F76" s="3">
         <f ca="1">+Tabla1[[#This Row],[HORA_INICIO]]+0.000694444444444444</f>
-        <v>0.19572746165435084</v>
+        <v>0.79992069293390344</v>
       </c>
       <c r="G76" t="str">
         <f ca="1">"INSERT INTO VISUALIZACION_ONLINE("&amp;Tabla1[[#Headers],[ID_VISUALIZACION]]&amp;","&amp;Tabla1[[#Headers],[SISTEMA_OPERATIVO_USADO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_FIN]]&amp;","&amp;Tabla1[[#Headers],[HORA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[HORA_FIN]]&amp;") VALUES("&amp;Tabla1[[#This Row],[ID_VISUALIZACION]]&amp;",'"&amp;Tabla1[[#This Row],[SISTEMA_OPERATIVO_USADO]]&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_INICIO]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_FIN]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_INICIO]],"HH:MM:SS")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_FIN]],"HH:MM:SS")&amp;"');"</f>
-        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(75,'WINDOWS','2022-11-26','2022-11-27','04:40:51','04:41:51');</v>
+        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(75,'WINDOWS','2022-11-09','2022-11-10','19:10:53','19:11:53');</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -3381,23 +3381,23 @@
       </c>
       <c r="C77" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>44803</v>
+        <v>44520</v>
       </c>
       <c r="D77" s="2">
         <f ca="1">+Tabla1[[#This Row],[FECHA_INICIO]]+1</f>
-        <v>44804</v>
+        <v>44521</v>
       </c>
       <c r="E77" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0.45988788077311593</v>
+        <v>0.40609587085829957</v>
       </c>
       <c r="F77" s="3">
         <f ca="1">+Tabla1[[#This Row],[HORA_INICIO]]+0.000694444444444444</f>
-        <v>0.46058232521756037</v>
+        <v>0.40679031530274401</v>
       </c>
       <c r="G77" t="str">
         <f ca="1">"INSERT INTO VISUALIZACION_ONLINE("&amp;Tabla1[[#Headers],[ID_VISUALIZACION]]&amp;","&amp;Tabla1[[#Headers],[SISTEMA_OPERATIVO_USADO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_FIN]]&amp;","&amp;Tabla1[[#Headers],[HORA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[HORA_FIN]]&amp;") VALUES("&amp;Tabla1[[#This Row],[ID_VISUALIZACION]]&amp;",'"&amp;Tabla1[[#This Row],[SISTEMA_OPERATIVO_USADO]]&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_INICIO]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_FIN]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_INICIO]],"HH:MM:SS")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_FIN]],"HH:MM:SS")&amp;"');"</f>
-        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(76,'WINDOWS','2022-08-30','2022-08-31','11:02:14','11:03:14');</v>
+        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(76,'WINDOWS','2021-11-20','2021-11-21','09:44:47','09:45:47');</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -3409,23 +3409,23 @@
       </c>
       <c r="C78" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>44599</v>
+        <v>44844</v>
       </c>
       <c r="D78" s="2">
         <f ca="1">+Tabla1[[#This Row],[FECHA_INICIO]]+1</f>
-        <v>44600</v>
+        <v>44845</v>
       </c>
       <c r="E78" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0.66776980648917328</v>
+        <v>8.1492299704125637E-3</v>
       </c>
       <c r="F78" s="3">
         <f ca="1">+Tabla1[[#This Row],[HORA_INICIO]]+0.000694444444444444</f>
-        <v>0.66846425093361772</v>
+        <v>8.8436744148570074E-3</v>
       </c>
       <c r="G78" t="str">
         <f ca="1">"INSERT INTO VISUALIZACION_ONLINE("&amp;Tabla1[[#Headers],[ID_VISUALIZACION]]&amp;","&amp;Tabla1[[#Headers],[SISTEMA_OPERATIVO_USADO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_FIN]]&amp;","&amp;Tabla1[[#Headers],[HORA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[HORA_FIN]]&amp;") VALUES("&amp;Tabla1[[#This Row],[ID_VISUALIZACION]]&amp;",'"&amp;Tabla1[[#This Row],[SISTEMA_OPERATIVO_USADO]]&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_INICIO]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_FIN]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_INICIO]],"HH:MM:SS")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_FIN]],"HH:MM:SS")&amp;"');"</f>
-        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(77,'WINDOWS','2022-02-07','2022-02-08','16:01:35','16:02:35');</v>
+        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(77,'WINDOWS','2022-10-10','2022-10-11','00:11:44','00:12:44');</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -3437,23 +3437,23 @@
       </c>
       <c r="C79" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>44785</v>
+        <v>44812</v>
       </c>
       <c r="D79" s="2">
         <f ca="1">+Tabla1[[#This Row],[FECHA_INICIO]]+1</f>
-        <v>44786</v>
+        <v>44813</v>
       </c>
       <c r="E79" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0.17438511971058368</v>
+        <v>0.91322318905529376</v>
       </c>
       <c r="F79" s="3">
         <f ca="1">+Tabla1[[#This Row],[HORA_INICIO]]+0.000694444444444444</f>
-        <v>0.17507956415502812</v>
+        <v>0.9139176334997382</v>
       </c>
       <c r="G79" t="str">
         <f ca="1">"INSERT INTO VISUALIZACION_ONLINE("&amp;Tabla1[[#Headers],[ID_VISUALIZACION]]&amp;","&amp;Tabla1[[#Headers],[SISTEMA_OPERATIVO_USADO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_FIN]]&amp;","&amp;Tabla1[[#Headers],[HORA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[HORA_FIN]]&amp;") VALUES("&amp;Tabla1[[#This Row],[ID_VISUALIZACION]]&amp;",'"&amp;Tabla1[[#This Row],[SISTEMA_OPERATIVO_USADO]]&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_INICIO]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_FIN]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_INICIO]],"HH:MM:SS")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_FIN]],"HH:MM:SS")&amp;"');"</f>
-        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(78,'LINUX','2022-08-12','2022-08-13','04:11:07','04:12:07');</v>
+        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(78,'LINUX','2022-09-08','2022-09-09','21:55:02','21:56:02');</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -3465,23 +3465,23 @@
       </c>
       <c r="C80" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>44772</v>
+        <v>44394</v>
       </c>
       <c r="D80" s="2">
         <f ca="1">+Tabla1[[#This Row],[FECHA_INICIO]]+1</f>
-        <v>44773</v>
+        <v>44395</v>
       </c>
       <c r="E80" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0.93695113264961072</v>
+        <v>0.11710117664396036</v>
       </c>
       <c r="F80" s="3">
         <f ca="1">+Tabla1[[#This Row],[HORA_INICIO]]+0.000694444444444444</f>
-        <v>0.93764557709405516</v>
+        <v>0.1177956210884048</v>
       </c>
       <c r="G80" t="str">
         <f ca="1">"INSERT INTO VISUALIZACION_ONLINE("&amp;Tabla1[[#Headers],[ID_VISUALIZACION]]&amp;","&amp;Tabla1[[#Headers],[SISTEMA_OPERATIVO_USADO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_FIN]]&amp;","&amp;Tabla1[[#Headers],[HORA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[HORA_FIN]]&amp;") VALUES("&amp;Tabla1[[#This Row],[ID_VISUALIZACION]]&amp;",'"&amp;Tabla1[[#This Row],[SISTEMA_OPERATIVO_USADO]]&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_INICIO]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_FIN]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_INICIO]],"HH:MM:SS")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_FIN]],"HH:MM:SS")&amp;"');"</f>
-        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(79,'WINDOWS','2022-07-30','2022-07-31','22:29:13','22:30:13');</v>
+        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(79,'WINDOWS','2021-07-17','2021-07-18','02:48:38','02:49:38');</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -3493,23 +3493,23 @@
       </c>
       <c r="C81" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>44798</v>
+        <v>44792</v>
       </c>
       <c r="D81" s="2">
         <f ca="1">+Tabla1[[#This Row],[FECHA_INICIO]]+1</f>
-        <v>44799</v>
+        <v>44793</v>
       </c>
       <c r="E81" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0.54136825337044192</v>
+        <v>0.34706659526019623</v>
       </c>
       <c r="F81" s="3">
         <f ca="1">+Tabla1[[#This Row],[HORA_INICIO]]+0.000694444444444444</f>
-        <v>0.54206269781488636</v>
+        <v>0.34776103970464067</v>
       </c>
       <c r="G81" t="str">
         <f ca="1">"INSERT INTO VISUALIZACION_ONLINE("&amp;Tabla1[[#Headers],[ID_VISUALIZACION]]&amp;","&amp;Tabla1[[#Headers],[SISTEMA_OPERATIVO_USADO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_FIN]]&amp;","&amp;Tabla1[[#Headers],[HORA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[HORA_FIN]]&amp;") VALUES("&amp;Tabla1[[#This Row],[ID_VISUALIZACION]]&amp;",'"&amp;Tabla1[[#This Row],[SISTEMA_OPERATIVO_USADO]]&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_INICIO]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_FIN]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_INICIO]],"HH:MM:SS")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_FIN]],"HH:MM:SS")&amp;"');"</f>
-        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(80,'LINUX','2022-08-25','2022-08-26','12:59:34','13:00:34');</v>
+        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(80,'LINUX','2022-08-19','2022-08-20','08:19:47','08:20:47');</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -3521,23 +3521,23 @@
       </c>
       <c r="C82" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>44787</v>
+        <v>44860</v>
       </c>
       <c r="D82" s="2">
         <f ca="1">+Tabla1[[#This Row],[FECHA_INICIO]]+1</f>
-        <v>44788</v>
+        <v>44861</v>
       </c>
       <c r="E82" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0.21945487763984417</v>
+        <v>0.26948225889061306</v>
       </c>
       <c r="F82" s="3">
         <f ca="1">+Tabla1[[#This Row],[HORA_INICIO]]+0.000694444444444444</f>
-        <v>0.22014932208428861</v>
+        <v>0.2701767033350575</v>
       </c>
       <c r="G82" t="str">
         <f ca="1">"INSERT INTO VISUALIZACION_ONLINE("&amp;Tabla1[[#Headers],[ID_VISUALIZACION]]&amp;","&amp;Tabla1[[#Headers],[SISTEMA_OPERATIVO_USADO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_FIN]]&amp;","&amp;Tabla1[[#Headers],[HORA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[HORA_FIN]]&amp;") VALUES("&amp;Tabla1[[#This Row],[ID_VISUALIZACION]]&amp;",'"&amp;Tabla1[[#This Row],[SISTEMA_OPERATIVO_USADO]]&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_INICIO]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_FIN]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_INICIO]],"HH:MM:SS")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_FIN]],"HH:MM:SS")&amp;"');"</f>
-        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(81,'WINDOWS','2022-08-14','2022-08-15','05:16:01','05:17:01');</v>
+        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(81,'WINDOWS','2022-10-26','2022-10-27','06:28:03','06:29:03');</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -3549,23 +3549,23 @@
       </c>
       <c r="C83" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>44856</v>
+        <v>44904</v>
       </c>
       <c r="D83" s="2">
         <f ca="1">+Tabla1[[#This Row],[FECHA_INICIO]]+1</f>
-        <v>44857</v>
+        <v>44905</v>
       </c>
       <c r="E83" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0.93821380597937964</v>
+        <v>0.96933812759785176</v>
       </c>
       <c r="F83" s="3">
         <f ca="1">+Tabla1[[#This Row],[HORA_INICIO]]+0.000694444444444444</f>
-        <v>0.93890825042382409</v>
+        <v>0.9700325720422962</v>
       </c>
       <c r="G83" t="str">
         <f ca="1">"INSERT INTO VISUALIZACION_ONLINE("&amp;Tabla1[[#Headers],[ID_VISUALIZACION]]&amp;","&amp;Tabla1[[#Headers],[SISTEMA_OPERATIVO_USADO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_FIN]]&amp;","&amp;Tabla1[[#Headers],[HORA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[HORA_FIN]]&amp;") VALUES("&amp;Tabla1[[#This Row],[ID_VISUALIZACION]]&amp;",'"&amp;Tabla1[[#This Row],[SISTEMA_OPERATIVO_USADO]]&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_INICIO]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_FIN]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_INICIO]],"HH:MM:SS")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_FIN]],"HH:MM:SS")&amp;"');"</f>
-        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(82,'WINDOWS','2022-10-22','2022-10-23','22:31:02','22:32:02');</v>
+        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(82,'WINDOWS','2022-12-09','2022-12-10','23:15:51','23:16:51');</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -3577,23 +3577,23 @@
       </c>
       <c r="C84" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>44362</v>
+        <v>44660</v>
       </c>
       <c r="D84" s="2">
         <f ca="1">+Tabla1[[#This Row],[FECHA_INICIO]]+1</f>
-        <v>44363</v>
+        <v>44661</v>
       </c>
       <c r="E84" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0.94954151355836725</v>
+        <v>0.35921613200725266</v>
       </c>
       <c r="F84" s="3">
         <f ca="1">+Tabla1[[#This Row],[HORA_INICIO]]+0.000694444444444444</f>
-        <v>0.95023595800281169</v>
+        <v>0.35991057645169711</v>
       </c>
       <c r="G84" t="str">
         <f ca="1">"INSERT INTO VISUALIZACION_ONLINE("&amp;Tabla1[[#Headers],[ID_VISUALIZACION]]&amp;","&amp;Tabla1[[#Headers],[SISTEMA_OPERATIVO_USADO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_FIN]]&amp;","&amp;Tabla1[[#Headers],[HORA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[HORA_FIN]]&amp;") VALUES("&amp;Tabla1[[#This Row],[ID_VISUALIZACION]]&amp;",'"&amp;Tabla1[[#This Row],[SISTEMA_OPERATIVO_USADO]]&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_INICIO]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_FIN]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_INICIO]],"HH:MM:SS")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_FIN]],"HH:MM:SS")&amp;"');"</f>
-        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(83,'WINDOWS','2021-06-15','2021-06-16','22:47:20','22:48:20');</v>
+        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(83,'WINDOWS','2022-04-09','2022-04-10','08:37:16','08:38:16');</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -3605,23 +3605,23 @@
       </c>
       <c r="C85" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>44425</v>
+        <v>44710</v>
       </c>
       <c r="D85" s="2">
         <f ca="1">+Tabla1[[#This Row],[FECHA_INICIO]]+1</f>
-        <v>44426</v>
+        <v>44711</v>
       </c>
       <c r="E85" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0.40013384355856529</v>
+        <v>0.71565526620540976</v>
       </c>
       <c r="F85" s="3">
         <f ca="1">+Tabla1[[#This Row],[HORA_INICIO]]+0.000694444444444444</f>
-        <v>0.40082828800300974</v>
+        <v>0.7163497106498542</v>
       </c>
       <c r="G85" t="str">
         <f ca="1">"INSERT INTO VISUALIZACION_ONLINE("&amp;Tabla1[[#Headers],[ID_VISUALIZACION]]&amp;","&amp;Tabla1[[#Headers],[SISTEMA_OPERATIVO_USADO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_FIN]]&amp;","&amp;Tabla1[[#Headers],[HORA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[HORA_FIN]]&amp;") VALUES("&amp;Tabla1[[#This Row],[ID_VISUALIZACION]]&amp;",'"&amp;Tabla1[[#This Row],[SISTEMA_OPERATIVO_USADO]]&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_INICIO]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_FIN]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_INICIO]],"HH:MM:SS")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_FIN]],"HH:MM:SS")&amp;"');"</f>
-        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(84,'LINUX','2021-08-17','2021-08-18','09:36:12','09:37:12');</v>
+        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(84,'LINUX','2022-05-29','2022-05-30','17:10:33','17:11:33');</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -3633,23 +3633,23 @@
       </c>
       <c r="C86" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>44874</v>
+        <v>44271</v>
       </c>
       <c r="D86" s="2">
         <f ca="1">+Tabla1[[#This Row],[FECHA_INICIO]]+1</f>
-        <v>44875</v>
+        <v>44272</v>
       </c>
       <c r="E86" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0.35062451451415988</v>
+        <v>9.3636082596354142E-2</v>
       </c>
       <c r="F86" s="3">
         <f ca="1">+Tabla1[[#This Row],[HORA_INICIO]]+0.000694444444444444</f>
-        <v>0.35131895895860432</v>
+        <v>9.4330527040798584E-2</v>
       </c>
       <c r="G86" t="str">
         <f ca="1">"INSERT INTO VISUALIZACION_ONLINE("&amp;Tabla1[[#Headers],[ID_VISUALIZACION]]&amp;","&amp;Tabla1[[#Headers],[SISTEMA_OPERATIVO_USADO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_FIN]]&amp;","&amp;Tabla1[[#Headers],[HORA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[HORA_FIN]]&amp;") VALUES("&amp;Tabla1[[#This Row],[ID_VISUALIZACION]]&amp;",'"&amp;Tabla1[[#This Row],[SISTEMA_OPERATIVO_USADO]]&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_INICIO]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_FIN]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_INICIO]],"HH:MM:SS")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_FIN]],"HH:MM:SS")&amp;"');"</f>
-        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(85,'WINDOWS','2022-11-09','2022-11-10','08:24:54','08:25:54');</v>
+        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(85,'WINDOWS','2021-03-16','2021-03-17','02:14:50','02:15:50');</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -3661,23 +3661,23 @@
       </c>
       <c r="C87" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>44730</v>
+        <v>44755</v>
       </c>
       <c r="D87" s="2">
         <f ca="1">+Tabla1[[#This Row],[FECHA_INICIO]]+1</f>
-        <v>44731</v>
+        <v>44756</v>
       </c>
       <c r="E87" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0.45913267795592594</v>
+        <v>0.1028861762374893</v>
       </c>
       <c r="F87" s="3">
         <f ca="1">+Tabla1[[#This Row],[HORA_INICIO]]+0.000694444444444444</f>
-        <v>0.45982712240037038</v>
+        <v>0.10358062068193374</v>
       </c>
       <c r="G87" t="str">
         <f ca="1">"INSERT INTO VISUALIZACION_ONLINE("&amp;Tabla1[[#Headers],[ID_VISUALIZACION]]&amp;","&amp;Tabla1[[#Headers],[SISTEMA_OPERATIVO_USADO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_FIN]]&amp;","&amp;Tabla1[[#Headers],[HORA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[HORA_FIN]]&amp;") VALUES("&amp;Tabla1[[#This Row],[ID_VISUALIZACION]]&amp;",'"&amp;Tabla1[[#This Row],[SISTEMA_OPERATIVO_USADO]]&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_INICIO]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_FIN]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_INICIO]],"HH:MM:SS")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_FIN]],"HH:MM:SS")&amp;"');"</f>
-        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(86,'LINUX','2022-06-18','2022-06-19','11:01:09','11:02:09');</v>
+        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(86,'LINUX','2022-07-13','2022-07-14','02:28:09','02:29:09');</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -3689,23 +3689,23 @@
       </c>
       <c r="C88" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>44356</v>
+        <v>44383</v>
       </c>
       <c r="D88" s="2">
         <f ca="1">+Tabla1[[#This Row],[FECHA_INICIO]]+1</f>
-        <v>44357</v>
+        <v>44384</v>
       </c>
       <c r="E88" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0.2637912155082428</v>
+        <v>0.42858485126537993</v>
       </c>
       <c r="F88" s="3">
         <f ca="1">+Tabla1[[#This Row],[HORA_INICIO]]+0.000694444444444444</f>
-        <v>0.26448565995268725</v>
+        <v>0.42927929570982437</v>
       </c>
       <c r="G88" t="str">
         <f ca="1">"INSERT INTO VISUALIZACION_ONLINE("&amp;Tabla1[[#Headers],[ID_VISUALIZACION]]&amp;","&amp;Tabla1[[#Headers],[SISTEMA_OPERATIVO_USADO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_FIN]]&amp;","&amp;Tabla1[[#Headers],[HORA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[HORA_FIN]]&amp;") VALUES("&amp;Tabla1[[#This Row],[ID_VISUALIZACION]]&amp;",'"&amp;Tabla1[[#This Row],[SISTEMA_OPERATIVO_USADO]]&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_INICIO]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_FIN]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_INICIO]],"HH:MM:SS")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_FIN]],"HH:MM:SS")&amp;"');"</f>
-        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(87,'WINDOWS','2021-06-09','2021-06-10','06:19:52','06:20:52');</v>
+        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(87,'WINDOWS','2021-07-06','2021-07-07','10:17:10','10:18:10');</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -3717,23 +3717,23 @@
       </c>
       <c r="C89" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>44210</v>
+        <v>44481</v>
       </c>
       <c r="D89" s="2">
         <f ca="1">+Tabla1[[#This Row],[FECHA_INICIO]]+1</f>
-        <v>44211</v>
+        <v>44482</v>
       </c>
       <c r="E89" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0.61401864459763267</v>
+        <v>0.7499623215726281</v>
       </c>
       <c r="F89" s="3">
         <f ca="1">+Tabla1[[#This Row],[HORA_INICIO]]+0.000694444444444444</f>
-        <v>0.61471308904207711</v>
+        <v>0.75065676601707254</v>
       </c>
       <c r="G89" t="str">
         <f ca="1">"INSERT INTO VISUALIZACION_ONLINE("&amp;Tabla1[[#Headers],[ID_VISUALIZACION]]&amp;","&amp;Tabla1[[#Headers],[SISTEMA_OPERATIVO_USADO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_FIN]]&amp;","&amp;Tabla1[[#Headers],[HORA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[HORA_FIN]]&amp;") VALUES("&amp;Tabla1[[#This Row],[ID_VISUALIZACION]]&amp;",'"&amp;Tabla1[[#This Row],[SISTEMA_OPERATIVO_USADO]]&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_INICIO]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_FIN]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_INICIO]],"HH:MM:SS")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_FIN]],"HH:MM:SS")&amp;"');"</f>
-        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(88,'WINDOWS','2021-01-14','2021-01-15','14:44:11','14:45:11');</v>
+        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(88,'WINDOWS','2021-10-12','2021-10-13','17:59:57','18:00:57');</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -3745,23 +3745,23 @@
       </c>
       <c r="C90" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>44417</v>
+        <v>44288</v>
       </c>
       <c r="D90" s="2">
         <f ca="1">+Tabla1[[#This Row],[FECHA_INICIO]]+1</f>
-        <v>44418</v>
+        <v>44289</v>
       </c>
       <c r="E90" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0.85508417422450556</v>
+        <v>0.61181158860036189</v>
       </c>
       <c r="F90" s="3">
         <f ca="1">+Tabla1[[#This Row],[HORA_INICIO]]+0.000694444444444444</f>
-        <v>0.85577861866895</v>
+        <v>0.61250603304480633</v>
       </c>
       <c r="G90" t="str">
         <f ca="1">"INSERT INTO VISUALIZACION_ONLINE("&amp;Tabla1[[#Headers],[ID_VISUALIZACION]]&amp;","&amp;Tabla1[[#Headers],[SISTEMA_OPERATIVO_USADO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_FIN]]&amp;","&amp;Tabla1[[#Headers],[HORA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[HORA_FIN]]&amp;") VALUES("&amp;Tabla1[[#This Row],[ID_VISUALIZACION]]&amp;",'"&amp;Tabla1[[#This Row],[SISTEMA_OPERATIVO_USADO]]&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_INICIO]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_FIN]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_INICIO]],"HH:MM:SS")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_FIN]],"HH:MM:SS")&amp;"');"</f>
-        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(89,'WINDOWS','2021-08-09','2021-08-10','20:31:19','20:32:19');</v>
+        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(89,'WINDOWS','2021-04-02','2021-04-03','14:41:01','14:42:01');</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -3773,23 +3773,23 @@
       </c>
       <c r="C91" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>44362</v>
+        <v>44343</v>
       </c>
       <c r="D91" s="2">
         <f ca="1">+Tabla1[[#This Row],[FECHA_INICIO]]+1</f>
-        <v>44363</v>
+        <v>44344</v>
       </c>
       <c r="E91" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0.51042992056680492</v>
+        <v>0.56367196058784952</v>
       </c>
       <c r="F91" s="3">
         <f ca="1">+Tabla1[[#This Row],[HORA_INICIO]]+0.000694444444444444</f>
-        <v>0.51112436501124936</v>
+        <v>0.56436640503229396</v>
       </c>
       <c r="G91" t="str">
         <f ca="1">"INSERT INTO VISUALIZACION_ONLINE("&amp;Tabla1[[#Headers],[ID_VISUALIZACION]]&amp;","&amp;Tabla1[[#Headers],[SISTEMA_OPERATIVO_USADO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_FIN]]&amp;","&amp;Tabla1[[#Headers],[HORA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[HORA_FIN]]&amp;") VALUES("&amp;Tabla1[[#This Row],[ID_VISUALIZACION]]&amp;",'"&amp;Tabla1[[#This Row],[SISTEMA_OPERATIVO_USADO]]&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_INICIO]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_FIN]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_INICIO]],"HH:MM:SS")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_FIN]],"HH:MM:SS")&amp;"');"</f>
-        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(90,'LINUX','2021-06-15','2021-06-16','12:15:01','12:16:01');</v>
+        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(90,'LINUX','2021-05-27','2021-05-28','13:31:41','13:32:41');</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -3801,23 +3801,23 @@
       </c>
       <c r="C92" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>44614</v>
+        <v>44543</v>
       </c>
       <c r="D92" s="2">
         <f ca="1">+Tabla1[[#This Row],[FECHA_INICIO]]+1</f>
-        <v>44615</v>
+        <v>44544</v>
       </c>
       <c r="E92" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0.62187727757030187</v>
+        <v>0.64253278090613108</v>
       </c>
       <c r="F92" s="3">
         <f ca="1">+Tabla1[[#This Row],[HORA_INICIO]]+0.000694444444444444</f>
-        <v>0.62257172201474631</v>
+        <v>0.64322722535057553</v>
       </c>
       <c r="G92" t="str">
         <f ca="1">"INSERT INTO VISUALIZACION_ONLINE("&amp;Tabla1[[#Headers],[ID_VISUALIZACION]]&amp;","&amp;Tabla1[[#Headers],[SISTEMA_OPERATIVO_USADO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_FIN]]&amp;","&amp;Tabla1[[#Headers],[HORA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[HORA_FIN]]&amp;") VALUES("&amp;Tabla1[[#This Row],[ID_VISUALIZACION]]&amp;",'"&amp;Tabla1[[#This Row],[SISTEMA_OPERATIVO_USADO]]&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_INICIO]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_FIN]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_INICIO]],"HH:MM:SS")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_FIN]],"HH:MM:SS")&amp;"');"</f>
-        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(91,'WINDOWS','2022-02-22','2022-02-23','14:55:30','14:56:30');</v>
+        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(91,'WINDOWS','2021-12-13','2021-12-14','15:25:15','15:26:15');</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -3829,23 +3829,23 @@
       </c>
       <c r="C93" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>44902</v>
+        <v>44424</v>
       </c>
       <c r="D93" s="2">
         <f ca="1">+Tabla1[[#This Row],[FECHA_INICIO]]+1</f>
-        <v>44903</v>
+        <v>44425</v>
       </c>
       <c r="E93" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0.83674833599276244</v>
+        <v>0.92674547131351137</v>
       </c>
       <c r="F93" s="3">
         <f ca="1">+Tabla1[[#This Row],[HORA_INICIO]]+0.000694444444444444</f>
-        <v>0.83744278043720688</v>
+        <v>0.92743991575795581</v>
       </c>
       <c r="G93" t="str">
         <f ca="1">"INSERT INTO VISUALIZACION_ONLINE("&amp;Tabla1[[#Headers],[ID_VISUALIZACION]]&amp;","&amp;Tabla1[[#Headers],[SISTEMA_OPERATIVO_USADO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_FIN]]&amp;","&amp;Tabla1[[#Headers],[HORA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[HORA_FIN]]&amp;") VALUES("&amp;Tabla1[[#This Row],[ID_VISUALIZACION]]&amp;",'"&amp;Tabla1[[#This Row],[SISTEMA_OPERATIVO_USADO]]&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_INICIO]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_FIN]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_INICIO]],"HH:MM:SS")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_FIN]],"HH:MM:SS")&amp;"');"</f>
-        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(92,'LINUX','2022-12-07','2022-12-08','20:04:55','20:05:55');</v>
+        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(92,'LINUX','2021-08-16','2021-08-17','22:14:31','22:15:31');</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -3857,23 +3857,23 @@
       </c>
       <c r="C94" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>44444</v>
+        <v>44778</v>
       </c>
       <c r="D94" s="2">
         <f ca="1">+Tabla1[[#This Row],[FECHA_INICIO]]+1</f>
-        <v>44445</v>
+        <v>44779</v>
       </c>
       <c r="E94" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0.16924577337334901</v>
+        <v>0.37323748006975865</v>
       </c>
       <c r="F94" s="3">
         <f ca="1">+Tabla1[[#This Row],[HORA_INICIO]]+0.000694444444444444</f>
-        <v>0.16994021781779345</v>
+        <v>0.3739319245142031</v>
       </c>
       <c r="G94" t="str">
         <f ca="1">"INSERT INTO VISUALIZACION_ONLINE("&amp;Tabla1[[#Headers],[ID_VISUALIZACION]]&amp;","&amp;Tabla1[[#Headers],[SISTEMA_OPERATIVO_USADO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_FIN]]&amp;","&amp;Tabla1[[#Headers],[HORA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[HORA_FIN]]&amp;") VALUES("&amp;Tabla1[[#This Row],[ID_VISUALIZACION]]&amp;",'"&amp;Tabla1[[#This Row],[SISTEMA_OPERATIVO_USADO]]&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_INICIO]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_FIN]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_INICIO]],"HH:MM:SS")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_FIN]],"HH:MM:SS")&amp;"');"</f>
-        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(93,'WINDOWS','2021-09-05','2021-09-06','04:03:43','04:04:43');</v>
+        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(93,'WINDOWS','2022-08-05','2022-08-06','08:57:28','08:58:28');</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -3885,23 +3885,23 @@
       </c>
       <c r="C95" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>44776</v>
+        <v>44373</v>
       </c>
       <c r="D95" s="2">
         <f ca="1">+Tabla1[[#This Row],[FECHA_INICIO]]+1</f>
-        <v>44777</v>
+        <v>44374</v>
       </c>
       <c r="E95" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0.37525921848992261</v>
+        <v>0.73205710889096487</v>
       </c>
       <c r="F95" s="3">
         <f ca="1">+Tabla1[[#This Row],[HORA_INICIO]]+0.000694444444444444</f>
-        <v>0.37595366293436705</v>
+        <v>0.73275155333540931</v>
       </c>
       <c r="G95" t="str">
         <f ca="1">"INSERT INTO VISUALIZACION_ONLINE("&amp;Tabla1[[#Headers],[ID_VISUALIZACION]]&amp;","&amp;Tabla1[[#Headers],[SISTEMA_OPERATIVO_USADO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_FIN]]&amp;","&amp;Tabla1[[#Headers],[HORA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[HORA_FIN]]&amp;") VALUES("&amp;Tabla1[[#This Row],[ID_VISUALIZACION]]&amp;",'"&amp;Tabla1[[#This Row],[SISTEMA_OPERATIVO_USADO]]&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_INICIO]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_FIN]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_INICIO]],"HH:MM:SS")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_FIN]],"HH:MM:SS")&amp;"');"</f>
-        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(94,'WINDOWS','2022-08-03','2022-08-04','09:00:22','09:01:22');</v>
+        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(94,'WINDOWS','2021-06-26','2021-06-27','17:34:10','17:35:10');</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -3913,23 +3913,23 @@
       </c>
       <c r="C96" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>44517</v>
+        <v>44389</v>
       </c>
       <c r="D96" s="2">
         <f ca="1">+Tabla1[[#This Row],[FECHA_INICIO]]+1</f>
-        <v>44518</v>
+        <v>44390</v>
       </c>
       <c r="E96" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0.5716887955687544</v>
+        <v>0.81168556080650112</v>
       </c>
       <c r="F96" s="3">
         <f ca="1">+Tabla1[[#This Row],[HORA_INICIO]]+0.000694444444444444</f>
-        <v>0.57238324001319885</v>
+        <v>0.81238000525094556</v>
       </c>
       <c r="G96" t="str">
         <f ca="1">"INSERT INTO VISUALIZACION_ONLINE("&amp;Tabla1[[#Headers],[ID_VISUALIZACION]]&amp;","&amp;Tabla1[[#Headers],[SISTEMA_OPERATIVO_USADO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_FIN]]&amp;","&amp;Tabla1[[#Headers],[HORA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[HORA_FIN]]&amp;") VALUES("&amp;Tabla1[[#This Row],[ID_VISUALIZACION]]&amp;",'"&amp;Tabla1[[#This Row],[SISTEMA_OPERATIVO_USADO]]&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_INICIO]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_FIN]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_INICIO]],"HH:MM:SS")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_FIN]],"HH:MM:SS")&amp;"');"</f>
-        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(95,'WINDOWS','2021-11-17','2021-11-18','13:43:14','13:44:14');</v>
+        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(95,'WINDOWS','2021-07-12','2021-07-13','19:28:50','19:29:50');</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -3941,23 +3941,23 @@
       </c>
       <c r="C97" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>44860</v>
+        <v>44214</v>
       </c>
       <c r="D97" s="2">
         <f ca="1">+Tabla1[[#This Row],[FECHA_INICIO]]+1</f>
-        <v>44861</v>
+        <v>44215</v>
       </c>
       <c r="E97" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0.94624518069877006</v>
+        <v>0.3384763942155381</v>
       </c>
       <c r="F97" s="3">
         <f ca="1">+Tabla1[[#This Row],[HORA_INICIO]]+0.000694444444444444</f>
-        <v>0.9469396251432145</v>
+        <v>0.33917083865998254</v>
       </c>
       <c r="G97" t="str">
         <f ca="1">"INSERT INTO VISUALIZACION_ONLINE("&amp;Tabla1[[#Headers],[ID_VISUALIZACION]]&amp;","&amp;Tabla1[[#Headers],[SISTEMA_OPERATIVO_USADO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_FIN]]&amp;","&amp;Tabla1[[#Headers],[HORA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[HORA_FIN]]&amp;") VALUES("&amp;Tabla1[[#This Row],[ID_VISUALIZACION]]&amp;",'"&amp;Tabla1[[#This Row],[SISTEMA_OPERATIVO_USADO]]&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_INICIO]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_FIN]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_INICIO]],"HH:MM:SS")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_FIN]],"HH:MM:SS")&amp;"');"</f>
-        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(96,'LINUX','2022-10-26','2022-10-27','22:42:36','22:43:36');</v>
+        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(96,'LINUX','2021-01-18','2021-01-19','08:07:24','08:08:24');</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -3969,23 +3969,23 @@
       </c>
       <c r="C98" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>44421</v>
+        <v>44827</v>
       </c>
       <c r="D98" s="2">
         <f ca="1">+Tabla1[[#This Row],[FECHA_INICIO]]+1</f>
-        <v>44422</v>
+        <v>44828</v>
       </c>
       <c r="E98" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0.76524035071659635</v>
+        <v>0.6885558953231542</v>
       </c>
       <c r="F98" s="3">
         <f ca="1">+Tabla1[[#This Row],[HORA_INICIO]]+0.000694444444444444</f>
-        <v>0.76593479516104079</v>
+        <v>0.68925033976759864</v>
       </c>
       <c r="G98" t="str">
         <f ca="1">"INSERT INTO VISUALIZACION_ONLINE("&amp;Tabla1[[#Headers],[ID_VISUALIZACION]]&amp;","&amp;Tabla1[[#Headers],[SISTEMA_OPERATIVO_USADO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_FIN]]&amp;","&amp;Tabla1[[#Headers],[HORA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[HORA_FIN]]&amp;") VALUES("&amp;Tabla1[[#This Row],[ID_VISUALIZACION]]&amp;",'"&amp;Tabla1[[#This Row],[SISTEMA_OPERATIVO_USADO]]&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_INICIO]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_FIN]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_INICIO]],"HH:MM:SS")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_FIN]],"HH:MM:SS")&amp;"');"</f>
-        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(97,'WINDOWS','2021-08-13','2021-08-14','18:21:57','18:22:57');</v>
+        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(97,'WINDOWS','2022-09-23','2022-09-24','16:31:31','16:32:31');</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -3997,23 +3997,23 @@
       </c>
       <c r="C99" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>44452</v>
+        <v>44780</v>
       </c>
       <c r="D99" s="2">
         <f ca="1">+Tabla1[[#This Row],[FECHA_INICIO]]+1</f>
-        <v>44453</v>
+        <v>44781</v>
       </c>
       <c r="E99" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0.83309347020881641</v>
+        <v>0.64444792362395376</v>
       </c>
       <c r="F99" s="3">
         <f ca="1">+Tabla1[[#This Row],[HORA_INICIO]]+0.000694444444444444</f>
-        <v>0.83378791465326085</v>
+        <v>0.6451423680683982</v>
       </c>
       <c r="G99" t="str">
         <f ca="1">"INSERT INTO VISUALIZACION_ONLINE("&amp;Tabla1[[#Headers],[ID_VISUALIZACION]]&amp;","&amp;Tabla1[[#Headers],[SISTEMA_OPERATIVO_USADO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_FIN]]&amp;","&amp;Tabla1[[#Headers],[HORA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[HORA_FIN]]&amp;") VALUES("&amp;Tabla1[[#This Row],[ID_VISUALIZACION]]&amp;",'"&amp;Tabla1[[#This Row],[SISTEMA_OPERATIVO_USADO]]&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_INICIO]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_FIN]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_INICIO]],"HH:MM:SS")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_FIN]],"HH:MM:SS")&amp;"');"</f>
-        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(98,'LINUX','2021-09-13','2021-09-14','19:59:39','20:00:39');</v>
+        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(98,'LINUX','2022-08-07','2022-08-08','15:28:00','15:29:00');</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -4025,23 +4025,23 @@
       </c>
       <c r="C100" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>44755</v>
+        <v>44177</v>
       </c>
       <c r="D100" s="2">
         <f ca="1">+Tabla1[[#This Row],[FECHA_INICIO]]+1</f>
-        <v>44756</v>
+        <v>44178</v>
       </c>
       <c r="E100" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0.53216841485972088</v>
+        <v>0.43962379029444199</v>
       </c>
       <c r="F100" s="3">
         <f ca="1">+Tabla1[[#This Row],[HORA_INICIO]]+0.000694444444444444</f>
-        <v>0.53286285930416533</v>
+        <v>0.44031823473888643</v>
       </c>
       <c r="G100" t="str">
         <f ca="1">"INSERT INTO VISUALIZACION_ONLINE("&amp;Tabla1[[#Headers],[ID_VISUALIZACION]]&amp;","&amp;Tabla1[[#Headers],[SISTEMA_OPERATIVO_USADO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[FECHA_FIN]]&amp;","&amp;Tabla1[[#Headers],[HORA_INICIO]]&amp;","&amp;Tabla1[[#Headers],[HORA_FIN]]&amp;") VALUES("&amp;Tabla1[[#This Row],[ID_VISUALIZACION]]&amp;",'"&amp;Tabla1[[#This Row],[SISTEMA_OPERATIVO_USADO]]&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_INICIO]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[FECHA_FIN]],"AAAA-MM-DD")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_INICIO]],"HH:MM:SS")&amp;"','"&amp;TEXT(Tabla1[[#This Row],[HORA_FIN]],"HH:MM:SS")&amp;"');"</f>
-        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(99,'WINDOWS','2022-07-13','2022-07-14','12:46:19','12:47:19');</v>
+        <v>INSERT INTO VISUALIZACION_ONLINE(ID_VISUALIZACION,SISTEMA_OPERATIVO_USADO,FECHA_INICIO,FECHA_FIN,HORA_INICIO,HORA_FIN) VALUES(99,'WINDOWS','2020-12-12','2020-12-13','10:33:03','10:34:03');</v>
       </c>
     </row>
   </sheetData>
@@ -4102,11 +4102,11 @@
       </c>
       <c r="E2">
         <f t="shared" ref="E2:E11" ca="1" si="0">RANDBETWEEN(1,100)</f>
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="F2" t="str">
         <f ca="1">"INSERT REPLICA(ID_REPLICA,DETALLE,APODO,ID_POSEE_REPLICA,ID_COMENTARIO) VALUES ("&amp;Tabla10[[#This Row],[ID_REPLICA]]&amp;",'"&amp;Tabla10[[#This Row],[DETALLE]]&amp;"','"&amp;Tabla10[[#This Row],[APODO]]&amp;"',"&amp;Tabla10[[#This Row],[ID_POSEE_REPLICA]]&amp;","&amp;Tabla10[[#This Row],[ID_COMENTARIO]]&amp;");"</f>
-        <v>INSERT REPLICA(ID_REPLICA,DETALLE,APODO,ID_POSEE_REPLICA,ID_COMENTARIO) VALUES (1,'SIN DETALLE','SIN APODO',null,32);</v>
+        <v>INSERT REPLICA(ID_REPLICA,DETALLE,APODO,ID_POSEE_REPLICA,ID_COMENTARIO) VALUES (1,'SIN DETALLE','SIN APODO',null,82);</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -4124,11 +4124,11 @@
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="F3" t="str">
         <f ca="1">"INSERT REPLICA(ID_REPLICA,DETALLE,APODO,ID_POSEE_REPLICA,ID_COMENTARIO) VALUES ("&amp;Tabla10[[#This Row],[ID_REPLICA]]&amp;",'"&amp;Tabla10[[#This Row],[DETALLE]]&amp;"','"&amp;Tabla10[[#This Row],[APODO]]&amp;"',"&amp;Tabla10[[#This Row],[ID_POSEE_REPLICA]]&amp;","&amp;Tabla10[[#This Row],[ID_COMENTARIO]]&amp;");"</f>
-        <v>INSERT REPLICA(ID_REPLICA,DETALLE,APODO,ID_POSEE_REPLICA,ID_COMENTARIO) VALUES (2,'SIN DETALLE','SIN APODO',null,29);</v>
+        <v>INSERT REPLICA(ID_REPLICA,DETALLE,APODO,ID_POSEE_REPLICA,ID_COMENTARIO) VALUES (2,'SIN DETALLE','SIN APODO',null,51);</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -4146,11 +4146,11 @@
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="F4" t="str">
         <f ca="1">"INSERT REPLICA(ID_REPLICA,DETALLE,APODO,ID_POSEE_REPLICA,ID_COMENTARIO) VALUES ("&amp;Tabla10[[#This Row],[ID_REPLICA]]&amp;",'"&amp;Tabla10[[#This Row],[DETALLE]]&amp;"','"&amp;Tabla10[[#This Row],[APODO]]&amp;"',"&amp;Tabla10[[#This Row],[ID_POSEE_REPLICA]]&amp;","&amp;Tabla10[[#This Row],[ID_COMENTARIO]]&amp;");"</f>
-        <v>INSERT REPLICA(ID_REPLICA,DETALLE,APODO,ID_POSEE_REPLICA,ID_COMENTARIO) VALUES (3,'SIN DETALLE','SIN APODO',null,62);</v>
+        <v>INSERT REPLICA(ID_REPLICA,DETALLE,APODO,ID_POSEE_REPLICA,ID_COMENTARIO) VALUES (3,'SIN DETALLE','SIN APODO',null,83);</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -4168,11 +4168,11 @@
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="F5" t="str">
         <f ca="1">"INSERT REPLICA(ID_REPLICA,DETALLE,APODO,ID_POSEE_REPLICA,ID_COMENTARIO) VALUES ("&amp;Tabla10[[#This Row],[ID_REPLICA]]&amp;",'"&amp;Tabla10[[#This Row],[DETALLE]]&amp;"','"&amp;Tabla10[[#This Row],[APODO]]&amp;"',"&amp;Tabla10[[#This Row],[ID_POSEE_REPLICA]]&amp;","&amp;Tabla10[[#This Row],[ID_COMENTARIO]]&amp;");"</f>
-        <v>INSERT REPLICA(ID_REPLICA,DETALLE,APODO,ID_POSEE_REPLICA,ID_COMENTARIO) VALUES (4,'SIN DETALLE','SIN APODO',null,97);</v>
+        <v>INSERT REPLICA(ID_REPLICA,DETALLE,APODO,ID_POSEE_REPLICA,ID_COMENTARIO) VALUES (4,'SIN DETALLE','SIN APODO',null,72);</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -4185,17 +4185,17 @@
       <c r="C6" t="s">
         <v>127</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="str">
         <f ca="1">IF(RANDBETWEEN(0,4)=0,"Null",RANDBETWEEN(1,4))</f>
-        <v>1</v>
+        <v>Null</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="F6" t="str">
         <f ca="1">"INSERT REPLICA(ID_REPLICA,DETALLE,APODO,ID_POSEE_REPLICA,ID_COMENTARIO) VALUES ("&amp;Tabla10[[#This Row],[ID_REPLICA]]&amp;",'"&amp;Tabla10[[#This Row],[DETALLE]]&amp;"','"&amp;Tabla10[[#This Row],[APODO]]&amp;"',"&amp;Tabla10[[#This Row],[ID_POSEE_REPLICA]]&amp;","&amp;Tabla10[[#This Row],[ID_COMENTARIO]]&amp;");"</f>
-        <v>INSERT REPLICA(ID_REPLICA,DETALLE,APODO,ID_POSEE_REPLICA,ID_COMENTARIO) VALUES (5,'SIN DETALLE','SIN APODO',1,31);</v>
+        <v>INSERT REPLICA(ID_REPLICA,DETALLE,APODO,ID_POSEE_REPLICA,ID_COMENTARIO) VALUES (5,'SIN DETALLE','SIN APODO',Null,13);</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -4214,11 +4214,11 @@
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F7" t="str">
         <f ca="1">"INSERT REPLICA(ID_REPLICA,DETALLE,APODO,ID_POSEE_REPLICA,ID_COMENTARIO) VALUES ("&amp;Tabla10[[#This Row],[ID_REPLICA]]&amp;",'"&amp;Tabla10[[#This Row],[DETALLE]]&amp;"','"&amp;Tabla10[[#This Row],[APODO]]&amp;"',"&amp;Tabla10[[#This Row],[ID_POSEE_REPLICA]]&amp;","&amp;Tabla10[[#This Row],[ID_COMENTARIO]]&amp;");"</f>
-        <v>INSERT REPLICA(ID_REPLICA,DETALLE,APODO,ID_POSEE_REPLICA,ID_COMENTARIO) VALUES (6,'SIN DETALLE','SIN APODO',3,27);</v>
+        <v>INSERT REPLICA(ID_REPLICA,DETALLE,APODO,ID_POSEE_REPLICA,ID_COMENTARIO) VALUES (6,'SIN DETALLE','SIN APODO',3,35);</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -4237,11 +4237,11 @@
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="F8" t="str">
         <f ca="1">"INSERT REPLICA(ID_REPLICA,DETALLE,APODO,ID_POSEE_REPLICA,ID_COMENTARIO) VALUES ("&amp;Tabla10[[#This Row],[ID_REPLICA]]&amp;",'"&amp;Tabla10[[#This Row],[DETALLE]]&amp;"','"&amp;Tabla10[[#This Row],[APODO]]&amp;"',"&amp;Tabla10[[#This Row],[ID_POSEE_REPLICA]]&amp;","&amp;Tabla10[[#This Row],[ID_COMENTARIO]]&amp;");"</f>
-        <v>INSERT REPLICA(ID_REPLICA,DETALLE,APODO,ID_POSEE_REPLICA,ID_COMENTARIO) VALUES (7,'SIN DETALLE','SIN APODO',1,67);</v>
+        <v>INSERT REPLICA(ID_REPLICA,DETALLE,APODO,ID_POSEE_REPLICA,ID_COMENTARIO) VALUES (7,'SIN DETALLE','SIN APODO',1,27);</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -4256,15 +4256,15 @@
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="F9" t="str">
         <f ca="1">"INSERT REPLICA(ID_REPLICA,DETALLE,APODO,ID_POSEE_REPLICA,ID_COMENTARIO) VALUES ("&amp;Tabla10[[#This Row],[ID_REPLICA]]&amp;",'"&amp;Tabla10[[#This Row],[DETALLE]]&amp;"','"&amp;Tabla10[[#This Row],[APODO]]&amp;"',"&amp;Tabla10[[#This Row],[ID_POSEE_REPLICA]]&amp;","&amp;Tabla10[[#This Row],[ID_COMENTARIO]]&amp;");"</f>
-        <v>INSERT REPLICA(ID_REPLICA,DETALLE,APODO,ID_POSEE_REPLICA,ID_COMENTARIO) VALUES (8,'SIN DETALLE','SIN APODO',1,25);</v>
+        <v>INSERT REPLICA(ID_REPLICA,DETALLE,APODO,ID_POSEE_REPLICA,ID_COMENTARIO) VALUES (8,'SIN DETALLE','SIN APODO',4,72);</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -4277,17 +4277,17 @@
       <c r="C10" t="s">
         <v>127</v>
       </c>
-      <c r="D10" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Null</v>
+      <c r="D10">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="F10" t="str">
         <f ca="1">"INSERT REPLICA(ID_REPLICA,DETALLE,APODO,ID_POSEE_REPLICA,ID_COMENTARIO) VALUES ("&amp;Tabla10[[#This Row],[ID_REPLICA]]&amp;",'"&amp;Tabla10[[#This Row],[DETALLE]]&amp;"','"&amp;Tabla10[[#This Row],[APODO]]&amp;"',"&amp;Tabla10[[#This Row],[ID_POSEE_REPLICA]]&amp;","&amp;Tabla10[[#This Row],[ID_COMENTARIO]]&amp;");"</f>
-        <v>INSERT REPLICA(ID_REPLICA,DETALLE,APODO,ID_POSEE_REPLICA,ID_COMENTARIO) VALUES (9,'SIN DETALLE','SIN APODO',Null,98);</v>
+        <v>INSERT REPLICA(ID_REPLICA,DETALLE,APODO,ID_POSEE_REPLICA,ID_COMENTARIO) VALUES (9,'SIN DETALLE','SIN APODO',1,48);</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -4306,11 +4306,11 @@
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F11" t="str">
         <f ca="1">"INSERT REPLICA(ID_REPLICA,DETALLE,APODO,ID_POSEE_REPLICA,ID_COMENTARIO) VALUES ("&amp;Tabla10[[#This Row],[ID_REPLICA]]&amp;",'"&amp;Tabla10[[#This Row],[DETALLE]]&amp;"','"&amp;Tabla10[[#This Row],[APODO]]&amp;"',"&amp;Tabla10[[#This Row],[ID_POSEE_REPLICA]]&amp;","&amp;Tabla10[[#This Row],[ID_COMENTARIO]]&amp;");"</f>
-        <v>INSERT REPLICA(ID_REPLICA,DETALLE,APODO,ID_POSEE_REPLICA,ID_COMENTARIO) VALUES (10,'SIN DETALLE','SIN APODO',1,98);</v>
+        <v>INSERT REPLICA(ID_REPLICA,DETALLE,APODO,ID_POSEE_REPLICA,ID_COMENTARIO) VALUES (10,'SIN DETALLE','SIN APODO',1,99);</v>
       </c>
     </row>
   </sheetData>
@@ -4325,8 +4325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D77A266B-95E8-4121-85E5-5883B5F6E3B6}">
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C2:C51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4353,11 +4353,11 @@
       </c>
       <c r="B2">
         <f t="shared" ref="B2:B33" ca="1" si="0">RANDBETWEEN(1,26)</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C2" t="str">
-        <f ca="1">"INSERT MIRA(ID_VISUALIZACION,ID_CONTENIDO) VALUES(" &amp;Tabla11[[#This Row],[ID_VISUALIZACION]]&amp;","&amp;Tabla11[[#This Row],[ID_CONTENIDO]]&amp;");"</f>
-        <v>INSERT MIRA(ID_VISUALIZACION,ID_CONTENIDO) VALUES(1,5);</v>
+        <f ca="1">"INSERT ES_REPRODUCIDO(ID_VISUALIZACION,ID_CONTENIDO) VALUES(" &amp;Tabla11[[#This Row],[ID_VISUALIZACION]]&amp;","&amp;Tabla11[[#This Row],[ID_CONTENIDO]]&amp;");"</f>
+        <v>INSERT ES_REPRODUCIDO(ID_VISUALIZACION,ID_CONTENIDO) VALUES(1,9);</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -4366,11 +4366,11 @@
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C3" t="str">
-        <f ca="1">"INSERT MIRA(ID_VISUALIZACION,ID_CONTENIDO) VALUES(" &amp;Tabla11[[#This Row],[ID_VISUALIZACION]]&amp;","&amp;Tabla11[[#This Row],[ID_CONTENIDO]]&amp;");"</f>
-        <v>INSERT MIRA(ID_VISUALIZACION,ID_CONTENIDO) VALUES(2,19);</v>
+        <f ca="1">"INSERT ES_REPRODUCIDO(ID_VISUALIZACION,ID_CONTENIDO) VALUES(" &amp;Tabla11[[#This Row],[ID_VISUALIZACION]]&amp;","&amp;Tabla11[[#This Row],[ID_CONTENIDO]]&amp;");"</f>
+        <v>INSERT ES_REPRODUCIDO(ID_VISUALIZACION,ID_CONTENIDO) VALUES(2,14);</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -4379,11 +4379,11 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C4" t="str">
-        <f ca="1">"INSERT MIRA(ID_VISUALIZACION,ID_CONTENIDO) VALUES(" &amp;Tabla11[[#This Row],[ID_VISUALIZACION]]&amp;","&amp;Tabla11[[#This Row],[ID_CONTENIDO]]&amp;");"</f>
-        <v>INSERT MIRA(ID_VISUALIZACION,ID_CONTENIDO) VALUES(3,20);</v>
+        <f ca="1">"INSERT ES_REPRODUCIDO(ID_VISUALIZACION,ID_CONTENIDO) VALUES(" &amp;Tabla11[[#This Row],[ID_VISUALIZACION]]&amp;","&amp;Tabla11[[#This Row],[ID_CONTENIDO]]&amp;");"</f>
+        <v>INSERT ES_REPRODUCIDO(ID_VISUALIZACION,ID_CONTENIDO) VALUES(3,9);</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -4395,8 +4395,8 @@
         <v>18</v>
       </c>
       <c r="C5" t="str">
-        <f ca="1">"INSERT MIRA(ID_VISUALIZACION,ID_CONTENIDO) VALUES(" &amp;Tabla11[[#This Row],[ID_VISUALIZACION]]&amp;","&amp;Tabla11[[#This Row],[ID_CONTENIDO]]&amp;");"</f>
-        <v>INSERT MIRA(ID_VISUALIZACION,ID_CONTENIDO) VALUES(4,18);</v>
+        <f ca="1">"INSERT ES_REPRODUCIDO(ID_VISUALIZACION,ID_CONTENIDO) VALUES(" &amp;Tabla11[[#This Row],[ID_VISUALIZACION]]&amp;","&amp;Tabla11[[#This Row],[ID_CONTENIDO]]&amp;");"</f>
+        <v>INSERT ES_REPRODUCIDO(ID_VISUALIZACION,ID_CONTENIDO) VALUES(4,18);</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -4405,11 +4405,11 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C6" t="str">
-        <f ca="1">"INSERT MIRA(ID_VISUALIZACION,ID_CONTENIDO) VALUES(" &amp;Tabla11[[#This Row],[ID_VISUALIZACION]]&amp;","&amp;Tabla11[[#This Row],[ID_CONTENIDO]]&amp;");"</f>
-        <v>INSERT MIRA(ID_VISUALIZACION,ID_CONTENIDO) VALUES(5,17);</v>
+        <f ca="1">"INSERT ES_REPRODUCIDO(ID_VISUALIZACION,ID_CONTENIDO) VALUES(" &amp;Tabla11[[#This Row],[ID_VISUALIZACION]]&amp;","&amp;Tabla11[[#This Row],[ID_CONTENIDO]]&amp;");"</f>
+        <v>INSERT ES_REPRODUCIDO(ID_VISUALIZACION,ID_CONTENIDO) VALUES(5,20);</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -4418,11 +4418,11 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C7" t="str">
-        <f ca="1">"INSERT MIRA(ID_VISUALIZACION,ID_CONTENIDO) VALUES(" &amp;Tabla11[[#This Row],[ID_VISUALIZACION]]&amp;","&amp;Tabla11[[#This Row],[ID_CONTENIDO]]&amp;");"</f>
-        <v>INSERT MIRA(ID_VISUALIZACION,ID_CONTENIDO) VALUES(6,14);</v>
+        <f ca="1">"INSERT ES_REPRODUCIDO(ID_VISUALIZACION,ID_CONTENIDO) VALUES(" &amp;Tabla11[[#This Row],[ID_VISUALIZACION]]&amp;","&amp;Tabla11[[#This Row],[ID_CONTENIDO]]&amp;");"</f>
+        <v>INSERT ES_REPRODUCIDO(ID_VISUALIZACION,ID_CONTENIDO) VALUES(6,7);</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -4431,11 +4431,11 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C8" t="str">
-        <f ca="1">"INSERT MIRA(ID_VISUALIZACION,ID_CONTENIDO) VALUES(" &amp;Tabla11[[#This Row],[ID_VISUALIZACION]]&amp;","&amp;Tabla11[[#This Row],[ID_CONTENIDO]]&amp;");"</f>
-        <v>INSERT MIRA(ID_VISUALIZACION,ID_CONTENIDO) VALUES(7,11);</v>
+        <f ca="1">"INSERT ES_REPRODUCIDO(ID_VISUALIZACION,ID_CONTENIDO) VALUES(" &amp;Tabla11[[#This Row],[ID_VISUALIZACION]]&amp;","&amp;Tabla11[[#This Row],[ID_CONTENIDO]]&amp;");"</f>
+        <v>INSERT ES_REPRODUCIDO(ID_VISUALIZACION,ID_CONTENIDO) VALUES(7,19);</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -4444,11 +4444,11 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C9" t="str">
-        <f ca="1">"INSERT MIRA(ID_VISUALIZACION,ID_CONTENIDO) VALUES(" &amp;Tabla11[[#This Row],[ID_VISUALIZACION]]&amp;","&amp;Tabla11[[#This Row],[ID_CONTENIDO]]&amp;");"</f>
-        <v>INSERT MIRA(ID_VISUALIZACION,ID_CONTENIDO) VALUES(8,15);</v>
+        <f ca="1">"INSERT ES_REPRODUCIDO(ID_VISUALIZACION,ID_CONTENIDO) VALUES(" &amp;Tabla11[[#This Row],[ID_VISUALIZACION]]&amp;","&amp;Tabla11[[#This Row],[ID_CONTENIDO]]&amp;");"</f>
+        <v>INSERT ES_REPRODUCIDO(ID_VISUALIZACION,ID_CONTENIDO) VALUES(8,11);</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -4457,11 +4457,11 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C10" t="str">
-        <f ca="1">"INSERT MIRA(ID_VISUALIZACION,ID_CONTENIDO) VALUES(" &amp;Tabla11[[#This Row],[ID_VISUALIZACION]]&amp;","&amp;Tabla11[[#This Row],[ID_CONTENIDO]]&amp;");"</f>
-        <v>INSERT MIRA(ID_VISUALIZACION,ID_CONTENIDO) VALUES(9,18);</v>
+        <f ca="1">"INSERT ES_REPRODUCIDO(ID_VISUALIZACION,ID_CONTENIDO) VALUES(" &amp;Tabla11[[#This Row],[ID_VISUALIZACION]]&amp;","&amp;Tabla11[[#This Row],[ID_CONTENIDO]]&amp;");"</f>
+        <v>INSERT ES_REPRODUCIDO(ID_VISUALIZACION,ID_CONTENIDO) VALUES(9,25);</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -4470,11 +4470,11 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C11" t="str">
-        <f ca="1">"INSERT MIRA(ID_VISUALIZACION,ID_CONTENIDO) VALUES(" &amp;Tabla11[[#This Row],[ID_VISUALIZACION]]&amp;","&amp;Tabla11[[#This Row],[ID_CONTENIDO]]&amp;");"</f>
-        <v>INSERT MIRA(ID_VISUALIZACION,ID_CONTENIDO) VALUES(10,11);</v>
+        <f ca="1">"INSERT ES_REPRODUCIDO(ID_VISUALIZACION,ID_CONTENIDO) VALUES(" &amp;Tabla11[[#This Row],[ID_VISUALIZACION]]&amp;","&amp;Tabla11[[#This Row],[ID_CONTENIDO]]&amp;");"</f>
+        <v>INSERT ES_REPRODUCIDO(ID_VISUALIZACION,ID_CONTENIDO) VALUES(10,24);</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -4483,11 +4483,11 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="C12" t="str">
-        <f ca="1">"INSERT MIRA(ID_VISUALIZACION,ID_CONTENIDO) VALUES(" &amp;Tabla11[[#This Row],[ID_VISUALIZACION]]&amp;","&amp;Tabla11[[#This Row],[ID_CONTENIDO]]&amp;");"</f>
-        <v>INSERT MIRA(ID_VISUALIZACION,ID_CONTENIDO) VALUES(11,24);</v>
+        <f ca="1">"INSERT ES_REPRODUCIDO(ID_VISUALIZACION,ID_CONTENIDO) VALUES(" &amp;Tabla11[[#This Row],[ID_VISUALIZACION]]&amp;","&amp;Tabla11[[#This Row],[ID_CONTENIDO]]&amp;");"</f>
+        <v>INSERT ES_REPRODUCIDO(ID_VISUALIZACION,ID_CONTENIDO) VALUES(11,3);</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -4496,11 +4496,11 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C13" t="str">
-        <f ca="1">"INSERT MIRA(ID_VISUALIZACION,ID_CONTENIDO) VALUES(" &amp;Tabla11[[#This Row],[ID_VISUALIZACION]]&amp;","&amp;Tabla11[[#This Row],[ID_CONTENIDO]]&amp;");"</f>
-        <v>INSERT MIRA(ID_VISUALIZACION,ID_CONTENIDO) VALUES(12,6);</v>
+        <f ca="1">"INSERT ES_REPRODUCIDO(ID_VISUALIZACION,ID_CONTENIDO) VALUES(" &amp;Tabla11[[#This Row],[ID_VISUALIZACION]]&amp;","&amp;Tabla11[[#This Row],[ID_CONTENIDO]]&amp;");"</f>
+        <v>INSERT ES_REPRODUCIDO(ID_VISUALIZACION,ID_CONTENIDO) VALUES(12,24);</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -4509,11 +4509,11 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="C14" t="str">
-        <f ca="1">"INSERT MIRA(ID_VISUALIZACION,ID_CONTENIDO) VALUES(" &amp;Tabla11[[#This Row],[ID_VISUALIZACION]]&amp;","&amp;Tabla11[[#This Row],[ID_CONTENIDO]]&amp;");"</f>
-        <v>INSERT MIRA(ID_VISUALIZACION,ID_CONTENIDO) VALUES(13,20);</v>
+        <f ca="1">"INSERT ES_REPRODUCIDO(ID_VISUALIZACION,ID_CONTENIDO) VALUES(" &amp;Tabla11[[#This Row],[ID_VISUALIZACION]]&amp;","&amp;Tabla11[[#This Row],[ID_CONTENIDO]]&amp;");"</f>
+        <v>INSERT ES_REPRODUCIDO(ID_VISUALIZACION,ID_CONTENIDO) VALUES(13,4);</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -4522,11 +4522,11 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C15" t="str">
-        <f ca="1">"INSERT MIRA(ID_VISUALIZACION,ID_CONTENIDO) VALUES(" &amp;Tabla11[[#This Row],[ID_VISUALIZACION]]&amp;","&amp;Tabla11[[#This Row],[ID_CONTENIDO]]&amp;");"</f>
-        <v>INSERT MIRA(ID_VISUALIZACION,ID_CONTENIDO) VALUES(14,7);</v>
+        <f ca="1">"INSERT ES_REPRODUCIDO(ID_VISUALIZACION,ID_CONTENIDO) VALUES(" &amp;Tabla11[[#This Row],[ID_VISUALIZACION]]&amp;","&amp;Tabla11[[#This Row],[ID_CONTENIDO]]&amp;");"</f>
+        <v>INSERT ES_REPRODUCIDO(ID_VISUALIZACION,ID_CONTENIDO) VALUES(14,25);</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -4535,11 +4535,11 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C16" t="str">
-        <f ca="1">"INSERT MIRA(ID_VISUALIZACION,ID_CONTENIDO) VALUES(" &amp;Tabla11[[#This Row],[ID_VISUALIZACION]]&amp;","&amp;Tabla11[[#This Row],[ID_CONTENIDO]]&amp;");"</f>
-        <v>INSERT MIRA(ID_VISUALIZACION,ID_CONTENIDO) VALUES(15,23);</v>
+        <f ca="1">"INSERT ES_REPRODUCIDO(ID_VISUALIZACION,ID_CONTENIDO) VALUES(" &amp;Tabla11[[#This Row],[ID_VISUALIZACION]]&amp;","&amp;Tabla11[[#This Row],[ID_CONTENIDO]]&amp;");"</f>
+        <v>INSERT ES_REPRODUCIDO(ID_VISUALIZACION,ID_CONTENIDO) VALUES(15,19);</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -4548,11 +4548,11 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C17" t="str">
-        <f ca="1">"INSERT MIRA(ID_VISUALIZACION,ID_CONTENIDO) VALUES(" &amp;Tabla11[[#This Row],[ID_VISUALIZACION]]&amp;","&amp;Tabla11[[#This Row],[ID_CONTENIDO]]&amp;");"</f>
-        <v>INSERT MIRA(ID_VISUALIZACION,ID_CONTENIDO) VALUES(16,15);</v>
+        <f ca="1">"INSERT ES_REPRODUCIDO(ID_VISUALIZACION,ID_CONTENIDO) VALUES(" &amp;Tabla11[[#This Row],[ID_VISUALIZACION]]&amp;","&amp;Tabla11[[#This Row],[ID_CONTENIDO]]&amp;");"</f>
+        <v>INSERT ES_REPRODUCIDO(ID_VISUALIZACION,ID_CONTENIDO) VALUES(16,24);</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -4561,11 +4561,11 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C18" t="str">
-        <f ca="1">"INSERT MIRA(ID_VISUALIZACION,ID_CONTENIDO) VALUES(" &amp;Tabla11[[#This Row],[ID_VISUALIZACION]]&amp;","&amp;Tabla11[[#This Row],[ID_CONTENIDO]]&amp;");"</f>
-        <v>INSERT MIRA(ID_VISUALIZACION,ID_CONTENIDO) VALUES(17,8);</v>
+        <f ca="1">"INSERT ES_REPRODUCIDO(ID_VISUALIZACION,ID_CONTENIDO) VALUES(" &amp;Tabla11[[#This Row],[ID_VISUALIZACION]]&amp;","&amp;Tabla11[[#This Row],[ID_CONTENIDO]]&amp;");"</f>
+        <v>INSERT ES_REPRODUCIDO(ID_VISUALIZACION,ID_CONTENIDO) VALUES(17,19);</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -4574,11 +4574,11 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C19" t="str">
-        <f ca="1">"INSERT MIRA(ID_VISUALIZACION,ID_CONTENIDO) VALUES(" &amp;Tabla11[[#This Row],[ID_VISUALIZACION]]&amp;","&amp;Tabla11[[#This Row],[ID_CONTENIDO]]&amp;");"</f>
-        <v>INSERT MIRA(ID_VISUALIZACION,ID_CONTENIDO) VALUES(18,15);</v>
+        <f ca="1">"INSERT ES_REPRODUCIDO(ID_VISUALIZACION,ID_CONTENIDO) VALUES(" &amp;Tabla11[[#This Row],[ID_VISUALIZACION]]&amp;","&amp;Tabla11[[#This Row],[ID_CONTENIDO]]&amp;");"</f>
+        <v>INSERT ES_REPRODUCIDO(ID_VISUALIZACION,ID_CONTENIDO) VALUES(18,2);</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -4587,11 +4587,11 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C20" t="str">
-        <f ca="1">"INSERT MIRA(ID_VISUALIZACION,ID_CONTENIDO) VALUES(" &amp;Tabla11[[#This Row],[ID_VISUALIZACION]]&amp;","&amp;Tabla11[[#This Row],[ID_CONTENIDO]]&amp;");"</f>
-        <v>INSERT MIRA(ID_VISUALIZACION,ID_CONTENIDO) VALUES(19,1);</v>
+        <f ca="1">"INSERT ES_REPRODUCIDO(ID_VISUALIZACION,ID_CONTENIDO) VALUES(" &amp;Tabla11[[#This Row],[ID_VISUALIZACION]]&amp;","&amp;Tabla11[[#This Row],[ID_CONTENIDO]]&amp;");"</f>
+        <v>INSERT ES_REPRODUCIDO(ID_VISUALIZACION,ID_CONTENIDO) VALUES(19,12);</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -4600,11 +4600,11 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="C21" t="str">
-        <f ca="1">"INSERT MIRA(ID_VISUALIZACION,ID_CONTENIDO) VALUES(" &amp;Tabla11[[#This Row],[ID_VISUALIZACION]]&amp;","&amp;Tabla11[[#This Row],[ID_CONTENIDO]]&amp;");"</f>
-        <v>INSERT MIRA(ID_VISUALIZACION,ID_CONTENIDO) VALUES(20,26);</v>
+        <f ca="1">"INSERT ES_REPRODUCIDO(ID_VISUALIZACION,ID_CONTENIDO) VALUES(" &amp;Tabla11[[#This Row],[ID_VISUALIZACION]]&amp;","&amp;Tabla11[[#This Row],[ID_CONTENIDO]]&amp;");"</f>
+        <v>INSERT ES_REPRODUCIDO(ID_VISUALIZACION,ID_CONTENIDO) VALUES(20,3);</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -4613,11 +4613,11 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C22" t="str">
-        <f ca="1">"INSERT MIRA(ID_VISUALIZACION,ID_CONTENIDO) VALUES(" &amp;Tabla11[[#This Row],[ID_VISUALIZACION]]&amp;","&amp;Tabla11[[#This Row],[ID_CONTENIDO]]&amp;");"</f>
-        <v>INSERT MIRA(ID_VISUALIZACION,ID_CONTENIDO) VALUES(21,13);</v>
+        <f ca="1">"INSERT ES_REPRODUCIDO(ID_VISUALIZACION,ID_CONTENIDO) VALUES(" &amp;Tabla11[[#This Row],[ID_VISUALIZACION]]&amp;","&amp;Tabla11[[#This Row],[ID_CONTENIDO]]&amp;");"</f>
+        <v>INSERT ES_REPRODUCIDO(ID_VISUALIZACION,ID_CONTENIDO) VALUES(21,9);</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -4626,11 +4626,11 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C23" t="str">
-        <f ca="1">"INSERT MIRA(ID_VISUALIZACION,ID_CONTENIDO) VALUES(" &amp;Tabla11[[#This Row],[ID_VISUALIZACION]]&amp;","&amp;Tabla11[[#This Row],[ID_CONTENIDO]]&amp;");"</f>
-        <v>INSERT MIRA(ID_VISUALIZACION,ID_CONTENIDO) VALUES(22,11);</v>
+        <f ca="1">"INSERT ES_REPRODUCIDO(ID_VISUALIZACION,ID_CONTENIDO) VALUES(" &amp;Tabla11[[#This Row],[ID_VISUALIZACION]]&amp;","&amp;Tabla11[[#This Row],[ID_CONTENIDO]]&amp;");"</f>
+        <v>INSERT ES_REPRODUCIDO(ID_VISUALIZACION,ID_CONTENIDO) VALUES(22,23);</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -4639,11 +4639,11 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C24" t="str">
-        <f ca="1">"INSERT MIRA(ID_VISUALIZACION,ID_CONTENIDO) VALUES(" &amp;Tabla11[[#This Row],[ID_VISUALIZACION]]&amp;","&amp;Tabla11[[#This Row],[ID_CONTENIDO]]&amp;");"</f>
-        <v>INSERT MIRA(ID_VISUALIZACION,ID_CONTENIDO) VALUES(23,13);</v>
+        <f ca="1">"INSERT ES_REPRODUCIDO(ID_VISUALIZACION,ID_CONTENIDO) VALUES(" &amp;Tabla11[[#This Row],[ID_VISUALIZACION]]&amp;","&amp;Tabla11[[#This Row],[ID_CONTENIDO]]&amp;");"</f>
+        <v>INSERT ES_REPRODUCIDO(ID_VISUALIZACION,ID_CONTENIDO) VALUES(23,4);</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -4652,11 +4652,11 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C25" t="str">
-        <f ca="1">"INSERT MIRA(ID_VISUALIZACION,ID_CONTENIDO) VALUES(" &amp;Tabla11[[#This Row],[ID_VISUALIZACION]]&amp;","&amp;Tabla11[[#This Row],[ID_CONTENIDO]]&amp;");"</f>
-        <v>INSERT MIRA(ID_VISUALIZACION,ID_CONTENIDO) VALUES(24,13);</v>
+        <f ca="1">"INSERT ES_REPRODUCIDO(ID_VISUALIZACION,ID_CONTENIDO) VALUES(" &amp;Tabla11[[#This Row],[ID_VISUALIZACION]]&amp;","&amp;Tabla11[[#This Row],[ID_CONTENIDO]]&amp;");"</f>
+        <v>INSERT ES_REPRODUCIDO(ID_VISUALIZACION,ID_CONTENIDO) VALUES(24,25);</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -4665,11 +4665,11 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C26" t="str">
-        <f ca="1">"INSERT MIRA(ID_VISUALIZACION,ID_CONTENIDO) VALUES(" &amp;Tabla11[[#This Row],[ID_VISUALIZACION]]&amp;","&amp;Tabla11[[#This Row],[ID_CONTENIDO]]&amp;");"</f>
-        <v>INSERT MIRA(ID_VISUALIZACION,ID_CONTENIDO) VALUES(25,9);</v>
+        <f ca="1">"INSERT ES_REPRODUCIDO(ID_VISUALIZACION,ID_CONTENIDO) VALUES(" &amp;Tabla11[[#This Row],[ID_VISUALIZACION]]&amp;","&amp;Tabla11[[#This Row],[ID_CONTENIDO]]&amp;");"</f>
+        <v>INSERT ES_REPRODUCIDO(ID_VISUALIZACION,ID_CONTENIDO) VALUES(25,13);</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -4678,11 +4678,11 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="C27" t="str">
-        <f ca="1">"INSERT MIRA(ID_VISUALIZACION,ID_CONTENIDO) VALUES(" &amp;Tabla11[[#This Row],[ID_VISUALIZACION]]&amp;","&amp;Tabla11[[#This Row],[ID_CONTENIDO]]&amp;");"</f>
-        <v>INSERT MIRA(ID_VISUALIZACION,ID_CONTENIDO) VALUES(26,2);</v>
+        <f ca="1">"INSERT ES_REPRODUCIDO(ID_VISUALIZACION,ID_CONTENIDO) VALUES(" &amp;Tabla11[[#This Row],[ID_VISUALIZACION]]&amp;","&amp;Tabla11[[#This Row],[ID_CONTENIDO]]&amp;");"</f>
+        <v>INSERT ES_REPRODUCIDO(ID_VISUALIZACION,ID_CONTENIDO) VALUES(26,25);</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -4691,11 +4691,11 @@
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="str">
-        <f ca="1">"INSERT MIRA(ID_VISUALIZACION,ID_CONTENIDO) VALUES(" &amp;Tabla11[[#This Row],[ID_VISUALIZACION]]&amp;","&amp;Tabla11[[#This Row],[ID_CONTENIDO]]&amp;");"</f>
-        <v>INSERT MIRA(ID_VISUALIZACION,ID_CONTENIDO) VALUES(27,8);</v>
+        <f ca="1">"INSERT ES_REPRODUCIDO(ID_VISUALIZACION,ID_CONTENIDO) VALUES(" &amp;Tabla11[[#This Row],[ID_VISUALIZACION]]&amp;","&amp;Tabla11[[#This Row],[ID_CONTENIDO]]&amp;");"</f>
+        <v>INSERT ES_REPRODUCIDO(ID_VISUALIZACION,ID_CONTENIDO) VALUES(27,9);</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -4704,11 +4704,11 @@
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C29" t="str">
-        <f ca="1">"INSERT MIRA(ID_VISUALIZACION,ID_CONTENIDO) VALUES(" &amp;Tabla11[[#This Row],[ID_VISUALIZACION]]&amp;","&amp;Tabla11[[#This Row],[ID_CONTENIDO]]&amp;");"</f>
-        <v>INSERT MIRA(ID_VISUALIZACION,ID_CONTENIDO) VALUES(28,13);</v>
+        <f ca="1">"INSERT ES_REPRODUCIDO(ID_VISUALIZACION,ID_CONTENIDO) VALUES(" &amp;Tabla11[[#This Row],[ID_VISUALIZACION]]&amp;","&amp;Tabla11[[#This Row],[ID_CONTENIDO]]&amp;");"</f>
+        <v>INSERT ES_REPRODUCIDO(ID_VISUALIZACION,ID_CONTENIDO) VALUES(28,6);</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -4720,8 +4720,8 @@
         <v>10</v>
       </c>
       <c r="C30" t="str">
-        <f ca="1">"INSERT MIRA(ID_VISUALIZACION,ID_CONTENIDO) VALUES(" &amp;Tabla11[[#This Row],[ID_VISUALIZACION]]&amp;","&amp;Tabla11[[#This Row],[ID_CONTENIDO]]&amp;");"</f>
-        <v>INSERT MIRA(ID_VISUALIZACION,ID_CONTENIDO) VALUES(29,10);</v>
+        <f ca="1">"INSERT ES_REPRODUCIDO(ID_VISUALIZACION,ID_CONTENIDO) VALUES(" &amp;Tabla11[[#This Row],[ID_VISUALIZACION]]&amp;","&amp;Tabla11[[#This Row],[ID_CONTENIDO]]&amp;");"</f>
+        <v>INSERT ES_REPRODUCIDO(ID_VISUALIZACION,ID_CONTENIDO) VALUES(29,10);</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -4730,11 +4730,11 @@
       </c>
       <c r="B31">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C31" t="str">
-        <f ca="1">"INSERT MIRA(ID_VISUALIZACION,ID_CONTENIDO) VALUES(" &amp;Tabla11[[#This Row],[ID_VISUALIZACION]]&amp;","&amp;Tabla11[[#This Row],[ID_CONTENIDO]]&amp;");"</f>
-        <v>INSERT MIRA(ID_VISUALIZACION,ID_CONTENIDO) VALUES(30,24);</v>
+        <f ca="1">"INSERT ES_REPRODUCIDO(ID_VISUALIZACION,ID_CONTENIDO) VALUES(" &amp;Tabla11[[#This Row],[ID_VISUALIZACION]]&amp;","&amp;Tabla11[[#This Row],[ID_CONTENIDO]]&amp;");"</f>
+        <v>INSERT ES_REPRODUCIDO(ID_VISUALIZACION,ID_CONTENIDO) VALUES(30,15);</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -4743,11 +4743,11 @@
       </c>
       <c r="B32">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C32" t="str">
-        <f ca="1">"INSERT MIRA(ID_VISUALIZACION,ID_CONTENIDO) VALUES(" &amp;Tabla11[[#This Row],[ID_VISUALIZACION]]&amp;","&amp;Tabla11[[#This Row],[ID_CONTENIDO]]&amp;");"</f>
-        <v>INSERT MIRA(ID_VISUALIZACION,ID_CONTENIDO) VALUES(31,11);</v>
+        <f ca="1">"INSERT ES_REPRODUCIDO(ID_VISUALIZACION,ID_CONTENIDO) VALUES(" &amp;Tabla11[[#This Row],[ID_VISUALIZACION]]&amp;","&amp;Tabla11[[#This Row],[ID_CONTENIDO]]&amp;");"</f>
+        <v>INSERT ES_REPRODUCIDO(ID_VISUALIZACION,ID_CONTENIDO) VALUES(31,25);</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -4756,11 +4756,11 @@
       </c>
       <c r="B33">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C33" t="str">
-        <f ca="1">"INSERT MIRA(ID_VISUALIZACION,ID_CONTENIDO) VALUES(" &amp;Tabla11[[#This Row],[ID_VISUALIZACION]]&amp;","&amp;Tabla11[[#This Row],[ID_CONTENIDO]]&amp;");"</f>
-        <v>INSERT MIRA(ID_VISUALIZACION,ID_CONTENIDO) VALUES(32,25);</v>
+        <f ca="1">"INSERT ES_REPRODUCIDO(ID_VISUALIZACION,ID_CONTENIDO) VALUES(" &amp;Tabla11[[#This Row],[ID_VISUALIZACION]]&amp;","&amp;Tabla11[[#This Row],[ID_CONTENIDO]]&amp;");"</f>
+        <v>INSERT ES_REPRODUCIDO(ID_VISUALIZACION,ID_CONTENIDO) VALUES(32,17);</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -4769,11 +4769,11 @@
       </c>
       <c r="B34">
         <f t="shared" ref="B34:B51" ca="1" si="1">RANDBETWEEN(1,26)</f>
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C34" t="str">
-        <f ca="1">"INSERT MIRA(ID_VISUALIZACION,ID_CONTENIDO) VALUES(" &amp;Tabla11[[#This Row],[ID_VISUALIZACION]]&amp;","&amp;Tabla11[[#This Row],[ID_CONTENIDO]]&amp;");"</f>
-        <v>INSERT MIRA(ID_VISUALIZACION,ID_CONTENIDO) VALUES(33,14);</v>
+        <f ca="1">"INSERT ES_REPRODUCIDO(ID_VISUALIZACION,ID_CONTENIDO) VALUES(" &amp;Tabla11[[#This Row],[ID_VISUALIZACION]]&amp;","&amp;Tabla11[[#This Row],[ID_CONTENIDO]]&amp;");"</f>
+        <v>INSERT ES_REPRODUCIDO(ID_VISUALIZACION,ID_CONTENIDO) VALUES(33,3);</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -4782,11 +4782,11 @@
       </c>
       <c r="B35">
         <f t="shared" ca="1" si="1"/>
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C35" t="str">
-        <f ca="1">"INSERT MIRA(ID_VISUALIZACION,ID_CONTENIDO) VALUES(" &amp;Tabla11[[#This Row],[ID_VISUALIZACION]]&amp;","&amp;Tabla11[[#This Row],[ID_CONTENIDO]]&amp;");"</f>
-        <v>INSERT MIRA(ID_VISUALIZACION,ID_CONTENIDO) VALUES(34,24);</v>
+        <f ca="1">"INSERT ES_REPRODUCIDO(ID_VISUALIZACION,ID_CONTENIDO) VALUES(" &amp;Tabla11[[#This Row],[ID_VISUALIZACION]]&amp;","&amp;Tabla11[[#This Row],[ID_CONTENIDO]]&amp;");"</f>
+        <v>INSERT ES_REPRODUCIDO(ID_VISUALIZACION,ID_CONTENIDO) VALUES(34,9);</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -4795,11 +4795,11 @@
       </c>
       <c r="B36">
         <f t="shared" ca="1" si="1"/>
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C36" t="str">
-        <f ca="1">"INSERT MIRA(ID_VISUALIZACION,ID_CONTENIDO) VALUES(" &amp;Tabla11[[#This Row],[ID_VISUALIZACION]]&amp;","&amp;Tabla11[[#This Row],[ID_CONTENIDO]]&amp;");"</f>
-        <v>INSERT MIRA(ID_VISUALIZACION,ID_CONTENIDO) VALUES(35,25);</v>
+        <f ca="1">"INSERT ES_REPRODUCIDO(ID_VISUALIZACION,ID_CONTENIDO) VALUES(" &amp;Tabla11[[#This Row],[ID_VISUALIZACION]]&amp;","&amp;Tabla11[[#This Row],[ID_CONTENIDO]]&amp;");"</f>
+        <v>INSERT ES_REPRODUCIDO(ID_VISUALIZACION,ID_CONTENIDO) VALUES(35,17);</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -4808,11 +4808,11 @@
       </c>
       <c r="B37">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C37" t="str">
-        <f ca="1">"INSERT MIRA(ID_VISUALIZACION,ID_CONTENIDO) VALUES(" &amp;Tabla11[[#This Row],[ID_VISUALIZACION]]&amp;","&amp;Tabla11[[#This Row],[ID_CONTENIDO]]&amp;");"</f>
-        <v>INSERT MIRA(ID_VISUALIZACION,ID_CONTENIDO) VALUES(36,10);</v>
+        <f ca="1">"INSERT ES_REPRODUCIDO(ID_VISUALIZACION,ID_CONTENIDO) VALUES(" &amp;Tabla11[[#This Row],[ID_VISUALIZACION]]&amp;","&amp;Tabla11[[#This Row],[ID_CONTENIDO]]&amp;");"</f>
+        <v>INSERT ES_REPRODUCIDO(ID_VISUALIZACION,ID_CONTENIDO) VALUES(36,22);</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -4821,11 +4821,11 @@
       </c>
       <c r="B38">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C38" t="str">
-        <f ca="1">"INSERT MIRA(ID_VISUALIZACION,ID_CONTENIDO) VALUES(" &amp;Tabla11[[#This Row],[ID_VISUALIZACION]]&amp;","&amp;Tabla11[[#This Row],[ID_CONTENIDO]]&amp;");"</f>
-        <v>INSERT MIRA(ID_VISUALIZACION,ID_CONTENIDO) VALUES(37,9);</v>
+        <f ca="1">"INSERT ES_REPRODUCIDO(ID_VISUALIZACION,ID_CONTENIDO) VALUES(" &amp;Tabla11[[#This Row],[ID_VISUALIZACION]]&amp;","&amp;Tabla11[[#This Row],[ID_CONTENIDO]]&amp;");"</f>
+        <v>INSERT ES_REPRODUCIDO(ID_VISUALIZACION,ID_CONTENIDO) VALUES(37,3);</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -4834,11 +4834,11 @@
       </c>
       <c r="B39">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="C39" t="str">
-        <f ca="1">"INSERT MIRA(ID_VISUALIZACION,ID_CONTENIDO) VALUES(" &amp;Tabla11[[#This Row],[ID_VISUALIZACION]]&amp;","&amp;Tabla11[[#This Row],[ID_CONTENIDO]]&amp;");"</f>
-        <v>INSERT MIRA(ID_VISUALIZACION,ID_CONTENIDO) VALUES(38,4);</v>
+        <f ca="1">"INSERT ES_REPRODUCIDO(ID_VISUALIZACION,ID_CONTENIDO) VALUES(" &amp;Tabla11[[#This Row],[ID_VISUALIZACION]]&amp;","&amp;Tabla11[[#This Row],[ID_CONTENIDO]]&amp;");"</f>
+        <v>INSERT ES_REPRODUCIDO(ID_VISUALIZACION,ID_CONTENIDO) VALUES(38,22);</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -4847,11 +4847,11 @@
       </c>
       <c r="B40">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C40" t="str">
-        <f ca="1">"INSERT MIRA(ID_VISUALIZACION,ID_CONTENIDO) VALUES(" &amp;Tabla11[[#This Row],[ID_VISUALIZACION]]&amp;","&amp;Tabla11[[#This Row],[ID_CONTENIDO]]&amp;");"</f>
-        <v>INSERT MIRA(ID_VISUALIZACION,ID_CONTENIDO) VALUES(39,15);</v>
+        <f ca="1">"INSERT ES_REPRODUCIDO(ID_VISUALIZACION,ID_CONTENIDO) VALUES(" &amp;Tabla11[[#This Row],[ID_VISUALIZACION]]&amp;","&amp;Tabla11[[#This Row],[ID_CONTENIDO]]&amp;");"</f>
+        <v>INSERT ES_REPRODUCIDO(ID_VISUALIZACION,ID_CONTENIDO) VALUES(39,20);</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -4860,11 +4860,11 @@
       </c>
       <c r="B41">
         <f t="shared" ca="1" si="1"/>
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="C41" t="str">
-        <f ca="1">"INSERT MIRA(ID_VISUALIZACION,ID_CONTENIDO) VALUES(" &amp;Tabla11[[#This Row],[ID_VISUALIZACION]]&amp;","&amp;Tabla11[[#This Row],[ID_CONTENIDO]]&amp;");"</f>
-        <v>INSERT MIRA(ID_VISUALIZACION,ID_CONTENIDO) VALUES(40,21);</v>
+        <f ca="1">"INSERT ES_REPRODUCIDO(ID_VISUALIZACION,ID_CONTENIDO) VALUES(" &amp;Tabla11[[#This Row],[ID_VISUALIZACION]]&amp;","&amp;Tabla11[[#This Row],[ID_CONTENIDO]]&amp;");"</f>
+        <v>INSERT ES_REPRODUCIDO(ID_VISUALIZACION,ID_CONTENIDO) VALUES(40,2);</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -4873,11 +4873,11 @@
       </c>
       <c r="B42">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C42" t="str">
-        <f ca="1">"INSERT MIRA(ID_VISUALIZACION,ID_CONTENIDO) VALUES(" &amp;Tabla11[[#This Row],[ID_VISUALIZACION]]&amp;","&amp;Tabla11[[#This Row],[ID_CONTENIDO]]&amp;");"</f>
-        <v>INSERT MIRA(ID_VISUALIZACION,ID_CONTENIDO) VALUES(41,4);</v>
+        <f ca="1">"INSERT ES_REPRODUCIDO(ID_VISUALIZACION,ID_CONTENIDO) VALUES(" &amp;Tabla11[[#This Row],[ID_VISUALIZACION]]&amp;","&amp;Tabla11[[#This Row],[ID_CONTENIDO]]&amp;");"</f>
+        <v>INSERT ES_REPRODUCIDO(ID_VISUALIZACION,ID_CONTENIDO) VALUES(41,15);</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -4886,11 +4886,11 @@
       </c>
       <c r="B43">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C43" t="str">
-        <f ca="1">"INSERT MIRA(ID_VISUALIZACION,ID_CONTENIDO) VALUES(" &amp;Tabla11[[#This Row],[ID_VISUALIZACION]]&amp;","&amp;Tabla11[[#This Row],[ID_CONTENIDO]]&amp;");"</f>
-        <v>INSERT MIRA(ID_VISUALIZACION,ID_CONTENIDO) VALUES(42,2);</v>
+        <f ca="1">"INSERT ES_REPRODUCIDO(ID_VISUALIZACION,ID_CONTENIDO) VALUES(" &amp;Tabla11[[#This Row],[ID_VISUALIZACION]]&amp;","&amp;Tabla11[[#This Row],[ID_CONTENIDO]]&amp;");"</f>
+        <v>INSERT ES_REPRODUCIDO(ID_VISUALIZACION,ID_CONTENIDO) VALUES(42,21);</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -4899,11 +4899,11 @@
       </c>
       <c r="B44">
         <f t="shared" ca="1" si="1"/>
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C44" t="str">
-        <f ca="1">"INSERT MIRA(ID_VISUALIZACION,ID_CONTENIDO) VALUES(" &amp;Tabla11[[#This Row],[ID_VISUALIZACION]]&amp;","&amp;Tabla11[[#This Row],[ID_CONTENIDO]]&amp;");"</f>
-        <v>INSERT MIRA(ID_VISUALIZACION,ID_CONTENIDO) VALUES(43,19);</v>
+        <f ca="1">"INSERT ES_REPRODUCIDO(ID_VISUALIZACION,ID_CONTENIDO) VALUES(" &amp;Tabla11[[#This Row],[ID_VISUALIZACION]]&amp;","&amp;Tabla11[[#This Row],[ID_CONTENIDO]]&amp;");"</f>
+        <v>INSERT ES_REPRODUCIDO(ID_VISUALIZACION,ID_CONTENIDO) VALUES(43,8);</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -4912,11 +4912,11 @@
       </c>
       <c r="B45">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C45" t="str">
-        <f ca="1">"INSERT MIRA(ID_VISUALIZACION,ID_CONTENIDO) VALUES(" &amp;Tabla11[[#This Row],[ID_VISUALIZACION]]&amp;","&amp;Tabla11[[#This Row],[ID_CONTENIDO]]&amp;");"</f>
-        <v>INSERT MIRA(ID_VISUALIZACION,ID_CONTENIDO) VALUES(44,15);</v>
+        <f ca="1">"INSERT ES_REPRODUCIDO(ID_VISUALIZACION,ID_CONTENIDO) VALUES(" &amp;Tabla11[[#This Row],[ID_VISUALIZACION]]&amp;","&amp;Tabla11[[#This Row],[ID_CONTENIDO]]&amp;");"</f>
+        <v>INSERT ES_REPRODUCIDO(ID_VISUALIZACION,ID_CONTENIDO) VALUES(44,25);</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -4925,11 +4925,11 @@
       </c>
       <c r="B46">
         <f t="shared" ca="1" si="1"/>
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C46" t="str">
-        <f ca="1">"INSERT MIRA(ID_VISUALIZACION,ID_CONTENIDO) VALUES(" &amp;Tabla11[[#This Row],[ID_VISUALIZACION]]&amp;","&amp;Tabla11[[#This Row],[ID_CONTENIDO]]&amp;");"</f>
-        <v>INSERT MIRA(ID_VISUALIZACION,ID_CONTENIDO) VALUES(45,23);</v>
+        <f ca="1">"INSERT ES_REPRODUCIDO(ID_VISUALIZACION,ID_CONTENIDO) VALUES(" &amp;Tabla11[[#This Row],[ID_VISUALIZACION]]&amp;","&amp;Tabla11[[#This Row],[ID_CONTENIDO]]&amp;");"</f>
+        <v>INSERT ES_REPRODUCIDO(ID_VISUALIZACION,ID_CONTENIDO) VALUES(45,1);</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -4941,8 +4941,8 @@
         <v>25</v>
       </c>
       <c r="C47" t="str">
-        <f ca="1">"INSERT MIRA(ID_VISUALIZACION,ID_CONTENIDO) VALUES(" &amp;Tabla11[[#This Row],[ID_VISUALIZACION]]&amp;","&amp;Tabla11[[#This Row],[ID_CONTENIDO]]&amp;");"</f>
-        <v>INSERT MIRA(ID_VISUALIZACION,ID_CONTENIDO) VALUES(46,25);</v>
+        <f ca="1">"INSERT ES_REPRODUCIDO(ID_VISUALIZACION,ID_CONTENIDO) VALUES(" &amp;Tabla11[[#This Row],[ID_VISUALIZACION]]&amp;","&amp;Tabla11[[#This Row],[ID_CONTENIDO]]&amp;");"</f>
+        <v>INSERT ES_REPRODUCIDO(ID_VISUALIZACION,ID_CONTENIDO) VALUES(46,25);</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -4951,11 +4951,11 @@
       </c>
       <c r="B48">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C48" t="str">
-        <f ca="1">"INSERT MIRA(ID_VISUALIZACION,ID_CONTENIDO) VALUES(" &amp;Tabla11[[#This Row],[ID_VISUALIZACION]]&amp;","&amp;Tabla11[[#This Row],[ID_CONTENIDO]]&amp;");"</f>
-        <v>INSERT MIRA(ID_VISUALIZACION,ID_CONTENIDO) VALUES(47,9);</v>
+        <f ca="1">"INSERT ES_REPRODUCIDO(ID_VISUALIZACION,ID_CONTENIDO) VALUES(" &amp;Tabla11[[#This Row],[ID_VISUALIZACION]]&amp;","&amp;Tabla11[[#This Row],[ID_CONTENIDO]]&amp;");"</f>
+        <v>INSERT ES_REPRODUCIDO(ID_VISUALIZACION,ID_CONTENIDO) VALUES(47,6);</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -4964,11 +4964,11 @@
       </c>
       <c r="B49">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C49" t="str">
-        <f ca="1">"INSERT MIRA(ID_VISUALIZACION,ID_CONTENIDO) VALUES(" &amp;Tabla11[[#This Row],[ID_VISUALIZACION]]&amp;","&amp;Tabla11[[#This Row],[ID_CONTENIDO]]&amp;");"</f>
-        <v>INSERT MIRA(ID_VISUALIZACION,ID_CONTENIDO) VALUES(48,6);</v>
+        <f ca="1">"INSERT ES_REPRODUCIDO(ID_VISUALIZACION,ID_CONTENIDO) VALUES(" &amp;Tabla11[[#This Row],[ID_VISUALIZACION]]&amp;","&amp;Tabla11[[#This Row],[ID_CONTENIDO]]&amp;");"</f>
+        <v>INSERT ES_REPRODUCIDO(ID_VISUALIZACION,ID_CONTENIDO) VALUES(48,20);</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -4977,11 +4977,11 @@
       </c>
       <c r="B50">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C50" t="str">
-        <f ca="1">"INSERT MIRA(ID_VISUALIZACION,ID_CONTENIDO) VALUES(" &amp;Tabla11[[#This Row],[ID_VISUALIZACION]]&amp;","&amp;Tabla11[[#This Row],[ID_CONTENIDO]]&amp;");"</f>
-        <v>INSERT MIRA(ID_VISUALIZACION,ID_CONTENIDO) VALUES(49,13);</v>
+        <f ca="1">"INSERT ES_REPRODUCIDO(ID_VISUALIZACION,ID_CONTENIDO) VALUES(" &amp;Tabla11[[#This Row],[ID_VISUALIZACION]]&amp;","&amp;Tabla11[[#This Row],[ID_CONTENIDO]]&amp;");"</f>
+        <v>INSERT ES_REPRODUCIDO(ID_VISUALIZACION,ID_CONTENIDO) VALUES(49,9);</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -4990,11 +4990,11 @@
       </c>
       <c r="B51">
         <f t="shared" ca="1" si="1"/>
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C51" t="str">
-        <f ca="1">"INSERT MIRA(ID_VISUALIZACION,ID_CONTENIDO) VALUES(" &amp;Tabla11[[#This Row],[ID_VISUALIZACION]]&amp;","&amp;Tabla11[[#This Row],[ID_CONTENIDO]]&amp;");"</f>
-        <v>INSERT MIRA(ID_VISUALIZACION,ID_CONTENIDO) VALUES(50,25);</v>
+        <f ca="1">"INSERT ES_REPRODUCIDO(ID_VISUALIZACION,ID_CONTENIDO) VALUES(" &amp;Tabla11[[#This Row],[ID_VISUALIZACION]]&amp;","&amp;Tabla11[[#This Row],[ID_CONTENIDO]]&amp;");"</f>
+        <v>INSERT ES_REPRODUCIDO(ID_VISUALIZACION,ID_CONTENIDO) VALUES(50,8);</v>
       </c>
     </row>
   </sheetData>
@@ -5404,7 +5404,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A32">
-    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B2">
         <f t="shared" ref="B2:B21" ca="1" si="0">RANDBETWEEN(5,10)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
         <v>136</v>
@@ -5484,7 +5484,7 @@
       </c>
       <c r="H2" t="str">
         <f ca="1">"INSERT RTA_ENCUESTA(ID_RTA_ENCUESTA,PUNTAJE_GLOBAL,RESUMEN_POSITIVO_PLATAFORMA,RESUMEN_NEGATIVO_PLATAFORMA,RESUMEN_POSITIVO_DESCARGA,RESUMEN_NEGATIVO_DESCARGA,ID_DESCARGA) VALUES("&amp;Tabla13[[#This Row],[ID_RTA_ENCUESTA]]&amp;","&amp;Tabla13[[#This Row],[PUNTAJE_GLOBAL]]&amp;",'"&amp;Tabla13[[#This Row],[RESUMEN_POSITIVO_PLATAFORMA]]&amp;"','"&amp;Tabla13[[#This Row],[RESUMEN_NEGATIVO_PLATAFORMA]]&amp;"','"&amp;Tabla13[[#This Row],[RESUMEN_POSITIVO_DESCARGA]]&amp;"','"&amp;Tabla13[[#This Row],[RESUMEN_NEGATIVO_DESCARGA]]&amp;"',"&amp;Tabla13[[#This Row],[ID_DESCARGA]]&amp;");"</f>
-        <v>INSERT RTA_ENCUESTA(ID_RTA_ENCUESTA,PUNTAJE_GLOBAL,RESUMEN_POSITIVO_PLATAFORMA,RESUMEN_NEGATIVO_PLATAFORMA,RESUMEN_POSITIVO_DESCARGA,RESUMEN_NEGATIVO_DESCARGA,ID_DESCARGA) VALUES(1,5,'MUY BUENO','MUY BUENO','MUY BUENO','MUY BUENO',1);</v>
+        <v>INSERT RTA_ENCUESTA(ID_RTA_ENCUESTA,PUNTAJE_GLOBAL,RESUMEN_POSITIVO_PLATAFORMA,RESUMEN_NEGATIVO_PLATAFORMA,RESUMEN_POSITIVO_DESCARGA,RESUMEN_NEGATIVO_DESCARGA,ID_DESCARGA) VALUES(1,6,'MUY BUENO','MUY BUENO','MUY BUENO','MUY BUENO',1);</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -5493,7 +5493,7 @@
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
         <v>136</v>
@@ -5513,7 +5513,7 @@
       </c>
       <c r="H3" t="str">
         <f ca="1">"INSERT RTA_ENCUESTA(ID_RTA_ENCUESTA,PUNTAJE_GLOBAL,RESUMEN_POSITIVO_PLATAFORMA,RESUMEN_NEGATIVO_PLATAFORMA,RESUMEN_POSITIVO_DESCARGA,RESUMEN_NEGATIVO_DESCARGA,ID_DESCARGA) VALUES("&amp;Tabla13[[#This Row],[ID_RTA_ENCUESTA]]&amp;","&amp;Tabla13[[#This Row],[PUNTAJE_GLOBAL]]&amp;",'"&amp;Tabla13[[#This Row],[RESUMEN_POSITIVO_PLATAFORMA]]&amp;"','"&amp;Tabla13[[#This Row],[RESUMEN_NEGATIVO_PLATAFORMA]]&amp;"','"&amp;Tabla13[[#This Row],[RESUMEN_POSITIVO_DESCARGA]]&amp;"','"&amp;Tabla13[[#This Row],[RESUMEN_NEGATIVO_DESCARGA]]&amp;"',"&amp;Tabla13[[#This Row],[ID_DESCARGA]]&amp;");"</f>
-        <v>INSERT RTA_ENCUESTA(ID_RTA_ENCUESTA,PUNTAJE_GLOBAL,RESUMEN_POSITIVO_PLATAFORMA,RESUMEN_NEGATIVO_PLATAFORMA,RESUMEN_POSITIVO_DESCARGA,RESUMEN_NEGATIVO_DESCARGA,ID_DESCARGA) VALUES(2,6,'MUY BUENO','MUY BUENO','MUY BUENO','MUY BUENO',2);</v>
+        <v>INSERT RTA_ENCUESTA(ID_RTA_ENCUESTA,PUNTAJE_GLOBAL,RESUMEN_POSITIVO_PLATAFORMA,RESUMEN_NEGATIVO_PLATAFORMA,RESUMEN_POSITIVO_DESCARGA,RESUMEN_NEGATIVO_DESCARGA,ID_DESCARGA) VALUES(2,7,'MUY BUENO','MUY BUENO','MUY BUENO','MUY BUENO',2);</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -5522,7 +5522,7 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
         <v>136</v>
@@ -5542,7 +5542,7 @@
       </c>
       <c r="H4" t="str">
         <f ca="1">"INSERT RTA_ENCUESTA(ID_RTA_ENCUESTA,PUNTAJE_GLOBAL,RESUMEN_POSITIVO_PLATAFORMA,RESUMEN_NEGATIVO_PLATAFORMA,RESUMEN_POSITIVO_DESCARGA,RESUMEN_NEGATIVO_DESCARGA,ID_DESCARGA) VALUES("&amp;Tabla13[[#This Row],[ID_RTA_ENCUESTA]]&amp;","&amp;Tabla13[[#This Row],[PUNTAJE_GLOBAL]]&amp;",'"&amp;Tabla13[[#This Row],[RESUMEN_POSITIVO_PLATAFORMA]]&amp;"','"&amp;Tabla13[[#This Row],[RESUMEN_NEGATIVO_PLATAFORMA]]&amp;"','"&amp;Tabla13[[#This Row],[RESUMEN_POSITIVO_DESCARGA]]&amp;"','"&amp;Tabla13[[#This Row],[RESUMEN_NEGATIVO_DESCARGA]]&amp;"',"&amp;Tabla13[[#This Row],[ID_DESCARGA]]&amp;");"</f>
-        <v>INSERT RTA_ENCUESTA(ID_RTA_ENCUESTA,PUNTAJE_GLOBAL,RESUMEN_POSITIVO_PLATAFORMA,RESUMEN_NEGATIVO_PLATAFORMA,RESUMEN_POSITIVO_DESCARGA,RESUMEN_NEGATIVO_DESCARGA,ID_DESCARGA) VALUES(3,6,'MUY BUENO','MUY BUENO','MUY BUENO','MUY BUENO',3);</v>
+        <v>INSERT RTA_ENCUESTA(ID_RTA_ENCUESTA,PUNTAJE_GLOBAL,RESUMEN_POSITIVO_PLATAFORMA,RESUMEN_NEGATIVO_PLATAFORMA,RESUMEN_POSITIVO_DESCARGA,RESUMEN_NEGATIVO_DESCARGA,ID_DESCARGA) VALUES(3,5,'MUY BUENO','MUY BUENO','MUY BUENO','MUY BUENO',3);</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -5551,7 +5551,7 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
         <v>136</v>
@@ -5571,7 +5571,7 @@
       </c>
       <c r="H5" t="str">
         <f ca="1">"INSERT RTA_ENCUESTA(ID_RTA_ENCUESTA,PUNTAJE_GLOBAL,RESUMEN_POSITIVO_PLATAFORMA,RESUMEN_NEGATIVO_PLATAFORMA,RESUMEN_POSITIVO_DESCARGA,RESUMEN_NEGATIVO_DESCARGA,ID_DESCARGA) VALUES("&amp;Tabla13[[#This Row],[ID_RTA_ENCUESTA]]&amp;","&amp;Tabla13[[#This Row],[PUNTAJE_GLOBAL]]&amp;",'"&amp;Tabla13[[#This Row],[RESUMEN_POSITIVO_PLATAFORMA]]&amp;"','"&amp;Tabla13[[#This Row],[RESUMEN_NEGATIVO_PLATAFORMA]]&amp;"','"&amp;Tabla13[[#This Row],[RESUMEN_POSITIVO_DESCARGA]]&amp;"','"&amp;Tabla13[[#This Row],[RESUMEN_NEGATIVO_DESCARGA]]&amp;"',"&amp;Tabla13[[#This Row],[ID_DESCARGA]]&amp;");"</f>
-        <v>INSERT RTA_ENCUESTA(ID_RTA_ENCUESTA,PUNTAJE_GLOBAL,RESUMEN_POSITIVO_PLATAFORMA,RESUMEN_NEGATIVO_PLATAFORMA,RESUMEN_POSITIVO_DESCARGA,RESUMEN_NEGATIVO_DESCARGA,ID_DESCARGA) VALUES(4,6,'MUY BUENO','MUY BUENO','MUY BUENO','MUY BUENO',4);</v>
+        <v>INSERT RTA_ENCUESTA(ID_RTA_ENCUESTA,PUNTAJE_GLOBAL,RESUMEN_POSITIVO_PLATAFORMA,RESUMEN_NEGATIVO_PLATAFORMA,RESUMEN_POSITIVO_DESCARGA,RESUMEN_NEGATIVO_DESCARGA,ID_DESCARGA) VALUES(4,10,'MUY BUENO','MUY BUENO','MUY BUENO','MUY BUENO',4);</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -5609,7 +5609,7 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
         <v>136</v>
@@ -5629,7 +5629,7 @@
       </c>
       <c r="H7" t="str">
         <f ca="1">"INSERT RTA_ENCUESTA(ID_RTA_ENCUESTA,PUNTAJE_GLOBAL,RESUMEN_POSITIVO_PLATAFORMA,RESUMEN_NEGATIVO_PLATAFORMA,RESUMEN_POSITIVO_DESCARGA,RESUMEN_NEGATIVO_DESCARGA,ID_DESCARGA) VALUES("&amp;Tabla13[[#This Row],[ID_RTA_ENCUESTA]]&amp;","&amp;Tabla13[[#This Row],[PUNTAJE_GLOBAL]]&amp;",'"&amp;Tabla13[[#This Row],[RESUMEN_POSITIVO_PLATAFORMA]]&amp;"','"&amp;Tabla13[[#This Row],[RESUMEN_NEGATIVO_PLATAFORMA]]&amp;"','"&amp;Tabla13[[#This Row],[RESUMEN_POSITIVO_DESCARGA]]&amp;"','"&amp;Tabla13[[#This Row],[RESUMEN_NEGATIVO_DESCARGA]]&amp;"',"&amp;Tabla13[[#This Row],[ID_DESCARGA]]&amp;");"</f>
-        <v>INSERT RTA_ENCUESTA(ID_RTA_ENCUESTA,PUNTAJE_GLOBAL,RESUMEN_POSITIVO_PLATAFORMA,RESUMEN_NEGATIVO_PLATAFORMA,RESUMEN_POSITIVO_DESCARGA,RESUMEN_NEGATIVO_DESCARGA,ID_DESCARGA) VALUES(6,7,'MUY BUENO','MUY BUENO','MUY BUENO','MUY BUENO',6);</v>
+        <v>INSERT RTA_ENCUESTA(ID_RTA_ENCUESTA,PUNTAJE_GLOBAL,RESUMEN_POSITIVO_PLATAFORMA,RESUMEN_NEGATIVO_PLATAFORMA,RESUMEN_POSITIVO_DESCARGA,RESUMEN_NEGATIVO_DESCARGA,ID_DESCARGA) VALUES(6,8,'MUY BUENO','MUY BUENO','MUY BUENO','MUY BUENO',6);</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -5667,7 +5667,7 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
         <v>137</v>
@@ -5687,7 +5687,7 @@
       </c>
       <c r="H9" t="str">
         <f ca="1">"INSERT RTA_ENCUESTA(ID_RTA_ENCUESTA,PUNTAJE_GLOBAL,RESUMEN_POSITIVO_PLATAFORMA,RESUMEN_NEGATIVO_PLATAFORMA,RESUMEN_POSITIVO_DESCARGA,RESUMEN_NEGATIVO_DESCARGA,ID_DESCARGA) VALUES("&amp;Tabla13[[#This Row],[ID_RTA_ENCUESTA]]&amp;","&amp;Tabla13[[#This Row],[PUNTAJE_GLOBAL]]&amp;",'"&amp;Tabla13[[#This Row],[RESUMEN_POSITIVO_PLATAFORMA]]&amp;"','"&amp;Tabla13[[#This Row],[RESUMEN_NEGATIVO_PLATAFORMA]]&amp;"','"&amp;Tabla13[[#This Row],[RESUMEN_POSITIVO_DESCARGA]]&amp;"','"&amp;Tabla13[[#This Row],[RESUMEN_NEGATIVO_DESCARGA]]&amp;"',"&amp;Tabla13[[#This Row],[ID_DESCARGA]]&amp;");"</f>
-        <v>INSERT RTA_ENCUESTA(ID_RTA_ENCUESTA,PUNTAJE_GLOBAL,RESUMEN_POSITIVO_PLATAFORMA,RESUMEN_NEGATIVO_PLATAFORMA,RESUMEN_POSITIVO_DESCARGA,RESUMEN_NEGATIVO_DESCARGA,ID_DESCARGA) VALUES(8,8,'EXCELENTE','EXCELENTE','EXCELENTE','EXCELENTE',8);</v>
+        <v>INSERT RTA_ENCUESTA(ID_RTA_ENCUESTA,PUNTAJE_GLOBAL,RESUMEN_POSITIVO_PLATAFORMA,RESUMEN_NEGATIVO_PLATAFORMA,RESUMEN_POSITIVO_DESCARGA,RESUMEN_NEGATIVO_DESCARGA,ID_DESCARGA) VALUES(8,9,'EXCELENTE','EXCELENTE','EXCELENTE','EXCELENTE',8);</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -5696,7 +5696,7 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
         <v>137</v>
@@ -5716,7 +5716,7 @@
       </c>
       <c r="H10" t="str">
         <f ca="1">"INSERT RTA_ENCUESTA(ID_RTA_ENCUESTA,PUNTAJE_GLOBAL,RESUMEN_POSITIVO_PLATAFORMA,RESUMEN_NEGATIVO_PLATAFORMA,RESUMEN_POSITIVO_DESCARGA,RESUMEN_NEGATIVO_DESCARGA,ID_DESCARGA) VALUES("&amp;Tabla13[[#This Row],[ID_RTA_ENCUESTA]]&amp;","&amp;Tabla13[[#This Row],[PUNTAJE_GLOBAL]]&amp;",'"&amp;Tabla13[[#This Row],[RESUMEN_POSITIVO_PLATAFORMA]]&amp;"','"&amp;Tabla13[[#This Row],[RESUMEN_NEGATIVO_PLATAFORMA]]&amp;"','"&amp;Tabla13[[#This Row],[RESUMEN_POSITIVO_DESCARGA]]&amp;"','"&amp;Tabla13[[#This Row],[RESUMEN_NEGATIVO_DESCARGA]]&amp;"',"&amp;Tabla13[[#This Row],[ID_DESCARGA]]&amp;");"</f>
-        <v>INSERT RTA_ENCUESTA(ID_RTA_ENCUESTA,PUNTAJE_GLOBAL,RESUMEN_POSITIVO_PLATAFORMA,RESUMEN_NEGATIVO_PLATAFORMA,RESUMEN_POSITIVO_DESCARGA,RESUMEN_NEGATIVO_DESCARGA,ID_DESCARGA) VALUES(9,5,'EXCELENTE','EXCELENTE','EXCELENTE','EXCELENTE',9);</v>
+        <v>INSERT RTA_ENCUESTA(ID_RTA_ENCUESTA,PUNTAJE_GLOBAL,RESUMEN_POSITIVO_PLATAFORMA,RESUMEN_NEGATIVO_PLATAFORMA,RESUMEN_POSITIVO_DESCARGA,RESUMEN_NEGATIVO_DESCARGA,ID_DESCARGA) VALUES(9,7,'EXCELENTE','EXCELENTE','EXCELENTE','EXCELENTE',9);</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -5725,7 +5725,7 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
         <v>137</v>
@@ -5745,7 +5745,7 @@
       </c>
       <c r="H11" t="str">
         <f ca="1">"INSERT RTA_ENCUESTA(ID_RTA_ENCUESTA,PUNTAJE_GLOBAL,RESUMEN_POSITIVO_PLATAFORMA,RESUMEN_NEGATIVO_PLATAFORMA,RESUMEN_POSITIVO_DESCARGA,RESUMEN_NEGATIVO_DESCARGA,ID_DESCARGA) VALUES("&amp;Tabla13[[#This Row],[ID_RTA_ENCUESTA]]&amp;","&amp;Tabla13[[#This Row],[PUNTAJE_GLOBAL]]&amp;",'"&amp;Tabla13[[#This Row],[RESUMEN_POSITIVO_PLATAFORMA]]&amp;"','"&amp;Tabla13[[#This Row],[RESUMEN_NEGATIVO_PLATAFORMA]]&amp;"','"&amp;Tabla13[[#This Row],[RESUMEN_POSITIVO_DESCARGA]]&amp;"','"&amp;Tabla13[[#This Row],[RESUMEN_NEGATIVO_DESCARGA]]&amp;"',"&amp;Tabla13[[#This Row],[ID_DESCARGA]]&amp;");"</f>
-        <v>INSERT RTA_ENCUESTA(ID_RTA_ENCUESTA,PUNTAJE_GLOBAL,RESUMEN_POSITIVO_PLATAFORMA,RESUMEN_NEGATIVO_PLATAFORMA,RESUMEN_POSITIVO_DESCARGA,RESUMEN_NEGATIVO_DESCARGA,ID_DESCARGA) VALUES(10,6,'EXCELENTE','EXCELENTE','EXCELENTE','EXCELENTE',10);</v>
+        <v>INSERT RTA_ENCUESTA(ID_RTA_ENCUESTA,PUNTAJE_GLOBAL,RESUMEN_POSITIVO_PLATAFORMA,RESUMEN_NEGATIVO_PLATAFORMA,RESUMEN_POSITIVO_DESCARGA,RESUMEN_NEGATIVO_DESCARGA,ID_DESCARGA) VALUES(10,5,'EXCELENTE','EXCELENTE','EXCELENTE','EXCELENTE',10);</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -5754,7 +5754,7 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
         <v>137</v>
@@ -5774,7 +5774,7 @@
       </c>
       <c r="H12" t="str">
         <f ca="1">"INSERT RTA_ENCUESTA(ID_RTA_ENCUESTA,PUNTAJE_GLOBAL,RESUMEN_POSITIVO_PLATAFORMA,RESUMEN_NEGATIVO_PLATAFORMA,RESUMEN_POSITIVO_DESCARGA,RESUMEN_NEGATIVO_DESCARGA,ID_DESCARGA) VALUES("&amp;Tabla13[[#This Row],[ID_RTA_ENCUESTA]]&amp;","&amp;Tabla13[[#This Row],[PUNTAJE_GLOBAL]]&amp;",'"&amp;Tabla13[[#This Row],[RESUMEN_POSITIVO_PLATAFORMA]]&amp;"','"&amp;Tabla13[[#This Row],[RESUMEN_NEGATIVO_PLATAFORMA]]&amp;"','"&amp;Tabla13[[#This Row],[RESUMEN_POSITIVO_DESCARGA]]&amp;"','"&amp;Tabla13[[#This Row],[RESUMEN_NEGATIVO_DESCARGA]]&amp;"',"&amp;Tabla13[[#This Row],[ID_DESCARGA]]&amp;");"</f>
-        <v>INSERT RTA_ENCUESTA(ID_RTA_ENCUESTA,PUNTAJE_GLOBAL,RESUMEN_POSITIVO_PLATAFORMA,RESUMEN_NEGATIVO_PLATAFORMA,RESUMEN_POSITIVO_DESCARGA,RESUMEN_NEGATIVO_DESCARGA,ID_DESCARGA) VALUES(11,7,'EXCELENTE','EXCELENTE','EXCELENTE','EXCELENTE',11);</v>
+        <v>INSERT RTA_ENCUESTA(ID_RTA_ENCUESTA,PUNTAJE_GLOBAL,RESUMEN_POSITIVO_PLATAFORMA,RESUMEN_NEGATIVO_PLATAFORMA,RESUMEN_POSITIVO_DESCARGA,RESUMEN_NEGATIVO_DESCARGA,ID_DESCARGA) VALUES(11,9,'EXCELENTE','EXCELENTE','EXCELENTE','EXCELENTE',11);</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -5783,7 +5783,7 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
         <v>137</v>
@@ -5803,7 +5803,7 @@
       </c>
       <c r="H13" t="str">
         <f ca="1">"INSERT RTA_ENCUESTA(ID_RTA_ENCUESTA,PUNTAJE_GLOBAL,RESUMEN_POSITIVO_PLATAFORMA,RESUMEN_NEGATIVO_PLATAFORMA,RESUMEN_POSITIVO_DESCARGA,RESUMEN_NEGATIVO_DESCARGA,ID_DESCARGA) VALUES("&amp;Tabla13[[#This Row],[ID_RTA_ENCUESTA]]&amp;","&amp;Tabla13[[#This Row],[PUNTAJE_GLOBAL]]&amp;",'"&amp;Tabla13[[#This Row],[RESUMEN_POSITIVO_PLATAFORMA]]&amp;"','"&amp;Tabla13[[#This Row],[RESUMEN_NEGATIVO_PLATAFORMA]]&amp;"','"&amp;Tabla13[[#This Row],[RESUMEN_POSITIVO_DESCARGA]]&amp;"','"&amp;Tabla13[[#This Row],[RESUMEN_NEGATIVO_DESCARGA]]&amp;"',"&amp;Tabla13[[#This Row],[ID_DESCARGA]]&amp;");"</f>
-        <v>INSERT RTA_ENCUESTA(ID_RTA_ENCUESTA,PUNTAJE_GLOBAL,RESUMEN_POSITIVO_PLATAFORMA,RESUMEN_NEGATIVO_PLATAFORMA,RESUMEN_POSITIVO_DESCARGA,RESUMEN_NEGATIVO_DESCARGA,ID_DESCARGA) VALUES(12,6,'EXCELENTE','EXCELENTE','EXCELENTE','EXCELENTE',12);</v>
+        <v>INSERT RTA_ENCUESTA(ID_RTA_ENCUESTA,PUNTAJE_GLOBAL,RESUMEN_POSITIVO_PLATAFORMA,RESUMEN_NEGATIVO_PLATAFORMA,RESUMEN_POSITIVO_DESCARGA,RESUMEN_NEGATIVO_DESCARGA,ID_DESCARGA) VALUES(12,10,'EXCELENTE','EXCELENTE','EXCELENTE','EXCELENTE',12);</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -5812,7 +5812,7 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C14" t="s">
         <v>137</v>
@@ -5832,7 +5832,7 @@
       </c>
       <c r="H14" t="str">
         <f ca="1">"INSERT RTA_ENCUESTA(ID_RTA_ENCUESTA,PUNTAJE_GLOBAL,RESUMEN_POSITIVO_PLATAFORMA,RESUMEN_NEGATIVO_PLATAFORMA,RESUMEN_POSITIVO_DESCARGA,RESUMEN_NEGATIVO_DESCARGA,ID_DESCARGA) VALUES("&amp;Tabla13[[#This Row],[ID_RTA_ENCUESTA]]&amp;","&amp;Tabla13[[#This Row],[PUNTAJE_GLOBAL]]&amp;",'"&amp;Tabla13[[#This Row],[RESUMEN_POSITIVO_PLATAFORMA]]&amp;"','"&amp;Tabla13[[#This Row],[RESUMEN_NEGATIVO_PLATAFORMA]]&amp;"','"&amp;Tabla13[[#This Row],[RESUMEN_POSITIVO_DESCARGA]]&amp;"','"&amp;Tabla13[[#This Row],[RESUMEN_NEGATIVO_DESCARGA]]&amp;"',"&amp;Tabla13[[#This Row],[ID_DESCARGA]]&amp;");"</f>
-        <v>INSERT RTA_ENCUESTA(ID_RTA_ENCUESTA,PUNTAJE_GLOBAL,RESUMEN_POSITIVO_PLATAFORMA,RESUMEN_NEGATIVO_PLATAFORMA,RESUMEN_POSITIVO_DESCARGA,RESUMEN_NEGATIVO_DESCARGA,ID_DESCARGA) VALUES(13,8,'EXCELENTE','EXCELENTE','EXCELENTE','EXCELENTE',13);</v>
+        <v>INSERT RTA_ENCUESTA(ID_RTA_ENCUESTA,PUNTAJE_GLOBAL,RESUMEN_POSITIVO_PLATAFORMA,RESUMEN_NEGATIVO_PLATAFORMA,RESUMEN_POSITIVO_DESCARGA,RESUMEN_NEGATIVO_DESCARGA,ID_DESCARGA) VALUES(13,6,'EXCELENTE','EXCELENTE','EXCELENTE','EXCELENTE',13);</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -5841,7 +5841,7 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C15" t="s">
         <v>138</v>
@@ -5861,7 +5861,7 @@
       </c>
       <c r="H15" t="str">
         <f ca="1">"INSERT RTA_ENCUESTA(ID_RTA_ENCUESTA,PUNTAJE_GLOBAL,RESUMEN_POSITIVO_PLATAFORMA,RESUMEN_NEGATIVO_PLATAFORMA,RESUMEN_POSITIVO_DESCARGA,RESUMEN_NEGATIVO_DESCARGA,ID_DESCARGA) VALUES("&amp;Tabla13[[#This Row],[ID_RTA_ENCUESTA]]&amp;","&amp;Tabla13[[#This Row],[PUNTAJE_GLOBAL]]&amp;",'"&amp;Tabla13[[#This Row],[RESUMEN_POSITIVO_PLATAFORMA]]&amp;"','"&amp;Tabla13[[#This Row],[RESUMEN_NEGATIVO_PLATAFORMA]]&amp;"','"&amp;Tabla13[[#This Row],[RESUMEN_POSITIVO_DESCARGA]]&amp;"','"&amp;Tabla13[[#This Row],[RESUMEN_NEGATIVO_DESCARGA]]&amp;"',"&amp;Tabla13[[#This Row],[ID_DESCARGA]]&amp;");"</f>
-        <v>INSERT RTA_ENCUESTA(ID_RTA_ENCUESTA,PUNTAJE_GLOBAL,RESUMEN_POSITIVO_PLATAFORMA,RESUMEN_NEGATIVO_PLATAFORMA,RESUMEN_POSITIVO_DESCARGA,RESUMEN_NEGATIVO_DESCARGA,ID_DESCARGA) VALUES(14,5,'SAFA','SAFA','SAFA','SAFA',14);</v>
+        <v>INSERT RTA_ENCUESTA(ID_RTA_ENCUESTA,PUNTAJE_GLOBAL,RESUMEN_POSITIVO_PLATAFORMA,RESUMEN_NEGATIVO_PLATAFORMA,RESUMEN_POSITIVO_DESCARGA,RESUMEN_NEGATIVO_DESCARGA,ID_DESCARGA) VALUES(14,10,'SAFA','SAFA','SAFA','SAFA',14);</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -5870,7 +5870,7 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
         <v>138</v>
@@ -5890,7 +5890,7 @@
       </c>
       <c r="H16" t="str">
         <f ca="1">"INSERT RTA_ENCUESTA(ID_RTA_ENCUESTA,PUNTAJE_GLOBAL,RESUMEN_POSITIVO_PLATAFORMA,RESUMEN_NEGATIVO_PLATAFORMA,RESUMEN_POSITIVO_DESCARGA,RESUMEN_NEGATIVO_DESCARGA,ID_DESCARGA) VALUES("&amp;Tabla13[[#This Row],[ID_RTA_ENCUESTA]]&amp;","&amp;Tabla13[[#This Row],[PUNTAJE_GLOBAL]]&amp;",'"&amp;Tabla13[[#This Row],[RESUMEN_POSITIVO_PLATAFORMA]]&amp;"','"&amp;Tabla13[[#This Row],[RESUMEN_NEGATIVO_PLATAFORMA]]&amp;"','"&amp;Tabla13[[#This Row],[RESUMEN_POSITIVO_DESCARGA]]&amp;"','"&amp;Tabla13[[#This Row],[RESUMEN_NEGATIVO_DESCARGA]]&amp;"',"&amp;Tabla13[[#This Row],[ID_DESCARGA]]&amp;");"</f>
-        <v>INSERT RTA_ENCUESTA(ID_RTA_ENCUESTA,PUNTAJE_GLOBAL,RESUMEN_POSITIVO_PLATAFORMA,RESUMEN_NEGATIVO_PLATAFORMA,RESUMEN_POSITIVO_DESCARGA,RESUMEN_NEGATIVO_DESCARGA,ID_DESCARGA) VALUES(15,5,'SAFA','SAFA','SAFA','SAFA',15);</v>
+        <v>INSERT RTA_ENCUESTA(ID_RTA_ENCUESTA,PUNTAJE_GLOBAL,RESUMEN_POSITIVO_PLATAFORMA,RESUMEN_NEGATIVO_PLATAFORMA,RESUMEN_POSITIVO_DESCARGA,RESUMEN_NEGATIVO_DESCARGA,ID_DESCARGA) VALUES(15,9,'SAFA','SAFA','SAFA','SAFA',15);</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -5899,7 +5899,7 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C17" t="s">
         <v>138</v>
@@ -5919,7 +5919,7 @@
       </c>
       <c r="H17" t="str">
         <f ca="1">"INSERT RTA_ENCUESTA(ID_RTA_ENCUESTA,PUNTAJE_GLOBAL,RESUMEN_POSITIVO_PLATAFORMA,RESUMEN_NEGATIVO_PLATAFORMA,RESUMEN_POSITIVO_DESCARGA,RESUMEN_NEGATIVO_DESCARGA,ID_DESCARGA) VALUES("&amp;Tabla13[[#This Row],[ID_RTA_ENCUESTA]]&amp;","&amp;Tabla13[[#This Row],[PUNTAJE_GLOBAL]]&amp;",'"&amp;Tabla13[[#This Row],[RESUMEN_POSITIVO_PLATAFORMA]]&amp;"','"&amp;Tabla13[[#This Row],[RESUMEN_NEGATIVO_PLATAFORMA]]&amp;"','"&amp;Tabla13[[#This Row],[RESUMEN_POSITIVO_DESCARGA]]&amp;"','"&amp;Tabla13[[#This Row],[RESUMEN_NEGATIVO_DESCARGA]]&amp;"',"&amp;Tabla13[[#This Row],[ID_DESCARGA]]&amp;");"</f>
-        <v>INSERT RTA_ENCUESTA(ID_RTA_ENCUESTA,PUNTAJE_GLOBAL,RESUMEN_POSITIVO_PLATAFORMA,RESUMEN_NEGATIVO_PLATAFORMA,RESUMEN_POSITIVO_DESCARGA,RESUMEN_NEGATIVO_DESCARGA,ID_DESCARGA) VALUES(16,9,'SAFA','SAFA','SAFA','SAFA',16);</v>
+        <v>INSERT RTA_ENCUESTA(ID_RTA_ENCUESTA,PUNTAJE_GLOBAL,RESUMEN_POSITIVO_PLATAFORMA,RESUMEN_NEGATIVO_PLATAFORMA,RESUMEN_POSITIVO_DESCARGA,RESUMEN_NEGATIVO_DESCARGA,ID_DESCARGA) VALUES(16,6,'SAFA','SAFA','SAFA','SAFA',16);</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -5928,7 +5928,7 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C18" t="s">
         <v>138</v>
@@ -5948,7 +5948,7 @@
       </c>
       <c r="H18" t="str">
         <f ca="1">"INSERT RTA_ENCUESTA(ID_RTA_ENCUESTA,PUNTAJE_GLOBAL,RESUMEN_POSITIVO_PLATAFORMA,RESUMEN_NEGATIVO_PLATAFORMA,RESUMEN_POSITIVO_DESCARGA,RESUMEN_NEGATIVO_DESCARGA,ID_DESCARGA) VALUES("&amp;Tabla13[[#This Row],[ID_RTA_ENCUESTA]]&amp;","&amp;Tabla13[[#This Row],[PUNTAJE_GLOBAL]]&amp;",'"&amp;Tabla13[[#This Row],[RESUMEN_POSITIVO_PLATAFORMA]]&amp;"','"&amp;Tabla13[[#This Row],[RESUMEN_NEGATIVO_PLATAFORMA]]&amp;"','"&amp;Tabla13[[#This Row],[RESUMEN_POSITIVO_DESCARGA]]&amp;"','"&amp;Tabla13[[#This Row],[RESUMEN_NEGATIVO_DESCARGA]]&amp;"',"&amp;Tabla13[[#This Row],[ID_DESCARGA]]&amp;");"</f>
-        <v>INSERT RTA_ENCUESTA(ID_RTA_ENCUESTA,PUNTAJE_GLOBAL,RESUMEN_POSITIVO_PLATAFORMA,RESUMEN_NEGATIVO_PLATAFORMA,RESUMEN_POSITIVO_DESCARGA,RESUMEN_NEGATIVO_DESCARGA,ID_DESCARGA) VALUES(17,6,'SAFA','SAFA','SAFA','SAFA',17);</v>
+        <v>INSERT RTA_ENCUESTA(ID_RTA_ENCUESTA,PUNTAJE_GLOBAL,RESUMEN_POSITIVO_PLATAFORMA,RESUMEN_NEGATIVO_PLATAFORMA,RESUMEN_POSITIVO_DESCARGA,RESUMEN_NEGATIVO_DESCARGA,ID_DESCARGA) VALUES(17,10,'SAFA','SAFA','SAFA','SAFA',17);</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -5957,7 +5957,7 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C19" t="s">
         <v>138</v>
@@ -5977,7 +5977,7 @@
       </c>
       <c r="H19" t="str">
         <f ca="1">"INSERT RTA_ENCUESTA(ID_RTA_ENCUESTA,PUNTAJE_GLOBAL,RESUMEN_POSITIVO_PLATAFORMA,RESUMEN_NEGATIVO_PLATAFORMA,RESUMEN_POSITIVO_DESCARGA,RESUMEN_NEGATIVO_DESCARGA,ID_DESCARGA) VALUES("&amp;Tabla13[[#This Row],[ID_RTA_ENCUESTA]]&amp;","&amp;Tabla13[[#This Row],[PUNTAJE_GLOBAL]]&amp;",'"&amp;Tabla13[[#This Row],[RESUMEN_POSITIVO_PLATAFORMA]]&amp;"','"&amp;Tabla13[[#This Row],[RESUMEN_NEGATIVO_PLATAFORMA]]&amp;"','"&amp;Tabla13[[#This Row],[RESUMEN_POSITIVO_DESCARGA]]&amp;"','"&amp;Tabla13[[#This Row],[RESUMEN_NEGATIVO_DESCARGA]]&amp;"',"&amp;Tabla13[[#This Row],[ID_DESCARGA]]&amp;");"</f>
-        <v>INSERT RTA_ENCUESTA(ID_RTA_ENCUESTA,PUNTAJE_GLOBAL,RESUMEN_POSITIVO_PLATAFORMA,RESUMEN_NEGATIVO_PLATAFORMA,RESUMEN_POSITIVO_DESCARGA,RESUMEN_NEGATIVO_DESCARGA,ID_DESCARGA) VALUES(18,6,'SAFA','SAFA','SAFA','SAFA',18);</v>
+        <v>INSERT RTA_ENCUESTA(ID_RTA_ENCUESTA,PUNTAJE_GLOBAL,RESUMEN_POSITIVO_PLATAFORMA,RESUMEN_NEGATIVO_PLATAFORMA,RESUMEN_POSITIVO_DESCARGA,RESUMEN_NEGATIVO_DESCARGA,ID_DESCARGA) VALUES(18,10,'SAFA','SAFA','SAFA','SAFA',18);</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -6015,7 +6015,7 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
         <v>138</v>
@@ -6035,7 +6035,7 @@
       </c>
       <c r="H21" t="str">
         <f ca="1">"INSERT RTA_ENCUESTA(ID_RTA_ENCUESTA,PUNTAJE_GLOBAL,RESUMEN_POSITIVO_PLATAFORMA,RESUMEN_NEGATIVO_PLATAFORMA,RESUMEN_POSITIVO_DESCARGA,RESUMEN_NEGATIVO_DESCARGA,ID_DESCARGA) VALUES("&amp;Tabla13[[#This Row],[ID_RTA_ENCUESTA]]&amp;","&amp;Tabla13[[#This Row],[PUNTAJE_GLOBAL]]&amp;",'"&amp;Tabla13[[#This Row],[RESUMEN_POSITIVO_PLATAFORMA]]&amp;"','"&amp;Tabla13[[#This Row],[RESUMEN_NEGATIVO_PLATAFORMA]]&amp;"','"&amp;Tabla13[[#This Row],[RESUMEN_POSITIVO_DESCARGA]]&amp;"','"&amp;Tabla13[[#This Row],[RESUMEN_NEGATIVO_DESCARGA]]&amp;"',"&amp;Tabla13[[#This Row],[ID_DESCARGA]]&amp;");"</f>
-        <v>INSERT RTA_ENCUESTA(ID_RTA_ENCUESTA,PUNTAJE_GLOBAL,RESUMEN_POSITIVO_PLATAFORMA,RESUMEN_NEGATIVO_PLATAFORMA,RESUMEN_POSITIVO_DESCARGA,RESUMEN_NEGATIVO_DESCARGA,ID_DESCARGA) VALUES(20,10,'SAFA','SAFA','SAFA','SAFA',20);</v>
+        <v>INSERT RTA_ENCUESTA(ID_RTA_ENCUESTA,PUNTAJE_GLOBAL,RESUMEN_POSITIVO_PLATAFORMA,RESUMEN_NEGATIVO_PLATAFORMA,RESUMEN_POSITIVO_DESCARGA,RESUMEN_NEGATIVO_DESCARGA,ID_DESCARGA) VALUES(20,8,'SAFA','SAFA','SAFA','SAFA',20);</v>
       </c>
     </row>
     <row r="33" spans="3:4" x14ac:dyDescent="0.25">
@@ -6251,7 +6251,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9CC215A-5102-4955-B600-824E8D14E539}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C24" sqref="C2:C32"/>
     </sheetView>
   </sheetViews>
@@ -6646,7 +6646,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C32">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -6701,7 +6701,7 @@
       </c>
       <c r="C2" s="2">
         <f t="shared" ref="C2:C33" ca="1" si="0">RANDBETWEEN(DATE(2020,12,1),DATE(2022,12,31))</f>
-        <v>44167</v>
+        <v>44823</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
@@ -6712,7 +6712,7 @@
       </c>
       <c r="F2" t="str">
         <f ca="1">"INSERT  CONTENIDO ("&amp;Tabla2[[#Headers],[ID_CONTENIDO]]&amp;","&amp;Tabla2[[#Headers],[TITULO]]&amp;","&amp;Tabla2[[#Headers],[FECHA_PUBLICADO]]&amp;","&amp;Tabla2[[#Headers],[EXTENSION]]&amp;","&amp;Tabla2[[#Headers],[URL]]&amp;") VALUES("&amp;Tabla2[[#This Row],[ID_CONTENIDO]]&amp;",'"&amp;Tabla2[[#This Row],[TITULO]]&amp;"','"&amp;TEXT(Tabla2[[#This Row],[FECHA_PUBLICADO]],"AAAA-MM-DD")&amp;"','"&amp;Tabla2[[#This Row],[EXTENSION]]&amp;"','"&amp;Tabla2[[#This Row],[URL]]&amp;"');"</f>
-        <v>INSERT  CONTENIDO (ID_CONTENIDO,TITULO,FECHA_PUBLICADO,EXTENSION,URL) VALUES(1,'Aarón Sevilla Prado','2020-12-02','MP4','https://drive.google.com/drive/u/0/folders/Aarón Sevilla Prado.MP4');</v>
+        <v>INSERT  CONTENIDO (ID_CONTENIDO,TITULO,FECHA_PUBLICADO,EXTENSION,URL) VALUES(1,'Aarón Sevilla Prado','2022-09-19','MP4','https://drive.google.com/drive/u/0/folders/Aarón Sevilla Prado.MP4');</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
@@ -6724,7 +6724,7 @@
       </c>
       <c r="C3" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44283</v>
+        <v>44373</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
@@ -6735,7 +6735,7 @@
       </c>
       <c r="F3" t="str">
         <f ca="1">"INSERT  CONTENIDO ("&amp;Tabla2[[#Headers],[ID_CONTENIDO]]&amp;","&amp;Tabla2[[#Headers],[TITULO]]&amp;","&amp;Tabla2[[#Headers],[FECHA_PUBLICADO]]&amp;","&amp;Tabla2[[#Headers],[EXTENSION]]&amp;","&amp;Tabla2[[#Headers],[URL]]&amp;") VALUES("&amp;Tabla2[[#This Row],[ID_CONTENIDO]]&amp;",'"&amp;Tabla2[[#This Row],[TITULO]]&amp;"','"&amp;TEXT(Tabla2[[#This Row],[FECHA_PUBLICADO]],"AAAA-MM-DD")&amp;"','"&amp;Tabla2[[#This Row],[EXTENSION]]&amp;"','"&amp;Tabla2[[#This Row],[URL]]&amp;"');"</f>
-        <v>INSERT  CONTENIDO (ID_CONTENIDO,TITULO,FECHA_PUBLICADO,EXTENSION,URL) VALUES(2,'Gertrudis Cuadrado Redondo','2021-03-28','MP4','https://drive.google.com/drive/u/0/folders/Gertrudis Cuadrado Redondo.MP4');</v>
+        <v>INSERT  CONTENIDO (ID_CONTENIDO,TITULO,FECHA_PUBLICADO,EXTENSION,URL) VALUES(2,'Gertrudis Cuadrado Redondo','2021-06-26','MP4','https://drive.google.com/drive/u/0/folders/Gertrudis Cuadrado Redondo.MP4');</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
@@ -6747,7 +6747,7 @@
       </c>
       <c r="C4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44290</v>
+        <v>44288</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
@@ -6758,7 +6758,7 @@
       </c>
       <c r="F4" t="str">
         <f ca="1">"INSERT  CONTENIDO ("&amp;Tabla2[[#Headers],[ID_CONTENIDO]]&amp;","&amp;Tabla2[[#Headers],[TITULO]]&amp;","&amp;Tabla2[[#Headers],[FECHA_PUBLICADO]]&amp;","&amp;Tabla2[[#Headers],[EXTENSION]]&amp;","&amp;Tabla2[[#Headers],[URL]]&amp;") VALUES("&amp;Tabla2[[#This Row],[ID_CONTENIDO]]&amp;",'"&amp;Tabla2[[#This Row],[TITULO]]&amp;"','"&amp;TEXT(Tabla2[[#This Row],[FECHA_PUBLICADO]],"AAAA-MM-DD")&amp;"','"&amp;Tabla2[[#This Row],[EXTENSION]]&amp;"','"&amp;Tabla2[[#This Row],[URL]]&amp;"');"</f>
-        <v>INSERT  CONTENIDO (ID_CONTENIDO,TITULO,FECHA_PUBLICADO,EXTENSION,URL) VALUES(3,'Claudio Coronado Ojeda','2021-04-04','MP4','https://drive.google.com/drive/u/0/folders/Claudio Coronado Ojeda.MP4');</v>
+        <v>INSERT  CONTENIDO (ID_CONTENIDO,TITULO,FECHA_PUBLICADO,EXTENSION,URL) VALUES(3,'Claudio Coronado Ojeda','2021-04-02','MP4','https://drive.google.com/drive/u/0/folders/Claudio Coronado Ojeda.MP4');</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
@@ -6770,7 +6770,7 @@
       </c>
       <c r="C5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44369</v>
+        <v>44424</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
@@ -6781,7 +6781,7 @@
       </c>
       <c r="F5" t="str">
         <f ca="1">"INSERT  CONTENIDO ("&amp;Tabla2[[#Headers],[ID_CONTENIDO]]&amp;","&amp;Tabla2[[#Headers],[TITULO]]&amp;","&amp;Tabla2[[#Headers],[FECHA_PUBLICADO]]&amp;","&amp;Tabla2[[#Headers],[EXTENSION]]&amp;","&amp;Tabla2[[#Headers],[URL]]&amp;") VALUES("&amp;Tabla2[[#This Row],[ID_CONTENIDO]]&amp;",'"&amp;Tabla2[[#This Row],[TITULO]]&amp;"','"&amp;TEXT(Tabla2[[#This Row],[FECHA_PUBLICADO]],"AAAA-MM-DD")&amp;"','"&amp;Tabla2[[#This Row],[EXTENSION]]&amp;"','"&amp;Tabla2[[#This Row],[URL]]&amp;"');"</f>
-        <v>INSERT  CONTENIDO (ID_CONTENIDO,TITULO,FECHA_PUBLICADO,EXTENSION,URL) VALUES(4,'Francisco Javier Barragán Alfaro','2021-06-22','MP4','https://drive.google.com/drive/u/0/folders/Francisco Javier Barragán Alfaro.MP4');</v>
+        <v>INSERT  CONTENIDO (ID_CONTENIDO,TITULO,FECHA_PUBLICADO,EXTENSION,URL) VALUES(4,'Francisco Javier Barragán Alfaro','2021-08-16','MP4','https://drive.google.com/drive/u/0/folders/Francisco Javier Barragán Alfaro.MP4');</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
@@ -6793,7 +6793,7 @@
       </c>
       <c r="C6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44678</v>
+        <v>44326</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
@@ -6804,7 +6804,7 @@
       </c>
       <c r="F6" t="str">
         <f ca="1">"INSERT  CONTENIDO ("&amp;Tabla2[[#Headers],[ID_CONTENIDO]]&amp;","&amp;Tabla2[[#Headers],[TITULO]]&amp;","&amp;Tabla2[[#Headers],[FECHA_PUBLICADO]]&amp;","&amp;Tabla2[[#Headers],[EXTENSION]]&amp;","&amp;Tabla2[[#Headers],[URL]]&amp;") VALUES("&amp;Tabla2[[#This Row],[ID_CONTENIDO]]&amp;",'"&amp;Tabla2[[#This Row],[TITULO]]&amp;"','"&amp;TEXT(Tabla2[[#This Row],[FECHA_PUBLICADO]],"AAAA-MM-DD")&amp;"','"&amp;Tabla2[[#This Row],[EXTENSION]]&amp;"','"&amp;Tabla2[[#This Row],[URL]]&amp;"');"</f>
-        <v>INSERT  CONTENIDO (ID_CONTENIDO,TITULO,FECHA_PUBLICADO,EXTENSION,URL) VALUES(5,'Evelia Gomez Aguado','2022-04-27','MP4','https://drive.google.com/drive/u/0/folders/Evelia Gomez Aguado.MP4');</v>
+        <v>INSERT  CONTENIDO (ID_CONTENIDO,TITULO,FECHA_PUBLICADO,EXTENSION,URL) VALUES(5,'Evelia Gomez Aguado','2021-05-10','MP4','https://drive.google.com/drive/u/0/folders/Evelia Gomez Aguado.MP4');</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
@@ -6816,7 +6816,7 @@
       </c>
       <c r="C7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44786</v>
+        <v>44296</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
@@ -6827,7 +6827,7 @@
       </c>
       <c r="F7" t="str">
         <f ca="1">"INSERT  CONTENIDO ("&amp;Tabla2[[#Headers],[ID_CONTENIDO]]&amp;","&amp;Tabla2[[#Headers],[TITULO]]&amp;","&amp;Tabla2[[#Headers],[FECHA_PUBLICADO]]&amp;","&amp;Tabla2[[#Headers],[EXTENSION]]&amp;","&amp;Tabla2[[#Headers],[URL]]&amp;") VALUES("&amp;Tabla2[[#This Row],[ID_CONTENIDO]]&amp;",'"&amp;Tabla2[[#This Row],[TITULO]]&amp;"','"&amp;TEXT(Tabla2[[#This Row],[FECHA_PUBLICADO]],"AAAA-MM-DD")&amp;"','"&amp;Tabla2[[#This Row],[EXTENSION]]&amp;"','"&amp;Tabla2[[#This Row],[URL]]&amp;"');"</f>
-        <v>INSERT  CONTENIDO (ID_CONTENIDO,TITULO,FECHA_PUBLICADO,EXTENSION,URL) VALUES(6,'Lina Avilés Reguera','2022-08-13','MP4','https://drive.google.com/drive/u/0/folders/Lina Avilés Reguera.MP4');</v>
+        <v>INSERT  CONTENIDO (ID_CONTENIDO,TITULO,FECHA_PUBLICADO,EXTENSION,URL) VALUES(6,'Lina Avilés Reguera','2021-04-10','MP4','https://drive.google.com/drive/u/0/folders/Lina Avilés Reguera.MP4');</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
@@ -6839,7 +6839,7 @@
       </c>
       <c r="C8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44923</v>
+        <v>44595</v>
       </c>
       <c r="D8" t="s">
         <v>15</v>
@@ -6850,7 +6850,7 @@
       </c>
       <c r="F8" t="str">
         <f ca="1">"INSERT  CONTENIDO ("&amp;Tabla2[[#Headers],[ID_CONTENIDO]]&amp;","&amp;Tabla2[[#Headers],[TITULO]]&amp;","&amp;Tabla2[[#Headers],[FECHA_PUBLICADO]]&amp;","&amp;Tabla2[[#Headers],[EXTENSION]]&amp;","&amp;Tabla2[[#Headers],[URL]]&amp;") VALUES("&amp;Tabla2[[#This Row],[ID_CONTENIDO]]&amp;",'"&amp;Tabla2[[#This Row],[TITULO]]&amp;"','"&amp;TEXT(Tabla2[[#This Row],[FECHA_PUBLICADO]],"AAAA-MM-DD")&amp;"','"&amp;Tabla2[[#This Row],[EXTENSION]]&amp;"','"&amp;Tabla2[[#This Row],[URL]]&amp;"');"</f>
-        <v>INSERT  CONTENIDO (ID_CONTENIDO,TITULO,FECHA_PUBLICADO,EXTENSION,URL) VALUES(7,'Nuria Ferrándiz Robles','2022-12-28','MP4','https://drive.google.com/drive/u/0/folders/Nuria Ferrándiz Robles.MP4');</v>
+        <v>INSERT  CONTENIDO (ID_CONTENIDO,TITULO,FECHA_PUBLICADO,EXTENSION,URL) VALUES(7,'Nuria Ferrándiz Robles','2022-02-03','MP4','https://drive.google.com/drive/u/0/folders/Nuria Ferrándiz Robles.MP4');</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
@@ -6862,7 +6862,7 @@
       </c>
       <c r="C9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44337</v>
+        <v>44706</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
@@ -6873,7 +6873,7 @@
       </c>
       <c r="F9" t="str">
         <f ca="1">"INSERT  CONTENIDO ("&amp;Tabla2[[#Headers],[ID_CONTENIDO]]&amp;","&amp;Tabla2[[#Headers],[TITULO]]&amp;","&amp;Tabla2[[#Headers],[FECHA_PUBLICADO]]&amp;","&amp;Tabla2[[#Headers],[EXTENSION]]&amp;","&amp;Tabla2[[#Headers],[URL]]&amp;") VALUES("&amp;Tabla2[[#This Row],[ID_CONTENIDO]]&amp;",'"&amp;Tabla2[[#This Row],[TITULO]]&amp;"','"&amp;TEXT(Tabla2[[#This Row],[FECHA_PUBLICADO]],"AAAA-MM-DD")&amp;"','"&amp;Tabla2[[#This Row],[EXTENSION]]&amp;"','"&amp;Tabla2[[#This Row],[URL]]&amp;"');"</f>
-        <v>INSERT  CONTENIDO (ID_CONTENIDO,TITULO,FECHA_PUBLICADO,EXTENSION,URL) VALUES(8,'Germán Isaac Baeza Español','2021-05-21','MP4','https://drive.google.com/drive/u/0/folders/Germán Isaac Baeza Español.MP4');</v>
+        <v>INSERT  CONTENIDO (ID_CONTENIDO,TITULO,FECHA_PUBLICADO,EXTENSION,URL) VALUES(8,'Germán Isaac Baeza Español','2022-05-25','MP4','https://drive.google.com/drive/u/0/folders/Germán Isaac Baeza Español.MP4');</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
@@ -6885,7 +6885,7 @@
       </c>
       <c r="C10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44364</v>
+        <v>44275</v>
       </c>
       <c r="D10" t="s">
         <v>15</v>
@@ -6896,7 +6896,7 @@
       </c>
       <c r="F10" t="str">
         <f ca="1">"INSERT  CONTENIDO ("&amp;Tabla2[[#Headers],[ID_CONTENIDO]]&amp;","&amp;Tabla2[[#Headers],[TITULO]]&amp;","&amp;Tabla2[[#Headers],[FECHA_PUBLICADO]]&amp;","&amp;Tabla2[[#Headers],[EXTENSION]]&amp;","&amp;Tabla2[[#Headers],[URL]]&amp;") VALUES("&amp;Tabla2[[#This Row],[ID_CONTENIDO]]&amp;",'"&amp;Tabla2[[#This Row],[TITULO]]&amp;"','"&amp;TEXT(Tabla2[[#This Row],[FECHA_PUBLICADO]],"AAAA-MM-DD")&amp;"','"&amp;Tabla2[[#This Row],[EXTENSION]]&amp;"','"&amp;Tabla2[[#This Row],[URL]]&amp;"');"</f>
-        <v>INSERT  CONTENIDO (ID_CONTENIDO,TITULO,FECHA_PUBLICADO,EXTENSION,URL) VALUES(9,'Marita Trillo Duque','2021-06-17','MP4','https://drive.google.com/drive/u/0/folders/Marita Trillo Duque.MP4');</v>
+        <v>INSERT  CONTENIDO (ID_CONTENIDO,TITULO,FECHA_PUBLICADO,EXTENSION,URL) VALUES(9,'Marita Trillo Duque','2021-03-20','MP4','https://drive.google.com/drive/u/0/folders/Marita Trillo Duque.MP4');</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
@@ -6908,7 +6908,7 @@
       </c>
       <c r="C11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44791</v>
+        <v>44349</v>
       </c>
       <c r="D11" t="s">
         <v>15</v>
@@ -6919,7 +6919,7 @@
       </c>
       <c r="F11" t="str">
         <f ca="1">"INSERT  CONTENIDO ("&amp;Tabla2[[#Headers],[ID_CONTENIDO]]&amp;","&amp;Tabla2[[#Headers],[TITULO]]&amp;","&amp;Tabla2[[#Headers],[FECHA_PUBLICADO]]&amp;","&amp;Tabla2[[#Headers],[EXTENSION]]&amp;","&amp;Tabla2[[#Headers],[URL]]&amp;") VALUES("&amp;Tabla2[[#This Row],[ID_CONTENIDO]]&amp;",'"&amp;Tabla2[[#This Row],[TITULO]]&amp;"','"&amp;TEXT(Tabla2[[#This Row],[FECHA_PUBLICADO]],"AAAA-MM-DD")&amp;"','"&amp;Tabla2[[#This Row],[EXTENSION]]&amp;"','"&amp;Tabla2[[#This Row],[URL]]&amp;"');"</f>
-        <v>INSERT  CONTENIDO (ID_CONTENIDO,TITULO,FECHA_PUBLICADO,EXTENSION,URL) VALUES(10,'Hipólito Calderón Porta','2022-08-18','MP4','https://drive.google.com/drive/u/0/folders/Hipólito Calderón Porta.MP4');</v>
+        <v>INSERT  CONTENIDO (ID_CONTENIDO,TITULO,FECHA_PUBLICADO,EXTENSION,URL) VALUES(10,'Hipólito Calderón Porta','2021-06-02','MP4','https://drive.google.com/drive/u/0/folders/Hipólito Calderón Porta.MP4');</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
@@ -6931,7 +6931,7 @@
       </c>
       <c r="C12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44316</v>
+        <v>44286</v>
       </c>
       <c r="D12" t="s">
         <v>15</v>
@@ -6942,7 +6942,7 @@
       </c>
       <c r="F12" t="str">
         <f ca="1">"INSERT  CONTENIDO ("&amp;Tabla2[[#Headers],[ID_CONTENIDO]]&amp;","&amp;Tabla2[[#Headers],[TITULO]]&amp;","&amp;Tabla2[[#Headers],[FECHA_PUBLICADO]]&amp;","&amp;Tabla2[[#Headers],[EXTENSION]]&amp;","&amp;Tabla2[[#Headers],[URL]]&amp;") VALUES("&amp;Tabla2[[#This Row],[ID_CONTENIDO]]&amp;",'"&amp;Tabla2[[#This Row],[TITULO]]&amp;"','"&amp;TEXT(Tabla2[[#This Row],[FECHA_PUBLICADO]],"AAAA-MM-DD")&amp;"','"&amp;Tabla2[[#This Row],[EXTENSION]]&amp;"','"&amp;Tabla2[[#This Row],[URL]]&amp;"');"</f>
-        <v>INSERT  CONTENIDO (ID_CONTENIDO,TITULO,FECHA_PUBLICADO,EXTENSION,URL) VALUES(11,'Edelmira Ródenas Cantero','2021-04-30','MP4','https://drive.google.com/drive/u/0/folders/Edelmira Ródenas Cantero.MP4');</v>
+        <v>INSERT  CONTENIDO (ID_CONTENIDO,TITULO,FECHA_PUBLICADO,EXTENSION,URL) VALUES(11,'Edelmira Ródenas Cantero','2021-03-31','MP4','https://drive.google.com/drive/u/0/folders/Edelmira Ródenas Cantero.MP4');</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
@@ -6954,7 +6954,7 @@
       </c>
       <c r="C13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44843</v>
+        <v>44870</v>
       </c>
       <c r="D13" t="s">
         <v>15</v>
@@ -6965,7 +6965,7 @@
       </c>
       <c r="F13" t="str">
         <f ca="1">"INSERT  CONTENIDO ("&amp;Tabla2[[#Headers],[ID_CONTENIDO]]&amp;","&amp;Tabla2[[#Headers],[TITULO]]&amp;","&amp;Tabla2[[#Headers],[FECHA_PUBLICADO]]&amp;","&amp;Tabla2[[#Headers],[EXTENSION]]&amp;","&amp;Tabla2[[#Headers],[URL]]&amp;") VALUES("&amp;Tabla2[[#This Row],[ID_CONTENIDO]]&amp;",'"&amp;Tabla2[[#This Row],[TITULO]]&amp;"','"&amp;TEXT(Tabla2[[#This Row],[FECHA_PUBLICADO]],"AAAA-MM-DD")&amp;"','"&amp;Tabla2[[#This Row],[EXTENSION]]&amp;"','"&amp;Tabla2[[#This Row],[URL]]&amp;"');"</f>
-        <v>INSERT  CONTENIDO (ID_CONTENIDO,TITULO,FECHA_PUBLICADO,EXTENSION,URL) VALUES(12,'Tito Peinado Lobo','2022-10-09','MP4','https://drive.google.com/drive/u/0/folders/Tito Peinado Lobo.MP4');</v>
+        <v>INSERT  CONTENIDO (ID_CONTENIDO,TITULO,FECHA_PUBLICADO,EXTENSION,URL) VALUES(12,'Tito Peinado Lobo','2022-11-05','MP4','https://drive.google.com/drive/u/0/folders/Tito Peinado Lobo.MP4');</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
@@ -6977,7 +6977,7 @@
       </c>
       <c r="C14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44534</v>
+        <v>44639</v>
       </c>
       <c r="D14" t="s">
         <v>15</v>
@@ -6988,7 +6988,7 @@
       </c>
       <c r="F14" t="str">
         <f ca="1">"INSERT  CONTENIDO ("&amp;Tabla2[[#Headers],[ID_CONTENIDO]]&amp;","&amp;Tabla2[[#Headers],[TITULO]]&amp;","&amp;Tabla2[[#Headers],[FECHA_PUBLICADO]]&amp;","&amp;Tabla2[[#Headers],[EXTENSION]]&amp;","&amp;Tabla2[[#Headers],[URL]]&amp;") VALUES("&amp;Tabla2[[#This Row],[ID_CONTENIDO]]&amp;",'"&amp;Tabla2[[#This Row],[TITULO]]&amp;"','"&amp;TEXT(Tabla2[[#This Row],[FECHA_PUBLICADO]],"AAAA-MM-DD")&amp;"','"&amp;Tabla2[[#This Row],[EXTENSION]]&amp;"','"&amp;Tabla2[[#This Row],[URL]]&amp;"');"</f>
-        <v>INSERT  CONTENIDO (ID_CONTENIDO,TITULO,FECHA_PUBLICADO,EXTENSION,URL) VALUES(13,'Fausto Donaire Ariño','2021-12-04','MP4','https://drive.google.com/drive/u/0/folders/Fausto Donaire Ariño.MP4');</v>
+        <v>INSERT  CONTENIDO (ID_CONTENIDO,TITULO,FECHA_PUBLICADO,EXTENSION,URL) VALUES(13,'Fausto Donaire Ariño','2022-03-19','MP4','https://drive.google.com/drive/u/0/folders/Fausto Donaire Ariño.MP4');</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="C15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44465</v>
+        <v>44793</v>
       </c>
       <c r="D15" t="s">
         <v>15</v>
@@ -7011,7 +7011,7 @@
       </c>
       <c r="F15" t="str">
         <f ca="1">"INSERT  CONTENIDO ("&amp;Tabla2[[#Headers],[ID_CONTENIDO]]&amp;","&amp;Tabla2[[#Headers],[TITULO]]&amp;","&amp;Tabla2[[#Headers],[FECHA_PUBLICADO]]&amp;","&amp;Tabla2[[#Headers],[EXTENSION]]&amp;","&amp;Tabla2[[#Headers],[URL]]&amp;") VALUES("&amp;Tabla2[[#This Row],[ID_CONTENIDO]]&amp;",'"&amp;Tabla2[[#This Row],[TITULO]]&amp;"','"&amp;TEXT(Tabla2[[#This Row],[FECHA_PUBLICADO]],"AAAA-MM-DD")&amp;"','"&amp;Tabla2[[#This Row],[EXTENSION]]&amp;"','"&amp;Tabla2[[#This Row],[URL]]&amp;"');"</f>
-        <v>INSERT  CONTENIDO (ID_CONTENIDO,TITULO,FECHA_PUBLICADO,EXTENSION,URL) VALUES(14,'Ruperto Heredia','2021-09-26','MP4','https://drive.google.com/drive/u/0/folders/Ruperto Heredia.MP4');</v>
+        <v>INSERT  CONTENIDO (ID_CONTENIDO,TITULO,FECHA_PUBLICADO,EXTENSION,URL) VALUES(14,'Ruperto Heredia','2022-08-20','MP4','https://drive.google.com/drive/u/0/folders/Ruperto Heredia.MP4');</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
@@ -7023,7 +7023,7 @@
       </c>
       <c r="C16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44744</v>
+        <v>44810</v>
       </c>
       <c r="D16" t="s">
         <v>15</v>
@@ -7034,7 +7034,7 @@
       </c>
       <c r="F16" t="str">
         <f ca="1">"INSERT  CONTENIDO ("&amp;Tabla2[[#Headers],[ID_CONTENIDO]]&amp;","&amp;Tabla2[[#Headers],[TITULO]]&amp;","&amp;Tabla2[[#Headers],[FECHA_PUBLICADO]]&amp;","&amp;Tabla2[[#Headers],[EXTENSION]]&amp;","&amp;Tabla2[[#Headers],[URL]]&amp;") VALUES("&amp;Tabla2[[#This Row],[ID_CONTENIDO]]&amp;",'"&amp;Tabla2[[#This Row],[TITULO]]&amp;"','"&amp;TEXT(Tabla2[[#This Row],[FECHA_PUBLICADO]],"AAAA-MM-DD")&amp;"','"&amp;Tabla2[[#This Row],[EXTENSION]]&amp;"','"&amp;Tabla2[[#This Row],[URL]]&amp;"');"</f>
-        <v>INSERT  CONTENIDO (ID_CONTENIDO,TITULO,FECHA_PUBLICADO,EXTENSION,URL) VALUES(15,'Palmira Seco Perera','2022-07-02','MP4','https://drive.google.com/drive/u/0/folders/Palmira Seco Perera.MP4');</v>
+        <v>INSERT  CONTENIDO (ID_CONTENIDO,TITULO,FECHA_PUBLICADO,EXTENSION,URL) VALUES(15,'Palmira Seco Perera','2022-09-06','MP4','https://drive.google.com/drive/u/0/folders/Palmira Seco Perera.MP4');</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
@@ -7046,7 +7046,7 @@
       </c>
       <c r="C17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44528</v>
+        <v>44293</v>
       </c>
       <c r="D17" t="s">
         <v>15</v>
@@ -7057,7 +7057,7 @@
       </c>
       <c r="F17" t="str">
         <f ca="1">"INSERT  CONTENIDO ("&amp;Tabla2[[#Headers],[ID_CONTENIDO]]&amp;","&amp;Tabla2[[#Headers],[TITULO]]&amp;","&amp;Tabla2[[#Headers],[FECHA_PUBLICADO]]&amp;","&amp;Tabla2[[#Headers],[EXTENSION]]&amp;","&amp;Tabla2[[#Headers],[URL]]&amp;") VALUES("&amp;Tabla2[[#This Row],[ID_CONTENIDO]]&amp;",'"&amp;Tabla2[[#This Row],[TITULO]]&amp;"','"&amp;TEXT(Tabla2[[#This Row],[FECHA_PUBLICADO]],"AAAA-MM-DD")&amp;"','"&amp;Tabla2[[#This Row],[EXTENSION]]&amp;"','"&amp;Tabla2[[#This Row],[URL]]&amp;"');"</f>
-        <v>INSERT  CONTENIDO (ID_CONTENIDO,TITULO,FECHA_PUBLICADO,EXTENSION,URL) VALUES(16,'Reinaldo Tello Malo','2021-11-28','MP4','https://drive.google.com/drive/u/0/folders/Reinaldo Tello Malo.MP4');</v>
+        <v>INSERT  CONTENIDO (ID_CONTENIDO,TITULO,FECHA_PUBLICADO,EXTENSION,URL) VALUES(16,'Reinaldo Tello Malo','2021-04-07','MP4','https://drive.google.com/drive/u/0/folders/Reinaldo Tello Malo.MP4');</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
@@ -7069,7 +7069,7 @@
       </c>
       <c r="C18" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44179</v>
+        <v>44330</v>
       </c>
       <c r="D18" t="s">
         <v>15</v>
@@ -7080,7 +7080,7 @@
       </c>
       <c r="F18" t="str">
         <f ca="1">"INSERT  CONTENIDO ("&amp;Tabla2[[#Headers],[ID_CONTENIDO]]&amp;","&amp;Tabla2[[#Headers],[TITULO]]&amp;","&amp;Tabla2[[#Headers],[FECHA_PUBLICADO]]&amp;","&amp;Tabla2[[#Headers],[EXTENSION]]&amp;","&amp;Tabla2[[#Headers],[URL]]&amp;") VALUES("&amp;Tabla2[[#This Row],[ID_CONTENIDO]]&amp;",'"&amp;Tabla2[[#This Row],[TITULO]]&amp;"','"&amp;TEXT(Tabla2[[#This Row],[FECHA_PUBLICADO]],"AAAA-MM-DD")&amp;"','"&amp;Tabla2[[#This Row],[EXTENSION]]&amp;"','"&amp;Tabla2[[#This Row],[URL]]&amp;"');"</f>
-        <v>INSERT  CONTENIDO (ID_CONTENIDO,TITULO,FECHA_PUBLICADO,EXTENSION,URL) VALUES(17,'Yago Mendez Gibert','2020-12-14','MP4','https://drive.google.com/drive/u/0/folders/Yago Mendez Gibert.MP4');</v>
+        <v>INSERT  CONTENIDO (ID_CONTENIDO,TITULO,FECHA_PUBLICADO,EXTENSION,URL) VALUES(17,'Yago Mendez Gibert','2021-05-14','MP4','https://drive.google.com/drive/u/0/folders/Yago Mendez Gibert.MP4');</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
@@ -7092,7 +7092,7 @@
       </c>
       <c r="C19" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44344</v>
+        <v>44489</v>
       </c>
       <c r="D19" t="s">
         <v>15</v>
@@ -7103,7 +7103,7 @@
       </c>
       <c r="F19" t="str">
         <f ca="1">"INSERT  CONTENIDO ("&amp;Tabla2[[#Headers],[ID_CONTENIDO]]&amp;","&amp;Tabla2[[#Headers],[TITULO]]&amp;","&amp;Tabla2[[#Headers],[FECHA_PUBLICADO]]&amp;","&amp;Tabla2[[#Headers],[EXTENSION]]&amp;","&amp;Tabla2[[#Headers],[URL]]&amp;") VALUES("&amp;Tabla2[[#This Row],[ID_CONTENIDO]]&amp;",'"&amp;Tabla2[[#This Row],[TITULO]]&amp;"','"&amp;TEXT(Tabla2[[#This Row],[FECHA_PUBLICADO]],"AAAA-MM-DD")&amp;"','"&amp;Tabla2[[#This Row],[EXTENSION]]&amp;"','"&amp;Tabla2[[#This Row],[URL]]&amp;"');"</f>
-        <v>INSERT  CONTENIDO (ID_CONTENIDO,TITULO,FECHA_PUBLICADO,EXTENSION,URL) VALUES(18,'Narcisa Raya Cisneros','2021-05-28','MP4','https://drive.google.com/drive/u/0/folders/Narcisa Raya Cisneros.MP4');</v>
+        <v>INSERT  CONTENIDO (ID_CONTENIDO,TITULO,FECHA_PUBLICADO,EXTENSION,URL) VALUES(18,'Narcisa Raya Cisneros','2021-10-20','MP4','https://drive.google.com/drive/u/0/folders/Narcisa Raya Cisneros.MP4');</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
@@ -7115,7 +7115,7 @@
       </c>
       <c r="C20" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44765</v>
+        <v>44555</v>
       </c>
       <c r="D20" t="s">
         <v>15</v>
@@ -7126,7 +7126,7 @@
       </c>
       <c r="F20" t="str">
         <f ca="1">"INSERT  CONTENIDO ("&amp;Tabla2[[#Headers],[ID_CONTENIDO]]&amp;","&amp;Tabla2[[#Headers],[TITULO]]&amp;","&amp;Tabla2[[#Headers],[FECHA_PUBLICADO]]&amp;","&amp;Tabla2[[#Headers],[EXTENSION]]&amp;","&amp;Tabla2[[#Headers],[URL]]&amp;") VALUES("&amp;Tabla2[[#This Row],[ID_CONTENIDO]]&amp;",'"&amp;Tabla2[[#This Row],[TITULO]]&amp;"','"&amp;TEXT(Tabla2[[#This Row],[FECHA_PUBLICADO]],"AAAA-MM-DD")&amp;"','"&amp;Tabla2[[#This Row],[EXTENSION]]&amp;"','"&amp;Tabla2[[#This Row],[URL]]&amp;"');"</f>
-        <v>INSERT  CONTENIDO (ID_CONTENIDO,TITULO,FECHA_PUBLICADO,EXTENSION,URL) VALUES(19,'Ciríaco Benitez Tenorio','2022-07-23','MP4','https://drive.google.com/drive/u/0/folders/Ciríaco Benitez Tenorio.MP4');</v>
+        <v>INSERT  CONTENIDO (ID_CONTENIDO,TITULO,FECHA_PUBLICADO,EXTENSION,URL) VALUES(19,'Ciríaco Benitez Tenorio','2021-12-25','MP4','https://drive.google.com/drive/u/0/folders/Ciríaco Benitez Tenorio.MP4');</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
@@ -7138,7 +7138,7 @@
       </c>
       <c r="C21" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44672</v>
+        <v>44655</v>
       </c>
       <c r="D21" t="s">
         <v>15</v>
@@ -7149,7 +7149,7 @@
       </c>
       <c r="F21" t="str">
         <f ca="1">"INSERT  CONTENIDO ("&amp;Tabla2[[#Headers],[ID_CONTENIDO]]&amp;","&amp;Tabla2[[#Headers],[TITULO]]&amp;","&amp;Tabla2[[#Headers],[FECHA_PUBLICADO]]&amp;","&amp;Tabla2[[#Headers],[EXTENSION]]&amp;","&amp;Tabla2[[#Headers],[URL]]&amp;") VALUES("&amp;Tabla2[[#This Row],[ID_CONTENIDO]]&amp;",'"&amp;Tabla2[[#This Row],[TITULO]]&amp;"','"&amp;TEXT(Tabla2[[#This Row],[FECHA_PUBLICADO]],"AAAA-MM-DD")&amp;"','"&amp;Tabla2[[#This Row],[EXTENSION]]&amp;"','"&amp;Tabla2[[#This Row],[URL]]&amp;"');"</f>
-        <v>INSERT  CONTENIDO (ID_CONTENIDO,TITULO,FECHA_PUBLICADO,EXTENSION,URL) VALUES(20,'Carmelo Torralba','2022-04-21','MP4','https://drive.google.com/drive/u/0/folders/Carmelo Torralba.MP4');</v>
+        <v>INSERT  CONTENIDO (ID_CONTENIDO,TITULO,FECHA_PUBLICADO,EXTENSION,URL) VALUES(20,'Carmelo Torralba','2022-04-04','MP4','https://drive.google.com/drive/u/0/folders/Carmelo Torralba.MP4');</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
@@ -7161,7 +7161,7 @@
       </c>
       <c r="C22" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44353</v>
+        <v>44228</v>
       </c>
       <c r="D22" t="s">
         <v>15</v>
@@ -7172,7 +7172,7 @@
       </c>
       <c r="F22" t="str">
         <f ca="1">"INSERT  CONTENIDO ("&amp;Tabla2[[#Headers],[ID_CONTENIDO]]&amp;","&amp;Tabla2[[#Headers],[TITULO]]&amp;","&amp;Tabla2[[#Headers],[FECHA_PUBLICADO]]&amp;","&amp;Tabla2[[#Headers],[EXTENSION]]&amp;","&amp;Tabla2[[#Headers],[URL]]&amp;") VALUES("&amp;Tabla2[[#This Row],[ID_CONTENIDO]]&amp;",'"&amp;Tabla2[[#This Row],[TITULO]]&amp;"','"&amp;TEXT(Tabla2[[#This Row],[FECHA_PUBLICADO]],"AAAA-MM-DD")&amp;"','"&amp;Tabla2[[#This Row],[EXTENSION]]&amp;"','"&amp;Tabla2[[#This Row],[URL]]&amp;"');"</f>
-        <v>INSERT  CONTENIDO (ID_CONTENIDO,TITULO,FECHA_PUBLICADO,EXTENSION,URL) VALUES(21,'Jacinto de Samper','2021-06-06','MP4','https://drive.google.com/drive/u/0/folders/Jacinto de Samper.MP4');</v>
+        <v>INSERT  CONTENIDO (ID_CONTENIDO,TITULO,FECHA_PUBLICADO,EXTENSION,URL) VALUES(21,'Jacinto de Samper','2021-02-01','MP4','https://drive.google.com/drive/u/0/folders/Jacinto de Samper.MP4');</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
@@ -7184,7 +7184,7 @@
       </c>
       <c r="C23" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44687</v>
+        <v>44598</v>
       </c>
       <c r="D23" t="s">
         <v>15</v>
@@ -7195,7 +7195,7 @@
       </c>
       <c r="F23" t="str">
         <f ca="1">"INSERT  CONTENIDO ("&amp;Tabla2[[#Headers],[ID_CONTENIDO]]&amp;","&amp;Tabla2[[#Headers],[TITULO]]&amp;","&amp;Tabla2[[#Headers],[FECHA_PUBLICADO]]&amp;","&amp;Tabla2[[#Headers],[EXTENSION]]&amp;","&amp;Tabla2[[#Headers],[URL]]&amp;") VALUES("&amp;Tabla2[[#This Row],[ID_CONTENIDO]]&amp;",'"&amp;Tabla2[[#This Row],[TITULO]]&amp;"','"&amp;TEXT(Tabla2[[#This Row],[FECHA_PUBLICADO]],"AAAA-MM-DD")&amp;"','"&amp;Tabla2[[#This Row],[EXTENSION]]&amp;"','"&amp;Tabla2[[#This Row],[URL]]&amp;"');"</f>
-        <v>INSERT  CONTENIDO (ID_CONTENIDO,TITULO,FECHA_PUBLICADO,EXTENSION,URL) VALUES(22,'Samanta Salamanca-Fabregat','2022-05-06','MP4','https://drive.google.com/drive/u/0/folders/Samanta Salamanca-Fabregat.MP4');</v>
+        <v>INSERT  CONTENIDO (ID_CONTENIDO,TITULO,FECHA_PUBLICADO,EXTENSION,URL) VALUES(22,'Samanta Salamanca-Fabregat','2022-02-06','MP4','https://drive.google.com/drive/u/0/folders/Samanta Salamanca-Fabregat.MP4');</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
@@ -7207,7 +7207,7 @@
       </c>
       <c r="C24" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44602</v>
+        <v>44203</v>
       </c>
       <c r="D24" t="s">
         <v>15</v>
@@ -7218,7 +7218,7 @@
       </c>
       <c r="F24" t="str">
         <f ca="1">"INSERT  CONTENIDO ("&amp;Tabla2[[#Headers],[ID_CONTENIDO]]&amp;","&amp;Tabla2[[#Headers],[TITULO]]&amp;","&amp;Tabla2[[#Headers],[FECHA_PUBLICADO]]&amp;","&amp;Tabla2[[#Headers],[EXTENSION]]&amp;","&amp;Tabla2[[#Headers],[URL]]&amp;") VALUES("&amp;Tabla2[[#This Row],[ID_CONTENIDO]]&amp;",'"&amp;Tabla2[[#This Row],[TITULO]]&amp;"','"&amp;TEXT(Tabla2[[#This Row],[FECHA_PUBLICADO]],"AAAA-MM-DD")&amp;"','"&amp;Tabla2[[#This Row],[EXTENSION]]&amp;"','"&amp;Tabla2[[#This Row],[URL]]&amp;"');"</f>
-        <v>INSERT  CONTENIDO (ID_CONTENIDO,TITULO,FECHA_PUBLICADO,EXTENSION,URL) VALUES(23,'Gracia Paredes Tomé','2022-02-10','MP4','https://drive.google.com/drive/u/0/folders/Gracia Paredes Tomé.MP4');</v>
+        <v>INSERT  CONTENIDO (ID_CONTENIDO,TITULO,FECHA_PUBLICADO,EXTENSION,URL) VALUES(23,'Gracia Paredes Tomé','2021-01-07','MP4','https://drive.google.com/drive/u/0/folders/Gracia Paredes Tomé.MP4');</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
@@ -7230,7 +7230,7 @@
       </c>
       <c r="C25" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44836</v>
+        <v>44632</v>
       </c>
       <c r="D25" t="s">
         <v>15</v>
@@ -7241,7 +7241,7 @@
       </c>
       <c r="F25" t="str">
         <f ca="1">"INSERT  CONTENIDO ("&amp;Tabla2[[#Headers],[ID_CONTENIDO]]&amp;","&amp;Tabla2[[#Headers],[TITULO]]&amp;","&amp;Tabla2[[#Headers],[FECHA_PUBLICADO]]&amp;","&amp;Tabla2[[#Headers],[EXTENSION]]&amp;","&amp;Tabla2[[#Headers],[URL]]&amp;") VALUES("&amp;Tabla2[[#This Row],[ID_CONTENIDO]]&amp;",'"&amp;Tabla2[[#This Row],[TITULO]]&amp;"','"&amp;TEXT(Tabla2[[#This Row],[FECHA_PUBLICADO]],"AAAA-MM-DD")&amp;"','"&amp;Tabla2[[#This Row],[EXTENSION]]&amp;"','"&amp;Tabla2[[#This Row],[URL]]&amp;"');"</f>
-        <v>INSERT  CONTENIDO (ID_CONTENIDO,TITULO,FECHA_PUBLICADO,EXTENSION,URL) VALUES(24,'Concepción Irma Vilanova Madrigal','2022-10-02','MP4','https://drive.google.com/drive/u/0/folders/Concepción Irma Vilanova Madrigal.MP4');</v>
+        <v>INSERT  CONTENIDO (ID_CONTENIDO,TITULO,FECHA_PUBLICADO,EXTENSION,URL) VALUES(24,'Concepción Irma Vilanova Madrigal','2022-03-12','MP4','https://drive.google.com/drive/u/0/folders/Concepción Irma Vilanova Madrigal.MP4');</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
@@ -7253,7 +7253,7 @@
       </c>
       <c r="C26" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44443</v>
+        <v>44616</v>
       </c>
       <c r="D26" t="s">
         <v>15</v>
@@ -7264,7 +7264,7 @@
       </c>
       <c r="F26" t="str">
         <f ca="1">"INSERT  CONTENIDO ("&amp;Tabla2[[#Headers],[ID_CONTENIDO]]&amp;","&amp;Tabla2[[#Headers],[TITULO]]&amp;","&amp;Tabla2[[#Headers],[FECHA_PUBLICADO]]&amp;","&amp;Tabla2[[#Headers],[EXTENSION]]&amp;","&amp;Tabla2[[#Headers],[URL]]&amp;") VALUES("&amp;Tabla2[[#This Row],[ID_CONTENIDO]]&amp;",'"&amp;Tabla2[[#This Row],[TITULO]]&amp;"','"&amp;TEXT(Tabla2[[#This Row],[FECHA_PUBLICADO]],"AAAA-MM-DD")&amp;"','"&amp;Tabla2[[#This Row],[EXTENSION]]&amp;"','"&amp;Tabla2[[#This Row],[URL]]&amp;"');"</f>
-        <v>INSERT  CONTENIDO (ID_CONTENIDO,TITULO,FECHA_PUBLICADO,EXTENSION,URL) VALUES(25,'Macario Alcaraz Pineda','2021-09-04','MP4','https://drive.google.com/drive/u/0/folders/Macario Alcaraz Pineda.MP4');</v>
+        <v>INSERT  CONTENIDO (ID_CONTENIDO,TITULO,FECHA_PUBLICADO,EXTENSION,URL) VALUES(25,'Macario Alcaraz Pineda','2022-02-24','MP4','https://drive.google.com/drive/u/0/folders/Macario Alcaraz Pineda.MP4');</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
@@ -7276,7 +7276,7 @@
       </c>
       <c r="C27" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44166</v>
+        <v>44471</v>
       </c>
       <c r="D27" t="s">
         <v>15</v>
@@ -7287,7 +7287,7 @@
       </c>
       <c r="F27" t="str">
         <f ca="1">"INSERT  CONTENIDO ("&amp;Tabla2[[#Headers],[ID_CONTENIDO]]&amp;","&amp;Tabla2[[#Headers],[TITULO]]&amp;","&amp;Tabla2[[#Headers],[FECHA_PUBLICADO]]&amp;","&amp;Tabla2[[#Headers],[EXTENSION]]&amp;","&amp;Tabla2[[#Headers],[URL]]&amp;") VALUES("&amp;Tabla2[[#This Row],[ID_CONTENIDO]]&amp;",'"&amp;Tabla2[[#This Row],[TITULO]]&amp;"','"&amp;TEXT(Tabla2[[#This Row],[FECHA_PUBLICADO]],"AAAA-MM-DD")&amp;"','"&amp;Tabla2[[#This Row],[EXTENSION]]&amp;"','"&amp;Tabla2[[#This Row],[URL]]&amp;"');"</f>
-        <v>INSERT  CONTENIDO (ID_CONTENIDO,TITULO,FECHA_PUBLICADO,EXTENSION,URL) VALUES(26,'Lupe Olmedo Chaves','2020-12-01','MP4','https://drive.google.com/drive/u/0/folders/Lupe Olmedo Chaves.MP4');</v>
+        <v>INSERT  CONTENIDO (ID_CONTENIDO,TITULO,FECHA_PUBLICADO,EXTENSION,URL) VALUES(26,'Lupe Olmedo Chaves','2021-10-02','MP4','https://drive.google.com/drive/u/0/folders/Lupe Olmedo Chaves.MP4');</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
@@ -7299,7 +7299,7 @@
       </c>
       <c r="C28" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44295</v>
+        <v>44616</v>
       </c>
       <c r="D28" t="s">
         <v>16</v>
@@ -7310,7 +7310,7 @@
       </c>
       <c r="F28" t="str">
         <f ca="1">"INSERT  CONTENIDO ("&amp;Tabla2[[#Headers],[ID_CONTENIDO]]&amp;","&amp;Tabla2[[#Headers],[TITULO]]&amp;","&amp;Tabla2[[#Headers],[FECHA_PUBLICADO]]&amp;","&amp;Tabla2[[#Headers],[EXTENSION]]&amp;","&amp;Tabla2[[#Headers],[URL]]&amp;") VALUES("&amp;Tabla2[[#This Row],[ID_CONTENIDO]]&amp;",'"&amp;Tabla2[[#This Row],[TITULO]]&amp;"','"&amp;TEXT(Tabla2[[#This Row],[FECHA_PUBLICADO]],"AAAA-MM-DD")&amp;"','"&amp;Tabla2[[#This Row],[EXTENSION]]&amp;"','"&amp;Tabla2[[#This Row],[URL]]&amp;"');"</f>
-        <v>INSERT  CONTENIDO (ID_CONTENIDO,TITULO,FECHA_PUBLICADO,EXTENSION,URL) VALUES(27,'Leonardo Vigil Daza','2021-04-09','DOC','https://drive.google.com/drive/u/0/folders/Leonardo Vigil Daza.DOC');</v>
+        <v>INSERT  CONTENIDO (ID_CONTENIDO,TITULO,FECHA_PUBLICADO,EXTENSION,URL) VALUES(27,'Leonardo Vigil Daza','2022-02-24','DOC','https://drive.google.com/drive/u/0/folders/Leonardo Vigil Daza.DOC');</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
@@ -7322,7 +7322,7 @@
       </c>
       <c r="C29" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44599</v>
+        <v>44490</v>
       </c>
       <c r="D29" t="s">
         <v>16</v>
@@ -7333,7 +7333,7 @@
       </c>
       <c r="F29" t="str">
         <f ca="1">"INSERT  CONTENIDO ("&amp;Tabla2[[#Headers],[ID_CONTENIDO]]&amp;","&amp;Tabla2[[#Headers],[TITULO]]&amp;","&amp;Tabla2[[#Headers],[FECHA_PUBLICADO]]&amp;","&amp;Tabla2[[#Headers],[EXTENSION]]&amp;","&amp;Tabla2[[#Headers],[URL]]&amp;") VALUES("&amp;Tabla2[[#This Row],[ID_CONTENIDO]]&amp;",'"&amp;Tabla2[[#This Row],[TITULO]]&amp;"','"&amp;TEXT(Tabla2[[#This Row],[FECHA_PUBLICADO]],"AAAA-MM-DD")&amp;"','"&amp;Tabla2[[#This Row],[EXTENSION]]&amp;"','"&amp;Tabla2[[#This Row],[URL]]&amp;"');"</f>
-        <v>INSERT  CONTENIDO (ID_CONTENIDO,TITULO,FECHA_PUBLICADO,EXTENSION,URL) VALUES(28,'Bernardino Vélez Pedrosa','2022-02-07','DOC','https://drive.google.com/drive/u/0/folders/Bernardino Vélez Pedrosa.DOC');</v>
+        <v>INSERT  CONTENIDO (ID_CONTENIDO,TITULO,FECHA_PUBLICADO,EXTENSION,URL) VALUES(28,'Bernardino Vélez Pedrosa','2021-10-21','DOC','https://drive.google.com/drive/u/0/folders/Bernardino Vélez Pedrosa.DOC');</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
@@ -7345,7 +7345,7 @@
       </c>
       <c r="C30" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44541</v>
+        <v>44712</v>
       </c>
       <c r="D30" t="s">
         <v>16</v>
@@ -7356,7 +7356,7 @@
       </c>
       <c r="F30" t="str">
         <f ca="1">"INSERT  CONTENIDO ("&amp;Tabla2[[#Headers],[ID_CONTENIDO]]&amp;","&amp;Tabla2[[#Headers],[TITULO]]&amp;","&amp;Tabla2[[#Headers],[FECHA_PUBLICADO]]&amp;","&amp;Tabla2[[#Headers],[EXTENSION]]&amp;","&amp;Tabla2[[#Headers],[URL]]&amp;") VALUES("&amp;Tabla2[[#This Row],[ID_CONTENIDO]]&amp;",'"&amp;Tabla2[[#This Row],[TITULO]]&amp;"','"&amp;TEXT(Tabla2[[#This Row],[FECHA_PUBLICADO]],"AAAA-MM-DD")&amp;"','"&amp;Tabla2[[#This Row],[EXTENSION]]&amp;"','"&amp;Tabla2[[#This Row],[URL]]&amp;"');"</f>
-        <v>INSERT  CONTENIDO (ID_CONTENIDO,TITULO,FECHA_PUBLICADO,EXTENSION,URL) VALUES(29,'Berta Romeu Jáuregui','2021-12-11','DOC','https://drive.google.com/drive/u/0/folders/Berta Romeu Jáuregui.DOC');</v>
+        <v>INSERT  CONTENIDO (ID_CONTENIDO,TITULO,FECHA_PUBLICADO,EXTENSION,URL) VALUES(29,'Berta Romeu Jáuregui','2022-05-31','DOC','https://drive.google.com/drive/u/0/folders/Berta Romeu Jáuregui.DOC');</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
@@ -7368,7 +7368,7 @@
       </c>
       <c r="C31" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44820</v>
+        <v>44223</v>
       </c>
       <c r="D31" t="s">
         <v>16</v>
@@ -7379,7 +7379,7 @@
       </c>
       <c r="F31" t="str">
         <f ca="1">"INSERT  CONTENIDO ("&amp;Tabla2[[#Headers],[ID_CONTENIDO]]&amp;","&amp;Tabla2[[#Headers],[TITULO]]&amp;","&amp;Tabla2[[#Headers],[FECHA_PUBLICADO]]&amp;","&amp;Tabla2[[#Headers],[EXTENSION]]&amp;","&amp;Tabla2[[#Headers],[URL]]&amp;") VALUES("&amp;Tabla2[[#This Row],[ID_CONTENIDO]]&amp;",'"&amp;Tabla2[[#This Row],[TITULO]]&amp;"','"&amp;TEXT(Tabla2[[#This Row],[FECHA_PUBLICADO]],"AAAA-MM-DD")&amp;"','"&amp;Tabla2[[#This Row],[EXTENSION]]&amp;"','"&amp;Tabla2[[#This Row],[URL]]&amp;"');"</f>
-        <v>INSERT  CONTENIDO (ID_CONTENIDO,TITULO,FECHA_PUBLICADO,EXTENSION,URL) VALUES(30,'Dulce Teodora Mesa Galan','2022-09-16','DOC','https://drive.google.com/drive/u/0/folders/Dulce Teodora Mesa Galan.DOC');</v>
+        <v>INSERT  CONTENIDO (ID_CONTENIDO,TITULO,FECHA_PUBLICADO,EXTENSION,URL) VALUES(30,'Dulce Teodora Mesa Galan','2021-01-27','DOC','https://drive.google.com/drive/u/0/folders/Dulce Teodora Mesa Galan.DOC');</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
@@ -7391,7 +7391,7 @@
       </c>
       <c r="C32" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44584</v>
+        <v>44608</v>
       </c>
       <c r="D32" t="s">
         <v>16</v>
@@ -7402,7 +7402,7 @@
       </c>
       <c r="F32" t="str">
         <f ca="1">"INSERT  CONTENIDO ("&amp;Tabla2[[#Headers],[ID_CONTENIDO]]&amp;","&amp;Tabla2[[#Headers],[TITULO]]&amp;","&amp;Tabla2[[#Headers],[FECHA_PUBLICADO]]&amp;","&amp;Tabla2[[#Headers],[EXTENSION]]&amp;","&amp;Tabla2[[#Headers],[URL]]&amp;") VALUES("&amp;Tabla2[[#This Row],[ID_CONTENIDO]]&amp;",'"&amp;Tabla2[[#This Row],[TITULO]]&amp;"','"&amp;TEXT(Tabla2[[#This Row],[FECHA_PUBLICADO]],"AAAA-MM-DD")&amp;"','"&amp;Tabla2[[#This Row],[EXTENSION]]&amp;"','"&amp;Tabla2[[#This Row],[URL]]&amp;"');"</f>
-        <v>INSERT  CONTENIDO (ID_CONTENIDO,TITULO,FECHA_PUBLICADO,EXTENSION,URL) VALUES(31,'Timoteo Gimenez Barriga','2022-01-23','DOC','https://drive.google.com/drive/u/0/folders/Timoteo Gimenez Barriga.DOC');</v>
+        <v>INSERT  CONTENIDO (ID_CONTENIDO,TITULO,FECHA_PUBLICADO,EXTENSION,URL) VALUES(31,'Timoteo Gimenez Barriga','2022-02-16','DOC','https://drive.google.com/drive/u/0/folders/Timoteo Gimenez Barriga.DOC');</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
@@ -7414,7 +7414,7 @@
       </c>
       <c r="C33" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44546</v>
+        <v>44214</v>
       </c>
       <c r="D33" t="s">
         <v>16</v>
@@ -7425,7 +7425,7 @@
       </c>
       <c r="F33" t="str">
         <f ca="1">"INSERT  CONTENIDO ("&amp;Tabla2[[#Headers],[ID_CONTENIDO]]&amp;","&amp;Tabla2[[#Headers],[TITULO]]&amp;","&amp;Tabla2[[#Headers],[FECHA_PUBLICADO]]&amp;","&amp;Tabla2[[#Headers],[EXTENSION]]&amp;","&amp;Tabla2[[#Headers],[URL]]&amp;") VALUES("&amp;Tabla2[[#This Row],[ID_CONTENIDO]]&amp;",'"&amp;Tabla2[[#This Row],[TITULO]]&amp;"','"&amp;TEXT(Tabla2[[#This Row],[FECHA_PUBLICADO]],"AAAA-MM-DD")&amp;"','"&amp;Tabla2[[#This Row],[EXTENSION]]&amp;"','"&amp;Tabla2[[#This Row],[URL]]&amp;"');"</f>
-        <v>INSERT  CONTENIDO (ID_CONTENIDO,TITULO,FECHA_PUBLICADO,EXTENSION,URL) VALUES(32,'Virgilio Rodrigo','2021-12-16','DOC','https://drive.google.com/drive/u/0/folders/Virgilio Rodrigo.DOC');</v>
+        <v>INSERT  CONTENIDO (ID_CONTENIDO,TITULO,FECHA_PUBLICADO,EXTENSION,URL) VALUES(32,'Virgilio Rodrigo','2021-01-18','DOC','https://drive.google.com/drive/u/0/folders/Virgilio Rodrigo.DOC');</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
@@ -7437,7 +7437,7 @@
       </c>
       <c r="C34" s="2">
         <f t="shared" ref="C34:C51" ca="1" si="1">RANDBETWEEN(DATE(2020,12,1),DATE(2022,12,31))</f>
-        <v>44909</v>
+        <v>44800</v>
       </c>
       <c r="D34" t="s">
         <v>16</v>
@@ -7448,7 +7448,7 @@
       </c>
       <c r="F34" t="str">
         <f ca="1">"INSERT  CONTENIDO ("&amp;Tabla2[[#Headers],[ID_CONTENIDO]]&amp;","&amp;Tabla2[[#Headers],[TITULO]]&amp;","&amp;Tabla2[[#Headers],[FECHA_PUBLICADO]]&amp;","&amp;Tabla2[[#Headers],[EXTENSION]]&amp;","&amp;Tabla2[[#Headers],[URL]]&amp;") VALUES("&amp;Tabla2[[#This Row],[ID_CONTENIDO]]&amp;",'"&amp;Tabla2[[#This Row],[TITULO]]&amp;"','"&amp;TEXT(Tabla2[[#This Row],[FECHA_PUBLICADO]],"AAAA-MM-DD")&amp;"','"&amp;Tabla2[[#This Row],[EXTENSION]]&amp;"','"&amp;Tabla2[[#This Row],[URL]]&amp;"');"</f>
-        <v>INSERT  CONTENIDO (ID_CONTENIDO,TITULO,FECHA_PUBLICADO,EXTENSION,URL) VALUES(33,'Jose Ignacio Gomez-Mesa','2022-12-14','DOC','https://drive.google.com/drive/u/0/folders/Jose Ignacio Gomez-Mesa.DOC');</v>
+        <v>INSERT  CONTENIDO (ID_CONTENIDO,TITULO,FECHA_PUBLICADO,EXTENSION,URL) VALUES(33,'Jose Ignacio Gomez-Mesa','2022-08-27','DOC','https://drive.google.com/drive/u/0/folders/Jose Ignacio Gomez-Mesa.DOC');</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
@@ -7460,7 +7460,7 @@
       </c>
       <c r="C35" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>44563</v>
+        <v>44549</v>
       </c>
       <c r="D35" t="s">
         <v>16</v>
@@ -7471,7 +7471,7 @@
       </c>
       <c r="F35" t="str">
         <f ca="1">"INSERT  CONTENIDO ("&amp;Tabla2[[#Headers],[ID_CONTENIDO]]&amp;","&amp;Tabla2[[#Headers],[TITULO]]&amp;","&amp;Tabla2[[#Headers],[FECHA_PUBLICADO]]&amp;","&amp;Tabla2[[#Headers],[EXTENSION]]&amp;","&amp;Tabla2[[#Headers],[URL]]&amp;") VALUES("&amp;Tabla2[[#This Row],[ID_CONTENIDO]]&amp;",'"&amp;Tabla2[[#This Row],[TITULO]]&amp;"','"&amp;TEXT(Tabla2[[#This Row],[FECHA_PUBLICADO]],"AAAA-MM-DD")&amp;"','"&amp;Tabla2[[#This Row],[EXTENSION]]&amp;"','"&amp;Tabla2[[#This Row],[URL]]&amp;"');"</f>
-        <v>INSERT  CONTENIDO (ID_CONTENIDO,TITULO,FECHA_PUBLICADO,EXTENSION,URL) VALUES(34,'Amada Diego Tapia','2022-01-02','DOC','https://drive.google.com/drive/u/0/folders/Amada Diego Tapia.DOC');</v>
+        <v>INSERT  CONTENIDO (ID_CONTENIDO,TITULO,FECHA_PUBLICADO,EXTENSION,URL) VALUES(34,'Amada Diego Tapia','2021-12-19','DOC','https://drive.google.com/drive/u/0/folders/Amada Diego Tapia.DOC');</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
@@ -7483,7 +7483,7 @@
       </c>
       <c r="C36" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>44256</v>
+        <v>44414</v>
       </c>
       <c r="D36" t="s">
         <v>16</v>
@@ -7494,7 +7494,7 @@
       </c>
       <c r="F36" t="str">
         <f ca="1">"INSERT  CONTENIDO ("&amp;Tabla2[[#Headers],[ID_CONTENIDO]]&amp;","&amp;Tabla2[[#Headers],[TITULO]]&amp;","&amp;Tabla2[[#Headers],[FECHA_PUBLICADO]]&amp;","&amp;Tabla2[[#Headers],[EXTENSION]]&amp;","&amp;Tabla2[[#Headers],[URL]]&amp;") VALUES("&amp;Tabla2[[#This Row],[ID_CONTENIDO]]&amp;",'"&amp;Tabla2[[#This Row],[TITULO]]&amp;"','"&amp;TEXT(Tabla2[[#This Row],[FECHA_PUBLICADO]],"AAAA-MM-DD")&amp;"','"&amp;Tabla2[[#This Row],[EXTENSION]]&amp;"','"&amp;Tabla2[[#This Row],[URL]]&amp;"');"</f>
-        <v>INSERT  CONTENIDO (ID_CONTENIDO,TITULO,FECHA_PUBLICADO,EXTENSION,URL) VALUES(35,'Adelardo Bayo Pazos','2021-03-01','DOC','https://drive.google.com/drive/u/0/folders/Adelardo Bayo Pazos.DOC');</v>
+        <v>INSERT  CONTENIDO (ID_CONTENIDO,TITULO,FECHA_PUBLICADO,EXTENSION,URL) VALUES(35,'Adelardo Bayo Pazos','2021-08-06','DOC','https://drive.google.com/drive/u/0/folders/Adelardo Bayo Pazos.DOC');</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
@@ -7506,7 +7506,7 @@
       </c>
       <c r="C37" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>44464</v>
+        <v>44417</v>
       </c>
       <c r="D37" t="s">
         <v>16</v>
@@ -7517,7 +7517,7 @@
       </c>
       <c r="F37" t="str">
         <f ca="1">"INSERT  CONTENIDO ("&amp;Tabla2[[#Headers],[ID_CONTENIDO]]&amp;","&amp;Tabla2[[#Headers],[TITULO]]&amp;","&amp;Tabla2[[#Headers],[FECHA_PUBLICADO]]&amp;","&amp;Tabla2[[#Headers],[EXTENSION]]&amp;","&amp;Tabla2[[#Headers],[URL]]&amp;") VALUES("&amp;Tabla2[[#This Row],[ID_CONTENIDO]]&amp;",'"&amp;Tabla2[[#This Row],[TITULO]]&amp;"','"&amp;TEXT(Tabla2[[#This Row],[FECHA_PUBLICADO]],"AAAA-MM-DD")&amp;"','"&amp;Tabla2[[#This Row],[EXTENSION]]&amp;"','"&amp;Tabla2[[#This Row],[URL]]&amp;"');"</f>
-        <v>INSERT  CONTENIDO (ID_CONTENIDO,TITULO,FECHA_PUBLICADO,EXTENSION,URL) VALUES(36,'Bernabé Font Pinto','2021-09-25','DOC','https://drive.google.com/drive/u/0/folders/Bernabé Font Pinto.DOC');</v>
+        <v>INSERT  CONTENIDO (ID_CONTENIDO,TITULO,FECHA_PUBLICADO,EXTENSION,URL) VALUES(36,'Bernabé Font Pinto','2021-08-09','DOC','https://drive.google.com/drive/u/0/folders/Bernabé Font Pinto.DOC');</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
@@ -7529,7 +7529,7 @@
       </c>
       <c r="C38" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>44909</v>
+        <v>44766</v>
       </c>
       <c r="D38" t="s">
         <v>16</v>
@@ -7540,7 +7540,7 @@
       </c>
       <c r="F38" t="str">
         <f ca="1">"INSERT  CONTENIDO ("&amp;Tabla2[[#Headers],[ID_CONTENIDO]]&amp;","&amp;Tabla2[[#Headers],[TITULO]]&amp;","&amp;Tabla2[[#Headers],[FECHA_PUBLICADO]]&amp;","&amp;Tabla2[[#Headers],[EXTENSION]]&amp;","&amp;Tabla2[[#Headers],[URL]]&amp;") VALUES("&amp;Tabla2[[#This Row],[ID_CONTENIDO]]&amp;",'"&amp;Tabla2[[#This Row],[TITULO]]&amp;"','"&amp;TEXT(Tabla2[[#This Row],[FECHA_PUBLICADO]],"AAAA-MM-DD")&amp;"','"&amp;Tabla2[[#This Row],[EXTENSION]]&amp;"','"&amp;Tabla2[[#This Row],[URL]]&amp;"');"</f>
-        <v>INSERT  CONTENIDO (ID_CONTENIDO,TITULO,FECHA_PUBLICADO,EXTENSION,URL) VALUES(37,'Jose Miguel Santamaría','2022-12-14','DOC','https://drive.google.com/drive/u/0/folders/Jose Miguel Santamaría.DOC');</v>
+        <v>INSERT  CONTENIDO (ID_CONTENIDO,TITULO,FECHA_PUBLICADO,EXTENSION,URL) VALUES(37,'Jose Miguel Santamaría','2022-07-24','DOC','https://drive.google.com/drive/u/0/folders/Jose Miguel Santamaría.DOC');</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
@@ -7552,7 +7552,7 @@
       </c>
       <c r="C39" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>44241</v>
+        <v>44550</v>
       </c>
       <c r="D39" t="s">
         <v>16</v>
@@ -7563,7 +7563,7 @@
       </c>
       <c r="F39" t="str">
         <f ca="1">"INSERT  CONTENIDO ("&amp;Tabla2[[#Headers],[ID_CONTENIDO]]&amp;","&amp;Tabla2[[#Headers],[TITULO]]&amp;","&amp;Tabla2[[#Headers],[FECHA_PUBLICADO]]&amp;","&amp;Tabla2[[#Headers],[EXTENSION]]&amp;","&amp;Tabla2[[#Headers],[URL]]&amp;") VALUES("&amp;Tabla2[[#This Row],[ID_CONTENIDO]]&amp;",'"&amp;Tabla2[[#This Row],[TITULO]]&amp;"','"&amp;TEXT(Tabla2[[#This Row],[FECHA_PUBLICADO]],"AAAA-MM-DD")&amp;"','"&amp;Tabla2[[#This Row],[EXTENSION]]&amp;"','"&amp;Tabla2[[#This Row],[URL]]&amp;"');"</f>
-        <v>INSERT  CONTENIDO (ID_CONTENIDO,TITULO,FECHA_PUBLICADO,EXTENSION,URL) VALUES(38,'Reina Torrijos Aller','2021-02-14','DOC','https://drive.google.com/drive/u/0/folders/Reina Torrijos Aller.DOC');</v>
+        <v>INSERT  CONTENIDO (ID_CONTENIDO,TITULO,FECHA_PUBLICADO,EXTENSION,URL) VALUES(38,'Reina Torrijos Aller','2021-12-20','DOC','https://drive.google.com/drive/u/0/folders/Reina Torrijos Aller.DOC');</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
@@ -7575,7 +7575,7 @@
       </c>
       <c r="C40" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>44183</v>
+        <v>44250</v>
       </c>
       <c r="D40" t="s">
         <v>16</v>
@@ -7586,7 +7586,7 @@
       </c>
       <c r="F40" t="str">
         <f ca="1">"INSERT  CONTENIDO ("&amp;Tabla2[[#Headers],[ID_CONTENIDO]]&amp;","&amp;Tabla2[[#Headers],[TITULO]]&amp;","&amp;Tabla2[[#Headers],[FECHA_PUBLICADO]]&amp;","&amp;Tabla2[[#Headers],[EXTENSION]]&amp;","&amp;Tabla2[[#Headers],[URL]]&amp;") VALUES("&amp;Tabla2[[#This Row],[ID_CONTENIDO]]&amp;",'"&amp;Tabla2[[#This Row],[TITULO]]&amp;"','"&amp;TEXT(Tabla2[[#This Row],[FECHA_PUBLICADO]],"AAAA-MM-DD")&amp;"','"&amp;Tabla2[[#This Row],[EXTENSION]]&amp;"','"&amp;Tabla2[[#This Row],[URL]]&amp;"');"</f>
-        <v>INSERT  CONTENIDO (ID_CONTENIDO,TITULO,FECHA_PUBLICADO,EXTENSION,URL) VALUES(39,'Amando Roldan Roura','2020-12-18','DOC','https://drive.google.com/drive/u/0/folders/Amando Roldan Roura.DOC');</v>
+        <v>INSERT  CONTENIDO (ID_CONTENIDO,TITULO,FECHA_PUBLICADO,EXTENSION,URL) VALUES(39,'Amando Roldan Roura','2021-02-23','DOC','https://drive.google.com/drive/u/0/folders/Amando Roldan Roura.DOC');</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
@@ -7598,7 +7598,7 @@
       </c>
       <c r="C41" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>44643</v>
+        <v>44256</v>
       </c>
       <c r="D41" t="s">
         <v>16</v>
@@ -7609,7 +7609,7 @@
       </c>
       <c r="F41" t="str">
         <f ca="1">"INSERT  CONTENIDO ("&amp;Tabla2[[#Headers],[ID_CONTENIDO]]&amp;","&amp;Tabla2[[#Headers],[TITULO]]&amp;","&amp;Tabla2[[#Headers],[FECHA_PUBLICADO]]&amp;","&amp;Tabla2[[#Headers],[EXTENSION]]&amp;","&amp;Tabla2[[#Headers],[URL]]&amp;") VALUES("&amp;Tabla2[[#This Row],[ID_CONTENIDO]]&amp;",'"&amp;Tabla2[[#This Row],[TITULO]]&amp;"','"&amp;TEXT(Tabla2[[#This Row],[FECHA_PUBLICADO]],"AAAA-MM-DD")&amp;"','"&amp;Tabla2[[#This Row],[EXTENSION]]&amp;"','"&amp;Tabla2[[#This Row],[URL]]&amp;"');"</f>
-        <v>INSERT  CONTENIDO (ID_CONTENIDO,TITULO,FECHA_PUBLICADO,EXTENSION,URL) VALUES(40,'Ruy Amaya Palomino','2022-03-23','DOC','https://drive.google.com/drive/u/0/folders/Ruy Amaya Palomino.DOC');</v>
+        <v>INSERT  CONTENIDO (ID_CONTENIDO,TITULO,FECHA_PUBLICADO,EXTENSION,URL) VALUES(40,'Ruy Amaya Palomino','2021-03-01','DOC','https://drive.google.com/drive/u/0/folders/Ruy Amaya Palomino.DOC');</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
@@ -7621,7 +7621,7 @@
       </c>
       <c r="C42" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>44394</v>
+        <v>44569</v>
       </c>
       <c r="D42" t="s">
         <v>16</v>
@@ -7632,7 +7632,7 @@
       </c>
       <c r="F42" t="str">
         <f ca="1">"INSERT  CONTENIDO ("&amp;Tabla2[[#Headers],[ID_CONTENIDO]]&amp;","&amp;Tabla2[[#Headers],[TITULO]]&amp;","&amp;Tabla2[[#Headers],[FECHA_PUBLICADO]]&amp;","&amp;Tabla2[[#Headers],[EXTENSION]]&amp;","&amp;Tabla2[[#Headers],[URL]]&amp;") VALUES("&amp;Tabla2[[#This Row],[ID_CONTENIDO]]&amp;",'"&amp;Tabla2[[#This Row],[TITULO]]&amp;"','"&amp;TEXT(Tabla2[[#This Row],[FECHA_PUBLICADO]],"AAAA-MM-DD")&amp;"','"&amp;Tabla2[[#This Row],[EXTENSION]]&amp;"','"&amp;Tabla2[[#This Row],[URL]]&amp;"');"</f>
-        <v>INSERT  CONTENIDO (ID_CONTENIDO,TITULO,FECHA_PUBLICADO,EXTENSION,URL) VALUES(41,'Carlota Robles Sanjuan','2021-07-17','DOC','https://drive.google.com/drive/u/0/folders/Carlota Robles Sanjuan.DOC');</v>
+        <v>INSERT  CONTENIDO (ID_CONTENIDO,TITULO,FECHA_PUBLICADO,EXTENSION,URL) VALUES(41,'Carlota Robles Sanjuan','2022-01-08','DOC','https://drive.google.com/drive/u/0/folders/Carlota Robles Sanjuan.DOC');</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
@@ -7644,7 +7644,7 @@
       </c>
       <c r="C43" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44368</v>
       </c>
       <c r="D43" t="s">
         <v>17</v>
@@ -7655,7 +7655,7 @@
       </c>
       <c r="F43" t="str">
         <f ca="1">"INSERT  CONTENIDO ("&amp;Tabla2[[#Headers],[ID_CONTENIDO]]&amp;","&amp;Tabla2[[#Headers],[TITULO]]&amp;","&amp;Tabla2[[#Headers],[FECHA_PUBLICADO]]&amp;","&amp;Tabla2[[#Headers],[EXTENSION]]&amp;","&amp;Tabla2[[#Headers],[URL]]&amp;") VALUES("&amp;Tabla2[[#This Row],[ID_CONTENIDO]]&amp;",'"&amp;Tabla2[[#This Row],[TITULO]]&amp;"','"&amp;TEXT(Tabla2[[#This Row],[FECHA_PUBLICADO]],"AAAA-MM-DD")&amp;"','"&amp;Tabla2[[#This Row],[EXTENSION]]&amp;"','"&amp;Tabla2[[#This Row],[URL]]&amp;"');"</f>
-        <v>INSERT  CONTENIDO (ID_CONTENIDO,TITULO,FECHA_PUBLICADO,EXTENSION,URL) VALUES(42,'Maxi Manuel Llabrés','2022-02-17','PDF','https://drive.google.com/drive/u/0/folders/Maxi Manuel Llabrés.PDF');</v>
+        <v>INSERT  CONTENIDO (ID_CONTENIDO,TITULO,FECHA_PUBLICADO,EXTENSION,URL) VALUES(42,'Maxi Manuel Llabrés','2021-06-21','PDF','https://drive.google.com/drive/u/0/folders/Maxi Manuel Llabrés.PDF');</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
@@ -7667,7 +7667,7 @@
       </c>
       <c r="C44" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>44699</v>
+        <v>44236</v>
       </c>
       <c r="D44" t="s">
         <v>17</v>
@@ -7678,7 +7678,7 @@
       </c>
       <c r="F44" t="str">
         <f ca="1">"INSERT  CONTENIDO ("&amp;Tabla2[[#Headers],[ID_CONTENIDO]]&amp;","&amp;Tabla2[[#Headers],[TITULO]]&amp;","&amp;Tabla2[[#Headers],[FECHA_PUBLICADO]]&amp;","&amp;Tabla2[[#Headers],[EXTENSION]]&amp;","&amp;Tabla2[[#Headers],[URL]]&amp;") VALUES("&amp;Tabla2[[#This Row],[ID_CONTENIDO]]&amp;",'"&amp;Tabla2[[#This Row],[TITULO]]&amp;"','"&amp;TEXT(Tabla2[[#This Row],[FECHA_PUBLICADO]],"AAAA-MM-DD")&amp;"','"&amp;Tabla2[[#This Row],[EXTENSION]]&amp;"','"&amp;Tabla2[[#This Row],[URL]]&amp;"');"</f>
-        <v>INSERT  CONTENIDO (ID_CONTENIDO,TITULO,FECHA_PUBLICADO,EXTENSION,URL) VALUES(43,'Teodoro del Peña','2022-05-18','PDF','https://drive.google.com/drive/u/0/folders/Teodoro del Peña.PDF');</v>
+        <v>INSERT  CONTENIDO (ID_CONTENIDO,TITULO,FECHA_PUBLICADO,EXTENSION,URL) VALUES(43,'Teodoro del Peña','2021-02-09','PDF','https://drive.google.com/drive/u/0/folders/Teodoro del Peña.PDF');</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
@@ -7690,7 +7690,7 @@
       </c>
       <c r="C45" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>44762</v>
+        <v>44789</v>
       </c>
       <c r="D45" t="s">
         <v>17</v>
@@ -7701,7 +7701,7 @@
       </c>
       <c r="F45" t="str">
         <f ca="1">"INSERT  CONTENIDO ("&amp;Tabla2[[#Headers],[ID_CONTENIDO]]&amp;","&amp;Tabla2[[#Headers],[TITULO]]&amp;","&amp;Tabla2[[#Headers],[FECHA_PUBLICADO]]&amp;","&amp;Tabla2[[#Headers],[EXTENSION]]&amp;","&amp;Tabla2[[#Headers],[URL]]&amp;") VALUES("&amp;Tabla2[[#This Row],[ID_CONTENIDO]]&amp;",'"&amp;Tabla2[[#This Row],[TITULO]]&amp;"','"&amp;TEXT(Tabla2[[#This Row],[FECHA_PUBLICADO]],"AAAA-MM-DD")&amp;"','"&amp;Tabla2[[#This Row],[EXTENSION]]&amp;"','"&amp;Tabla2[[#This Row],[URL]]&amp;"');"</f>
-        <v>INSERT  CONTENIDO (ID_CONTENIDO,TITULO,FECHA_PUBLICADO,EXTENSION,URL) VALUES(44,'Emigdio del Roca','2022-07-20','PDF','https://drive.google.com/drive/u/0/folders/Emigdio del Roca.PDF');</v>
+        <v>INSERT  CONTENIDO (ID_CONTENIDO,TITULO,FECHA_PUBLICADO,EXTENSION,URL) VALUES(44,'Emigdio del Roca','2022-08-16','PDF','https://drive.google.com/drive/u/0/folders/Emigdio del Roca.PDF');</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
@@ -7713,7 +7713,7 @@
       </c>
       <c r="C46" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>44779</v>
+        <v>44339</v>
       </c>
       <c r="D46" t="s">
         <v>17</v>
@@ -7724,7 +7724,7 @@
       </c>
       <c r="F46" t="str">
         <f ca="1">"INSERT  CONTENIDO ("&amp;Tabla2[[#Headers],[ID_CONTENIDO]]&amp;","&amp;Tabla2[[#Headers],[TITULO]]&amp;","&amp;Tabla2[[#Headers],[FECHA_PUBLICADO]]&amp;","&amp;Tabla2[[#Headers],[EXTENSION]]&amp;","&amp;Tabla2[[#Headers],[URL]]&amp;") VALUES("&amp;Tabla2[[#This Row],[ID_CONTENIDO]]&amp;",'"&amp;Tabla2[[#This Row],[TITULO]]&amp;"','"&amp;TEXT(Tabla2[[#This Row],[FECHA_PUBLICADO]],"AAAA-MM-DD")&amp;"','"&amp;Tabla2[[#This Row],[EXTENSION]]&amp;"','"&amp;Tabla2[[#This Row],[URL]]&amp;"');"</f>
-        <v>INSERT  CONTENIDO (ID_CONTENIDO,TITULO,FECHA_PUBLICADO,EXTENSION,URL) VALUES(45,'Osvaldo César Mendizábal Neira','2022-08-06','PDF','https://drive.google.com/drive/u/0/folders/Osvaldo César Mendizábal Neira.PDF');</v>
+        <v>INSERT  CONTENIDO (ID_CONTENIDO,TITULO,FECHA_PUBLICADO,EXTENSION,URL) VALUES(45,'Osvaldo César Mendizábal Neira','2021-05-23','PDF','https://drive.google.com/drive/u/0/folders/Osvaldo César Mendizábal Neira.PDF');</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
@@ -7736,7 +7736,7 @@
       </c>
       <c r="C47" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>44288</v>
+        <v>44223</v>
       </c>
       <c r="D47" t="s">
         <v>17</v>
@@ -7747,7 +7747,7 @@
       </c>
       <c r="F47" t="str">
         <f ca="1">"INSERT  CONTENIDO ("&amp;Tabla2[[#Headers],[ID_CONTENIDO]]&amp;","&amp;Tabla2[[#Headers],[TITULO]]&amp;","&amp;Tabla2[[#Headers],[FECHA_PUBLICADO]]&amp;","&amp;Tabla2[[#Headers],[EXTENSION]]&amp;","&amp;Tabla2[[#Headers],[URL]]&amp;") VALUES("&amp;Tabla2[[#This Row],[ID_CONTENIDO]]&amp;",'"&amp;Tabla2[[#This Row],[TITULO]]&amp;"','"&amp;TEXT(Tabla2[[#This Row],[FECHA_PUBLICADO]],"AAAA-MM-DD")&amp;"','"&amp;Tabla2[[#This Row],[EXTENSION]]&amp;"','"&amp;Tabla2[[#This Row],[URL]]&amp;"');"</f>
-        <v>INSERT  CONTENIDO (ID_CONTENIDO,TITULO,FECHA_PUBLICADO,EXTENSION,URL) VALUES(46,'Rosalía Bayo Canales','2021-04-02','PDF','https://drive.google.com/drive/u/0/folders/Rosalía Bayo Canales.PDF');</v>
+        <v>INSERT  CONTENIDO (ID_CONTENIDO,TITULO,FECHA_PUBLICADO,EXTENSION,URL) VALUES(46,'Rosalía Bayo Canales','2021-01-27','PDF','https://drive.google.com/drive/u/0/folders/Rosalía Bayo Canales.PDF');</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
@@ -7759,7 +7759,7 @@
       </c>
       <c r="C48" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>44560</v>
+        <v>44491</v>
       </c>
       <c r="D48" t="s">
         <v>17</v>
@@ -7770,7 +7770,7 @@
       </c>
       <c r="F48" t="str">
         <f ca="1">"INSERT  CONTENIDO ("&amp;Tabla2[[#Headers],[ID_CONTENIDO]]&amp;","&amp;Tabla2[[#Headers],[TITULO]]&amp;","&amp;Tabla2[[#Headers],[FECHA_PUBLICADO]]&amp;","&amp;Tabla2[[#Headers],[EXTENSION]]&amp;","&amp;Tabla2[[#Headers],[URL]]&amp;") VALUES("&amp;Tabla2[[#This Row],[ID_CONTENIDO]]&amp;",'"&amp;Tabla2[[#This Row],[TITULO]]&amp;"','"&amp;TEXT(Tabla2[[#This Row],[FECHA_PUBLICADO]],"AAAA-MM-DD")&amp;"','"&amp;Tabla2[[#This Row],[EXTENSION]]&amp;"','"&amp;Tabla2[[#This Row],[URL]]&amp;"');"</f>
-        <v>INSERT  CONTENIDO (ID_CONTENIDO,TITULO,FECHA_PUBLICADO,EXTENSION,URL) VALUES(47,'Adelaida Lamas Herrero','2021-12-30','PDF','https://drive.google.com/drive/u/0/folders/Adelaida Lamas Herrero.PDF');</v>
+        <v>INSERT  CONTENIDO (ID_CONTENIDO,TITULO,FECHA_PUBLICADO,EXTENSION,URL) VALUES(47,'Adelaida Lamas Herrero','2021-10-22','PDF','https://drive.google.com/drive/u/0/folders/Adelaida Lamas Herrero.PDF');</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
@@ -7782,7 +7782,7 @@
       </c>
       <c r="C49" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>44702</v>
+        <v>44656</v>
       </c>
       <c r="D49" t="s">
         <v>17</v>
@@ -7793,7 +7793,7 @@
       </c>
       <c r="F49" t="str">
         <f ca="1">"INSERT  CONTENIDO ("&amp;Tabla2[[#Headers],[ID_CONTENIDO]]&amp;","&amp;Tabla2[[#Headers],[TITULO]]&amp;","&amp;Tabla2[[#Headers],[FECHA_PUBLICADO]]&amp;","&amp;Tabla2[[#Headers],[EXTENSION]]&amp;","&amp;Tabla2[[#Headers],[URL]]&amp;") VALUES("&amp;Tabla2[[#This Row],[ID_CONTENIDO]]&amp;",'"&amp;Tabla2[[#This Row],[TITULO]]&amp;"','"&amp;TEXT(Tabla2[[#This Row],[FECHA_PUBLICADO]],"AAAA-MM-DD")&amp;"','"&amp;Tabla2[[#This Row],[EXTENSION]]&amp;"','"&amp;Tabla2[[#This Row],[URL]]&amp;"');"</f>
-        <v>INSERT  CONTENIDO (ID_CONTENIDO,TITULO,FECHA_PUBLICADO,EXTENSION,URL) VALUES(48,'Julie España Arnaiz','2022-05-21','PDF','https://drive.google.com/drive/u/0/folders/Julie España Arnaiz.PDF');</v>
+        <v>INSERT  CONTENIDO (ID_CONTENIDO,TITULO,FECHA_PUBLICADO,EXTENSION,URL) VALUES(48,'Julie España Arnaiz','2022-04-05','PDF','https://drive.google.com/drive/u/0/folders/Julie España Arnaiz.PDF');</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
@@ -7805,7 +7805,7 @@
       </c>
       <c r="C50" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>44686</v>
+        <v>44900</v>
       </c>
       <c r="D50" t="s">
         <v>17</v>
@@ -7816,7 +7816,7 @@
       </c>
       <c r="F50" t="str">
         <f ca="1">"INSERT  CONTENIDO ("&amp;Tabla2[[#Headers],[ID_CONTENIDO]]&amp;","&amp;Tabla2[[#Headers],[TITULO]]&amp;","&amp;Tabla2[[#Headers],[FECHA_PUBLICADO]]&amp;","&amp;Tabla2[[#Headers],[EXTENSION]]&amp;","&amp;Tabla2[[#Headers],[URL]]&amp;") VALUES("&amp;Tabla2[[#This Row],[ID_CONTENIDO]]&amp;",'"&amp;Tabla2[[#This Row],[TITULO]]&amp;"','"&amp;TEXT(Tabla2[[#This Row],[FECHA_PUBLICADO]],"AAAA-MM-DD")&amp;"','"&amp;Tabla2[[#This Row],[EXTENSION]]&amp;"','"&amp;Tabla2[[#This Row],[URL]]&amp;"');"</f>
-        <v>INSERT  CONTENIDO (ID_CONTENIDO,TITULO,FECHA_PUBLICADO,EXTENSION,URL) VALUES(49,'Teodora Sáez Sevilla','2022-05-05','PDF','https://drive.google.com/drive/u/0/folders/Teodora Sáez Sevilla.PDF');</v>
+        <v>INSERT  CONTENIDO (ID_CONTENIDO,TITULO,FECHA_PUBLICADO,EXTENSION,URL) VALUES(49,'Teodora Sáez Sevilla','2022-12-05','PDF','https://drive.google.com/drive/u/0/folders/Teodora Sáez Sevilla.PDF');</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
@@ -7828,7 +7828,7 @@
       </c>
       <c r="C51" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>44501</v>
+        <v>44721</v>
       </c>
       <c r="D51" t="s">
         <v>17</v>
@@ -7839,7 +7839,7 @@
       </c>
       <c r="F51" t="str">
         <f ca="1">"INSERT  CONTENIDO ("&amp;Tabla2[[#Headers],[ID_CONTENIDO]]&amp;","&amp;Tabla2[[#Headers],[TITULO]]&amp;","&amp;Tabla2[[#Headers],[FECHA_PUBLICADO]]&amp;","&amp;Tabla2[[#Headers],[EXTENSION]]&amp;","&amp;Tabla2[[#Headers],[URL]]&amp;") VALUES("&amp;Tabla2[[#This Row],[ID_CONTENIDO]]&amp;",'"&amp;Tabla2[[#This Row],[TITULO]]&amp;"','"&amp;TEXT(Tabla2[[#This Row],[FECHA_PUBLICADO]],"AAAA-MM-DD")&amp;"','"&amp;Tabla2[[#This Row],[EXTENSION]]&amp;"','"&amp;Tabla2[[#This Row],[URL]]&amp;"');"</f>
-        <v>INSERT  CONTENIDO (ID_CONTENIDO,TITULO,FECHA_PUBLICADO,EXTENSION,URL) VALUES(50,'Teresita Morell Vázquez','2021-11-01','PDF','https://drive.google.com/drive/u/0/folders/Teresita Morell Vázquez.PDF');</v>
+        <v>INSERT  CONTENIDO (ID_CONTENIDO,TITULO,FECHA_PUBLICADO,EXTENSION,URL) VALUES(50,'Teresita Morell Vázquez','2022-06-09','PDF','https://drive.google.com/drive/u/0/folders/Teresita Morell Vázquez.PDF');</v>
       </c>
     </row>
   </sheetData>
@@ -7882,11 +7882,11 @@
       </c>
       <c r="B2">
         <f t="shared" ref="B2:B27" ca="1" si="0">RANDBETWEEN(100,14500)</f>
-        <v>11005</v>
+        <v>4075</v>
       </c>
       <c r="C2" t="str">
         <f ca="1">"INSERT VIDEO("&amp;Tabla3[[#Headers],[ID_CONTENIDO]]&amp;","&amp;Tabla3[[#Headers],[TAMANIO]]&amp;") VALUES(" &amp;Tabla3[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla3[[#This Row],[TAMANIO]]&amp;");"</f>
-        <v>INSERT VIDEO(ID_CONTENIDO,TAMANIO) VALUES(1,11005);</v>
+        <v>INSERT VIDEO(ID_CONTENIDO,TAMANIO) VALUES(1,4075);</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -7895,11 +7895,11 @@
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>3417</v>
+        <v>10431</v>
       </c>
       <c r="C3" t="str">
         <f ca="1">"INSERT VIDEO("&amp;Tabla3[[#Headers],[ID_CONTENIDO]]&amp;","&amp;Tabla3[[#Headers],[TAMANIO]]&amp;") VALUES(" &amp;Tabla3[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla3[[#This Row],[TAMANIO]]&amp;");"</f>
-        <v>INSERT VIDEO(ID_CONTENIDO,TAMANIO) VALUES(2,3417);</v>
+        <v>INSERT VIDEO(ID_CONTENIDO,TAMANIO) VALUES(2,10431);</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -7908,11 +7908,11 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>7512</v>
+        <v>6859</v>
       </c>
       <c r="C4" t="str">
         <f ca="1">"INSERT VIDEO("&amp;Tabla3[[#Headers],[ID_CONTENIDO]]&amp;","&amp;Tabla3[[#Headers],[TAMANIO]]&amp;") VALUES(" &amp;Tabla3[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla3[[#This Row],[TAMANIO]]&amp;");"</f>
-        <v>INSERT VIDEO(ID_CONTENIDO,TAMANIO) VALUES(3,7512);</v>
+        <v>INSERT VIDEO(ID_CONTENIDO,TAMANIO) VALUES(3,6859);</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -7921,11 +7921,11 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>3767</v>
+        <v>5356</v>
       </c>
       <c r="C5" t="str">
         <f ca="1">"INSERT VIDEO("&amp;Tabla3[[#Headers],[ID_CONTENIDO]]&amp;","&amp;Tabla3[[#Headers],[TAMANIO]]&amp;") VALUES(" &amp;Tabla3[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla3[[#This Row],[TAMANIO]]&amp;");"</f>
-        <v>INSERT VIDEO(ID_CONTENIDO,TAMANIO) VALUES(4,3767);</v>
+        <v>INSERT VIDEO(ID_CONTENIDO,TAMANIO) VALUES(4,5356);</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -7934,11 +7934,11 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>9487</v>
+        <v>3582</v>
       </c>
       <c r="C6" t="str">
         <f ca="1">"INSERT VIDEO("&amp;Tabla3[[#Headers],[ID_CONTENIDO]]&amp;","&amp;Tabla3[[#Headers],[TAMANIO]]&amp;") VALUES(" &amp;Tabla3[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla3[[#This Row],[TAMANIO]]&amp;");"</f>
-        <v>INSERT VIDEO(ID_CONTENIDO,TAMANIO) VALUES(5,9487);</v>
+        <v>INSERT VIDEO(ID_CONTENIDO,TAMANIO) VALUES(5,3582);</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -7947,11 +7947,11 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>6363</v>
+        <v>4901</v>
       </c>
       <c r="C7" t="str">
         <f ca="1">"INSERT VIDEO("&amp;Tabla3[[#Headers],[ID_CONTENIDO]]&amp;","&amp;Tabla3[[#Headers],[TAMANIO]]&amp;") VALUES(" &amp;Tabla3[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla3[[#This Row],[TAMANIO]]&amp;");"</f>
-        <v>INSERT VIDEO(ID_CONTENIDO,TAMANIO) VALUES(6,6363);</v>
+        <v>INSERT VIDEO(ID_CONTENIDO,TAMANIO) VALUES(6,4901);</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -7960,11 +7960,11 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>303</v>
+        <v>7429</v>
       </c>
       <c r="C8" t="str">
         <f ca="1">"INSERT VIDEO("&amp;Tabla3[[#Headers],[ID_CONTENIDO]]&amp;","&amp;Tabla3[[#Headers],[TAMANIO]]&amp;") VALUES(" &amp;Tabla3[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla3[[#This Row],[TAMANIO]]&amp;");"</f>
-        <v>INSERT VIDEO(ID_CONTENIDO,TAMANIO) VALUES(7,303);</v>
+        <v>INSERT VIDEO(ID_CONTENIDO,TAMANIO) VALUES(7,7429);</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -7973,11 +7973,11 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>13613</v>
+        <v>12020</v>
       </c>
       <c r="C9" t="str">
         <f ca="1">"INSERT VIDEO("&amp;Tabla3[[#Headers],[ID_CONTENIDO]]&amp;","&amp;Tabla3[[#Headers],[TAMANIO]]&amp;") VALUES(" &amp;Tabla3[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla3[[#This Row],[TAMANIO]]&amp;");"</f>
-        <v>INSERT VIDEO(ID_CONTENIDO,TAMANIO) VALUES(8,13613);</v>
+        <v>INSERT VIDEO(ID_CONTENIDO,TAMANIO) VALUES(8,12020);</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -7986,11 +7986,11 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>1922</v>
+        <v>7641</v>
       </c>
       <c r="C10" t="str">
         <f ca="1">"INSERT VIDEO("&amp;Tabla3[[#Headers],[ID_CONTENIDO]]&amp;","&amp;Tabla3[[#Headers],[TAMANIO]]&amp;") VALUES(" &amp;Tabla3[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla3[[#This Row],[TAMANIO]]&amp;");"</f>
-        <v>INSERT VIDEO(ID_CONTENIDO,TAMANIO) VALUES(9,1922);</v>
+        <v>INSERT VIDEO(ID_CONTENIDO,TAMANIO) VALUES(9,7641);</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -7999,11 +7999,11 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>12827</v>
+        <v>12652</v>
       </c>
       <c r="C11" t="str">
         <f ca="1">"INSERT VIDEO("&amp;Tabla3[[#Headers],[ID_CONTENIDO]]&amp;","&amp;Tabla3[[#Headers],[TAMANIO]]&amp;") VALUES(" &amp;Tabla3[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla3[[#This Row],[TAMANIO]]&amp;");"</f>
-        <v>INSERT VIDEO(ID_CONTENIDO,TAMANIO) VALUES(10,12827);</v>
+        <v>INSERT VIDEO(ID_CONTENIDO,TAMANIO) VALUES(10,12652);</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -8012,11 +8012,11 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>2419</v>
+        <v>8050</v>
       </c>
       <c r="C12" t="str">
         <f ca="1">"INSERT VIDEO("&amp;Tabla3[[#Headers],[ID_CONTENIDO]]&amp;","&amp;Tabla3[[#Headers],[TAMANIO]]&amp;") VALUES(" &amp;Tabla3[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla3[[#This Row],[TAMANIO]]&amp;");"</f>
-        <v>INSERT VIDEO(ID_CONTENIDO,TAMANIO) VALUES(11,2419);</v>
+        <v>INSERT VIDEO(ID_CONTENIDO,TAMANIO) VALUES(11,8050);</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -8025,11 +8025,11 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>10848</v>
+        <v>1358</v>
       </c>
       <c r="C13" t="str">
         <f ca="1">"INSERT VIDEO("&amp;Tabla3[[#Headers],[ID_CONTENIDO]]&amp;","&amp;Tabla3[[#Headers],[TAMANIO]]&amp;") VALUES(" &amp;Tabla3[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla3[[#This Row],[TAMANIO]]&amp;");"</f>
-        <v>INSERT VIDEO(ID_CONTENIDO,TAMANIO) VALUES(12,10848);</v>
+        <v>INSERT VIDEO(ID_CONTENIDO,TAMANIO) VALUES(12,1358);</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -8038,11 +8038,11 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>9731</v>
+        <v>8619</v>
       </c>
       <c r="C14" t="str">
         <f ca="1">"INSERT VIDEO("&amp;Tabla3[[#Headers],[ID_CONTENIDO]]&amp;","&amp;Tabla3[[#Headers],[TAMANIO]]&amp;") VALUES(" &amp;Tabla3[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla3[[#This Row],[TAMANIO]]&amp;");"</f>
-        <v>INSERT VIDEO(ID_CONTENIDO,TAMANIO) VALUES(13,9731);</v>
+        <v>INSERT VIDEO(ID_CONTENIDO,TAMANIO) VALUES(13,8619);</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -8051,11 +8051,11 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>12318</v>
+        <v>11048</v>
       </c>
       <c r="C15" t="str">
         <f ca="1">"INSERT VIDEO("&amp;Tabla3[[#Headers],[ID_CONTENIDO]]&amp;","&amp;Tabla3[[#Headers],[TAMANIO]]&amp;") VALUES(" &amp;Tabla3[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla3[[#This Row],[TAMANIO]]&amp;");"</f>
-        <v>INSERT VIDEO(ID_CONTENIDO,TAMANIO) VALUES(14,12318);</v>
+        <v>INSERT VIDEO(ID_CONTENIDO,TAMANIO) VALUES(14,11048);</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -8064,11 +8064,11 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>2447</v>
+        <v>9374</v>
       </c>
       <c r="C16" t="str">
         <f ca="1">"INSERT VIDEO("&amp;Tabla3[[#Headers],[ID_CONTENIDO]]&amp;","&amp;Tabla3[[#Headers],[TAMANIO]]&amp;") VALUES(" &amp;Tabla3[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla3[[#This Row],[TAMANIO]]&amp;");"</f>
-        <v>INSERT VIDEO(ID_CONTENIDO,TAMANIO) VALUES(15,2447);</v>
+        <v>INSERT VIDEO(ID_CONTENIDO,TAMANIO) VALUES(15,9374);</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -8077,11 +8077,11 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>6511</v>
+        <v>1276</v>
       </c>
       <c r="C17" t="str">
         <f ca="1">"INSERT VIDEO("&amp;Tabla3[[#Headers],[ID_CONTENIDO]]&amp;","&amp;Tabla3[[#Headers],[TAMANIO]]&amp;") VALUES(" &amp;Tabla3[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla3[[#This Row],[TAMANIO]]&amp;");"</f>
-        <v>INSERT VIDEO(ID_CONTENIDO,TAMANIO) VALUES(16,6511);</v>
+        <v>INSERT VIDEO(ID_CONTENIDO,TAMANIO) VALUES(16,1276);</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -8090,11 +8090,11 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>11549</v>
+        <v>6086</v>
       </c>
       <c r="C18" t="str">
         <f ca="1">"INSERT VIDEO("&amp;Tabla3[[#Headers],[ID_CONTENIDO]]&amp;","&amp;Tabla3[[#Headers],[TAMANIO]]&amp;") VALUES(" &amp;Tabla3[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla3[[#This Row],[TAMANIO]]&amp;");"</f>
-        <v>INSERT VIDEO(ID_CONTENIDO,TAMANIO) VALUES(17,11549);</v>
+        <v>INSERT VIDEO(ID_CONTENIDO,TAMANIO) VALUES(17,6086);</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -8103,11 +8103,11 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>1531</v>
+        <v>2095</v>
       </c>
       <c r="C19" t="str">
         <f ca="1">"INSERT VIDEO("&amp;Tabla3[[#Headers],[ID_CONTENIDO]]&amp;","&amp;Tabla3[[#Headers],[TAMANIO]]&amp;") VALUES(" &amp;Tabla3[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla3[[#This Row],[TAMANIO]]&amp;");"</f>
-        <v>INSERT VIDEO(ID_CONTENIDO,TAMANIO) VALUES(18,1531);</v>
+        <v>INSERT VIDEO(ID_CONTENIDO,TAMANIO) VALUES(18,2095);</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -8116,11 +8116,11 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>14390</v>
+        <v>8737</v>
       </c>
       <c r="C20" t="str">
         <f ca="1">"INSERT VIDEO("&amp;Tabla3[[#Headers],[ID_CONTENIDO]]&amp;","&amp;Tabla3[[#Headers],[TAMANIO]]&amp;") VALUES(" &amp;Tabla3[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla3[[#This Row],[TAMANIO]]&amp;");"</f>
-        <v>INSERT VIDEO(ID_CONTENIDO,TAMANIO) VALUES(19,14390);</v>
+        <v>INSERT VIDEO(ID_CONTENIDO,TAMANIO) VALUES(19,8737);</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -8129,11 +8129,11 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>11901</v>
+        <v>13587</v>
       </c>
       <c r="C21" t="str">
         <f ca="1">"INSERT VIDEO("&amp;Tabla3[[#Headers],[ID_CONTENIDO]]&amp;","&amp;Tabla3[[#Headers],[TAMANIO]]&amp;") VALUES(" &amp;Tabla3[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla3[[#This Row],[TAMANIO]]&amp;");"</f>
-        <v>INSERT VIDEO(ID_CONTENIDO,TAMANIO) VALUES(20,11901);</v>
+        <v>INSERT VIDEO(ID_CONTENIDO,TAMANIO) VALUES(20,13587);</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -8142,11 +8142,11 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>5855</v>
+        <v>8037</v>
       </c>
       <c r="C22" t="str">
         <f ca="1">"INSERT VIDEO("&amp;Tabla3[[#Headers],[ID_CONTENIDO]]&amp;","&amp;Tabla3[[#Headers],[TAMANIO]]&amp;") VALUES(" &amp;Tabla3[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla3[[#This Row],[TAMANIO]]&amp;");"</f>
-        <v>INSERT VIDEO(ID_CONTENIDO,TAMANIO) VALUES(21,5855);</v>
+        <v>INSERT VIDEO(ID_CONTENIDO,TAMANIO) VALUES(21,8037);</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -8155,11 +8155,11 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>9632</v>
+        <v>923</v>
       </c>
       <c r="C23" t="str">
         <f ca="1">"INSERT VIDEO("&amp;Tabla3[[#Headers],[ID_CONTENIDO]]&amp;","&amp;Tabla3[[#Headers],[TAMANIO]]&amp;") VALUES(" &amp;Tabla3[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla3[[#This Row],[TAMANIO]]&amp;");"</f>
-        <v>INSERT VIDEO(ID_CONTENIDO,TAMANIO) VALUES(22,9632);</v>
+        <v>INSERT VIDEO(ID_CONTENIDO,TAMANIO) VALUES(22,923);</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -8168,11 +8168,11 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>1739</v>
+        <v>4967</v>
       </c>
       <c r="C24" t="str">
         <f ca="1">"INSERT VIDEO("&amp;Tabla3[[#Headers],[ID_CONTENIDO]]&amp;","&amp;Tabla3[[#Headers],[TAMANIO]]&amp;") VALUES(" &amp;Tabla3[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla3[[#This Row],[TAMANIO]]&amp;");"</f>
-        <v>INSERT VIDEO(ID_CONTENIDO,TAMANIO) VALUES(23,1739);</v>
+        <v>INSERT VIDEO(ID_CONTENIDO,TAMANIO) VALUES(23,4967);</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -8181,11 +8181,11 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>2456</v>
+        <v>14177</v>
       </c>
       <c r="C25" t="str">
         <f ca="1">"INSERT VIDEO("&amp;Tabla3[[#Headers],[ID_CONTENIDO]]&amp;","&amp;Tabla3[[#Headers],[TAMANIO]]&amp;") VALUES(" &amp;Tabla3[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla3[[#This Row],[TAMANIO]]&amp;");"</f>
-        <v>INSERT VIDEO(ID_CONTENIDO,TAMANIO) VALUES(24,2456);</v>
+        <v>INSERT VIDEO(ID_CONTENIDO,TAMANIO) VALUES(24,14177);</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -8194,11 +8194,11 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>9624</v>
+        <v>10619</v>
       </c>
       <c r="C26" t="str">
         <f ca="1">"INSERT VIDEO("&amp;Tabla3[[#Headers],[ID_CONTENIDO]]&amp;","&amp;Tabla3[[#Headers],[TAMANIO]]&amp;") VALUES(" &amp;Tabla3[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla3[[#This Row],[TAMANIO]]&amp;");"</f>
-        <v>INSERT VIDEO(ID_CONTENIDO,TAMANIO) VALUES(25,9624);</v>
+        <v>INSERT VIDEO(ID_CONTENIDO,TAMANIO) VALUES(25,10619);</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -8207,11 +8207,11 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="0"/>
-        <v>5541</v>
+        <v>9141</v>
       </c>
       <c r="C27" t="str">
         <f ca="1">"INSERT VIDEO("&amp;Tabla3[[#Headers],[ID_CONTENIDO]]&amp;","&amp;Tabla3[[#Headers],[TAMANIO]]&amp;") VALUES(" &amp;Tabla3[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla3[[#This Row],[TAMANIO]]&amp;");"</f>
-        <v>INSERT VIDEO(ID_CONTENIDO,TAMANIO) VALUES(26,5541);</v>
+        <v>INSERT VIDEO(ID_CONTENIDO,TAMANIO) VALUES(26,9141);</v>
       </c>
     </row>
   </sheetData>
@@ -8499,11 +8499,11 @@
       </c>
       <c r="B2">
         <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="str">
         <f ca="1">"INSERT DOCUMENTO("&amp;Tabla6[[#Headers],[ID_CONTENIDO]]&amp;","&amp;Tabla6[[#Headers],[USA_PLANTILLA]]&amp;") VALUES("&amp;Tabla6[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla6[[#This Row],[USA_PLANTILLA]]&amp;");"</f>
-        <v>INSERT DOCUMENTO(ID_CONTENIDO,USA_PLANTILLA) VALUES(27,1);</v>
+        <v>INSERT DOCUMENTO(ID_CONTENIDO,USA_PLANTILLA) VALUES(27,0);</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -8551,11 +8551,11 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="str">
         <f ca="1">"INSERT DOCUMENTO("&amp;Tabla6[[#Headers],[ID_CONTENIDO]]&amp;","&amp;Tabla6[[#Headers],[USA_PLANTILLA]]&amp;") VALUES("&amp;Tabla6[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla6[[#This Row],[USA_PLANTILLA]]&amp;");"</f>
-        <v>INSERT DOCUMENTO(ID_CONTENIDO,USA_PLANTILLA) VALUES(31,1);</v>
+        <v>INSERT DOCUMENTO(ID_CONTENIDO,USA_PLANTILLA) VALUES(31,0);</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -8629,11 +8629,11 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="str">
         <f ca="1">"INSERT DOCUMENTO("&amp;Tabla6[[#Headers],[ID_CONTENIDO]]&amp;","&amp;Tabla6[[#Headers],[USA_PLANTILLA]]&amp;") VALUES("&amp;Tabla6[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla6[[#This Row],[USA_PLANTILLA]]&amp;");"</f>
-        <v>INSERT DOCUMENTO(ID_CONTENIDO,USA_PLANTILLA) VALUES(37,1);</v>
+        <v>INSERT DOCUMENTO(ID_CONTENIDO,USA_PLANTILLA) VALUES(37,0);</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -8694,11 +8694,11 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="str">
         <f ca="1">"INSERT DOCUMENTO("&amp;Tabla6[[#Headers],[ID_CONTENIDO]]&amp;","&amp;Tabla6[[#Headers],[USA_PLANTILLA]]&amp;") VALUES("&amp;Tabla6[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla6[[#This Row],[USA_PLANTILLA]]&amp;");"</f>
-        <v>INSERT DOCUMENTO(ID_CONTENIDO,USA_PLANTILLA) VALUES(42,0);</v>
+        <v>INSERT DOCUMENTO(ID_CONTENIDO,USA_PLANTILLA) VALUES(42,1);</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -8707,11 +8707,11 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="str">
         <f ca="1">"INSERT DOCUMENTO("&amp;Tabla6[[#Headers],[ID_CONTENIDO]]&amp;","&amp;Tabla6[[#Headers],[USA_PLANTILLA]]&amp;") VALUES("&amp;Tabla6[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla6[[#This Row],[USA_PLANTILLA]]&amp;");"</f>
-        <v>INSERT DOCUMENTO(ID_CONTENIDO,USA_PLANTILLA) VALUES(43,1);</v>
+        <v>INSERT DOCUMENTO(ID_CONTENIDO,USA_PLANTILLA) VALUES(43,0);</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -8720,11 +8720,11 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="str">
         <f ca="1">"INSERT DOCUMENTO("&amp;Tabla6[[#Headers],[ID_CONTENIDO]]&amp;","&amp;Tabla6[[#Headers],[USA_PLANTILLA]]&amp;") VALUES("&amp;Tabla6[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla6[[#This Row],[USA_PLANTILLA]]&amp;");"</f>
-        <v>INSERT DOCUMENTO(ID_CONTENIDO,USA_PLANTILLA) VALUES(44,1);</v>
+        <v>INSERT DOCUMENTO(ID_CONTENIDO,USA_PLANTILLA) VALUES(44,0);</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -8733,11 +8733,11 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="str">
         <f ca="1">"INSERT DOCUMENTO("&amp;Tabla6[[#Headers],[ID_CONTENIDO]]&amp;","&amp;Tabla6[[#Headers],[USA_PLANTILLA]]&amp;") VALUES("&amp;Tabla6[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla6[[#This Row],[USA_PLANTILLA]]&amp;");"</f>
-        <v>INSERT DOCUMENTO(ID_CONTENIDO,USA_PLANTILLA) VALUES(45,1);</v>
+        <v>INSERT DOCUMENTO(ID_CONTENIDO,USA_PLANTILLA) VALUES(45,0);</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -8798,11 +8798,11 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" t="str">
         <f ca="1">"INSERT DOCUMENTO("&amp;Tabla6[[#Headers],[ID_CONTENIDO]]&amp;","&amp;Tabla6[[#Headers],[USA_PLANTILLA]]&amp;") VALUES("&amp;Tabla6[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla6[[#This Row],[USA_PLANTILLA]]&amp;");"</f>
-        <v>INSERT DOCUMENTO(ID_CONTENIDO,USA_PLANTILLA) VALUES(50,0);</v>
+        <v>INSERT DOCUMENTO(ID_CONTENIDO,USA_PLANTILLA) VALUES(50,1);</v>
       </c>
     </row>
   </sheetData>
@@ -8860,14 +8860,14 @@
       </c>
       <c r="D2" s="2">
         <f t="shared" ref="D2:D11" ca="1" si="0">RANDBETWEEN(DATE(1980,12,1),DATE(2000,12,31))</f>
-        <v>35355</v>
+        <v>31411</v>
       </c>
       <c r="E2" t="s">
         <v>89</v>
       </c>
       <c r="F2" t="str">
         <f ca="1">"INSERT USUARIO("&amp;Tabla5[[#Headers],[ID_USUARIO ]]&amp;","&amp;Tabla5[[#Headers],[NOMBRE]]&amp;","&amp;Tabla5[[#Headers],[APELLIDO]]&amp;","&amp;Tabla5[[#Headers],[FECHA_NACIMIENTO ]]&amp;","&amp;Tabla5[[#Headers],[CLAVE ]]&amp;") VALUES("&amp;Tabla5[[#This Row],[ID_USUARIO ]]&amp;",'"&amp;Tabla5[[#This Row],[NOMBRE]]&amp;"','"&amp;Tabla5[[#This Row],[APELLIDO]]&amp;"','"&amp;TEXT(Tabla5[[#This Row],[FECHA_NACIMIENTO ]],"AAAA-MM-DD")&amp;"','"&amp;Tabla5[[#This Row],[CLAVE ]]&amp;"');"</f>
-        <v>INSERT USUARIO(ID_USUARIO ,NOMBRE,APELLIDO,FECHA_NACIMIENTO ,CLAVE ) VALUES(1,'Luis Miguel','Grau Benet','1996-10-17','wG·khgml!$');</v>
+        <v>INSERT USUARIO(ID_USUARIO ,NOMBRE,APELLIDO,FECHA_NACIMIENTO ,CLAVE ) VALUES(1,'Luis Miguel','Grau Benet','1985-12-30','wG·khgml!$');</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
@@ -8882,14 +8882,14 @@
       </c>
       <c r="D3" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>34014</v>
+        <v>31346</v>
       </c>
       <c r="E3" t="s">
         <v>90</v>
       </c>
       <c r="F3" t="str">
         <f ca="1">"INSERT USUARIO("&amp;Tabla5[[#Headers],[ID_USUARIO ]]&amp;","&amp;Tabla5[[#Headers],[NOMBRE]]&amp;","&amp;Tabla5[[#Headers],[APELLIDO]]&amp;","&amp;Tabla5[[#Headers],[FECHA_NACIMIENTO ]]&amp;","&amp;Tabla5[[#Headers],[CLAVE ]]&amp;") VALUES("&amp;Tabla5[[#This Row],[ID_USUARIO ]]&amp;",'"&amp;Tabla5[[#This Row],[NOMBRE]]&amp;"','"&amp;Tabla5[[#This Row],[APELLIDO]]&amp;"','"&amp;TEXT(Tabla5[[#This Row],[FECHA_NACIMIENTO ]],"AAAA-MM-DD")&amp;"','"&amp;Tabla5[[#This Row],[CLAVE ]]&amp;"');"</f>
-        <v>INSERT USUARIO(ID_USUARIO ,NOMBRE,APELLIDO,FECHA_NACIMIENTO ,CLAVE ) VALUES(2,'Estefanía','Samper','1993-02-14','Jj/aL&amp;DgAL2');</v>
+        <v>INSERT USUARIO(ID_USUARIO ,NOMBRE,APELLIDO,FECHA_NACIMIENTO ,CLAVE ) VALUES(2,'Estefanía','Samper','1985-10-26','Jj/aL&amp;DgAL2');</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
@@ -8904,14 +8904,14 @@
       </c>
       <c r="D4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>34573</v>
+        <v>30082</v>
       </c>
       <c r="E4" t="s">
         <v>91</v>
       </c>
       <c r="F4" t="str">
         <f ca="1">"INSERT USUARIO("&amp;Tabla5[[#Headers],[ID_USUARIO ]]&amp;","&amp;Tabla5[[#Headers],[NOMBRE]]&amp;","&amp;Tabla5[[#Headers],[APELLIDO]]&amp;","&amp;Tabla5[[#Headers],[FECHA_NACIMIENTO ]]&amp;","&amp;Tabla5[[#Headers],[CLAVE ]]&amp;") VALUES("&amp;Tabla5[[#This Row],[ID_USUARIO ]]&amp;",'"&amp;Tabla5[[#This Row],[NOMBRE]]&amp;"','"&amp;Tabla5[[#This Row],[APELLIDO]]&amp;"','"&amp;TEXT(Tabla5[[#This Row],[FECHA_NACIMIENTO ]],"AAAA-MM-DD")&amp;"','"&amp;Tabla5[[#This Row],[CLAVE ]]&amp;"');"</f>
-        <v>INSERT USUARIO(ID_USUARIO ,NOMBRE,APELLIDO,FECHA_NACIMIENTO ,CLAVE ) VALUES(3,'Heriberto','Arteaga','1994-08-27','10YXÑtNr$BHvbd');</v>
+        <v>INSERT USUARIO(ID_USUARIO ,NOMBRE,APELLIDO,FECHA_NACIMIENTO ,CLAVE ) VALUES(3,'Heriberto','Arteaga','1982-05-11','10YXÑtNr$BHvbd');</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
@@ -8926,14 +8926,14 @@
       </c>
       <c r="D5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>30332</v>
+        <v>35692</v>
       </c>
       <c r="E5" t="s">
         <v>92</v>
       </c>
       <c r="F5" t="str">
         <f ca="1">"INSERT USUARIO("&amp;Tabla5[[#Headers],[ID_USUARIO ]]&amp;","&amp;Tabla5[[#Headers],[NOMBRE]]&amp;","&amp;Tabla5[[#Headers],[APELLIDO]]&amp;","&amp;Tabla5[[#Headers],[FECHA_NACIMIENTO ]]&amp;","&amp;Tabla5[[#Headers],[CLAVE ]]&amp;") VALUES("&amp;Tabla5[[#This Row],[ID_USUARIO ]]&amp;",'"&amp;Tabla5[[#This Row],[NOMBRE]]&amp;"','"&amp;Tabla5[[#This Row],[APELLIDO]]&amp;"','"&amp;TEXT(Tabla5[[#This Row],[FECHA_NACIMIENTO ]],"AAAA-MM-DD")&amp;"','"&amp;Tabla5[[#This Row],[CLAVE ]]&amp;"');"</f>
-        <v>INSERT USUARIO(ID_USUARIO ,NOMBRE,APELLIDO,FECHA_NACIMIENTO ,CLAVE ) VALUES(4,'Carolina Andrea','Bertrán Suárez','1983-01-16','dgdfgdfgbbrtsg');</v>
+        <v>INSERT USUARIO(ID_USUARIO ,NOMBRE,APELLIDO,FECHA_NACIMIENTO ,CLAVE ) VALUES(4,'Carolina Andrea','Bertrán Suárez','1997-09-19','dgdfgdfgbbrtsg');</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
@@ -8948,14 +8948,14 @@
       </c>
       <c r="D6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>34225</v>
+        <v>34463</v>
       </c>
       <c r="E6" t="s">
         <v>93</v>
       </c>
       <c r="F6" t="str">
         <f ca="1">"INSERT USUARIO("&amp;Tabla5[[#Headers],[ID_USUARIO ]]&amp;","&amp;Tabla5[[#Headers],[NOMBRE]]&amp;","&amp;Tabla5[[#Headers],[APELLIDO]]&amp;","&amp;Tabla5[[#Headers],[FECHA_NACIMIENTO ]]&amp;","&amp;Tabla5[[#Headers],[CLAVE ]]&amp;") VALUES("&amp;Tabla5[[#This Row],[ID_USUARIO ]]&amp;",'"&amp;Tabla5[[#This Row],[NOMBRE]]&amp;"','"&amp;Tabla5[[#This Row],[APELLIDO]]&amp;"','"&amp;TEXT(Tabla5[[#This Row],[FECHA_NACIMIENTO ]],"AAAA-MM-DD")&amp;"','"&amp;Tabla5[[#This Row],[CLAVE ]]&amp;"');"</f>
-        <v>INSERT USUARIO(ID_USUARIO ,NOMBRE,APELLIDO,FECHA_NACIMIENTO ,CLAVE ) VALUES(5,'Miguela','Aroca Guijarro','1993-09-13','tshth56h4fdgs6');</v>
+        <v>INSERT USUARIO(ID_USUARIO ,NOMBRE,APELLIDO,FECHA_NACIMIENTO ,CLAVE ) VALUES(5,'Miguela','Aroca Guijarro','1994-05-09','tshth56h4fdgs6');</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
@@ -8970,14 +8970,14 @@
       </c>
       <c r="D7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>36858</v>
+        <v>35632</v>
       </c>
       <c r="E7" t="s">
         <v>94</v>
       </c>
       <c r="F7" t="str">
         <f ca="1">"INSERT USUARIO("&amp;Tabla5[[#Headers],[ID_USUARIO ]]&amp;","&amp;Tabla5[[#Headers],[NOMBRE]]&amp;","&amp;Tabla5[[#Headers],[APELLIDO]]&amp;","&amp;Tabla5[[#Headers],[FECHA_NACIMIENTO ]]&amp;","&amp;Tabla5[[#Headers],[CLAVE ]]&amp;") VALUES("&amp;Tabla5[[#This Row],[ID_USUARIO ]]&amp;",'"&amp;Tabla5[[#This Row],[NOMBRE]]&amp;"','"&amp;Tabla5[[#This Row],[APELLIDO]]&amp;"','"&amp;TEXT(Tabla5[[#This Row],[FECHA_NACIMIENTO ]],"AAAA-MM-DD")&amp;"','"&amp;Tabla5[[#This Row],[CLAVE ]]&amp;"');"</f>
-        <v>INSERT USUARIO(ID_USUARIO ,NOMBRE,APELLIDO,FECHA_NACIMIENTO ,CLAVE ) VALUES(6,'Félix','Cadenas','2000-11-28','h4g1fxh5re4156d');</v>
+        <v>INSERT USUARIO(ID_USUARIO ,NOMBRE,APELLIDO,FECHA_NACIMIENTO ,CLAVE ) VALUES(6,'Félix','Cadenas','1997-07-21','h4g1fxh5re4156d');</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
@@ -8992,14 +8992,14 @@
       </c>
       <c r="D8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>33607</v>
+        <v>32706</v>
       </c>
       <c r="E8" t="s">
         <v>95</v>
       </c>
       <c r="F8" t="str">
         <f ca="1">"INSERT USUARIO("&amp;Tabla5[[#Headers],[ID_USUARIO ]]&amp;","&amp;Tabla5[[#Headers],[NOMBRE]]&amp;","&amp;Tabla5[[#Headers],[APELLIDO]]&amp;","&amp;Tabla5[[#Headers],[FECHA_NACIMIENTO ]]&amp;","&amp;Tabla5[[#Headers],[CLAVE ]]&amp;") VALUES("&amp;Tabla5[[#This Row],[ID_USUARIO ]]&amp;",'"&amp;Tabla5[[#This Row],[NOMBRE]]&amp;"','"&amp;Tabla5[[#This Row],[APELLIDO]]&amp;"','"&amp;TEXT(Tabla5[[#This Row],[FECHA_NACIMIENTO ]],"AAAA-MM-DD")&amp;"','"&amp;Tabla5[[#This Row],[CLAVE ]]&amp;"');"</f>
-        <v>INSERT USUARIO(ID_USUARIO ,NOMBRE,APELLIDO,FECHA_NACIMIENTO ,CLAVE ) VALUES(7,'Amor','Carretero Plaza','1992-01-04','45tresh41b');</v>
+        <v>INSERT USUARIO(ID_USUARIO ,NOMBRE,APELLIDO,FECHA_NACIMIENTO ,CLAVE ) VALUES(7,'Amor','Carretero Plaza','1989-07-17','45tresh41b');</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
@@ -9014,14 +9014,14 @@
       </c>
       <c r="D9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>32721</v>
+        <v>34384</v>
       </c>
       <c r="E9" t="s">
         <v>96</v>
       </c>
       <c r="F9" t="str">
         <f ca="1">"INSERT USUARIO("&amp;Tabla5[[#Headers],[ID_USUARIO ]]&amp;","&amp;Tabla5[[#Headers],[NOMBRE]]&amp;","&amp;Tabla5[[#Headers],[APELLIDO]]&amp;","&amp;Tabla5[[#Headers],[FECHA_NACIMIENTO ]]&amp;","&amp;Tabla5[[#Headers],[CLAVE ]]&amp;") VALUES("&amp;Tabla5[[#This Row],[ID_USUARIO ]]&amp;",'"&amp;Tabla5[[#This Row],[NOMBRE]]&amp;"','"&amp;Tabla5[[#This Row],[APELLIDO]]&amp;"','"&amp;TEXT(Tabla5[[#This Row],[FECHA_NACIMIENTO ]],"AAAA-MM-DD")&amp;"','"&amp;Tabla5[[#This Row],[CLAVE ]]&amp;"');"</f>
-        <v>INSERT USUARIO(ID_USUARIO ,NOMBRE,APELLIDO,FECHA_NACIMIENTO ,CLAVE ) VALUES(8,'Etelvina','Crespo Gimenez','1989-08-01','6d451hgsre');</v>
+        <v>INSERT USUARIO(ID_USUARIO ,NOMBRE,APELLIDO,FECHA_NACIMIENTO ,CLAVE ) VALUES(8,'Etelvina','Crespo Gimenez','1994-02-19','6d451hgsre');</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
@@ -9036,14 +9036,14 @@
       </c>
       <c r="D10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>31869</v>
+        <v>34688</v>
       </c>
       <c r="E10" t="s">
         <v>97</v>
       </c>
       <c r="F10" t="str">
         <f ca="1">"INSERT USUARIO("&amp;Tabla5[[#Headers],[ID_USUARIO ]]&amp;","&amp;Tabla5[[#Headers],[NOMBRE]]&amp;","&amp;Tabla5[[#Headers],[APELLIDO]]&amp;","&amp;Tabla5[[#Headers],[FECHA_NACIMIENTO ]]&amp;","&amp;Tabla5[[#Headers],[CLAVE ]]&amp;") VALUES("&amp;Tabla5[[#This Row],[ID_USUARIO ]]&amp;",'"&amp;Tabla5[[#This Row],[NOMBRE]]&amp;"','"&amp;Tabla5[[#This Row],[APELLIDO]]&amp;"','"&amp;TEXT(Tabla5[[#This Row],[FECHA_NACIMIENTO ]],"AAAA-MM-DD")&amp;"','"&amp;Tabla5[[#This Row],[CLAVE ]]&amp;"');"</f>
-        <v>INSERT USUARIO(ID_USUARIO ,NOMBRE,APELLIDO,FECHA_NACIMIENTO ,CLAVE ) VALUES(9,'Piedad','Benítez','1987-04-02','h4zh5g');</v>
+        <v>INSERT USUARIO(ID_USUARIO ,NOMBRE,APELLIDO,FECHA_NACIMIENTO ,CLAVE ) VALUES(9,'Piedad','Benítez','1994-12-20','h4zh5g');</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
@@ -9058,14 +9058,14 @@
       </c>
       <c r="D11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>35819</v>
+        <v>35476</v>
       </c>
       <c r="E11" t="s">
         <v>98</v>
       </c>
       <c r="F11" t="str">
         <f ca="1">"INSERT USUARIO("&amp;Tabla5[[#Headers],[ID_USUARIO ]]&amp;","&amp;Tabla5[[#Headers],[NOMBRE]]&amp;","&amp;Tabla5[[#Headers],[APELLIDO]]&amp;","&amp;Tabla5[[#Headers],[FECHA_NACIMIENTO ]]&amp;","&amp;Tabla5[[#Headers],[CLAVE ]]&amp;") VALUES("&amp;Tabla5[[#This Row],[ID_USUARIO ]]&amp;",'"&amp;Tabla5[[#This Row],[NOMBRE]]&amp;"','"&amp;Tabla5[[#This Row],[APELLIDO]]&amp;"','"&amp;TEXT(Tabla5[[#This Row],[FECHA_NACIMIENTO ]],"AAAA-MM-DD")&amp;"','"&amp;Tabla5[[#This Row],[CLAVE ]]&amp;"');"</f>
-        <v>INSERT USUARIO(ID_USUARIO ,NOMBRE,APELLIDO,FECHA_NACIMIENTO ,CLAVE ) VALUES(10,'Joel','Mesa Manso','1998-01-24','df41gd');</v>
+        <v>INSERT USUARIO(ID_USUARIO ,NOMBRE,APELLIDO,FECHA_NACIMIENTO ,CLAVE ) VALUES(10,'Joel','Mesa Manso','1997-02-15','df41gd');</v>
       </c>
     </row>
   </sheetData>
@@ -9112,15 +9112,15 @@
       </c>
       <c r="B2">
         <f t="shared" ref="B2:B33" ca="1" si="0">RANDBETWEEN(100,1000)</f>
-        <v>381</v>
+        <v>476</v>
       </c>
       <c r="C2">
         <f t="shared" ref="C2:C33" ca="1" si="1">RANDBETWEEN(1,10)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D2" t="str">
         <f ca="1">"INSERT DESCARGA("&amp;Tabla7[[#Headers],[ID_DESCARGA]]&amp;","&amp;Tabla7[[#Headers],[VELOCIDAD_TRANSFERENCIA]]&amp;","&amp;Tabla7[[#Headers],[ID_USUARIO]]&amp;") VALUES("&amp;Tabla7[[#This Row],[ID_DESCARGA]]&amp;","&amp;Tabla7[[#This Row],[VELOCIDAD_TRANSFERENCIA]]&amp;","&amp;Tabla7[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT DESCARGA(ID_DESCARGA,VELOCIDAD_TRANSFERENCIA,ID_USUARIO) VALUES(1,381,4);</v>
+        <v>INSERT DESCARGA(ID_DESCARGA,VELOCIDAD_TRANSFERENCIA,ID_USUARIO) VALUES(1,476,1);</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -9129,7 +9129,7 @@
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>659</v>
+        <v>961</v>
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="1"/>
@@ -9137,7 +9137,7 @@
       </c>
       <c r="D3" t="str">
         <f ca="1">"INSERT DESCARGA("&amp;Tabla7[[#Headers],[ID_DESCARGA]]&amp;","&amp;Tabla7[[#Headers],[VELOCIDAD_TRANSFERENCIA]]&amp;","&amp;Tabla7[[#Headers],[ID_USUARIO]]&amp;") VALUES("&amp;Tabla7[[#This Row],[ID_DESCARGA]]&amp;","&amp;Tabla7[[#This Row],[VELOCIDAD_TRANSFERENCIA]]&amp;","&amp;Tabla7[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT DESCARGA(ID_DESCARGA,VELOCIDAD_TRANSFERENCIA,ID_USUARIO) VALUES(2,659,1);</v>
+        <v>INSERT DESCARGA(ID_DESCARGA,VELOCIDAD_TRANSFERENCIA,ID_USUARIO) VALUES(2,961,1);</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -9146,15 +9146,15 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>215</v>
+        <v>745</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D4" t="str">
         <f ca="1">"INSERT DESCARGA("&amp;Tabla7[[#Headers],[ID_DESCARGA]]&amp;","&amp;Tabla7[[#Headers],[VELOCIDAD_TRANSFERENCIA]]&amp;","&amp;Tabla7[[#Headers],[ID_USUARIO]]&amp;") VALUES("&amp;Tabla7[[#This Row],[ID_DESCARGA]]&amp;","&amp;Tabla7[[#This Row],[VELOCIDAD_TRANSFERENCIA]]&amp;","&amp;Tabla7[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT DESCARGA(ID_DESCARGA,VELOCIDAD_TRANSFERENCIA,ID_USUARIO) VALUES(3,215,2);</v>
+        <v>INSERT DESCARGA(ID_DESCARGA,VELOCIDAD_TRANSFERENCIA,ID_USUARIO) VALUES(3,745,9);</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -9163,15 +9163,15 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>972</v>
+        <v>819</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D5" t="str">
         <f ca="1">"INSERT DESCARGA("&amp;Tabla7[[#Headers],[ID_DESCARGA]]&amp;","&amp;Tabla7[[#Headers],[VELOCIDAD_TRANSFERENCIA]]&amp;","&amp;Tabla7[[#Headers],[ID_USUARIO]]&amp;") VALUES("&amp;Tabla7[[#This Row],[ID_DESCARGA]]&amp;","&amp;Tabla7[[#This Row],[VELOCIDAD_TRANSFERENCIA]]&amp;","&amp;Tabla7[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT DESCARGA(ID_DESCARGA,VELOCIDAD_TRANSFERENCIA,ID_USUARIO) VALUES(4,972,1);</v>
+        <v>INSERT DESCARGA(ID_DESCARGA,VELOCIDAD_TRANSFERENCIA,ID_USUARIO) VALUES(4,819,9);</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -9180,15 +9180,15 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>853</v>
+        <v>413</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D6" t="str">
         <f ca="1">"INSERT DESCARGA("&amp;Tabla7[[#Headers],[ID_DESCARGA]]&amp;","&amp;Tabla7[[#Headers],[VELOCIDAD_TRANSFERENCIA]]&amp;","&amp;Tabla7[[#Headers],[ID_USUARIO]]&amp;") VALUES("&amp;Tabla7[[#This Row],[ID_DESCARGA]]&amp;","&amp;Tabla7[[#This Row],[VELOCIDAD_TRANSFERENCIA]]&amp;","&amp;Tabla7[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT DESCARGA(ID_DESCARGA,VELOCIDAD_TRANSFERENCIA,ID_USUARIO) VALUES(5,853,2);</v>
+        <v>INSERT DESCARGA(ID_DESCARGA,VELOCIDAD_TRANSFERENCIA,ID_USUARIO) VALUES(5,413,10);</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -9197,15 +9197,15 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>994</v>
+        <v>745</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" t="str">
         <f ca="1">"INSERT DESCARGA("&amp;Tabla7[[#Headers],[ID_DESCARGA]]&amp;","&amp;Tabla7[[#Headers],[VELOCIDAD_TRANSFERENCIA]]&amp;","&amp;Tabla7[[#Headers],[ID_USUARIO]]&amp;") VALUES("&amp;Tabla7[[#This Row],[ID_DESCARGA]]&amp;","&amp;Tabla7[[#This Row],[VELOCIDAD_TRANSFERENCIA]]&amp;","&amp;Tabla7[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT DESCARGA(ID_DESCARGA,VELOCIDAD_TRANSFERENCIA,ID_USUARIO) VALUES(6,994,1);</v>
+        <v>INSERT DESCARGA(ID_DESCARGA,VELOCIDAD_TRANSFERENCIA,ID_USUARIO) VALUES(6,745,2);</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -9214,15 +9214,15 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>683</v>
+        <v>270</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D8" t="str">
         <f ca="1">"INSERT DESCARGA("&amp;Tabla7[[#Headers],[ID_DESCARGA]]&amp;","&amp;Tabla7[[#Headers],[VELOCIDAD_TRANSFERENCIA]]&amp;","&amp;Tabla7[[#Headers],[ID_USUARIO]]&amp;") VALUES("&amp;Tabla7[[#This Row],[ID_DESCARGA]]&amp;","&amp;Tabla7[[#This Row],[VELOCIDAD_TRANSFERENCIA]]&amp;","&amp;Tabla7[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT DESCARGA(ID_DESCARGA,VELOCIDAD_TRANSFERENCIA,ID_USUARIO) VALUES(7,683,1);</v>
+        <v>INSERT DESCARGA(ID_DESCARGA,VELOCIDAD_TRANSFERENCIA,ID_USUARIO) VALUES(7,270,9);</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -9231,15 +9231,15 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>294</v>
+        <v>226</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D9" t="str">
         <f ca="1">"INSERT DESCARGA("&amp;Tabla7[[#Headers],[ID_DESCARGA]]&amp;","&amp;Tabla7[[#Headers],[VELOCIDAD_TRANSFERENCIA]]&amp;","&amp;Tabla7[[#Headers],[ID_USUARIO]]&amp;") VALUES("&amp;Tabla7[[#This Row],[ID_DESCARGA]]&amp;","&amp;Tabla7[[#This Row],[VELOCIDAD_TRANSFERENCIA]]&amp;","&amp;Tabla7[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT DESCARGA(ID_DESCARGA,VELOCIDAD_TRANSFERENCIA,ID_USUARIO) VALUES(8,294,9);</v>
+        <v>INSERT DESCARGA(ID_DESCARGA,VELOCIDAD_TRANSFERENCIA,ID_USUARIO) VALUES(8,226,7);</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -9248,15 +9248,15 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>134</v>
+        <v>697</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D10" t="str">
         <f ca="1">"INSERT DESCARGA("&amp;Tabla7[[#Headers],[ID_DESCARGA]]&amp;","&amp;Tabla7[[#Headers],[VELOCIDAD_TRANSFERENCIA]]&amp;","&amp;Tabla7[[#Headers],[ID_USUARIO]]&amp;") VALUES("&amp;Tabla7[[#This Row],[ID_DESCARGA]]&amp;","&amp;Tabla7[[#This Row],[VELOCIDAD_TRANSFERENCIA]]&amp;","&amp;Tabla7[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT DESCARGA(ID_DESCARGA,VELOCIDAD_TRANSFERENCIA,ID_USUARIO) VALUES(9,134,3);</v>
+        <v>INSERT DESCARGA(ID_DESCARGA,VELOCIDAD_TRANSFERENCIA,ID_USUARIO) VALUES(9,697,7);</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -9265,15 +9265,15 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>554</v>
+        <v>642</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D11" t="str">
         <f ca="1">"INSERT DESCARGA("&amp;Tabla7[[#Headers],[ID_DESCARGA]]&amp;","&amp;Tabla7[[#Headers],[VELOCIDAD_TRANSFERENCIA]]&amp;","&amp;Tabla7[[#Headers],[ID_USUARIO]]&amp;") VALUES("&amp;Tabla7[[#This Row],[ID_DESCARGA]]&amp;","&amp;Tabla7[[#This Row],[VELOCIDAD_TRANSFERENCIA]]&amp;","&amp;Tabla7[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT DESCARGA(ID_DESCARGA,VELOCIDAD_TRANSFERENCIA,ID_USUARIO) VALUES(10,554,1);</v>
+        <v>INSERT DESCARGA(ID_DESCARGA,VELOCIDAD_TRANSFERENCIA,ID_USUARIO) VALUES(10,642,7);</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -9282,15 +9282,15 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>110</v>
+        <v>848</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D12" t="str">
         <f ca="1">"INSERT DESCARGA("&amp;Tabla7[[#Headers],[ID_DESCARGA]]&amp;","&amp;Tabla7[[#Headers],[VELOCIDAD_TRANSFERENCIA]]&amp;","&amp;Tabla7[[#Headers],[ID_USUARIO]]&amp;") VALUES("&amp;Tabla7[[#This Row],[ID_DESCARGA]]&amp;","&amp;Tabla7[[#This Row],[VELOCIDAD_TRANSFERENCIA]]&amp;","&amp;Tabla7[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT DESCARGA(ID_DESCARGA,VELOCIDAD_TRANSFERENCIA,ID_USUARIO) VALUES(11,110,10);</v>
+        <v>INSERT DESCARGA(ID_DESCARGA,VELOCIDAD_TRANSFERENCIA,ID_USUARIO) VALUES(11,848,2);</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -9299,15 +9299,15 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>482</v>
+        <v>998</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D13" t="str">
         <f ca="1">"INSERT DESCARGA("&amp;Tabla7[[#Headers],[ID_DESCARGA]]&amp;","&amp;Tabla7[[#Headers],[VELOCIDAD_TRANSFERENCIA]]&amp;","&amp;Tabla7[[#Headers],[ID_USUARIO]]&amp;") VALUES("&amp;Tabla7[[#This Row],[ID_DESCARGA]]&amp;","&amp;Tabla7[[#This Row],[VELOCIDAD_TRANSFERENCIA]]&amp;","&amp;Tabla7[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT DESCARGA(ID_DESCARGA,VELOCIDAD_TRANSFERENCIA,ID_USUARIO) VALUES(12,482,3);</v>
+        <v>INSERT DESCARGA(ID_DESCARGA,VELOCIDAD_TRANSFERENCIA,ID_USUARIO) VALUES(12,998,7);</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -9316,15 +9316,15 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>529</v>
+        <v>950</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D14" t="str">
         <f ca="1">"INSERT DESCARGA("&amp;Tabla7[[#Headers],[ID_DESCARGA]]&amp;","&amp;Tabla7[[#Headers],[VELOCIDAD_TRANSFERENCIA]]&amp;","&amp;Tabla7[[#Headers],[ID_USUARIO]]&amp;") VALUES("&amp;Tabla7[[#This Row],[ID_DESCARGA]]&amp;","&amp;Tabla7[[#This Row],[VELOCIDAD_TRANSFERENCIA]]&amp;","&amp;Tabla7[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT DESCARGA(ID_DESCARGA,VELOCIDAD_TRANSFERENCIA,ID_USUARIO) VALUES(13,529,9);</v>
+        <v>INSERT DESCARGA(ID_DESCARGA,VELOCIDAD_TRANSFERENCIA,ID_USUARIO) VALUES(13,950,2);</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -9333,15 +9333,15 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>900</v>
+        <v>304</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D15" t="str">
         <f ca="1">"INSERT DESCARGA("&amp;Tabla7[[#Headers],[ID_DESCARGA]]&amp;","&amp;Tabla7[[#Headers],[VELOCIDAD_TRANSFERENCIA]]&amp;","&amp;Tabla7[[#Headers],[ID_USUARIO]]&amp;") VALUES("&amp;Tabla7[[#This Row],[ID_DESCARGA]]&amp;","&amp;Tabla7[[#This Row],[VELOCIDAD_TRANSFERENCIA]]&amp;","&amp;Tabla7[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT DESCARGA(ID_DESCARGA,VELOCIDAD_TRANSFERENCIA,ID_USUARIO) VALUES(14,900,2);</v>
+        <v>INSERT DESCARGA(ID_DESCARGA,VELOCIDAD_TRANSFERENCIA,ID_USUARIO) VALUES(14,304,6);</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -9350,7 +9350,7 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>365</v>
+        <v>616</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="1"/>
@@ -9358,7 +9358,7 @@
       </c>
       <c r="D16" t="str">
         <f ca="1">"INSERT DESCARGA("&amp;Tabla7[[#Headers],[ID_DESCARGA]]&amp;","&amp;Tabla7[[#Headers],[VELOCIDAD_TRANSFERENCIA]]&amp;","&amp;Tabla7[[#Headers],[ID_USUARIO]]&amp;") VALUES("&amp;Tabla7[[#This Row],[ID_DESCARGA]]&amp;","&amp;Tabla7[[#This Row],[VELOCIDAD_TRANSFERENCIA]]&amp;","&amp;Tabla7[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT DESCARGA(ID_DESCARGA,VELOCIDAD_TRANSFERENCIA,ID_USUARIO) VALUES(15,365,7);</v>
+        <v>INSERT DESCARGA(ID_DESCARGA,VELOCIDAD_TRANSFERENCIA,ID_USUARIO) VALUES(15,616,7);</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -9367,15 +9367,15 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>650</v>
+        <v>278</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D17" t="str">
         <f ca="1">"INSERT DESCARGA("&amp;Tabla7[[#Headers],[ID_DESCARGA]]&amp;","&amp;Tabla7[[#Headers],[VELOCIDAD_TRANSFERENCIA]]&amp;","&amp;Tabla7[[#Headers],[ID_USUARIO]]&amp;") VALUES("&amp;Tabla7[[#This Row],[ID_DESCARGA]]&amp;","&amp;Tabla7[[#This Row],[VELOCIDAD_TRANSFERENCIA]]&amp;","&amp;Tabla7[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT DESCARGA(ID_DESCARGA,VELOCIDAD_TRANSFERENCIA,ID_USUARIO) VALUES(16,650,8);</v>
+        <v>INSERT DESCARGA(ID_DESCARGA,VELOCIDAD_TRANSFERENCIA,ID_USUARIO) VALUES(16,278,6);</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -9384,15 +9384,15 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>783</v>
+        <v>955</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D18" t="str">
         <f ca="1">"INSERT DESCARGA("&amp;Tabla7[[#Headers],[ID_DESCARGA]]&amp;","&amp;Tabla7[[#Headers],[VELOCIDAD_TRANSFERENCIA]]&amp;","&amp;Tabla7[[#Headers],[ID_USUARIO]]&amp;") VALUES("&amp;Tabla7[[#This Row],[ID_DESCARGA]]&amp;","&amp;Tabla7[[#This Row],[VELOCIDAD_TRANSFERENCIA]]&amp;","&amp;Tabla7[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT DESCARGA(ID_DESCARGA,VELOCIDAD_TRANSFERENCIA,ID_USUARIO) VALUES(17,783,6);</v>
+        <v>INSERT DESCARGA(ID_DESCARGA,VELOCIDAD_TRANSFERENCIA,ID_USUARIO) VALUES(17,955,4);</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -9401,15 +9401,15 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>978</v>
+        <v>168</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D19" t="str">
         <f ca="1">"INSERT DESCARGA("&amp;Tabla7[[#Headers],[ID_DESCARGA]]&amp;","&amp;Tabla7[[#Headers],[VELOCIDAD_TRANSFERENCIA]]&amp;","&amp;Tabla7[[#Headers],[ID_USUARIO]]&amp;") VALUES("&amp;Tabla7[[#This Row],[ID_DESCARGA]]&amp;","&amp;Tabla7[[#This Row],[VELOCIDAD_TRANSFERENCIA]]&amp;","&amp;Tabla7[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT DESCARGA(ID_DESCARGA,VELOCIDAD_TRANSFERENCIA,ID_USUARIO) VALUES(18,978,10);</v>
+        <v>INSERT DESCARGA(ID_DESCARGA,VELOCIDAD_TRANSFERENCIA,ID_USUARIO) VALUES(18,168,1);</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -9418,15 +9418,15 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>473</v>
+        <v>243</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D20" t="str">
         <f ca="1">"INSERT DESCARGA("&amp;Tabla7[[#Headers],[ID_DESCARGA]]&amp;","&amp;Tabla7[[#Headers],[VELOCIDAD_TRANSFERENCIA]]&amp;","&amp;Tabla7[[#Headers],[ID_USUARIO]]&amp;") VALUES("&amp;Tabla7[[#This Row],[ID_DESCARGA]]&amp;","&amp;Tabla7[[#This Row],[VELOCIDAD_TRANSFERENCIA]]&amp;","&amp;Tabla7[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT DESCARGA(ID_DESCARGA,VELOCIDAD_TRANSFERENCIA,ID_USUARIO) VALUES(19,473,9);</v>
+        <v>INSERT DESCARGA(ID_DESCARGA,VELOCIDAD_TRANSFERENCIA,ID_USUARIO) VALUES(19,243,2);</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -9435,15 +9435,15 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>621</v>
+        <v>631</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D21" t="str">
         <f ca="1">"INSERT DESCARGA("&amp;Tabla7[[#Headers],[ID_DESCARGA]]&amp;","&amp;Tabla7[[#Headers],[VELOCIDAD_TRANSFERENCIA]]&amp;","&amp;Tabla7[[#Headers],[ID_USUARIO]]&amp;") VALUES("&amp;Tabla7[[#This Row],[ID_DESCARGA]]&amp;","&amp;Tabla7[[#This Row],[VELOCIDAD_TRANSFERENCIA]]&amp;","&amp;Tabla7[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT DESCARGA(ID_DESCARGA,VELOCIDAD_TRANSFERENCIA,ID_USUARIO) VALUES(20,621,5);</v>
+        <v>INSERT DESCARGA(ID_DESCARGA,VELOCIDAD_TRANSFERENCIA,ID_USUARIO) VALUES(20,631,7);</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -9452,15 +9452,15 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>161</v>
+        <v>119</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D22" t="str">
         <f ca="1">"INSERT DESCARGA("&amp;Tabla7[[#Headers],[ID_DESCARGA]]&amp;","&amp;Tabla7[[#Headers],[VELOCIDAD_TRANSFERENCIA]]&amp;","&amp;Tabla7[[#Headers],[ID_USUARIO]]&amp;") VALUES("&amp;Tabla7[[#This Row],[ID_DESCARGA]]&amp;","&amp;Tabla7[[#This Row],[VELOCIDAD_TRANSFERENCIA]]&amp;","&amp;Tabla7[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT DESCARGA(ID_DESCARGA,VELOCIDAD_TRANSFERENCIA,ID_USUARIO) VALUES(21,161,10);</v>
+        <v>INSERT DESCARGA(ID_DESCARGA,VELOCIDAD_TRANSFERENCIA,ID_USUARIO) VALUES(21,119,1);</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -9469,15 +9469,15 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>388</v>
+        <v>946</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D23" t="str">
         <f ca="1">"INSERT DESCARGA("&amp;Tabla7[[#Headers],[ID_DESCARGA]]&amp;","&amp;Tabla7[[#Headers],[VELOCIDAD_TRANSFERENCIA]]&amp;","&amp;Tabla7[[#Headers],[ID_USUARIO]]&amp;") VALUES("&amp;Tabla7[[#This Row],[ID_DESCARGA]]&amp;","&amp;Tabla7[[#This Row],[VELOCIDAD_TRANSFERENCIA]]&amp;","&amp;Tabla7[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT DESCARGA(ID_DESCARGA,VELOCIDAD_TRANSFERENCIA,ID_USUARIO) VALUES(22,388,7);</v>
+        <v>INSERT DESCARGA(ID_DESCARGA,VELOCIDAD_TRANSFERENCIA,ID_USUARIO) VALUES(22,946,3);</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -9486,15 +9486,15 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>506</v>
+        <v>242</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D24" t="str">
         <f ca="1">"INSERT DESCARGA("&amp;Tabla7[[#Headers],[ID_DESCARGA]]&amp;","&amp;Tabla7[[#Headers],[VELOCIDAD_TRANSFERENCIA]]&amp;","&amp;Tabla7[[#Headers],[ID_USUARIO]]&amp;") VALUES("&amp;Tabla7[[#This Row],[ID_DESCARGA]]&amp;","&amp;Tabla7[[#This Row],[VELOCIDAD_TRANSFERENCIA]]&amp;","&amp;Tabla7[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT DESCARGA(ID_DESCARGA,VELOCIDAD_TRANSFERENCIA,ID_USUARIO) VALUES(23,506,4);</v>
+        <v>INSERT DESCARGA(ID_DESCARGA,VELOCIDAD_TRANSFERENCIA,ID_USUARIO) VALUES(23,242,9);</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -9503,15 +9503,15 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>313</v>
+        <v>762</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D25" t="str">
         <f ca="1">"INSERT DESCARGA("&amp;Tabla7[[#Headers],[ID_DESCARGA]]&amp;","&amp;Tabla7[[#Headers],[VELOCIDAD_TRANSFERENCIA]]&amp;","&amp;Tabla7[[#Headers],[ID_USUARIO]]&amp;") VALUES("&amp;Tabla7[[#This Row],[ID_DESCARGA]]&amp;","&amp;Tabla7[[#This Row],[VELOCIDAD_TRANSFERENCIA]]&amp;","&amp;Tabla7[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT DESCARGA(ID_DESCARGA,VELOCIDAD_TRANSFERENCIA,ID_USUARIO) VALUES(24,313,10);</v>
+        <v>INSERT DESCARGA(ID_DESCARGA,VELOCIDAD_TRANSFERENCIA,ID_USUARIO) VALUES(24,762,7);</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -9520,15 +9520,15 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>425</v>
+        <v>725</v>
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D26" t="str">
         <f ca="1">"INSERT DESCARGA("&amp;Tabla7[[#Headers],[ID_DESCARGA]]&amp;","&amp;Tabla7[[#Headers],[VELOCIDAD_TRANSFERENCIA]]&amp;","&amp;Tabla7[[#Headers],[ID_USUARIO]]&amp;") VALUES("&amp;Tabla7[[#This Row],[ID_DESCARGA]]&amp;","&amp;Tabla7[[#This Row],[VELOCIDAD_TRANSFERENCIA]]&amp;","&amp;Tabla7[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT DESCARGA(ID_DESCARGA,VELOCIDAD_TRANSFERENCIA,ID_USUARIO) VALUES(25,425,5);</v>
+        <v>INSERT DESCARGA(ID_DESCARGA,VELOCIDAD_TRANSFERENCIA,ID_USUARIO) VALUES(25,725,6);</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -9537,15 +9537,15 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="0"/>
-        <v>896</v>
+        <v>269</v>
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27" t="str">
         <f ca="1">"INSERT DESCARGA("&amp;Tabla7[[#Headers],[ID_DESCARGA]]&amp;","&amp;Tabla7[[#Headers],[VELOCIDAD_TRANSFERENCIA]]&amp;","&amp;Tabla7[[#Headers],[ID_USUARIO]]&amp;") VALUES("&amp;Tabla7[[#This Row],[ID_DESCARGA]]&amp;","&amp;Tabla7[[#This Row],[VELOCIDAD_TRANSFERENCIA]]&amp;","&amp;Tabla7[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT DESCARGA(ID_DESCARGA,VELOCIDAD_TRANSFERENCIA,ID_USUARIO) VALUES(26,896,4);</v>
+        <v>INSERT DESCARGA(ID_DESCARGA,VELOCIDAD_TRANSFERENCIA,ID_USUARIO) VALUES(26,269,5);</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -9554,15 +9554,15 @@
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="0"/>
-        <v>822</v>
+        <v>884</v>
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D28" t="str">
         <f ca="1">"INSERT DESCARGA("&amp;Tabla7[[#Headers],[ID_DESCARGA]]&amp;","&amp;Tabla7[[#Headers],[VELOCIDAD_TRANSFERENCIA]]&amp;","&amp;Tabla7[[#Headers],[ID_USUARIO]]&amp;") VALUES("&amp;Tabla7[[#This Row],[ID_DESCARGA]]&amp;","&amp;Tabla7[[#This Row],[VELOCIDAD_TRANSFERENCIA]]&amp;","&amp;Tabla7[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT DESCARGA(ID_DESCARGA,VELOCIDAD_TRANSFERENCIA,ID_USUARIO) VALUES(27,822,7);</v>
+        <v>INSERT DESCARGA(ID_DESCARGA,VELOCIDAD_TRANSFERENCIA,ID_USUARIO) VALUES(27,884,2);</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -9571,15 +9571,15 @@
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="0"/>
-        <v>748</v>
+        <v>782</v>
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D29" t="str">
         <f ca="1">"INSERT DESCARGA("&amp;Tabla7[[#Headers],[ID_DESCARGA]]&amp;","&amp;Tabla7[[#Headers],[VELOCIDAD_TRANSFERENCIA]]&amp;","&amp;Tabla7[[#Headers],[ID_USUARIO]]&amp;") VALUES("&amp;Tabla7[[#This Row],[ID_DESCARGA]]&amp;","&amp;Tabla7[[#This Row],[VELOCIDAD_TRANSFERENCIA]]&amp;","&amp;Tabla7[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT DESCARGA(ID_DESCARGA,VELOCIDAD_TRANSFERENCIA,ID_USUARIO) VALUES(28,748,6);</v>
+        <v>INSERT DESCARGA(ID_DESCARGA,VELOCIDAD_TRANSFERENCIA,ID_USUARIO) VALUES(28,782,2);</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -9588,15 +9588,15 @@
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="0"/>
-        <v>469</v>
+        <v>766</v>
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D30" t="str">
         <f ca="1">"INSERT DESCARGA("&amp;Tabla7[[#Headers],[ID_DESCARGA]]&amp;","&amp;Tabla7[[#Headers],[VELOCIDAD_TRANSFERENCIA]]&amp;","&amp;Tabla7[[#Headers],[ID_USUARIO]]&amp;") VALUES("&amp;Tabla7[[#This Row],[ID_DESCARGA]]&amp;","&amp;Tabla7[[#This Row],[VELOCIDAD_TRANSFERENCIA]]&amp;","&amp;Tabla7[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT DESCARGA(ID_DESCARGA,VELOCIDAD_TRANSFERENCIA,ID_USUARIO) VALUES(29,469,8);</v>
+        <v>INSERT DESCARGA(ID_DESCARGA,VELOCIDAD_TRANSFERENCIA,ID_USUARIO) VALUES(29,766,3);</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -9605,15 +9605,15 @@
       </c>
       <c r="B31">
         <f t="shared" ca="1" si="0"/>
-        <v>198</v>
+        <v>156</v>
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D31" t="str">
         <f ca="1">"INSERT DESCARGA("&amp;Tabla7[[#Headers],[ID_DESCARGA]]&amp;","&amp;Tabla7[[#Headers],[VELOCIDAD_TRANSFERENCIA]]&amp;","&amp;Tabla7[[#Headers],[ID_USUARIO]]&amp;") VALUES("&amp;Tabla7[[#This Row],[ID_DESCARGA]]&amp;","&amp;Tabla7[[#This Row],[VELOCIDAD_TRANSFERENCIA]]&amp;","&amp;Tabla7[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT DESCARGA(ID_DESCARGA,VELOCIDAD_TRANSFERENCIA,ID_USUARIO) VALUES(30,198,6);</v>
+        <v>INSERT DESCARGA(ID_DESCARGA,VELOCIDAD_TRANSFERENCIA,ID_USUARIO) VALUES(30,156,2);</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -9622,15 +9622,15 @@
       </c>
       <c r="B32">
         <f t="shared" ca="1" si="0"/>
-        <v>531</v>
+        <v>301</v>
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D32" t="str">
         <f ca="1">"INSERT DESCARGA("&amp;Tabla7[[#Headers],[ID_DESCARGA]]&amp;","&amp;Tabla7[[#Headers],[VELOCIDAD_TRANSFERENCIA]]&amp;","&amp;Tabla7[[#Headers],[ID_USUARIO]]&amp;") VALUES("&amp;Tabla7[[#This Row],[ID_DESCARGA]]&amp;","&amp;Tabla7[[#This Row],[VELOCIDAD_TRANSFERENCIA]]&amp;","&amp;Tabla7[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT DESCARGA(ID_DESCARGA,VELOCIDAD_TRANSFERENCIA,ID_USUARIO) VALUES(31,531,2);</v>
+        <v>INSERT DESCARGA(ID_DESCARGA,VELOCIDAD_TRANSFERENCIA,ID_USUARIO) VALUES(31,301,9);</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -9639,15 +9639,15 @@
       </c>
       <c r="B33">
         <f t="shared" ca="1" si="0"/>
-        <v>311</v>
+        <v>132</v>
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D33" t="str">
         <f ca="1">"INSERT DESCARGA("&amp;Tabla7[[#Headers],[ID_DESCARGA]]&amp;","&amp;Tabla7[[#Headers],[VELOCIDAD_TRANSFERENCIA]]&amp;","&amp;Tabla7[[#Headers],[ID_USUARIO]]&amp;") VALUES("&amp;Tabla7[[#This Row],[ID_DESCARGA]]&amp;","&amp;Tabla7[[#This Row],[VELOCIDAD_TRANSFERENCIA]]&amp;","&amp;Tabla7[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT DESCARGA(ID_DESCARGA,VELOCIDAD_TRANSFERENCIA,ID_USUARIO) VALUES(32,311,2);</v>
+        <v>INSERT DESCARGA(ID_DESCARGA,VELOCIDAD_TRANSFERENCIA,ID_USUARIO) VALUES(32,132,4);</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -9656,15 +9656,15 @@
       </c>
       <c r="B34">
         <f t="shared" ref="B34:B50" ca="1" si="2">RANDBETWEEN(100,1000)</f>
-        <v>558</v>
+        <v>808</v>
       </c>
       <c r="C34">
         <f t="shared" ref="C34:C50" ca="1" si="3">RANDBETWEEN(1,10)</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D34" t="str">
         <f ca="1">"INSERT DESCARGA("&amp;Tabla7[[#Headers],[ID_DESCARGA]]&amp;","&amp;Tabla7[[#Headers],[VELOCIDAD_TRANSFERENCIA]]&amp;","&amp;Tabla7[[#Headers],[ID_USUARIO]]&amp;") VALUES("&amp;Tabla7[[#This Row],[ID_DESCARGA]]&amp;","&amp;Tabla7[[#This Row],[VELOCIDAD_TRANSFERENCIA]]&amp;","&amp;Tabla7[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT DESCARGA(ID_DESCARGA,VELOCIDAD_TRANSFERENCIA,ID_USUARIO) VALUES(33,558,7);</v>
+        <v>INSERT DESCARGA(ID_DESCARGA,VELOCIDAD_TRANSFERENCIA,ID_USUARIO) VALUES(33,808,10);</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -9673,15 +9673,15 @@
       </c>
       <c r="B35">
         <f t="shared" ca="1" si="2"/>
-        <v>723</v>
+        <v>466</v>
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D35" t="str">
         <f ca="1">"INSERT DESCARGA("&amp;Tabla7[[#Headers],[ID_DESCARGA]]&amp;","&amp;Tabla7[[#Headers],[VELOCIDAD_TRANSFERENCIA]]&amp;","&amp;Tabla7[[#Headers],[ID_USUARIO]]&amp;") VALUES("&amp;Tabla7[[#This Row],[ID_DESCARGA]]&amp;","&amp;Tabla7[[#This Row],[VELOCIDAD_TRANSFERENCIA]]&amp;","&amp;Tabla7[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT DESCARGA(ID_DESCARGA,VELOCIDAD_TRANSFERENCIA,ID_USUARIO) VALUES(34,723,1);</v>
+        <v>INSERT DESCARGA(ID_DESCARGA,VELOCIDAD_TRANSFERENCIA,ID_USUARIO) VALUES(34,466,3);</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -9690,15 +9690,15 @@
       </c>
       <c r="B36">
         <f t="shared" ca="1" si="2"/>
-        <v>465</v>
+        <v>876</v>
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D36" t="str">
         <f ca="1">"INSERT DESCARGA("&amp;Tabla7[[#Headers],[ID_DESCARGA]]&amp;","&amp;Tabla7[[#Headers],[VELOCIDAD_TRANSFERENCIA]]&amp;","&amp;Tabla7[[#Headers],[ID_USUARIO]]&amp;") VALUES("&amp;Tabla7[[#This Row],[ID_DESCARGA]]&amp;","&amp;Tabla7[[#This Row],[VELOCIDAD_TRANSFERENCIA]]&amp;","&amp;Tabla7[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT DESCARGA(ID_DESCARGA,VELOCIDAD_TRANSFERENCIA,ID_USUARIO) VALUES(35,465,1);</v>
+        <v>INSERT DESCARGA(ID_DESCARGA,VELOCIDAD_TRANSFERENCIA,ID_USUARIO) VALUES(35,876,7);</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -9707,15 +9707,15 @@
       </c>
       <c r="B37">
         <f t="shared" ca="1" si="2"/>
-        <v>283</v>
+        <v>383</v>
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D37" t="str">
         <f ca="1">"INSERT DESCARGA("&amp;Tabla7[[#Headers],[ID_DESCARGA]]&amp;","&amp;Tabla7[[#Headers],[VELOCIDAD_TRANSFERENCIA]]&amp;","&amp;Tabla7[[#Headers],[ID_USUARIO]]&amp;") VALUES("&amp;Tabla7[[#This Row],[ID_DESCARGA]]&amp;","&amp;Tabla7[[#This Row],[VELOCIDAD_TRANSFERENCIA]]&amp;","&amp;Tabla7[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT DESCARGA(ID_DESCARGA,VELOCIDAD_TRANSFERENCIA,ID_USUARIO) VALUES(36,283,8);</v>
+        <v>INSERT DESCARGA(ID_DESCARGA,VELOCIDAD_TRANSFERENCIA,ID_USUARIO) VALUES(36,383,6);</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -9724,15 +9724,15 @@
       </c>
       <c r="B38">
         <f t="shared" ca="1" si="2"/>
-        <v>757</v>
+        <v>323</v>
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D38" t="str">
         <f ca="1">"INSERT DESCARGA("&amp;Tabla7[[#Headers],[ID_DESCARGA]]&amp;","&amp;Tabla7[[#Headers],[VELOCIDAD_TRANSFERENCIA]]&amp;","&amp;Tabla7[[#Headers],[ID_USUARIO]]&amp;") VALUES("&amp;Tabla7[[#This Row],[ID_DESCARGA]]&amp;","&amp;Tabla7[[#This Row],[VELOCIDAD_TRANSFERENCIA]]&amp;","&amp;Tabla7[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT DESCARGA(ID_DESCARGA,VELOCIDAD_TRANSFERENCIA,ID_USUARIO) VALUES(37,757,1);</v>
+        <v>INSERT DESCARGA(ID_DESCARGA,VELOCIDAD_TRANSFERENCIA,ID_USUARIO) VALUES(37,323,5);</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -9741,15 +9741,15 @@
       </c>
       <c r="B39">
         <f t="shared" ca="1" si="2"/>
-        <v>979</v>
+        <v>270</v>
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D39" t="str">
         <f ca="1">"INSERT DESCARGA("&amp;Tabla7[[#Headers],[ID_DESCARGA]]&amp;","&amp;Tabla7[[#Headers],[VELOCIDAD_TRANSFERENCIA]]&amp;","&amp;Tabla7[[#Headers],[ID_USUARIO]]&amp;") VALUES("&amp;Tabla7[[#This Row],[ID_DESCARGA]]&amp;","&amp;Tabla7[[#This Row],[VELOCIDAD_TRANSFERENCIA]]&amp;","&amp;Tabla7[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT DESCARGA(ID_DESCARGA,VELOCIDAD_TRANSFERENCIA,ID_USUARIO) VALUES(38,979,8);</v>
+        <v>INSERT DESCARGA(ID_DESCARGA,VELOCIDAD_TRANSFERENCIA,ID_USUARIO) VALUES(38,270,5);</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -9758,15 +9758,15 @@
       </c>
       <c r="B40">
         <f t="shared" ca="1" si="2"/>
-        <v>489</v>
+        <v>625</v>
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D40" t="str">
         <f ca="1">"INSERT DESCARGA("&amp;Tabla7[[#Headers],[ID_DESCARGA]]&amp;","&amp;Tabla7[[#Headers],[VELOCIDAD_TRANSFERENCIA]]&amp;","&amp;Tabla7[[#Headers],[ID_USUARIO]]&amp;") VALUES("&amp;Tabla7[[#This Row],[ID_DESCARGA]]&amp;","&amp;Tabla7[[#This Row],[VELOCIDAD_TRANSFERENCIA]]&amp;","&amp;Tabla7[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT DESCARGA(ID_DESCARGA,VELOCIDAD_TRANSFERENCIA,ID_USUARIO) VALUES(39,489,2);</v>
+        <v>INSERT DESCARGA(ID_DESCARGA,VELOCIDAD_TRANSFERENCIA,ID_USUARIO) VALUES(39,625,8);</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -9775,15 +9775,15 @@
       </c>
       <c r="B41">
         <f t="shared" ca="1" si="2"/>
-        <v>907</v>
+        <v>481</v>
       </c>
       <c r="C41">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D41" t="str">
         <f ca="1">"INSERT DESCARGA("&amp;Tabla7[[#Headers],[ID_DESCARGA]]&amp;","&amp;Tabla7[[#Headers],[VELOCIDAD_TRANSFERENCIA]]&amp;","&amp;Tabla7[[#Headers],[ID_USUARIO]]&amp;") VALUES("&amp;Tabla7[[#This Row],[ID_DESCARGA]]&amp;","&amp;Tabla7[[#This Row],[VELOCIDAD_TRANSFERENCIA]]&amp;","&amp;Tabla7[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT DESCARGA(ID_DESCARGA,VELOCIDAD_TRANSFERENCIA,ID_USUARIO) VALUES(40,907,6);</v>
+        <v>INSERT DESCARGA(ID_DESCARGA,VELOCIDAD_TRANSFERENCIA,ID_USUARIO) VALUES(40,481,3);</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -9792,15 +9792,15 @@
       </c>
       <c r="B42">
         <f t="shared" ca="1" si="2"/>
-        <v>354</v>
+        <v>696</v>
       </c>
       <c r="C42">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D42" t="str">
         <f ca="1">"INSERT DESCARGA("&amp;Tabla7[[#Headers],[ID_DESCARGA]]&amp;","&amp;Tabla7[[#Headers],[VELOCIDAD_TRANSFERENCIA]]&amp;","&amp;Tabla7[[#Headers],[ID_USUARIO]]&amp;") VALUES("&amp;Tabla7[[#This Row],[ID_DESCARGA]]&amp;","&amp;Tabla7[[#This Row],[VELOCIDAD_TRANSFERENCIA]]&amp;","&amp;Tabla7[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT DESCARGA(ID_DESCARGA,VELOCIDAD_TRANSFERENCIA,ID_USUARIO) VALUES(41,354,9);</v>
+        <v>INSERT DESCARGA(ID_DESCARGA,VELOCIDAD_TRANSFERENCIA,ID_USUARIO) VALUES(41,696,5);</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -9809,15 +9809,15 @@
       </c>
       <c r="B43">
         <f t="shared" ca="1" si="2"/>
-        <v>223</v>
+        <v>396</v>
       </c>
       <c r="C43">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D43" t="str">
         <f ca="1">"INSERT DESCARGA("&amp;Tabla7[[#Headers],[ID_DESCARGA]]&amp;","&amp;Tabla7[[#Headers],[VELOCIDAD_TRANSFERENCIA]]&amp;","&amp;Tabla7[[#Headers],[ID_USUARIO]]&amp;") VALUES("&amp;Tabla7[[#This Row],[ID_DESCARGA]]&amp;","&amp;Tabla7[[#This Row],[VELOCIDAD_TRANSFERENCIA]]&amp;","&amp;Tabla7[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT DESCARGA(ID_DESCARGA,VELOCIDAD_TRANSFERENCIA,ID_USUARIO) VALUES(42,223,1);</v>
+        <v>INSERT DESCARGA(ID_DESCARGA,VELOCIDAD_TRANSFERENCIA,ID_USUARIO) VALUES(42,396,4);</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -9826,15 +9826,15 @@
       </c>
       <c r="B44">
         <f t="shared" ca="1" si="2"/>
-        <v>496</v>
+        <v>752</v>
       </c>
       <c r="C44">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D44" t="str">
         <f ca="1">"INSERT DESCARGA("&amp;Tabla7[[#Headers],[ID_DESCARGA]]&amp;","&amp;Tabla7[[#Headers],[VELOCIDAD_TRANSFERENCIA]]&amp;","&amp;Tabla7[[#Headers],[ID_USUARIO]]&amp;") VALUES("&amp;Tabla7[[#This Row],[ID_DESCARGA]]&amp;","&amp;Tabla7[[#This Row],[VELOCIDAD_TRANSFERENCIA]]&amp;","&amp;Tabla7[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT DESCARGA(ID_DESCARGA,VELOCIDAD_TRANSFERENCIA,ID_USUARIO) VALUES(43,496,2);</v>
+        <v>INSERT DESCARGA(ID_DESCARGA,VELOCIDAD_TRANSFERENCIA,ID_USUARIO) VALUES(43,752,8);</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -9843,15 +9843,15 @@
       </c>
       <c r="B45">
         <f t="shared" ca="1" si="2"/>
-        <v>522</v>
+        <v>272</v>
       </c>
       <c r="C45">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="str">
         <f ca="1">"INSERT DESCARGA("&amp;Tabla7[[#Headers],[ID_DESCARGA]]&amp;","&amp;Tabla7[[#Headers],[VELOCIDAD_TRANSFERENCIA]]&amp;","&amp;Tabla7[[#Headers],[ID_USUARIO]]&amp;") VALUES("&amp;Tabla7[[#This Row],[ID_DESCARGA]]&amp;","&amp;Tabla7[[#This Row],[VELOCIDAD_TRANSFERENCIA]]&amp;","&amp;Tabla7[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT DESCARGA(ID_DESCARGA,VELOCIDAD_TRANSFERENCIA,ID_USUARIO) VALUES(44,522,9);</v>
+        <v>INSERT DESCARGA(ID_DESCARGA,VELOCIDAD_TRANSFERENCIA,ID_USUARIO) VALUES(44,272,10);</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -9860,15 +9860,15 @@
       </c>
       <c r="B46">
         <f t="shared" ca="1" si="2"/>
-        <v>851</v>
+        <v>196</v>
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D46" t="str">
         <f ca="1">"INSERT DESCARGA("&amp;Tabla7[[#Headers],[ID_DESCARGA]]&amp;","&amp;Tabla7[[#Headers],[VELOCIDAD_TRANSFERENCIA]]&amp;","&amp;Tabla7[[#Headers],[ID_USUARIO]]&amp;") VALUES("&amp;Tabla7[[#This Row],[ID_DESCARGA]]&amp;","&amp;Tabla7[[#This Row],[VELOCIDAD_TRANSFERENCIA]]&amp;","&amp;Tabla7[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT DESCARGA(ID_DESCARGA,VELOCIDAD_TRANSFERENCIA,ID_USUARIO) VALUES(45,851,3);</v>
+        <v>INSERT DESCARGA(ID_DESCARGA,VELOCIDAD_TRANSFERENCIA,ID_USUARIO) VALUES(45,196,1);</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -9877,15 +9877,15 @@
       </c>
       <c r="B47">
         <f t="shared" ca="1" si="2"/>
-        <v>178</v>
+        <v>359</v>
       </c>
       <c r="C47">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D47" t="str">
         <f ca="1">"INSERT DESCARGA("&amp;Tabla7[[#Headers],[ID_DESCARGA]]&amp;","&amp;Tabla7[[#Headers],[VELOCIDAD_TRANSFERENCIA]]&amp;","&amp;Tabla7[[#Headers],[ID_USUARIO]]&amp;") VALUES("&amp;Tabla7[[#This Row],[ID_DESCARGA]]&amp;","&amp;Tabla7[[#This Row],[VELOCIDAD_TRANSFERENCIA]]&amp;","&amp;Tabla7[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT DESCARGA(ID_DESCARGA,VELOCIDAD_TRANSFERENCIA,ID_USUARIO) VALUES(46,178,9);</v>
+        <v>INSERT DESCARGA(ID_DESCARGA,VELOCIDAD_TRANSFERENCIA,ID_USUARIO) VALUES(46,359,8);</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -9894,15 +9894,15 @@
       </c>
       <c r="B48">
         <f t="shared" ca="1" si="2"/>
-        <v>348</v>
+        <v>838</v>
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D48" t="str">
         <f ca="1">"INSERT DESCARGA("&amp;Tabla7[[#Headers],[ID_DESCARGA]]&amp;","&amp;Tabla7[[#Headers],[VELOCIDAD_TRANSFERENCIA]]&amp;","&amp;Tabla7[[#Headers],[ID_USUARIO]]&amp;") VALUES("&amp;Tabla7[[#This Row],[ID_DESCARGA]]&amp;","&amp;Tabla7[[#This Row],[VELOCIDAD_TRANSFERENCIA]]&amp;","&amp;Tabla7[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT DESCARGA(ID_DESCARGA,VELOCIDAD_TRANSFERENCIA,ID_USUARIO) VALUES(47,348,8);</v>
+        <v>INSERT DESCARGA(ID_DESCARGA,VELOCIDAD_TRANSFERENCIA,ID_USUARIO) VALUES(47,838,10);</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -9911,7 +9911,7 @@
       </c>
       <c r="B49">
         <f t="shared" ca="1" si="2"/>
-        <v>401</v>
+        <v>475</v>
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="3"/>
@@ -9919,7 +9919,7 @@
       </c>
       <c r="D49" t="str">
         <f ca="1">"INSERT DESCARGA("&amp;Tabla7[[#Headers],[ID_DESCARGA]]&amp;","&amp;Tabla7[[#Headers],[VELOCIDAD_TRANSFERENCIA]]&amp;","&amp;Tabla7[[#Headers],[ID_USUARIO]]&amp;") VALUES("&amp;Tabla7[[#This Row],[ID_DESCARGA]]&amp;","&amp;Tabla7[[#This Row],[VELOCIDAD_TRANSFERENCIA]]&amp;","&amp;Tabla7[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT DESCARGA(ID_DESCARGA,VELOCIDAD_TRANSFERENCIA,ID_USUARIO) VALUES(48,401,1);</v>
+        <v>INSERT DESCARGA(ID_DESCARGA,VELOCIDAD_TRANSFERENCIA,ID_USUARIO) VALUES(48,475,1);</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -9928,15 +9928,15 @@
       </c>
       <c r="B50">
         <f t="shared" ca="1" si="2"/>
-        <v>893</v>
+        <v>814</v>
       </c>
       <c r="C50">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D50" t="str">
         <f ca="1">"INSERT DESCARGA("&amp;Tabla7[[#Headers],[ID_DESCARGA]]&amp;","&amp;Tabla7[[#Headers],[VELOCIDAD_TRANSFERENCIA]]&amp;","&amp;Tabla7[[#Headers],[ID_USUARIO]]&amp;") VALUES("&amp;Tabla7[[#This Row],[ID_DESCARGA]]&amp;","&amp;Tabla7[[#This Row],[VELOCIDAD_TRANSFERENCIA]]&amp;","&amp;Tabla7[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT DESCARGA(ID_DESCARGA,VELOCIDAD_TRANSFERENCIA,ID_USUARIO) VALUES(49,893,6);</v>
+        <v>INSERT DESCARGA(ID_DESCARGA,VELOCIDAD_TRANSFERENCIA,ID_USUARIO) VALUES(49,814,9);</v>
       </c>
     </row>
   </sheetData>
@@ -10064,19 +10064,19 @@
       </c>
       <c r="D2" t="str">
         <f ca="1">VLOOKUP(Tabla9[[#This Row],[ID_USUARIO]],Tabla5[[ID_USUARIO ]:[APELLIDO]],3,0)</f>
-        <v>Mesa Manso</v>
+        <v>Cadenas</v>
       </c>
       <c r="E2">
         <f t="shared" ref="E2:E33" ca="1" si="0">RANDBETWEEN(1,50)</f>
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="F2">
         <f t="shared" ref="F2:F33" ca="1" si="1">RANDBETWEEN(1,10)</f>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G2" t="str">
         <f ca="1">"INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES("&amp;A2&amp;",'"&amp;B2&amp;"','"&amp;Tabla9[[#This Row],[DESCRIPCION]]&amp;"','"&amp;Tabla9[[#This Row],[APODO]]&amp;"',"&amp;Tabla9[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla9[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(1,'ES MUY BUENO','ES MUY BUENO EL ARCHIVO, LO RECOMIENDO','Mesa Manso',1,10);</v>
+        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(1,'ES MUY BUENO','ES MUY BUENO EL ARCHIVO, LO RECOMIENDO','Cadenas',36,6);</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -10091,19 +10091,19 @@
       </c>
       <c r="D3" t="str">
         <f ca="1">VLOOKUP(Tabla9[[#This Row],[ID_USUARIO]],Tabla5[[ID_USUARIO ]:[APELLIDO]],3,0)</f>
-        <v>Grau Benet</v>
+        <v>Aroca Guijarro</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G3" t="str">
         <f ca="1">"INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES("&amp;A3&amp;",'"&amp;B3&amp;"','"&amp;Tabla9[[#This Row],[DESCRIPCION]]&amp;"','"&amp;Tabla9[[#This Row],[APODO]]&amp;"',"&amp;Tabla9[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla9[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(2,'ES MUY BUENO','ES MUY BUENO EL ARCHIVO, LO RECOMIENDO','Grau Benet',22,1);</v>
+        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(2,'ES MUY BUENO','ES MUY BUENO EL ARCHIVO, LO RECOMIENDO','Aroca Guijarro',15,5);</v>
       </c>
       <c r="K3" t="s">
         <v>122</v>
@@ -10121,19 +10121,19 @@
       </c>
       <c r="D4" t="str">
         <f ca="1">VLOOKUP(Tabla9[[#This Row],[ID_USUARIO]],Tabla5[[ID_USUARIO ]:[APELLIDO]],3,0)</f>
-        <v>Mesa Manso</v>
+        <v>Crespo Gimenez</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G4" t="str">
         <f ca="1">"INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES("&amp;A4&amp;",'"&amp;B4&amp;"','"&amp;Tabla9[[#This Row],[DESCRIPCION]]&amp;"','"&amp;Tabla9[[#This Row],[APODO]]&amp;"',"&amp;Tabla9[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla9[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(3,'ES MUY BUENO','ES MUY BUENO EL ARCHIVO, LO RECOMIENDO','Mesa Manso',31,10);</v>
+        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(3,'ES MUY BUENO','ES MUY BUENO EL ARCHIVO, LO RECOMIENDO','Crespo Gimenez',11,8);</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -10148,19 +10148,19 @@
       </c>
       <c r="D5" t="str">
         <f ca="1">VLOOKUP(Tabla9[[#This Row],[ID_USUARIO]],Tabla5[[ID_USUARIO ]:[APELLIDO]],3,0)</f>
-        <v>Crespo Gimenez</v>
+        <v>Grau Benet</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G5" t="str">
         <f ca="1">"INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES("&amp;A5&amp;",'"&amp;B5&amp;"','"&amp;Tabla9[[#This Row],[DESCRIPCION]]&amp;"','"&amp;Tabla9[[#This Row],[APODO]]&amp;"',"&amp;Tabla9[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla9[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(4,'ES MUY BUENO','ES MUY BUENO EL ARCHIVO, LO RECOMIENDO','Crespo Gimenez',22,8);</v>
+        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(4,'ES MUY BUENO','ES MUY BUENO EL ARCHIVO, LO RECOMIENDO','Grau Benet',40,1);</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -10175,19 +10175,19 @@
       </c>
       <c r="D6" t="str">
         <f ca="1">VLOOKUP(Tabla9[[#This Row],[ID_USUARIO]],Tabla5[[ID_USUARIO ]:[APELLIDO]],3,0)</f>
-        <v>Mesa Manso</v>
+        <v>Bertrán Suárez</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G6" t="str">
         <f ca="1">"INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES("&amp;A6&amp;",'"&amp;B6&amp;"','"&amp;Tabla9[[#This Row],[DESCRIPCION]]&amp;"','"&amp;Tabla9[[#This Row],[APODO]]&amp;"',"&amp;Tabla9[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla9[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(5,'ES MUY BUENO','ES MUY BUENO EL ARCHIVO, LO RECOMIENDO','Mesa Manso',36,10);</v>
+        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(5,'ES MUY BUENO','ES MUY BUENO EL ARCHIVO, LO RECOMIENDO','Bertrán Suárez',18,4);</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -10202,19 +10202,19 @@
       </c>
       <c r="D7" t="str">
         <f ca="1">VLOOKUP(Tabla9[[#This Row],[ID_USUARIO]],Tabla5[[ID_USUARIO ]:[APELLIDO]],3,0)</f>
-        <v>Crespo Gimenez</v>
+        <v>Carretero Plaza</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G7" t="str">
         <f ca="1">"INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES("&amp;A7&amp;",'"&amp;B7&amp;"','"&amp;Tabla9[[#This Row],[DESCRIPCION]]&amp;"','"&amp;Tabla9[[#This Row],[APODO]]&amp;"',"&amp;Tabla9[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla9[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(6,'ES MUY BUENO','ES MUY BUENO EL ARCHIVO, LO RECOMIENDO','Crespo Gimenez',3,8);</v>
+        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(6,'ES MUY BUENO','ES MUY BUENO EL ARCHIVO, LO RECOMIENDO','Carretero Plaza',5,7);</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -10229,19 +10229,19 @@
       </c>
       <c r="D8" t="str">
         <f ca="1">VLOOKUP(Tabla9[[#This Row],[ID_USUARIO]],Tabla5[[ID_USUARIO ]:[APELLIDO]],3,0)</f>
-        <v>Carretero Plaza</v>
+        <v>Grau Benet</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G8" t="str">
         <f ca="1">"INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES("&amp;A8&amp;",'"&amp;B8&amp;"','"&amp;Tabla9[[#This Row],[DESCRIPCION]]&amp;"','"&amp;Tabla9[[#This Row],[APODO]]&amp;"',"&amp;Tabla9[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla9[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(7,'ES MUY BUENO','ES MUY BUENO EL ARCHIVO, LO RECOMIENDO','Carretero Plaza',14,7);</v>
+        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(7,'ES MUY BUENO','ES MUY BUENO EL ARCHIVO, LO RECOMIENDO','Grau Benet',27,1);</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -10256,19 +10256,19 @@
       </c>
       <c r="D9" t="str">
         <f ca="1">VLOOKUP(Tabla9[[#This Row],[ID_USUARIO]],Tabla5[[ID_USUARIO ]:[APELLIDO]],3,0)</f>
-        <v>Bertrán Suárez</v>
+        <v>Grau Benet</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G9" t="str">
         <f ca="1">"INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES("&amp;A9&amp;",'"&amp;B9&amp;"','"&amp;Tabla9[[#This Row],[DESCRIPCION]]&amp;"','"&amp;Tabla9[[#This Row],[APODO]]&amp;"',"&amp;Tabla9[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla9[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(8,'ES MUY BUENO','ES MUY BUENO EL ARCHIVO, LO RECOMIENDO','Bertrán Suárez',41,4);</v>
+        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(8,'ES MUY BUENO','ES MUY BUENO EL ARCHIVO, LO RECOMIENDO','Grau Benet',15,1);</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -10283,19 +10283,19 @@
       </c>
       <c r="D10" t="str">
         <f ca="1">VLOOKUP(Tabla9[[#This Row],[ID_USUARIO]],Tabla5[[ID_USUARIO ]:[APELLIDO]],3,0)</f>
-        <v>Carretero Plaza</v>
+        <v>Crespo Gimenez</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G10" t="str">
         <f ca="1">"INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES("&amp;A10&amp;",'"&amp;B10&amp;"','"&amp;Tabla9[[#This Row],[DESCRIPCION]]&amp;"','"&amp;Tabla9[[#This Row],[APODO]]&amp;"',"&amp;Tabla9[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla9[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(9,'ES MUY BUENO','ES MUY BUENO EL ARCHIVO, LO RECOMIENDO','Carretero Plaza',1,7);</v>
+        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(9,'ES MUY BUENO','ES MUY BUENO EL ARCHIVO, LO RECOMIENDO','Crespo Gimenez',19,8);</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -10310,7 +10310,7 @@
       </c>
       <c r="D11" t="str">
         <f ca="1">VLOOKUP(Tabla9[[#This Row],[ID_USUARIO]],Tabla5[[ID_USUARIO ]:[APELLIDO]],3,0)</f>
-        <v>Carretero Plaza</v>
+        <v>Crespo Gimenez</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
@@ -10318,11 +10318,11 @@
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G11" t="str">
         <f ca="1">"INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES("&amp;A11&amp;",'"&amp;B11&amp;"','"&amp;Tabla9[[#This Row],[DESCRIPCION]]&amp;"','"&amp;Tabla9[[#This Row],[APODO]]&amp;"',"&amp;Tabla9[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla9[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(10,'ES MUY BUENO','ES MUY BUENO EL ARCHIVO, LO RECOMIENDO','Carretero Plaza',50,7);</v>
+        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(10,'ES MUY BUENO','ES MUY BUENO EL ARCHIVO, LO RECOMIENDO','Crespo Gimenez',50,8);</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -10337,19 +10337,19 @@
       </c>
       <c r="D12" t="str">
         <f ca="1">VLOOKUP(Tabla9[[#This Row],[ID_USUARIO]],Tabla5[[ID_USUARIO ]:[APELLIDO]],3,0)</f>
-        <v>Carretero Plaza</v>
+        <v>Aroca Guijarro</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G12" t="str">
         <f ca="1">"INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES("&amp;A12&amp;",'"&amp;B12&amp;"','"&amp;Tabla9[[#This Row],[DESCRIPCION]]&amp;"','"&amp;Tabla9[[#This Row],[APODO]]&amp;"',"&amp;Tabla9[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla9[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(11,'ES MUY BUENO','ES MUY BUENO EL ARCHIVO, LO RECOMIENDO','Carretero Plaza',25,7);</v>
+        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(11,'ES MUY BUENO','ES MUY BUENO EL ARCHIVO, LO RECOMIENDO','Aroca Guijarro',18,5);</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -10364,19 +10364,19 @@
       </c>
       <c r="D13" t="str">
         <f ca="1">VLOOKUP(Tabla9[[#This Row],[ID_USUARIO]],Tabla5[[ID_USUARIO ]:[APELLIDO]],3,0)</f>
-        <v>Mesa Manso</v>
+        <v>Crespo Gimenez</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G13" t="str">
         <f ca="1">"INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES("&amp;A13&amp;",'"&amp;B13&amp;"','"&amp;Tabla9[[#This Row],[DESCRIPCION]]&amp;"','"&amp;Tabla9[[#This Row],[APODO]]&amp;"',"&amp;Tabla9[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla9[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(12,'ES MUY BUENO','ES MUY BUENO EL ARCHIVO, LO RECOMIENDO','Mesa Manso',23,10);</v>
+        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(12,'ES MUY BUENO','ES MUY BUENO EL ARCHIVO, LO RECOMIENDO','Crespo Gimenez',17,8);</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -10391,19 +10391,19 @@
       </c>
       <c r="D14" t="str">
         <f ca="1">VLOOKUP(Tabla9[[#This Row],[ID_USUARIO]],Tabla5[[ID_USUARIO ]:[APELLIDO]],3,0)</f>
-        <v>Bertrán Suárez</v>
+        <v>Crespo Gimenez</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G14" t="str">
         <f ca="1">"INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES("&amp;A14&amp;",'"&amp;B14&amp;"','"&amp;Tabla9[[#This Row],[DESCRIPCION]]&amp;"','"&amp;Tabla9[[#This Row],[APODO]]&amp;"',"&amp;Tabla9[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla9[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(13,'ES MUY BUENO','ES MUY BUENO EL ARCHIVO, LO RECOMIENDO','Bertrán Suárez',3,4);</v>
+        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(13,'ES MUY BUENO','ES MUY BUENO EL ARCHIVO, LO RECOMIENDO','Crespo Gimenez',10,8);</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -10418,19 +10418,19 @@
       </c>
       <c r="D15" t="str">
         <f ca="1">VLOOKUP(Tabla9[[#This Row],[ID_USUARIO]],Tabla5[[ID_USUARIO ]:[APELLIDO]],3,0)</f>
-        <v>Arteaga</v>
+        <v>Bertrán Suárez</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G15" t="str">
         <f ca="1">"INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES("&amp;A15&amp;",'"&amp;B15&amp;"','"&amp;Tabla9[[#This Row],[DESCRIPCION]]&amp;"','"&amp;Tabla9[[#This Row],[APODO]]&amp;"',"&amp;Tabla9[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla9[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(14,'ES MUY BUENO','ES MUY BUENO EL ARCHIVO, LO RECOMIENDO','Arteaga',19,3);</v>
+        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(14,'ES MUY BUENO','ES MUY BUENO EL ARCHIVO, LO RECOMIENDO','Bertrán Suárez',41,4);</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -10445,19 +10445,19 @@
       </c>
       <c r="D16" t="str">
         <f ca="1">VLOOKUP(Tabla9[[#This Row],[ID_USUARIO]],Tabla5[[ID_USUARIO ]:[APELLIDO]],3,0)</f>
-        <v>Bertrán Suárez</v>
+        <v>Samper</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G16" t="str">
         <f ca="1">"INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES("&amp;A16&amp;",'"&amp;B16&amp;"','"&amp;Tabla9[[#This Row],[DESCRIPCION]]&amp;"','"&amp;Tabla9[[#This Row],[APODO]]&amp;"',"&amp;Tabla9[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla9[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(15,'ES MUY BUENO','ES MUY BUENO EL ARCHIVO, LO RECOMIENDO','Bertrán Suárez',4,4);</v>
+        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(15,'ES MUY BUENO','ES MUY BUENO EL ARCHIVO, LO RECOMIENDO','Samper',8,2);</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -10472,19 +10472,19 @@
       </c>
       <c r="D17" t="str">
         <f ca="1">VLOOKUP(Tabla9[[#This Row],[ID_USUARIO]],Tabla5[[ID_USUARIO ]:[APELLIDO]],3,0)</f>
-        <v>Grau Benet</v>
+        <v>Crespo Gimenez</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G17" t="str">
         <f ca="1">"INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES("&amp;A17&amp;",'"&amp;B17&amp;"','"&amp;Tabla9[[#This Row],[DESCRIPCION]]&amp;"','"&amp;Tabla9[[#This Row],[APODO]]&amp;"',"&amp;Tabla9[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla9[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(16,'ES MUY BUENO','ES MUY BUENO EL ARCHIVO, LO RECOMIENDO','Grau Benet',44,1);</v>
+        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(16,'ES MUY BUENO','ES MUY BUENO EL ARCHIVO, LO RECOMIENDO','Crespo Gimenez',22,8);</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -10499,19 +10499,19 @@
       </c>
       <c r="D18" t="str">
         <f ca="1">VLOOKUP(Tabla9[[#This Row],[ID_USUARIO]],Tabla5[[ID_USUARIO ]:[APELLIDO]],3,0)</f>
-        <v>Crespo Gimenez</v>
+        <v>Arteaga</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G18" t="str">
         <f ca="1">"INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES("&amp;A18&amp;",'"&amp;B18&amp;"','"&amp;Tabla9[[#This Row],[DESCRIPCION]]&amp;"','"&amp;Tabla9[[#This Row],[APODO]]&amp;"',"&amp;Tabla9[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla9[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(17,'ES MUY BUENO','ES MUY BUENO EL ARCHIVO, LO RECOMIENDO','Crespo Gimenez',50,8);</v>
+        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(17,'ES MUY BUENO','ES MUY BUENO EL ARCHIVO, LO RECOMIENDO','Arteaga',45,3);</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -10526,19 +10526,19 @@
       </c>
       <c r="D19" t="str">
         <f ca="1">VLOOKUP(Tabla9[[#This Row],[ID_USUARIO]],Tabla5[[ID_USUARIO ]:[APELLIDO]],3,0)</f>
-        <v>Benítez</v>
+        <v>Arteaga</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="0"/>
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G19" t="str">
         <f ca="1">"INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES("&amp;A19&amp;",'"&amp;B19&amp;"','"&amp;Tabla9[[#This Row],[DESCRIPCION]]&amp;"','"&amp;Tabla9[[#This Row],[APODO]]&amp;"',"&amp;Tabla9[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla9[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(18,'ES MUY BUENO','ES MUY BUENO EL ARCHIVO, LO RECOMIENDO','Benítez',47,9);</v>
+        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(18,'ES MUY BUENO','ES MUY BUENO EL ARCHIVO, LO RECOMIENDO','Arteaga',10,3);</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -10553,19 +10553,19 @@
       </c>
       <c r="D20" t="str">
         <f ca="1">VLOOKUP(Tabla9[[#This Row],[ID_USUARIO]],Tabla5[[ID_USUARIO ]:[APELLIDO]],3,0)</f>
-        <v>Mesa Manso</v>
+        <v>Samper</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G20" t="str">
         <f ca="1">"INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES("&amp;A20&amp;",'"&amp;B20&amp;"','"&amp;Tabla9[[#This Row],[DESCRIPCION]]&amp;"','"&amp;Tabla9[[#This Row],[APODO]]&amp;"',"&amp;Tabla9[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla9[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(19,'ES MUY BUENO','ES MUY BUENO EL ARCHIVO, LO RECOMIENDO','Mesa Manso',17,10);</v>
+        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(19,'ES MUY BUENO','ES MUY BUENO EL ARCHIVO, LO RECOMIENDO','Samper',13,2);</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -10584,7 +10584,7 @@
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="1"/>
@@ -10592,7 +10592,7 @@
       </c>
       <c r="G21" t="str">
         <f ca="1">"INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES("&amp;A21&amp;",'"&amp;B21&amp;"','"&amp;Tabla9[[#This Row],[DESCRIPCION]]&amp;"','"&amp;Tabla9[[#This Row],[APODO]]&amp;"',"&amp;Tabla9[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla9[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(20,'ES MUY BUENO','ES MUY BUENO EL ARCHIVO, LO RECOMIENDO','Carretero Plaza',17,7);</v>
+        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(20,'ES MUY BUENO','ES MUY BUENO EL ARCHIVO, LO RECOMIENDO','Carretero Plaza',43,7);</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -10611,7 +10611,7 @@
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="1"/>
@@ -10619,7 +10619,7 @@
       </c>
       <c r="G22" t="str">
         <f ca="1">"INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES("&amp;A22&amp;",'"&amp;B22&amp;"','"&amp;Tabla9[[#This Row],[DESCRIPCION]]&amp;"','"&amp;Tabla9[[#This Row],[APODO]]&amp;"',"&amp;Tabla9[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla9[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(21,'ES MUY BUENO','ES MUY BUENO EL ARCHIVO, LO RECOMIENDO','Cadenas',41,6);</v>
+        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(21,'ES MUY BUENO','ES MUY BUENO EL ARCHIVO, LO RECOMIENDO','Cadenas',35,6);</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -10634,19 +10634,19 @@
       </c>
       <c r="D23" t="str">
         <f ca="1">VLOOKUP(Tabla9[[#This Row],[ID_USUARIO]],Tabla5[[ID_USUARIO ]:[APELLIDO]],3,0)</f>
-        <v>Benítez</v>
+        <v>Aroca Guijarro</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G23" t="str">
         <f ca="1">"INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES("&amp;A23&amp;",'"&amp;B23&amp;"','"&amp;Tabla9[[#This Row],[DESCRIPCION]]&amp;"','"&amp;Tabla9[[#This Row],[APODO]]&amp;"',"&amp;Tabla9[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla9[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(22,'ES MUY BUENO','ES MUY BUENO EL ARCHIVO, LO RECOMIENDO','Benítez',39,9);</v>
+        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(22,'ES MUY BUENO','ES MUY BUENO EL ARCHIVO, LO RECOMIENDO','Aroca Guijarro',13,5);</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -10665,7 +10665,7 @@
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="1"/>
@@ -10673,7 +10673,7 @@
       </c>
       <c r="G24" t="str">
         <f ca="1">"INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES("&amp;A24&amp;",'"&amp;B24&amp;"','"&amp;Tabla9[[#This Row],[DESCRIPCION]]&amp;"','"&amp;Tabla9[[#This Row],[APODO]]&amp;"',"&amp;Tabla9[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla9[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(23,'ES MUY BUENO','ES MUY BUENO EL ARCHIVO, LO RECOMIENDO','Bertrán Suárez',20,4);</v>
+        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(23,'ES MUY BUENO','ES MUY BUENO EL ARCHIVO, LO RECOMIENDO','Bertrán Suárez',4,4);</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -10688,19 +10688,19 @@
       </c>
       <c r="D25" t="str">
         <f ca="1">VLOOKUP(Tabla9[[#This Row],[ID_USUARIO]],Tabla5[[ID_USUARIO ]:[APELLIDO]],3,0)</f>
-        <v>Grau Benet</v>
+        <v>Samper</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G25" t="str">
         <f ca="1">"INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES("&amp;A25&amp;",'"&amp;B25&amp;"','"&amp;Tabla9[[#This Row],[DESCRIPCION]]&amp;"','"&amp;Tabla9[[#This Row],[APODO]]&amp;"',"&amp;Tabla9[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla9[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(24,'ES MUY BUENO','ES MUY BUENO EL ARCHIVO, LO RECOMIENDO','Grau Benet',29,1);</v>
+        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(24,'ES MUY BUENO','ES MUY BUENO EL ARCHIVO, LO RECOMIENDO','Samper',38,2);</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -10715,19 +10715,19 @@
       </c>
       <c r="D26" t="str">
         <f ca="1">VLOOKUP(Tabla9[[#This Row],[ID_USUARIO]],Tabla5[[ID_USUARIO ]:[APELLIDO]],3,0)</f>
-        <v>Carretero Plaza</v>
+        <v>Crespo Gimenez</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G26" t="str">
         <f ca="1">"INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES("&amp;A26&amp;",'"&amp;B26&amp;"','"&amp;Tabla9[[#This Row],[DESCRIPCION]]&amp;"','"&amp;Tabla9[[#This Row],[APODO]]&amp;"',"&amp;Tabla9[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla9[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(25,'ES MUY BUENO','ES MUY BUENO EL ARCHIVO, LO RECOMIENDO','Carretero Plaza',42,7);</v>
+        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(25,'ES MUY BUENO','ES MUY BUENO EL ARCHIVO, LO RECOMIENDO','Crespo Gimenez',27,8);</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -10742,19 +10742,19 @@
       </c>
       <c r="D27" t="str">
         <f ca="1">VLOOKUP(Tabla9[[#This Row],[ID_USUARIO]],Tabla5[[ID_USUARIO ]:[APELLIDO]],3,0)</f>
-        <v>Mesa Manso</v>
+        <v>Carretero Plaza</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G27" t="str">
         <f ca="1">"INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES("&amp;A27&amp;",'"&amp;B27&amp;"','"&amp;Tabla9[[#This Row],[DESCRIPCION]]&amp;"','"&amp;Tabla9[[#This Row],[APODO]]&amp;"',"&amp;Tabla9[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla9[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(26,'ES MUY BUENO','ES MUY BUENO EL ARCHIVO, LO RECOMIENDO','Mesa Manso',3,10);</v>
+        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(26,'ES MUY BUENO','ES MUY BUENO EL ARCHIVO, LO RECOMIENDO','Carretero Plaza',49,7);</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -10769,19 +10769,19 @@
       </c>
       <c r="D28" t="str">
         <f ca="1">VLOOKUP(Tabla9[[#This Row],[ID_USUARIO]],Tabla5[[ID_USUARIO ]:[APELLIDO]],3,0)</f>
-        <v>Benítez</v>
+        <v>Bertrán Suárez</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="0"/>
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G28" t="str">
         <f ca="1">"INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES("&amp;A28&amp;",'"&amp;B28&amp;"','"&amp;Tabla9[[#This Row],[DESCRIPCION]]&amp;"','"&amp;Tabla9[[#This Row],[APODO]]&amp;"',"&amp;Tabla9[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla9[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(27,'ES MUY BUENO','ES MUY BUENO EL ARCHIVO, LO RECOMIENDO','Benítez',31,9);</v>
+        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(27,'ES MUY BUENO','ES MUY BUENO EL ARCHIVO, LO RECOMIENDO','Bertrán Suárez',9,4);</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -10796,19 +10796,19 @@
       </c>
       <c r="D29" t="str">
         <f ca="1">VLOOKUP(Tabla9[[#This Row],[ID_USUARIO]],Tabla5[[ID_USUARIO ]:[APELLIDO]],3,0)</f>
-        <v>Aroca Guijarro</v>
+        <v>Crespo Gimenez</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="F29">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G29" t="str">
         <f ca="1">"INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES("&amp;A29&amp;",'"&amp;B29&amp;"','"&amp;Tabla9[[#This Row],[DESCRIPCION]]&amp;"','"&amp;Tabla9[[#This Row],[APODO]]&amp;"',"&amp;Tabla9[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla9[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(28,'ES MUY BUENO','ES MUY BUENO EL ARCHIVO, LO RECOMIENDO','Aroca Guijarro',44,5);</v>
+        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(28,'ES MUY BUENO','ES MUY BUENO EL ARCHIVO, LO RECOMIENDO','Crespo Gimenez',23,8);</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -10823,19 +10823,19 @@
       </c>
       <c r="D30" t="str">
         <f ca="1">VLOOKUP(Tabla9[[#This Row],[ID_USUARIO]],Tabla5[[ID_USUARIO ]:[APELLIDO]],3,0)</f>
-        <v>Bertrán Suárez</v>
+        <v>Crespo Gimenez</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="0"/>
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G30" t="str">
         <f ca="1">"INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES("&amp;A30&amp;",'"&amp;B30&amp;"','"&amp;Tabla9[[#This Row],[DESCRIPCION]]&amp;"','"&amp;Tabla9[[#This Row],[APODO]]&amp;"',"&amp;Tabla9[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla9[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(29,'ES MUY BUENO','ES MUY BUENO EL ARCHIVO, LO RECOMIENDO','Bertrán Suárez',49,4);</v>
+        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(29,'ES MUY BUENO','ES MUY BUENO EL ARCHIVO, LO RECOMIENDO','Crespo Gimenez',10,8);</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -10850,19 +10850,19 @@
       </c>
       <c r="D31" t="str">
         <f ca="1">VLOOKUP(Tabla9[[#This Row],[ID_USUARIO]],Tabla5[[ID_USUARIO ]:[APELLIDO]],3,0)</f>
-        <v>Mesa Manso</v>
+        <v>Arteaga</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="F31">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G31" t="str">
         <f ca="1">"INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES("&amp;A31&amp;",'"&amp;B31&amp;"','"&amp;Tabla9[[#This Row],[DESCRIPCION]]&amp;"','"&amp;Tabla9[[#This Row],[APODO]]&amp;"',"&amp;Tabla9[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla9[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(30,'ES MUY BUENO','ES MUY BUENO EL ARCHIVO, LO RECOMIENDO','Mesa Manso',19,10);</v>
+        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(30,'ES MUY BUENO','ES MUY BUENO EL ARCHIVO, LO RECOMIENDO','Arteaga',5,3);</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -10877,19 +10877,19 @@
       </c>
       <c r="D32" t="str">
         <f ca="1">VLOOKUP(Tabla9[[#This Row],[ID_USUARIO]],Tabla5[[ID_USUARIO ]:[APELLIDO]],3,0)</f>
-        <v>Samper</v>
+        <v>Benítez</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="0"/>
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F32">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G32" t="str">
         <f ca="1">"INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES("&amp;A32&amp;",'"&amp;B32&amp;"','"&amp;Tabla9[[#This Row],[DESCRIPCION]]&amp;"','"&amp;Tabla9[[#This Row],[APODO]]&amp;"',"&amp;Tabla9[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla9[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(31,'ES MUY BUENO','ES MUY BUENO EL ARCHIVO, LO RECOMIENDO','Samper',23,2);</v>
+        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(31,'ES MUY BUENO','ES MUY BUENO EL ARCHIVO, LO RECOMIENDO','Benítez',17,9);</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -10904,19 +10904,19 @@
       </c>
       <c r="D33" t="str">
         <f ca="1">VLOOKUP(Tabla9[[#This Row],[ID_USUARIO]],Tabla5[[ID_USUARIO ]:[APELLIDO]],3,0)</f>
-        <v>Samper</v>
+        <v>Mesa Manso</v>
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="F33">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G33" t="str">
         <f ca="1">"INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES("&amp;A33&amp;",'"&amp;B33&amp;"','"&amp;Tabla9[[#This Row],[DESCRIPCION]]&amp;"','"&amp;Tabla9[[#This Row],[APODO]]&amp;"',"&amp;Tabla9[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla9[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(32,'ES MUY BUENO','ES MUY BUENO EL ARCHIVO, LO RECOMIENDO','Samper',12,2);</v>
+        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(32,'ES MUY BUENO','ES MUY BUENO EL ARCHIVO, LO RECOMIENDO','Mesa Manso',44,10);</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -10931,19 +10931,19 @@
       </c>
       <c r="D34" t="str">
         <f ca="1">VLOOKUP(Tabla9[[#This Row],[ID_USUARIO]],Tabla5[[ID_USUARIO ]:[APELLIDO]],3,0)</f>
-        <v>Samper</v>
+        <v>Benítez</v>
       </c>
       <c r="E34">
         <f t="shared" ref="E34:E65" ca="1" si="2">RANDBETWEEN(1,50)</f>
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="F34">
         <f t="shared" ref="F34:F65" ca="1" si="3">RANDBETWEEN(1,10)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G34" t="str">
         <f ca="1">"INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES("&amp;A34&amp;",'"&amp;B34&amp;"','"&amp;Tabla9[[#This Row],[DESCRIPCION]]&amp;"','"&amp;Tabla9[[#This Row],[APODO]]&amp;"',"&amp;Tabla9[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla9[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(33,'ES MUY BUENO','ES MUY BUENO EL ARCHIVO, LO RECOMIENDO','Samper',20,2);</v>
+        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(33,'ES MUY BUENO','ES MUY BUENO EL ARCHIVO, LO RECOMIENDO','Benítez',48,9);</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -10958,19 +10958,19 @@
       </c>
       <c r="D35" t="str">
         <f ca="1">VLOOKUP(Tabla9[[#This Row],[ID_USUARIO]],Tabla5[[ID_USUARIO ]:[APELLIDO]],3,0)</f>
-        <v>Cadenas</v>
+        <v>Crespo Gimenez</v>
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="2"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F35">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G35" t="str">
         <f ca="1">"INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES("&amp;A35&amp;",'"&amp;B35&amp;"','"&amp;Tabla9[[#This Row],[DESCRIPCION]]&amp;"','"&amp;Tabla9[[#This Row],[APODO]]&amp;"',"&amp;Tabla9[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla9[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(34,'ES MUY BUENO','ES MUY BUENO EL ARCHIVO, LO RECOMIENDO','Cadenas',19,6);</v>
+        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(34,'ES MUY BUENO','ES MUY BUENO EL ARCHIVO, LO RECOMIENDO','Crespo Gimenez',18,8);</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -10985,7 +10985,7 @@
       </c>
       <c r="D36" t="str">
         <f ca="1">VLOOKUP(Tabla9[[#This Row],[ID_USUARIO]],Tabla5[[ID_USUARIO ]:[APELLIDO]],3,0)</f>
-        <v>Crespo Gimenez</v>
+        <v>Aroca Guijarro</v>
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="2"/>
@@ -10993,11 +10993,11 @@
       </c>
       <c r="F36">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G36" t="str">
         <f ca="1">"INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES("&amp;A36&amp;",'"&amp;B36&amp;"','"&amp;Tabla9[[#This Row],[DESCRIPCION]]&amp;"','"&amp;Tabla9[[#This Row],[APODO]]&amp;"',"&amp;Tabla9[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla9[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(35,'ES MUY BUENO','ES MUY BUENO EL ARCHIVO, LO RECOMIENDO','Crespo Gimenez',11,8);</v>
+        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(35,'ES MUY BUENO','ES MUY BUENO EL ARCHIVO, LO RECOMIENDO','Aroca Guijarro',11,5);</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -11016,7 +11016,7 @@
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="F37">
         <f t="shared" ca="1" si="3"/>
@@ -11024,7 +11024,7 @@
       </c>
       <c r="G37" t="str">
         <f ca="1">"INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES("&amp;A37&amp;",'"&amp;B37&amp;"','"&amp;Tabla9[[#This Row],[DESCRIPCION]]&amp;"','"&amp;Tabla9[[#This Row],[APODO]]&amp;"',"&amp;Tabla9[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla9[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(36,'ES MUY BUENO','ES MUY BUENO EL ARCHIVO, LO RECOMIENDO','Benítez',2,9);</v>
+        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(36,'ES MUY BUENO','ES MUY BUENO EL ARCHIVO, LO RECOMIENDO','Benítez',43,9);</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -11039,19 +11039,19 @@
       </c>
       <c r="D38" t="str">
         <f ca="1">VLOOKUP(Tabla9[[#This Row],[ID_USUARIO]],Tabla5[[ID_USUARIO ]:[APELLIDO]],3,0)</f>
-        <v>Samper</v>
+        <v>Cadenas</v>
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="2"/>
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="F38">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G38" t="str">
         <f ca="1">"INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES("&amp;A38&amp;",'"&amp;B38&amp;"','"&amp;Tabla9[[#This Row],[DESCRIPCION]]&amp;"','"&amp;Tabla9[[#This Row],[APODO]]&amp;"',"&amp;Tabla9[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla9[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(37,'ES MUY BUENO','ES MUY BUENO EL ARCHIVO, LO RECOMIENDO','Samper',44,2);</v>
+        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(37,'ES MUY BUENO','ES MUY BUENO EL ARCHIVO, LO RECOMIENDO','Cadenas',23,6);</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -11066,19 +11066,19 @@
       </c>
       <c r="D39" t="str">
         <f ca="1">VLOOKUP(Tabla9[[#This Row],[ID_USUARIO]],Tabla5[[ID_USUARIO ]:[APELLIDO]],3,0)</f>
-        <v>Carretero Plaza</v>
+        <v>Cadenas</v>
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="2"/>
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F39">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G39" t="str">
         <f ca="1">"INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES("&amp;A39&amp;",'"&amp;B39&amp;"','"&amp;Tabla9[[#This Row],[DESCRIPCION]]&amp;"','"&amp;Tabla9[[#This Row],[APODO]]&amp;"',"&amp;Tabla9[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla9[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(38,'ES MUY BUENO','ES MUY BUENO EL ARCHIVO, LO RECOMIENDO','Carretero Plaza',40,7);</v>
+        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(38,'ES MUY BUENO','ES MUY BUENO EL ARCHIVO, LO RECOMIENDO','Cadenas',49,6);</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -11093,19 +11093,19 @@
       </c>
       <c r="D40" t="str">
         <f ca="1">VLOOKUP(Tabla9[[#This Row],[ID_USUARIO]],Tabla5[[ID_USUARIO ]:[APELLIDO]],3,0)</f>
-        <v>Cadenas</v>
+        <v>Arteaga</v>
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="2"/>
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="F40">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G40" t="str">
         <f ca="1">"INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES("&amp;A40&amp;",'"&amp;B40&amp;"','"&amp;Tabla9[[#This Row],[DESCRIPCION]]&amp;"','"&amp;Tabla9[[#This Row],[APODO]]&amp;"',"&amp;Tabla9[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla9[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(39,'ES MUY BUENO','ES MUY BUENO EL ARCHIVO, LO RECOMIENDO','Cadenas',32,6);</v>
+        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(39,'ES MUY BUENO','ES MUY BUENO EL ARCHIVO, LO RECOMIENDO','Arteaga',3,3);</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -11124,7 +11124,7 @@
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F41">
         <f t="shared" ca="1" si="3"/>
@@ -11132,7 +11132,7 @@
       </c>
       <c r="G41" t="str">
         <f ca="1">"INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES("&amp;A41&amp;",'"&amp;B41&amp;"','"&amp;Tabla9[[#This Row],[DESCRIPCION]]&amp;"','"&amp;Tabla9[[#This Row],[APODO]]&amp;"',"&amp;Tabla9[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla9[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(40,'ES MUY BUENO','ES MUY BUENO EL ARCHIVO, LO RECOMIENDO','Carretero Plaza',2,7);</v>
+        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(40,'ES MUY BUENO','ES MUY BUENO EL ARCHIVO, LO RECOMIENDO','Carretero Plaza',9,7);</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -11147,19 +11147,19 @@
       </c>
       <c r="D42" t="str">
         <f ca="1">VLOOKUP(Tabla9[[#This Row],[ID_USUARIO]],Tabla5[[ID_USUARIO ]:[APELLIDO]],3,0)</f>
-        <v>Bertrán Suárez</v>
+        <v>Cadenas</v>
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="2"/>
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="F42">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G42" t="str">
         <f ca="1">"INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES("&amp;A42&amp;",'"&amp;B42&amp;"','"&amp;Tabla9[[#This Row],[DESCRIPCION]]&amp;"','"&amp;Tabla9[[#This Row],[APODO]]&amp;"',"&amp;Tabla9[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla9[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(41,'ES MUY BUENO','ES MUY BUENO EL ARCHIVO, LO RECOMIENDO','Bertrán Suárez',43,4);</v>
+        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(41,'ES MUY BUENO','ES MUY BUENO EL ARCHIVO, LO RECOMIENDO','Cadenas',9,6);</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -11174,19 +11174,19 @@
       </c>
       <c r="D43" t="str">
         <f ca="1">VLOOKUP(Tabla9[[#This Row],[ID_USUARIO]],Tabla5[[ID_USUARIO ]:[APELLIDO]],3,0)</f>
-        <v>Mesa Manso</v>
+        <v>Bertrán Suárez</v>
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="2"/>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F43">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G43" t="str">
         <f ca="1">"INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES("&amp;A43&amp;",'"&amp;B43&amp;"','"&amp;Tabla9[[#This Row],[DESCRIPCION]]&amp;"','"&amp;Tabla9[[#This Row],[APODO]]&amp;"',"&amp;Tabla9[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla9[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(42,'ES MUY BUENO','ES MUY BUENO EL ARCHIVO, LO RECOMIENDO','Mesa Manso',24,10);</v>
+        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(42,'ES MUY BUENO','ES MUY BUENO EL ARCHIVO, LO RECOMIENDO','Bertrán Suárez',26,4);</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -11201,19 +11201,19 @@
       </c>
       <c r="D44" t="str">
         <f ca="1">VLOOKUP(Tabla9[[#This Row],[ID_USUARIO]],Tabla5[[ID_USUARIO ]:[APELLIDO]],3,0)</f>
-        <v>Samper</v>
+        <v>Cadenas</v>
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="2"/>
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F44">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G44" t="str">
         <f ca="1">"INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES("&amp;A44&amp;",'"&amp;B44&amp;"','"&amp;Tabla9[[#This Row],[DESCRIPCION]]&amp;"','"&amp;Tabla9[[#This Row],[APODO]]&amp;"',"&amp;Tabla9[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla9[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(43,'ES MUY BUENO','ES MUY BUENO EL ARCHIVO, LO RECOMIENDO','Samper',28,2);</v>
+        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(43,'ES MUY BUENO','ES MUY BUENO EL ARCHIVO, LO RECOMIENDO','Cadenas',13,6);</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -11228,19 +11228,19 @@
       </c>
       <c r="D45" t="str">
         <f ca="1">VLOOKUP(Tabla9[[#This Row],[ID_USUARIO]],Tabla5[[ID_USUARIO ]:[APELLIDO]],3,0)</f>
-        <v>Arteaga</v>
+        <v>Bertrán Suárez</v>
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="2"/>
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="F45">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G45" t="str">
         <f ca="1">"INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES("&amp;A45&amp;",'"&amp;B45&amp;"','"&amp;Tabla9[[#This Row],[DESCRIPCION]]&amp;"','"&amp;Tabla9[[#This Row],[APODO]]&amp;"',"&amp;Tabla9[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla9[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(44,'ES MUY BUENO','ES MUY BUENO EL ARCHIVO, LO RECOMIENDO','Arteaga',37,3);</v>
+        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(44,'ES MUY BUENO','ES MUY BUENO EL ARCHIVO, LO RECOMIENDO','Bertrán Suárez',6,4);</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -11255,19 +11255,19 @@
       </c>
       <c r="D46" t="str">
         <f ca="1">VLOOKUP(Tabla9[[#This Row],[ID_USUARIO]],Tabla5[[ID_USUARIO ]:[APELLIDO]],3,0)</f>
-        <v>Carretero Plaza</v>
+        <v>Cadenas</v>
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="2"/>
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="F46">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G46" t="str">
         <f ca="1">"INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES("&amp;A46&amp;",'"&amp;B46&amp;"','"&amp;Tabla9[[#This Row],[DESCRIPCION]]&amp;"','"&amp;Tabla9[[#This Row],[APODO]]&amp;"',"&amp;Tabla9[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla9[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(45,'ES MUY BUENO','ES MUY BUENO EL ARCHIVO, LO RECOMIENDO','Carretero Plaza',29,7);</v>
+        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(45,'ES MUY BUENO','ES MUY BUENO EL ARCHIVO, LO RECOMIENDO','Cadenas',7,6);</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -11282,19 +11282,19 @@
       </c>
       <c r="D47" t="str">
         <f ca="1">VLOOKUP(Tabla9[[#This Row],[ID_USUARIO]],Tabla5[[ID_USUARIO ]:[APELLIDO]],3,0)</f>
-        <v>Samper</v>
+        <v>Mesa Manso</v>
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="2"/>
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="F47">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G47" t="str">
         <f ca="1">"INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES("&amp;A47&amp;",'"&amp;B47&amp;"','"&amp;Tabla9[[#This Row],[DESCRIPCION]]&amp;"','"&amp;Tabla9[[#This Row],[APODO]]&amp;"',"&amp;Tabla9[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla9[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(46,'ES MUY BUENO','ES MUY BUENO EL ARCHIVO, LO RECOMIENDO','Samper',49,2);</v>
+        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(46,'ES MUY BUENO','ES MUY BUENO EL ARCHIVO, LO RECOMIENDO','Mesa Manso',35,10);</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -11309,19 +11309,19 @@
       </c>
       <c r="D48" t="str">
         <f ca="1">VLOOKUP(Tabla9[[#This Row],[ID_USUARIO]],Tabla5[[ID_USUARIO ]:[APELLIDO]],3,0)</f>
-        <v>Bertrán Suárez</v>
+        <v>Benítez</v>
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="2"/>
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F48">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G48" t="str">
         <f ca="1">"INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES("&amp;A48&amp;",'"&amp;B48&amp;"','"&amp;Tabla9[[#This Row],[DESCRIPCION]]&amp;"','"&amp;Tabla9[[#This Row],[APODO]]&amp;"',"&amp;Tabla9[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla9[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(47,'ES MUY BUENO','ES MUY BUENO EL ARCHIVO, LO RECOMIENDO','Bertrán Suárez',43,4);</v>
+        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(47,'ES MUY BUENO','ES MUY BUENO EL ARCHIVO, LO RECOMIENDO','Benítez',48,9);</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -11336,19 +11336,19 @@
       </c>
       <c r="D49" t="str">
         <f ca="1">VLOOKUP(Tabla9[[#This Row],[ID_USUARIO]],Tabla5[[ID_USUARIO ]:[APELLIDO]],3,0)</f>
-        <v>Carretero Plaza</v>
+        <v>Aroca Guijarro</v>
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="2"/>
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F49">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G49" t="str">
         <f ca="1">"INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES("&amp;A49&amp;",'"&amp;B49&amp;"','"&amp;Tabla9[[#This Row],[DESCRIPCION]]&amp;"','"&amp;Tabla9[[#This Row],[APODO]]&amp;"',"&amp;Tabla9[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla9[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(48,'ES MUY BUENO','ES MUY BUENO EL ARCHIVO, LO RECOMIENDO','Carretero Plaza',36,7);</v>
+        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(48,'ES MUY BUENO','ES MUY BUENO EL ARCHIVO, LO RECOMIENDO','Aroca Guijarro',45,5);</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -11363,19 +11363,19 @@
       </c>
       <c r="D50" t="str">
         <f ca="1">VLOOKUP(Tabla9[[#This Row],[ID_USUARIO]],Tabla5[[ID_USUARIO ]:[APELLIDO]],3,0)</f>
-        <v>Aroca Guijarro</v>
+        <v>Crespo Gimenez</v>
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="2"/>
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F50">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G50" t="str">
         <f ca="1">"INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES("&amp;A50&amp;",'"&amp;B50&amp;"','"&amp;Tabla9[[#This Row],[DESCRIPCION]]&amp;"','"&amp;Tabla9[[#This Row],[APODO]]&amp;"',"&amp;Tabla9[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla9[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(49,'ES MUY BUENO','ES MUY BUENO EL ARCHIVO, LO RECOMIENDO','Aroca Guijarro',24,5);</v>
+        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(49,'ES MUY BUENO','ES MUY BUENO EL ARCHIVO, LO RECOMIENDO','Crespo Gimenez',15,8);</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -11390,19 +11390,19 @@
       </c>
       <c r="D51" t="str">
         <f ca="1">VLOOKUP(Tabla9[[#This Row],[ID_USUARIO]],Tabla5[[ID_USUARIO ]:[APELLIDO]],3,0)</f>
-        <v>Cadenas</v>
+        <v>Carretero Plaza</v>
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="2"/>
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="F51">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G51" t="str">
         <f ca="1">"INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES("&amp;A51&amp;",'"&amp;B51&amp;"','"&amp;Tabla9[[#This Row],[DESCRIPCION]]&amp;"','"&amp;Tabla9[[#This Row],[APODO]]&amp;"',"&amp;Tabla9[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla9[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(50,'ES MUY BUENO','ES MUY BUENO EL ARCHIVO, LO RECOMIENDO','Cadenas',24,6);</v>
+        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(50,'ES MUY BUENO','ES MUY BUENO EL ARCHIVO, LO RECOMIENDO','Carretero Plaza',44,7);</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -11417,19 +11417,19 @@
       </c>
       <c r="D52" t="str">
         <f ca="1">VLOOKUP(Tabla9[[#This Row],[ID_USUARIO]],Tabla5[[ID_USUARIO ]:[APELLIDO]],3,0)</f>
-        <v>Cadenas</v>
+        <v>Crespo Gimenez</v>
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="2"/>
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="F52">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G52" t="str">
         <f ca="1">"INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES("&amp;A52&amp;",'"&amp;B52&amp;"','"&amp;Tabla9[[#This Row],[DESCRIPCION]]&amp;"','"&amp;Tabla9[[#This Row],[APODO]]&amp;"',"&amp;Tabla9[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla9[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(51,'ES MUY BUENO','ES MUY BUENO EL ARCHIVO, LO RECOMIENDO','Cadenas',31,6);</v>
+        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(51,'ES MUY BUENO','ES MUY BUENO EL ARCHIVO, LO RECOMIENDO','Crespo Gimenez',40,8);</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -11448,7 +11448,7 @@
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="2"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F53">
         <f t="shared" ca="1" si="3"/>
@@ -11456,7 +11456,7 @@
       </c>
       <c r="G53" t="str">
         <f ca="1">"INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES("&amp;A53&amp;",'"&amp;B53&amp;"','"&amp;Tabla9[[#This Row],[DESCRIPCION]]&amp;"','"&amp;Tabla9[[#This Row],[APODO]]&amp;"',"&amp;Tabla9[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla9[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(52,'ES MUY BUENO','ES MUY BUENO EL ARCHIVO, LO RECOMIENDO','Grau Benet',27,1);</v>
+        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(52,'ES MUY BUENO','ES MUY BUENO EL ARCHIVO, LO RECOMIENDO','Grau Benet',28,1);</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -11475,7 +11475,7 @@
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="F54">
         <f t="shared" ca="1" si="3"/>
@@ -11483,7 +11483,7 @@
       </c>
       <c r="G54" t="str">
         <f ca="1">"INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES("&amp;A54&amp;",'"&amp;B54&amp;"','"&amp;Tabla9[[#This Row],[DESCRIPCION]]&amp;"','"&amp;Tabla9[[#This Row],[APODO]]&amp;"',"&amp;Tabla9[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla9[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(53,'ES MUY BUENO','ES MUY BUENO EL ARCHIVO, LO RECOMIENDO','Mesa Manso',3,10);</v>
+        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(53,'ES MUY BUENO','ES MUY BUENO EL ARCHIVO, LO RECOMIENDO','Mesa Manso',15,10);</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -11498,19 +11498,19 @@
       </c>
       <c r="D55" t="str">
         <f ca="1">VLOOKUP(Tabla9[[#This Row],[ID_USUARIO]],Tabla5[[ID_USUARIO ]:[APELLIDO]],3,0)</f>
-        <v>Cadenas</v>
+        <v>Crespo Gimenez</v>
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="2"/>
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F55">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G55" t="str">
         <f ca="1">"INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES("&amp;A55&amp;",'"&amp;B55&amp;"','"&amp;Tabla9[[#This Row],[DESCRIPCION]]&amp;"','"&amp;Tabla9[[#This Row],[APODO]]&amp;"',"&amp;Tabla9[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla9[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(54,'ES MUY BUENO','ES MUY BUENO EL ARCHIVO, LO RECOMIENDO','Cadenas',14,6);</v>
+        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(54,'ES MUY BUENO','ES MUY BUENO EL ARCHIVO, LO RECOMIENDO','Crespo Gimenez',30,8);</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -11525,19 +11525,19 @@
       </c>
       <c r="D56" t="str">
         <f ca="1">VLOOKUP(Tabla9[[#This Row],[ID_USUARIO]],Tabla5[[ID_USUARIO ]:[APELLIDO]],3,0)</f>
-        <v>Mesa Manso</v>
+        <v>Benítez</v>
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="2"/>
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="F56">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G56" t="str">
         <f ca="1">"INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES("&amp;A56&amp;",'"&amp;B56&amp;"','"&amp;Tabla9[[#This Row],[DESCRIPCION]]&amp;"','"&amp;Tabla9[[#This Row],[APODO]]&amp;"',"&amp;Tabla9[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla9[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(55,'ES MUY BUENO','ES MUY BUENO EL ARCHIVO, LO RECOMIENDO','Mesa Manso',36,10);</v>
+        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(55,'ES MUY BUENO','ES MUY BUENO EL ARCHIVO, LO RECOMIENDO','Benítez',24,9);</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -11552,19 +11552,19 @@
       </c>
       <c r="D57" t="str">
         <f ca="1">VLOOKUP(Tabla9[[#This Row],[ID_USUARIO]],Tabla5[[ID_USUARIO ]:[APELLIDO]],3,0)</f>
-        <v>Carretero Plaza</v>
+        <v>Arteaga</v>
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="2"/>
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F57">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G57" t="str">
         <f ca="1">"INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES("&amp;A57&amp;",'"&amp;B57&amp;"','"&amp;Tabla9[[#This Row],[DESCRIPCION]]&amp;"','"&amp;Tabla9[[#This Row],[APODO]]&amp;"',"&amp;Tabla9[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla9[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(56,'ES MUY BUENO','ES MUY BUENO EL ARCHIVO, LO RECOMIENDO','Carretero Plaza',39,7);</v>
+        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(56,'ES MUY BUENO','ES MUY BUENO EL ARCHIVO, LO RECOMIENDO','Arteaga',30,3);</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -11579,19 +11579,19 @@
       </c>
       <c r="D58" t="str">
         <f ca="1">VLOOKUP(Tabla9[[#This Row],[ID_USUARIO]],Tabla5[[ID_USUARIO ]:[APELLIDO]],3,0)</f>
-        <v>Grau Benet</v>
+        <v>Crespo Gimenez</v>
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="2"/>
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="F58">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G58" t="str">
         <f ca="1">"INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES("&amp;A58&amp;",'"&amp;B58&amp;"','"&amp;Tabla9[[#This Row],[DESCRIPCION]]&amp;"','"&amp;Tabla9[[#This Row],[APODO]]&amp;"',"&amp;Tabla9[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla9[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(57,'ES MUY BUENO','ES MUY BUENO EL ARCHIVO, LO RECOMIENDO','Grau Benet',30,1);</v>
+        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(57,'ES MUY BUENO','ES MUY BUENO EL ARCHIVO, LO RECOMIENDO','Crespo Gimenez',47,8);</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -11606,19 +11606,19 @@
       </c>
       <c r="D59" t="str">
         <f ca="1">VLOOKUP(Tabla9[[#This Row],[ID_USUARIO]],Tabla5[[ID_USUARIO ]:[APELLIDO]],3,0)</f>
-        <v>Cadenas</v>
+        <v>Benítez</v>
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="2"/>
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F59">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G59" t="str">
         <f ca="1">"INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES("&amp;A59&amp;",'"&amp;B59&amp;"','"&amp;Tabla9[[#This Row],[DESCRIPCION]]&amp;"','"&amp;Tabla9[[#This Row],[APODO]]&amp;"',"&amp;Tabla9[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla9[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(58,'ES MUY BUENO','ES MUY BUENO EL ARCHIVO, LO RECOMIENDO','Cadenas',33,6);</v>
+        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(58,'ES MUY BUENO','ES MUY BUENO EL ARCHIVO, LO RECOMIENDO','Benítez',37,9);</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -11633,19 +11633,19 @@
       </c>
       <c r="D60" t="str">
         <f ca="1">VLOOKUP(Tabla9[[#This Row],[ID_USUARIO]],Tabla5[[ID_USUARIO ]:[APELLIDO]],3,0)</f>
-        <v>Samper</v>
+        <v>Crespo Gimenez</v>
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="2"/>
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="F60">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G60" t="str">
         <f ca="1">"INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES("&amp;A60&amp;",'"&amp;B60&amp;"','"&amp;Tabla9[[#This Row],[DESCRIPCION]]&amp;"','"&amp;Tabla9[[#This Row],[APODO]]&amp;"',"&amp;Tabla9[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla9[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(59,'MUY UTIL','SIN COMENTARIOS','Samper',37,2);</v>
+        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(59,'MUY UTIL','SIN COMENTARIOS','Crespo Gimenez',26,8);</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -11660,19 +11660,19 @@
       </c>
       <c r="D61" t="str">
         <f ca="1">VLOOKUP(Tabla9[[#This Row],[ID_USUARIO]],Tabla5[[ID_USUARIO ]:[APELLIDO]],3,0)</f>
-        <v>Aroca Guijarro</v>
+        <v>Bertrán Suárez</v>
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="2"/>
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="F61">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G61" t="str">
         <f ca="1">"INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES("&amp;A61&amp;",'"&amp;B61&amp;"','"&amp;Tabla9[[#This Row],[DESCRIPCION]]&amp;"','"&amp;Tabla9[[#This Row],[APODO]]&amp;"',"&amp;Tabla9[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla9[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(60,'MUY UTIL','SIN COMENTARIOS','Aroca Guijarro',49,5);</v>
+        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(60,'MUY UTIL','SIN COMENTARIOS','Bertrán Suárez',24,4);</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -11687,19 +11687,19 @@
       </c>
       <c r="D62" t="str">
         <f ca="1">VLOOKUP(Tabla9[[#This Row],[ID_USUARIO]],Tabla5[[ID_USUARIO ]:[APELLIDO]],3,0)</f>
-        <v>Cadenas</v>
+        <v>Arteaga</v>
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="2"/>
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="F62">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G62" t="str">
         <f ca="1">"INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES("&amp;A62&amp;",'"&amp;B62&amp;"','"&amp;Tabla9[[#This Row],[DESCRIPCION]]&amp;"','"&amp;Tabla9[[#This Row],[APODO]]&amp;"',"&amp;Tabla9[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla9[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(61,'MUY UTIL','SIN COMENTARIOS','Cadenas',43,6);</v>
+        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(61,'MUY UTIL','SIN COMENTARIOS','Arteaga',21,3);</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -11714,19 +11714,19 @@
       </c>
       <c r="D63" t="str">
         <f ca="1">VLOOKUP(Tabla9[[#This Row],[ID_USUARIO]],Tabla5[[ID_USUARIO ]:[APELLIDO]],3,0)</f>
-        <v>Samper</v>
+        <v>Carretero Plaza</v>
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="2"/>
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="F63">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G63" t="str">
         <f ca="1">"INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES("&amp;A63&amp;",'"&amp;B63&amp;"','"&amp;Tabla9[[#This Row],[DESCRIPCION]]&amp;"','"&amp;Tabla9[[#This Row],[APODO]]&amp;"',"&amp;Tabla9[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla9[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(62,'MUY UTIL','SIN COMENTARIOS','Samper',37,2);</v>
+        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(62,'MUY UTIL','SIN COMENTARIOS','Carretero Plaza',50,7);</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -11741,19 +11741,19 @@
       </c>
       <c r="D64" t="str">
         <f ca="1">VLOOKUP(Tabla9[[#This Row],[ID_USUARIO]],Tabla5[[ID_USUARIO ]:[APELLIDO]],3,0)</f>
-        <v>Mesa Manso</v>
+        <v>Aroca Guijarro</v>
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="2"/>
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="F64">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G64" t="str">
         <f ca="1">"INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES("&amp;A64&amp;",'"&amp;B64&amp;"','"&amp;Tabla9[[#This Row],[DESCRIPCION]]&amp;"','"&amp;Tabla9[[#This Row],[APODO]]&amp;"',"&amp;Tabla9[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla9[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(63,'MUY UTIL','SIN COMENTARIOS','Mesa Manso',42,10);</v>
+        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(63,'MUY UTIL','SIN COMENTARIOS','Aroca Guijarro',16,5);</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -11768,19 +11768,19 @@
       </c>
       <c r="D65" t="str">
         <f ca="1">VLOOKUP(Tabla9[[#This Row],[ID_USUARIO]],Tabla5[[ID_USUARIO ]:[APELLIDO]],3,0)</f>
-        <v>Mesa Manso</v>
+        <v>Crespo Gimenez</v>
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="2"/>
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="F65">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G65" t="str">
         <f ca="1">"INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES("&amp;A65&amp;",'"&amp;B65&amp;"','"&amp;Tabla9[[#This Row],[DESCRIPCION]]&amp;"','"&amp;Tabla9[[#This Row],[APODO]]&amp;"',"&amp;Tabla9[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla9[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(64,'MUY UTIL','SIN COMENTARIOS','Mesa Manso',36,10);</v>
+        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(64,'MUY UTIL','SIN COMENTARIOS','Crespo Gimenez',9,8);</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -11795,7 +11795,7 @@
       </c>
       <c r="D66" t="str">
         <f ca="1">VLOOKUP(Tabla9[[#This Row],[ID_USUARIO]],Tabla5[[ID_USUARIO ]:[APELLIDO]],3,0)</f>
-        <v>Cadenas</v>
+        <v>Samper</v>
       </c>
       <c r="E66">
         <f t="shared" ref="E66:E101" ca="1" si="4">RANDBETWEEN(1,50)</f>
@@ -11803,11 +11803,11 @@
       </c>
       <c r="F66">
         <f t="shared" ref="F66:F101" ca="1" si="5">RANDBETWEEN(1,10)</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G66" t="str">
         <f ca="1">"INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES("&amp;A66&amp;",'"&amp;B66&amp;"','"&amp;Tabla9[[#This Row],[DESCRIPCION]]&amp;"','"&amp;Tabla9[[#This Row],[APODO]]&amp;"',"&amp;Tabla9[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla9[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(65,'MUY UTIL','SIN COMENTARIOS','Cadenas',25,6);</v>
+        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(65,'MUY UTIL','SIN COMENTARIOS','Samper',25,2);</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -11822,19 +11822,19 @@
       </c>
       <c r="D67" t="str">
         <f ca="1">VLOOKUP(Tabla9[[#This Row],[ID_USUARIO]],Tabla5[[ID_USUARIO ]:[APELLIDO]],3,0)</f>
-        <v>Carretero Plaza</v>
+        <v>Mesa Manso</v>
       </c>
       <c r="E67">
         <f t="shared" ca="1" si="4"/>
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="F67">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G67" t="str">
         <f ca="1">"INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES("&amp;A67&amp;",'"&amp;B67&amp;"','"&amp;Tabla9[[#This Row],[DESCRIPCION]]&amp;"','"&amp;Tabla9[[#This Row],[APODO]]&amp;"',"&amp;Tabla9[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla9[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(66,'MUY UTIL','SIN COMENTARIOS','Carretero Plaza',41,7);</v>
+        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(66,'MUY UTIL','SIN COMENTARIOS','Mesa Manso',9,10);</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -11849,19 +11849,19 @@
       </c>
       <c r="D68" t="str">
         <f ca="1">VLOOKUP(Tabla9[[#This Row],[ID_USUARIO]],Tabla5[[ID_USUARIO ]:[APELLIDO]],3,0)</f>
-        <v>Samper</v>
+        <v>Grau Benet</v>
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="4"/>
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F68">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G68" t="str">
         <f ca="1">"INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES("&amp;A68&amp;",'"&amp;B68&amp;"','"&amp;Tabla9[[#This Row],[DESCRIPCION]]&amp;"','"&amp;Tabla9[[#This Row],[APODO]]&amp;"',"&amp;Tabla9[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla9[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(67,'MUY UTIL','SIN COMENTARIOS','Samper',35,2);</v>
+        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(67,'MUY UTIL','SIN COMENTARIOS','Grau Benet',38,1);</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -11880,7 +11880,7 @@
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="F69">
         <f t="shared" ca="1" si="5"/>
@@ -11888,7 +11888,7 @@
       </c>
       <c r="G69" t="str">
         <f ca="1">"INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES("&amp;A69&amp;",'"&amp;B69&amp;"','"&amp;Tabla9[[#This Row],[DESCRIPCION]]&amp;"','"&amp;Tabla9[[#This Row],[APODO]]&amp;"',"&amp;Tabla9[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla9[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(68,'MUY UTIL','SIN COMENTARIOS','Bertrán Suárez',2,4);</v>
+        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(68,'MUY UTIL','SIN COMENTARIOS','Bertrán Suárez',37,4);</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -11903,19 +11903,19 @@
       </c>
       <c r="D70" t="str">
         <f ca="1">VLOOKUP(Tabla9[[#This Row],[ID_USUARIO]],Tabla5[[ID_USUARIO ]:[APELLIDO]],3,0)</f>
-        <v>Arteaga</v>
+        <v>Carretero Plaza</v>
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="4"/>
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="F70">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G70" t="str">
         <f ca="1">"INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES("&amp;A70&amp;",'"&amp;B70&amp;"','"&amp;Tabla9[[#This Row],[DESCRIPCION]]&amp;"','"&amp;Tabla9[[#This Row],[APODO]]&amp;"',"&amp;Tabla9[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla9[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(69,'MUY UTIL','SIN COMENTARIOS','Arteaga',49,3);</v>
+        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(69,'MUY UTIL','SIN COMENTARIOS','Carretero Plaza',17,7);</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -11930,19 +11930,19 @@
       </c>
       <c r="D71" t="str">
         <f ca="1">VLOOKUP(Tabla9[[#This Row],[ID_USUARIO]],Tabla5[[ID_USUARIO ]:[APELLIDO]],3,0)</f>
-        <v>Crespo Gimenez</v>
+        <v>Aroca Guijarro</v>
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="4"/>
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="F71">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G71" t="str">
         <f ca="1">"INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES("&amp;A71&amp;",'"&amp;B71&amp;"','"&amp;Tabla9[[#This Row],[DESCRIPCION]]&amp;"','"&amp;Tabla9[[#This Row],[APODO]]&amp;"',"&amp;Tabla9[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla9[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(70,'MUY UTIL','SIN COMENTARIOS','Crespo Gimenez',11,8);</v>
+        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(70,'MUY UTIL','SIN COMENTARIOS','Aroca Guijarro',49,5);</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -11957,19 +11957,19 @@
       </c>
       <c r="D72" t="str">
         <f ca="1">VLOOKUP(Tabla9[[#This Row],[ID_USUARIO]],Tabla5[[ID_USUARIO ]:[APELLIDO]],3,0)</f>
-        <v>Carretero Plaza</v>
+        <v>Bertrán Suárez</v>
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="4"/>
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="F72">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G72" t="str">
         <f ca="1">"INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES("&amp;A72&amp;",'"&amp;B72&amp;"','"&amp;Tabla9[[#This Row],[DESCRIPCION]]&amp;"','"&amp;Tabla9[[#This Row],[APODO]]&amp;"',"&amp;Tabla9[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla9[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(71,'MUY UTIL','SIN COMENTARIOS','Carretero Plaza',15,7);</v>
+        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(71,'MUY UTIL','SIN COMENTARIOS','Bertrán Suárez',43,4);</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -11984,19 +11984,19 @@
       </c>
       <c r="D73" t="str">
         <f ca="1">VLOOKUP(Tabla9[[#This Row],[ID_USUARIO]],Tabla5[[ID_USUARIO ]:[APELLIDO]],3,0)</f>
-        <v>Carretero Plaza</v>
+        <v>Grau Benet</v>
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="4"/>
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="F73">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G73" t="str">
         <f ca="1">"INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES("&amp;A73&amp;",'"&amp;B73&amp;"','"&amp;Tabla9[[#This Row],[DESCRIPCION]]&amp;"','"&amp;Tabla9[[#This Row],[APODO]]&amp;"',"&amp;Tabla9[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla9[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(72,'LO MEJOR','SIN COMENTARIOS','Carretero Plaza',40,7);</v>
+        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(72,'LO MEJOR','SIN COMENTARIOS','Grau Benet',3,1);</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -12011,19 +12011,19 @@
       </c>
       <c r="D74" t="str">
         <f ca="1">VLOOKUP(Tabla9[[#This Row],[ID_USUARIO]],Tabla5[[ID_USUARIO ]:[APELLIDO]],3,0)</f>
-        <v>Benítez</v>
+        <v>Crespo Gimenez</v>
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="4"/>
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F74">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G74" t="str">
         <f ca="1">"INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES("&amp;A74&amp;",'"&amp;B74&amp;"','"&amp;Tabla9[[#This Row],[DESCRIPCION]]&amp;"','"&amp;Tabla9[[#This Row],[APODO]]&amp;"',"&amp;Tabla9[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla9[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(73,'LO MEJOR','SIN COMENTARIOS','Benítez',23,9);</v>
+        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(73,'LO MEJOR','SIN COMENTARIOS','Crespo Gimenez',35,8);</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -12038,19 +12038,19 @@
       </c>
       <c r="D75" t="str">
         <f ca="1">VLOOKUP(Tabla9[[#This Row],[ID_USUARIO]],Tabla5[[ID_USUARIO ]:[APELLIDO]],3,0)</f>
-        <v>Arteaga</v>
+        <v>Bertrán Suárez</v>
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="4"/>
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="F75">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G75" t="str">
         <f ca="1">"INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES("&amp;A75&amp;",'"&amp;B75&amp;"','"&amp;Tabla9[[#This Row],[DESCRIPCION]]&amp;"','"&amp;Tabla9[[#This Row],[APODO]]&amp;"',"&amp;Tabla9[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla9[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(74,'LO MEJOR','SIN COMENTARIOS','Arteaga',12,3);</v>
+        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(74,'LO MEJOR','SIN COMENTARIOS','Bertrán Suárez',31,4);</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -12069,7 +12069,7 @@
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="F76">
         <f t="shared" ca="1" si="5"/>
@@ -12077,7 +12077,7 @@
       </c>
       <c r="G76" t="str">
         <f ca="1">"INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES("&amp;A76&amp;",'"&amp;B76&amp;"','"&amp;Tabla9[[#This Row],[DESCRIPCION]]&amp;"','"&amp;Tabla9[[#This Row],[APODO]]&amp;"',"&amp;Tabla9[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla9[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(75,'LO MEJOR','SIN COMENTARIOS','Grau Benet',2,1);</v>
+        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(75,'LO MEJOR','SIN COMENTARIOS','Grau Benet',45,1);</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -12092,19 +12092,19 @@
       </c>
       <c r="D77" t="str">
         <f ca="1">VLOOKUP(Tabla9[[#This Row],[ID_USUARIO]],Tabla5[[ID_USUARIO ]:[APELLIDO]],3,0)</f>
-        <v>Aroca Guijarro</v>
+        <v>Samper</v>
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="4"/>
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="F77">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G77" t="str">
         <f ca="1">"INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES("&amp;A77&amp;",'"&amp;B77&amp;"','"&amp;Tabla9[[#This Row],[DESCRIPCION]]&amp;"','"&amp;Tabla9[[#This Row],[APODO]]&amp;"',"&amp;Tabla9[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla9[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(76,'LO MEJOR','SIN COMENTARIOS','Aroca Guijarro',34,5);</v>
+        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(76,'LO MEJOR','SIN COMENTARIOS','Samper',10,2);</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -12119,19 +12119,19 @@
       </c>
       <c r="D78" t="str">
         <f ca="1">VLOOKUP(Tabla9[[#This Row],[ID_USUARIO]],Tabla5[[ID_USUARIO ]:[APELLIDO]],3,0)</f>
-        <v>Carretero Plaza</v>
+        <v>Arteaga</v>
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="F78">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G78" t="str">
         <f ca="1">"INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES("&amp;A78&amp;",'"&amp;B78&amp;"','"&amp;Tabla9[[#This Row],[DESCRIPCION]]&amp;"','"&amp;Tabla9[[#This Row],[APODO]]&amp;"',"&amp;Tabla9[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla9[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(77,'LO MEJOR','SIN COMENTARIOS','Carretero Plaza',8,7);</v>
+        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(77,'LO MEJOR','SIN COMENTARIOS','Arteaga',25,3);</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -12146,19 +12146,19 @@
       </c>
       <c r="D79" t="str">
         <f ca="1">VLOOKUP(Tabla9[[#This Row],[ID_USUARIO]],Tabla5[[ID_USUARIO ]:[APELLIDO]],3,0)</f>
-        <v>Cadenas</v>
+        <v>Mesa Manso</v>
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="4"/>
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="F79">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G79" t="str">
         <f ca="1">"INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES("&amp;A79&amp;",'"&amp;B79&amp;"','"&amp;Tabla9[[#This Row],[DESCRIPCION]]&amp;"','"&amp;Tabla9[[#This Row],[APODO]]&amp;"',"&amp;Tabla9[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla9[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(78,'LO MEJOR','SIN COMENTARIOS','Cadenas',49,6);</v>
+        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(78,'LO MEJOR','SIN COMENTARIOS','Mesa Manso',21,10);</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -12177,7 +12177,7 @@
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="4"/>
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F80">
         <f t="shared" ca="1" si="5"/>
@@ -12185,7 +12185,7 @@
       </c>
       <c r="G80" t="str">
         <f ca="1">"INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES("&amp;A80&amp;",'"&amp;B80&amp;"','"&amp;Tabla9[[#This Row],[DESCRIPCION]]&amp;"','"&amp;Tabla9[[#This Row],[APODO]]&amp;"',"&amp;Tabla9[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla9[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(79,'LO MEJOR','SIN COMENTARIOS','Mesa Manso',29,10);</v>
+        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(79,'LO MEJOR','SIN COMENTARIOS','Mesa Manso',18,10);</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -12200,19 +12200,19 @@
       </c>
       <c r="D81" t="str">
         <f ca="1">VLOOKUP(Tabla9[[#This Row],[ID_USUARIO]],Tabla5[[ID_USUARIO ]:[APELLIDO]],3,0)</f>
-        <v>Mesa Manso</v>
+        <v>Samper</v>
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="4"/>
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="F81">
         <f t="shared" ca="1" si="5"/>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G81" t="str">
         <f ca="1">"INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES("&amp;A81&amp;",'"&amp;B81&amp;"','"&amp;Tabla9[[#This Row],[DESCRIPCION]]&amp;"','"&amp;Tabla9[[#This Row],[APODO]]&amp;"',"&amp;Tabla9[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla9[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(80,'LO MEJOR','SIN COMENTARIOS','Mesa Manso',39,10);</v>
+        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(80,'LO MEJOR','SIN COMENTARIOS','Samper',22,2);</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -12227,19 +12227,19 @@
       </c>
       <c r="D82" t="str">
         <f ca="1">VLOOKUP(Tabla9[[#This Row],[ID_USUARIO]],Tabla5[[ID_USUARIO ]:[APELLIDO]],3,0)</f>
-        <v>Grau Benet</v>
+        <v>Arteaga</v>
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="F82">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G82" t="str">
         <f ca="1">"INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES("&amp;A82&amp;",'"&amp;B82&amp;"','"&amp;Tabla9[[#This Row],[DESCRIPCION]]&amp;"','"&amp;Tabla9[[#This Row],[APODO]]&amp;"',"&amp;Tabla9[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla9[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(81,'LO MEJOR','SIN COMENTARIOS','Grau Benet',10,1);</v>
+        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(81,'LO MEJOR','SIN COMENTARIOS','Arteaga',28,3);</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -12254,19 +12254,19 @@
       </c>
       <c r="D83" t="str">
         <f ca="1">VLOOKUP(Tabla9[[#This Row],[ID_USUARIO]],Tabla5[[ID_USUARIO ]:[APELLIDO]],3,0)</f>
-        <v>Bertrán Suárez</v>
+        <v>Mesa Manso</v>
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="4"/>
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="F83">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G83" t="str">
         <f ca="1">"INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES("&amp;A83&amp;",'"&amp;B83&amp;"','"&amp;Tabla9[[#This Row],[DESCRIPCION]]&amp;"','"&amp;Tabla9[[#This Row],[APODO]]&amp;"',"&amp;Tabla9[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla9[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(82,'LO MEJOR','SIN COMENTARIOS','Bertrán Suárez',29,4);</v>
+        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(82,'LO MEJOR','SIN COMENTARIOS','Mesa Manso',44,10);</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -12281,19 +12281,19 @@
       </c>
       <c r="D84" t="str">
         <f ca="1">VLOOKUP(Tabla9[[#This Row],[ID_USUARIO]],Tabla5[[ID_USUARIO ]:[APELLIDO]],3,0)</f>
-        <v>Crespo Gimenez</v>
+        <v>Samper</v>
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="4"/>
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="F84">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G84" t="str">
         <f ca="1">"INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES("&amp;A84&amp;",'"&amp;B84&amp;"','"&amp;Tabla9[[#This Row],[DESCRIPCION]]&amp;"','"&amp;Tabla9[[#This Row],[APODO]]&amp;"',"&amp;Tabla9[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla9[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(83,'LO MEJOR','SIN COMENTARIOS','Crespo Gimenez',28,8);</v>
+        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(83,'LO MEJOR','SIN COMENTARIOS','Samper',46,2);</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -12308,19 +12308,19 @@
       </c>
       <c r="D85" t="str">
         <f ca="1">VLOOKUP(Tabla9[[#This Row],[ID_USUARIO]],Tabla5[[ID_USUARIO ]:[APELLIDO]],3,0)</f>
-        <v>Carretero Plaza</v>
+        <v>Arteaga</v>
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="4"/>
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F85">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G85" t="str">
         <f ca="1">"INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES("&amp;A85&amp;",'"&amp;B85&amp;"','"&amp;Tabla9[[#This Row],[DESCRIPCION]]&amp;"','"&amp;Tabla9[[#This Row],[APODO]]&amp;"',"&amp;Tabla9[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla9[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(84,'LO MEJOR','SIN COMENTARIOS','Carretero Plaza',24,7);</v>
+        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(84,'LO MEJOR','SIN COMENTARIOS','Arteaga',30,3);</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -12335,19 +12335,19 @@
       </c>
       <c r="D86" t="str">
         <f ca="1">VLOOKUP(Tabla9[[#This Row],[ID_USUARIO]],Tabla5[[ID_USUARIO ]:[APELLIDO]],3,0)</f>
-        <v>Carretero Plaza</v>
+        <v>Arteaga</v>
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="4"/>
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="F86">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G86" t="str">
         <f ca="1">"INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES("&amp;A86&amp;",'"&amp;B86&amp;"','"&amp;Tabla9[[#This Row],[DESCRIPCION]]&amp;"','"&amp;Tabla9[[#This Row],[APODO]]&amp;"',"&amp;Tabla9[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla9[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(85,'LO MEJOR','SIN COMENTARIOS','Carretero Plaza',17,7);</v>
+        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(85,'LO MEJOR','SIN COMENTARIOS','Arteaga',2,3);</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -12362,19 +12362,19 @@
       </c>
       <c r="D87" t="str">
         <f ca="1">VLOOKUP(Tabla9[[#This Row],[ID_USUARIO]],Tabla5[[ID_USUARIO ]:[APELLIDO]],3,0)</f>
-        <v>Benítez</v>
+        <v>Grau Benet</v>
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="4"/>
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F87">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G87" t="str">
         <f ca="1">"INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES("&amp;A87&amp;",'"&amp;B87&amp;"','"&amp;Tabla9[[#This Row],[DESCRIPCION]]&amp;"','"&amp;Tabla9[[#This Row],[APODO]]&amp;"',"&amp;Tabla9[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla9[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(86,'LO MEJOR','SIN COMENTARIOS','Benítez',21,9);</v>
+        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(86,'LO MEJOR','SIN COMENTARIOS','Grau Benet',29,1);</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -12389,19 +12389,19 @@
       </c>
       <c r="D88" t="str">
         <f ca="1">VLOOKUP(Tabla9[[#This Row],[ID_USUARIO]],Tabla5[[ID_USUARIO ]:[APELLIDO]],3,0)</f>
-        <v>Aroca Guijarro</v>
+        <v>Bertrán Suárez</v>
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F88">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G88" t="str">
         <f ca="1">"INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES("&amp;A88&amp;",'"&amp;B88&amp;"','"&amp;Tabla9[[#This Row],[DESCRIPCION]]&amp;"','"&amp;Tabla9[[#This Row],[APODO]]&amp;"',"&amp;Tabla9[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla9[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(87,'LO MEJOR','SIN COMENTARIOS','Aroca Guijarro',1,5);</v>
+        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(87,'LO MEJOR','SIN COMENTARIOS','Bertrán Suárez',13,4);</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -12416,19 +12416,19 @@
       </c>
       <c r="D89" t="str">
         <f ca="1">VLOOKUP(Tabla9[[#This Row],[ID_USUARIO]],Tabla5[[ID_USUARIO ]:[APELLIDO]],3,0)</f>
-        <v>Crespo Gimenez</v>
+        <v>Aroca Guijarro</v>
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="4"/>
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="F89">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G89" t="str">
         <f ca="1">"INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES("&amp;A89&amp;",'"&amp;B89&amp;"','"&amp;Tabla9[[#This Row],[DESCRIPCION]]&amp;"','"&amp;Tabla9[[#This Row],[APODO]]&amp;"',"&amp;Tabla9[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla9[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(88,'LO MEJOR','SIN COMENTARIOS','Crespo Gimenez',46,8);</v>
+        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(88,'LO MEJOR','SIN COMENTARIOS','Aroca Guijarro',24,5);</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -12443,19 +12443,19 @@
       </c>
       <c r="D90" t="str">
         <f ca="1">VLOOKUP(Tabla9[[#This Row],[ID_USUARIO]],Tabla5[[ID_USUARIO ]:[APELLIDO]],3,0)</f>
-        <v>Benítez</v>
+        <v>Crespo Gimenez</v>
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="F90">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G90" t="str">
         <f ca="1">"INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES("&amp;A90&amp;",'"&amp;B90&amp;"','"&amp;Tabla9[[#This Row],[DESCRIPCION]]&amp;"','"&amp;Tabla9[[#This Row],[APODO]]&amp;"',"&amp;Tabla9[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla9[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(89,'LO MEJOR','SIN COMENTARIOS','Benítez',8,9);</v>
+        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(89,'LO MEJOR','SIN COMENTARIOS','Crespo Gimenez',40,8);</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -12470,19 +12470,19 @@
       </c>
       <c r="D91" t="str">
         <f ca="1">VLOOKUP(Tabla9[[#This Row],[ID_USUARIO]],Tabla5[[ID_USUARIO ]:[APELLIDO]],3,0)</f>
-        <v>Benítez</v>
+        <v>Mesa Manso</v>
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="4"/>
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="F91">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G91" t="str">
         <f ca="1">"INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES("&amp;A91&amp;",'"&amp;B91&amp;"','"&amp;Tabla9[[#This Row],[DESCRIPCION]]&amp;"','"&amp;Tabla9[[#This Row],[APODO]]&amp;"',"&amp;Tabla9[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla9[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(90,'LO MEJOR','SIN COMENTARIOS','Benítez',46,9);</v>
+        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(90,'LO MEJOR','SIN COMENTARIOS','Mesa Manso',22,10);</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -12497,19 +12497,19 @@
       </c>
       <c r="D92" t="str">
         <f ca="1">VLOOKUP(Tabla9[[#This Row],[ID_USUARIO]],Tabla5[[ID_USUARIO ]:[APELLIDO]],3,0)</f>
-        <v>Aroca Guijarro</v>
+        <v>Crespo Gimenez</v>
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="4"/>
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="F92">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G92" t="str">
         <f ca="1">"INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES("&amp;A92&amp;",'"&amp;B92&amp;"','"&amp;Tabla9[[#This Row],[DESCRIPCION]]&amp;"','"&amp;Tabla9[[#This Row],[APODO]]&amp;"',"&amp;Tabla9[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla9[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(91,'LO MEJOR','SIN COMENTARIOS','Aroca Guijarro',31,5);</v>
+        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(91,'LO MEJOR','SIN COMENTARIOS','Crespo Gimenez',12,8);</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -12524,19 +12524,19 @@
       </c>
       <c r="D93" t="str">
         <f ca="1">VLOOKUP(Tabla9[[#This Row],[ID_USUARIO]],Tabla5[[ID_USUARIO ]:[APELLIDO]],3,0)</f>
-        <v>Grau Benet</v>
+        <v>Samper</v>
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F93">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G93" t="str">
         <f ca="1">"INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES("&amp;A93&amp;",'"&amp;B93&amp;"','"&amp;Tabla9[[#This Row],[DESCRIPCION]]&amp;"','"&amp;Tabla9[[#This Row],[APODO]]&amp;"',"&amp;Tabla9[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla9[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(92,'LO MEJOR','SIN COMENTARIOS','Grau Benet',4,1);</v>
+        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(92,'LO MEJOR','SIN COMENTARIOS','Samper',11,2);</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -12551,19 +12551,19 @@
       </c>
       <c r="D94" t="str">
         <f ca="1">VLOOKUP(Tabla9[[#This Row],[ID_USUARIO]],Tabla5[[ID_USUARIO ]:[APELLIDO]],3,0)</f>
-        <v>Arteaga</v>
+        <v>Mesa Manso</v>
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="4"/>
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F94">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G94" t="str">
         <f ca="1">"INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES("&amp;A94&amp;",'"&amp;B94&amp;"','"&amp;Tabla9[[#This Row],[DESCRIPCION]]&amp;"','"&amp;Tabla9[[#This Row],[APODO]]&amp;"',"&amp;Tabla9[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla9[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(93,'LO MEJOR','SIN COMENTARIOS','Arteaga',30,3);</v>
+        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(93,'LO MEJOR','SIN COMENTARIOS','Mesa Manso',26,10);</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -12582,7 +12582,7 @@
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="F95">
         <f t="shared" ca="1" si="5"/>
@@ -12590,7 +12590,7 @@
       </c>
       <c r="G95" t="str">
         <f ca="1">"INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES("&amp;A95&amp;",'"&amp;B95&amp;"','"&amp;Tabla9[[#This Row],[DESCRIPCION]]&amp;"','"&amp;Tabla9[[#This Row],[APODO]]&amp;"',"&amp;Tabla9[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla9[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(94,'LO MEJOR','SIN COMENTARIOS','Arteaga',2,3);</v>
+        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(94,'LO MEJOR','SIN COMENTARIOS','Arteaga',37,3);</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -12605,19 +12605,19 @@
       </c>
       <c r="D96" t="str">
         <f ca="1">VLOOKUP(Tabla9[[#This Row],[ID_USUARIO]],Tabla5[[ID_USUARIO ]:[APELLIDO]],3,0)</f>
-        <v>Bertrán Suárez</v>
+        <v>Cadenas</v>
       </c>
       <c r="E96">
         <f t="shared" ca="1" si="4"/>
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="F96">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G96" t="str">
         <f ca="1">"INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES("&amp;A96&amp;",'"&amp;B96&amp;"','"&amp;Tabla9[[#This Row],[DESCRIPCION]]&amp;"','"&amp;Tabla9[[#This Row],[APODO]]&amp;"',"&amp;Tabla9[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla9[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(95,'LO MEJOR','SIN COMENTARIOS','Bertrán Suárez',36,4);</v>
+        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(95,'LO MEJOR','SIN COMENTARIOS','Cadenas',50,6);</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -12632,19 +12632,19 @@
       </c>
       <c r="D97" t="str">
         <f ca="1">VLOOKUP(Tabla9[[#This Row],[ID_USUARIO]],Tabla5[[ID_USUARIO ]:[APELLIDO]],3,0)</f>
-        <v>Grau Benet</v>
+        <v>Benítez</v>
       </c>
       <c r="E97">
         <f t="shared" ca="1" si="4"/>
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F97">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G97" t="str">
         <f ca="1">"INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES("&amp;A97&amp;",'"&amp;B97&amp;"','"&amp;Tabla9[[#This Row],[DESCRIPCION]]&amp;"','"&amp;Tabla9[[#This Row],[APODO]]&amp;"',"&amp;Tabla9[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla9[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(96,'LO MEJOR','SIN COMENTARIOS','Grau Benet',41,1);</v>
+        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(96,'LO MEJOR','SIN COMENTARIOS','Benítez',44,9);</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -12659,19 +12659,19 @@
       </c>
       <c r="D98" t="str">
         <f ca="1">VLOOKUP(Tabla9[[#This Row],[ID_USUARIO]],Tabla5[[ID_USUARIO ]:[APELLIDO]],3,0)</f>
-        <v>Samper</v>
+        <v>Arteaga</v>
       </c>
       <c r="E98">
         <f t="shared" ca="1" si="4"/>
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F98">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G98" t="str">
         <f ca="1">"INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES("&amp;A98&amp;",'"&amp;B98&amp;"','"&amp;Tabla9[[#This Row],[DESCRIPCION]]&amp;"','"&amp;Tabla9[[#This Row],[APODO]]&amp;"',"&amp;Tabla9[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla9[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(97,'NO ME GUSTO','NO ME GUSTO','Samper',40,2);</v>
+        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(97,'NO ME GUSTO','NO ME GUSTO','Arteaga',35,3);</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -12686,19 +12686,19 @@
       </c>
       <c r="D99" t="str">
         <f ca="1">VLOOKUP(Tabla9[[#This Row],[ID_USUARIO]],Tabla5[[ID_USUARIO ]:[APELLIDO]],3,0)</f>
-        <v>Aroca Guijarro</v>
+        <v>Grau Benet</v>
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="F99">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G99" t="str">
         <f ca="1">"INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES("&amp;A99&amp;",'"&amp;B99&amp;"','"&amp;Tabla9[[#This Row],[DESCRIPCION]]&amp;"','"&amp;Tabla9[[#This Row],[APODO]]&amp;"',"&amp;Tabla9[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla9[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(98,'NO ME GUSTO','NO ME GUSTO','Aroca Guijarro',2,5);</v>
+        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(98,'NO ME GUSTO','NO ME GUSTO','Grau Benet',33,1);</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -12713,19 +12713,19 @@
       </c>
       <c r="D100" t="str">
         <f ca="1">VLOOKUP(Tabla9[[#This Row],[ID_USUARIO]],Tabla5[[ID_USUARIO ]:[APELLIDO]],3,0)</f>
-        <v>Mesa Manso</v>
+        <v>Cadenas</v>
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="4"/>
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="F100">
         <f t="shared" ca="1" si="5"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G100" t="str">
         <f ca="1">"INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES("&amp;A100&amp;",'"&amp;B100&amp;"','"&amp;Tabla9[[#This Row],[DESCRIPCION]]&amp;"','"&amp;Tabla9[[#This Row],[APODO]]&amp;"',"&amp;Tabla9[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla9[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(99,'NO ME GUSTO','NO ME GUSTO','Mesa Manso',20,10);</v>
+        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(99,'NO ME GUSTO','NO ME GUSTO','Cadenas',45,6);</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -12740,19 +12740,19 @@
       </c>
       <c r="D101" t="str">
         <f ca="1">VLOOKUP(Tabla9[[#This Row],[ID_USUARIO]],Tabla5[[ID_USUARIO ]:[APELLIDO]],3,0)</f>
-        <v>Arteaga</v>
+        <v>Mesa Manso</v>
       </c>
       <c r="E101">
         <f t="shared" ca="1" si="4"/>
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="F101">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G101" t="str">
         <f ca="1">"INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES("&amp;A101&amp;",'"&amp;B101&amp;"','"&amp;Tabla9[[#This Row],[DESCRIPCION]]&amp;"','"&amp;Tabla9[[#This Row],[APODO]]&amp;"',"&amp;Tabla9[[#This Row],[ID_CONTENIDO]]&amp;","&amp;Tabla9[[#This Row],[ID_USUARIO]]&amp;");"</f>
-        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(100,'NO ME GUSTO','NO ME GUSTO','Arteaga',39,3);</v>
+        <v>INSERT COMENTARIO(ID_COMENTARIO, TITULO, DESCRIPCION, APODO, ID_CONTENIDO, ID_USUARIO) VALUES(100,'NO ME GUSTO','NO ME GUSTO','Mesa Manso',18,10);</v>
       </c>
     </row>
   </sheetData>
